--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C9397D-6DE3-45F4-A6B6-F9FEF8844190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF3D2F-5CED-4560-AE6B-E6DE0976586E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15555" yWindow="4890" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="4080" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -209,11 +209,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -226,6 +226,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -540,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F187" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2010,6 +2011,1461 @@
       </c>
       <c r="E97" s="2"/>
     </row>
+    <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>410000</v>
+      </c>
+      <c r="B99" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C99" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>410010</v>
+      </c>
+      <c r="B100" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C100" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>410020</v>
+      </c>
+      <c r="B101" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C101" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D101" s="5">
+        <v>2</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>410030</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C102" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>410040</v>
+      </c>
+      <c r="B103" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C103" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D103" s="5">
+        <v>6</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>410041</v>
+      </c>
+      <c r="B104" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C104" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D104" s="5">
+        <v>2</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>410050</v>
+      </c>
+      <c r="B105" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C105" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>410051</v>
+      </c>
+      <c r="B106" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C106" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D106" s="5">
+        <v>2</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>411000</v>
+      </c>
+      <c r="B107" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C107" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>411010</v>
+      </c>
+      <c r="B108" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C108" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>411020</v>
+      </c>
+      <c r="B109" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C109" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D109" s="5">
+        <v>2</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>411030</v>
+      </c>
+      <c r="B110" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C110" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>411040</v>
+      </c>
+      <c r="B111" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C111" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D111" s="5">
+        <v>6</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>411041</v>
+      </c>
+      <c r="B112" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C112" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D112" s="5">
+        <v>2</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>411050</v>
+      </c>
+      <c r="B113" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C113" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>411051</v>
+      </c>
+      <c r="B114" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C114" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D114" s="5">
+        <v>2</v>
+      </c>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>412000</v>
+      </c>
+      <c r="B115" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C115" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>412010</v>
+      </c>
+      <c r="B116" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C116" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>412020</v>
+      </c>
+      <c r="B117" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C117" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>412030</v>
+      </c>
+      <c r="B118" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C118" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>412040</v>
+      </c>
+      <c r="B119" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C119" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D119" s="5">
+        <v>6</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>412041</v>
+      </c>
+      <c r="B120" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C120" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D120" s="5">
+        <v>2</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>412050</v>
+      </c>
+      <c r="B121" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C121" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D121" s="5">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>412051</v>
+      </c>
+      <c r="B122" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C122" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>413000</v>
+      </c>
+      <c r="B123" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C123" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>413010</v>
+      </c>
+      <c r="B124" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C124" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>413020</v>
+      </c>
+      <c r="B125" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C125" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D125" s="5">
+        <v>2</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>413030</v>
+      </c>
+      <c r="B126" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C126" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>413040</v>
+      </c>
+      <c r="B127" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C127" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D127" s="5">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>413041</v>
+      </c>
+      <c r="B128" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C128" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D128" s="5">
+        <v>2</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>413050</v>
+      </c>
+      <c r="B129" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C129" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D129" s="5">
+        <v>0</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>413051</v>
+      </c>
+      <c r="B130" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C130" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D130" s="5">
+        <v>2</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>414000</v>
+      </c>
+      <c r="B131" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C131" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D131" s="5">
+        <v>0</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>414001</v>
+      </c>
+      <c r="B132" s="3">
+        <v>4501</v>
+      </c>
+      <c r="C132" s="4">
+        <v>110</v>
+      </c>
+      <c r="D132" s="5">
+        <v>110</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>414010</v>
+      </c>
+      <c r="B133" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C133" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>414020</v>
+      </c>
+      <c r="B134" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C134" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D134" s="5">
+        <v>2</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>414030</v>
+      </c>
+      <c r="B135" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C135" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D135" s="5">
+        <v>1</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>414040</v>
+      </c>
+      <c r="B136" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C136" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D136" s="5">
+        <v>6</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>414041</v>
+      </c>
+      <c r="B137" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C137" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D137" s="5">
+        <v>2</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>414050</v>
+      </c>
+      <c r="B138" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C138" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D138" s="5">
+        <v>0</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>414051</v>
+      </c>
+      <c r="B139" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C139" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D139" s="5">
+        <v>2</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>415000</v>
+      </c>
+      <c r="B140" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C140" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D140" s="5">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>415010</v>
+      </c>
+      <c r="B141" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C141" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D141" s="5">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>415020</v>
+      </c>
+      <c r="B142" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C142" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D142" s="5">
+        <v>2</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>415030</v>
+      </c>
+      <c r="B143" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C143" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D143" s="5">
+        <v>1</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>415040</v>
+      </c>
+      <c r="B144" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C144" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D144" s="5">
+        <v>6</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>415041</v>
+      </c>
+      <c r="B145" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C145" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D145" s="5">
+        <v>2</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>415050</v>
+      </c>
+      <c r="B146" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C146" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D146" s="5">
+        <v>0</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>415051</v>
+      </c>
+      <c r="B147" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C147" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D147" s="5">
+        <v>2</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>416000</v>
+      </c>
+      <c r="B148" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C148" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D148" s="5">
+        <v>0</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>416010</v>
+      </c>
+      <c r="B149" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C149" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>416020</v>
+      </c>
+      <c r="B150" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C150" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D150" s="5">
+        <v>2</v>
+      </c>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>416030</v>
+      </c>
+      <c r="B151" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C151" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D151" s="5">
+        <v>1</v>
+      </c>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>416040</v>
+      </c>
+      <c r="B152" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C152" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D152" s="5">
+        <v>6</v>
+      </c>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>416041</v>
+      </c>
+      <c r="B153" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C153" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D153" s="5">
+        <v>2</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>416050</v>
+      </c>
+      <c r="B154" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C154" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D154" s="5">
+        <v>0</v>
+      </c>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>416051</v>
+      </c>
+      <c r="B155" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C155" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D155" s="5">
+        <v>2</v>
+      </c>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>417000</v>
+      </c>
+      <c r="B156" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C156" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D156" s="5">
+        <v>0</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>417010</v>
+      </c>
+      <c r="B157" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C157" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D157" s="5">
+        <v>1</v>
+      </c>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>417020</v>
+      </c>
+      <c r="B158" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C158" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D158" s="5">
+        <v>2</v>
+      </c>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>417030</v>
+      </c>
+      <c r="B159" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C159" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>417040</v>
+      </c>
+      <c r="B160" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C160" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D160" s="5">
+        <v>6</v>
+      </c>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>417041</v>
+      </c>
+      <c r="B161" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C161" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D161" s="5">
+        <v>2</v>
+      </c>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>417050</v>
+      </c>
+      <c r="B162" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C162" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D162" s="5">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>417051</v>
+      </c>
+      <c r="B163" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C163" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D163" s="5">
+        <v>2</v>
+      </c>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>418000</v>
+      </c>
+      <c r="B164" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C164" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D164" s="5">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>418010</v>
+      </c>
+      <c r="B165" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C165" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D165" s="5">
+        <v>1</v>
+      </c>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>418020</v>
+      </c>
+      <c r="B166" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C166" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D166" s="5">
+        <v>2</v>
+      </c>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>418030</v>
+      </c>
+      <c r="B167" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C167" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D167" s="5">
+        <v>1</v>
+      </c>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>418040</v>
+      </c>
+      <c r="B168" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C168" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D168" s="5">
+        <v>6</v>
+      </c>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>418041</v>
+      </c>
+      <c r="B169" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C169" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D169" s="5">
+        <v>2</v>
+      </c>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>418050</v>
+      </c>
+      <c r="B170" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C170" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D170" s="5">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>418051</v>
+      </c>
+      <c r="B171" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C171" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D171" s="5">
+        <v>2</v>
+      </c>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>419000</v>
+      </c>
+      <c r="B172" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C172" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D172" s="5">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>419010</v>
+      </c>
+      <c r="B173" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C173" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D173" s="5">
+        <v>1</v>
+      </c>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>419020</v>
+      </c>
+      <c r="B174" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C174" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D174" s="5">
+        <v>2</v>
+      </c>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>419030</v>
+      </c>
+      <c r="B175" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C175" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D175" s="5">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>419040</v>
+      </c>
+      <c r="B176" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C176" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D176" s="5">
+        <v>6</v>
+      </c>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>419041</v>
+      </c>
+      <c r="B177" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C177" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D177" s="5">
+        <v>2</v>
+      </c>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>419050</v>
+      </c>
+      <c r="B178" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C178" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D178" s="5">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>419051</v>
+      </c>
+      <c r="B179" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C179" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D179" s="5">
+        <v>2</v>
+      </c>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>420000</v>
+      </c>
+      <c r="B180" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C180" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D180" s="5">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>420010</v>
+      </c>
+      <c r="B181" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C181" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D181" s="5">
+        <v>1</v>
+      </c>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>420020</v>
+      </c>
+      <c r="B182" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C182" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D182" s="5">
+        <v>2</v>
+      </c>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>420030</v>
+      </c>
+      <c r="B183" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C183" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1</v>
+      </c>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>420040</v>
+      </c>
+      <c r="B184" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C184" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D184" s="5">
+        <v>6</v>
+      </c>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>420041</v>
+      </c>
+      <c r="B185" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C185" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D185" s="5">
+        <v>2</v>
+      </c>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>420050</v>
+      </c>
+      <c r="B186" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C186" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D186" s="5">
+        <v>0</v>
+      </c>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>420051</v>
+      </c>
+      <c r="B187" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C187" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D187" s="5">
+        <v>2</v>
+      </c>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>421000</v>
+      </c>
+      <c r="B188" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C188" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>421010</v>
+      </c>
+      <c r="B189" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C189" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D189" s="5">
+        <v>1</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>421020</v>
+      </c>
+      <c r="B190" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C190" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D190" s="5">
+        <v>2</v>
+      </c>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>421030</v>
+      </c>
+      <c r="B191" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C191" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D191" s="5">
+        <v>1</v>
+      </c>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>421040</v>
+      </c>
+      <c r="B192" s="3">
+        <v>4107</v>
+      </c>
+      <c r="C192" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D192" s="5">
+        <v>6</v>
+      </c>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>421041</v>
+      </c>
+      <c r="B193" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C193" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D193" s="5">
+        <v>2</v>
+      </c>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>421050</v>
+      </c>
+      <c r="B194" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C194" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D194" s="5">
+        <v>0</v>
+      </c>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>421051</v>
+      </c>
+      <c r="B195" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C195" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D195" s="5">
+        <v>2</v>
+      </c>
+      <c r="E195" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEF3D2F-5CED-4560-AE6B-E6DE0976586E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF892DA-23F7-4257-A858-64E9DCBD4AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="4080" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16560" yWindow="4050" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F187" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3466,6 +3466,56 @@
       </c>
       <c r="E195" s="2"/>
     </row>
+    <row r="197" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>416100</v>
+      </c>
+      <c r="B197" s="3">
+        <v>0</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>416110</v>
+      </c>
+      <c r="B198" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C198" s="4">
+        <v>116100</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>416120</v>
+      </c>
+      <c r="B199" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C199" s="4">
+        <v>116110</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>416130</v>
+      </c>
+      <c r="B200" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C200" s="4">
+        <v>116120</v>
+      </c>
+      <c r="D200" s="5"/>
+      <c r="E200" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF892DA-23F7-4257-A858-64E9DCBD4AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6B0CA7-0128-4FAA-85D5-C003078812B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="4050" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12735" yWindow="5145" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3516,6 +3516,19 @@
       <c r="D200" s="5"/>
       <c r="E200" s="2"/>
     </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>417000</v>
+      </c>
+      <c r="B202" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C202" s="4">
+        <v>0</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6B0CA7-0128-4FAA-85D5-C003078812B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311C0CD4-07AD-4A5B-9A8F-4164F10CA08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12735" yWindow="5145" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="4140" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+      <selection activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3529,6 +3529,110 @@
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
     </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>450000</v>
+      </c>
+      <c r="B204" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C204" s="4">
+        <v>112100</v>
+      </c>
+      <c r="D204" s="5"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>450001</v>
+      </c>
+      <c r="B205" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C205" s="4">
+        <v>112110</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>450002</v>
+      </c>
+      <c r="B206" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C206" s="4">
+        <v>112120</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>450003</v>
+      </c>
+      <c r="B207" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C207" s="4">
+        <v>112130</v>
+      </c>
+      <c r="D207" s="5"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>450010</v>
+      </c>
+      <c r="B208" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C208" s="4">
+        <v>101000</v>
+      </c>
+      <c r="D208" s="5"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>450011</v>
+      </c>
+      <c r="B209" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C209" s="4">
+        <v>101010</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>450012</v>
+      </c>
+      <c r="B210" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C210" s="4">
+        <v>101020</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B211" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C211" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311C0CD4-07AD-4A5B-9A8F-4164F10CA08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4BB8C-1978-4E68-86F3-5B39348693F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="4140" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="3870" windowWidth="29835" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>条件编号</t>
   </si>
@@ -121,12 +121,24 @@
   <si>
     <t>参数@2</t>
   </si>
+  <si>
+    <t>故事事件条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴谋目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -147,8 +159,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,6 +265,22 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -541,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="I206" sqref="I206"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226:B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,10 +627,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>41000</v>
+        <v>400000</v>
       </c>
       <c r="B2" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C2" s="4">
         <v>60000</v>
@@ -588,43 +642,39 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>41001</v>
+        <v>400010</v>
       </c>
       <c r="B3" s="3">
-        <v>4103</v>
+        <v>4501</v>
       </c>
       <c r="C3" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>41002</v>
+        <v>400020</v>
       </c>
       <c r="B4" s="3">
-        <v>4103</v>
+        <v>4501</v>
       </c>
       <c r="C4" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>41003</v>
+        <v>400030</v>
       </c>
       <c r="B5" s="3">
         <v>4102</v>
       </c>
       <c r="C5" s="4">
-        <v>60000</v>
+        <v>60004</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -633,598 +683,582 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>41004</v>
+        <v>400040</v>
       </c>
       <c r="B6" s="3">
-        <v>4107</v>
+        <v>4400</v>
       </c>
       <c r="C6" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
+        <v>100030</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>41005</v>
+        <v>400050</v>
       </c>
       <c r="B7" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C7" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
+        <v>100031</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>41006</v>
+        <v>400060</v>
       </c>
       <c r="B8" s="3">
-        <v>4106</v>
+        <v>4501</v>
       </c>
       <c r="C8" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
+        <v>100040</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>41007</v>
+        <v>400070</v>
       </c>
       <c r="B9" s="3">
-        <v>4102</v>
+        <v>4501</v>
       </c>
       <c r="C9" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>41100</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C10" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>41101</v>
+        <v>410000</v>
       </c>
       <c r="B11" s="3">
         <v>4103</v>
       </c>
       <c r="C11" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>41102</v>
+        <v>410010</v>
       </c>
       <c r="B12" s="3">
         <v>4103</v>
       </c>
       <c r="C12" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>41103</v>
+        <v>410020</v>
       </c>
       <c r="B13" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C13" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>41104</v>
+        <v>410030</v>
       </c>
       <c r="B14" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C14" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D14" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>41105</v>
+        <v>410040</v>
       </c>
       <c r="B15" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C15" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D15" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>41106</v>
+        <v>410041</v>
       </c>
       <c r="B16" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C16" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>41107</v>
+        <v>410050</v>
       </c>
       <c r="B17" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C17" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>41200</v>
+        <v>410051</v>
       </c>
       <c r="B18" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C18" s="4">
-        <v>60002</v>
+        <v>60000</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>41201</v>
+        <v>411000</v>
       </c>
       <c r="B19" s="3">
         <v>4103</v>
       </c>
       <c r="C19" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>41202</v>
+        <v>411010</v>
       </c>
       <c r="B20" s="3">
         <v>4103</v>
       </c>
       <c r="C20" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>41203</v>
+        <v>411020</v>
       </c>
       <c r="B21" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C21" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>41204</v>
+        <v>411030</v>
       </c>
       <c r="B22" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C22" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D22" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>41205</v>
+        <v>411040</v>
       </c>
       <c r="B23" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C23" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D23" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>41206</v>
+        <v>411041</v>
       </c>
       <c r="B24" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C24" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>41207</v>
+        <v>411050</v>
       </c>
       <c r="B25" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C25" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>41300</v>
+        <v>411051</v>
       </c>
       <c r="B26" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C26" s="4">
-        <v>60003</v>
+        <v>60001</v>
       </c>
       <c r="D26" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>41301</v>
+        <v>412000</v>
       </c>
       <c r="B27" s="3">
         <v>4103</v>
       </c>
       <c r="C27" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>41302</v>
+        <v>412010</v>
       </c>
       <c r="B28" s="3">
         <v>4103</v>
       </c>
       <c r="C28" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>41303</v>
+        <v>412020</v>
       </c>
       <c r="B29" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C29" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>41304</v>
+        <v>412030</v>
       </c>
       <c r="B30" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C30" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D30" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>41305</v>
+        <v>412040</v>
       </c>
       <c r="B31" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C31" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D31" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>41306</v>
+        <v>412041</v>
       </c>
       <c r="B32" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C32" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D32" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>41307</v>
+        <v>412050</v>
       </c>
       <c r="B33" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C33" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D33" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>41400</v>
+        <v>412051</v>
       </c>
       <c r="B34" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C34" s="4">
-        <v>60004</v>
+        <v>60002</v>
       </c>
       <c r="D34" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>41401</v>
+        <v>413000</v>
       </c>
       <c r="B35" s="3">
         <v>4103</v>
       </c>
       <c r="C35" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>41402</v>
+        <v>413010</v>
       </c>
       <c r="B36" s="3">
         <v>4103</v>
       </c>
       <c r="C36" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D36" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>41403</v>
+        <v>413020</v>
       </c>
       <c r="B37" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C37" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D37" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>41404</v>
+        <v>413030</v>
       </c>
       <c r="B38" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C38" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D38" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>41405</v>
+        <v>413040</v>
       </c>
       <c r="B39" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C39" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D39" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>41406</v>
+        <v>413041</v>
       </c>
       <c r="B40" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C40" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D40" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>41407</v>
+        <v>413050</v>
       </c>
       <c r="B41" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C41" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D41" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>41500</v>
+        <v>413051</v>
       </c>
       <c r="B42" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C42" s="4">
-        <v>60005</v>
+        <v>60003</v>
       </c>
       <c r="D42" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>41501</v>
+        <v>414000</v>
       </c>
       <c r="B43" s="3">
         <v>4103</v>
       </c>
       <c r="C43" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D43" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>41502</v>
+        <v>414001</v>
       </c>
       <c r="B44" s="3">
-        <v>4103</v>
+        <v>4501</v>
       </c>
       <c r="C44" s="4">
-        <v>60005</v>
+        <v>110</v>
       </c>
       <c r="D44" s="5">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>41503</v>
+        <v>414010</v>
       </c>
       <c r="B45" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C45" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -1233,58 +1267,58 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>41504</v>
+        <v>414020</v>
       </c>
       <c r="B46" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C46" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D46" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>41505</v>
+        <v>414030</v>
       </c>
       <c r="B47" s="3">
         <v>4102</v>
       </c>
       <c r="C47" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D47" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>41506</v>
+        <v>414040</v>
       </c>
       <c r="B48" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C48" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D48" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>41507</v>
+        <v>414041</v>
       </c>
       <c r="B49" s="3">
         <v>4102</v>
       </c>
       <c r="C49" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D49" s="5">
         <v>2</v>
@@ -1293,13 +1327,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>41600</v>
+        <v>414050</v>
       </c>
       <c r="B50" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C50" s="4">
-        <v>60006</v>
+        <v>60004</v>
       </c>
       <c r="D50" s="5">
         <v>0</v>
@@ -1308,43 +1342,43 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>41601</v>
+        <v>414051</v>
       </c>
       <c r="B51" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C51" s="4">
-        <v>60006</v>
+        <v>60004</v>
       </c>
       <c r="D51" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>41602</v>
+        <v>415000</v>
       </c>
       <c r="B52" s="3">
         <v>4103</v>
       </c>
       <c r="C52" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D52" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>41603</v>
+        <v>415010</v>
       </c>
       <c r="B53" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C53" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
@@ -1353,58 +1387,58 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>41604</v>
+        <v>415020</v>
       </c>
       <c r="B54" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C54" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D54" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>41605</v>
+        <v>415030</v>
       </c>
       <c r="B55" s="3">
         <v>4102</v>
       </c>
       <c r="C55" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D55" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>41606</v>
+        <v>415040</v>
       </c>
       <c r="B56" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C56" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D56" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>41607</v>
+        <v>415041</v>
       </c>
       <c r="B57" s="3">
         <v>4102</v>
       </c>
       <c r="C57" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D57" s="5">
         <v>2</v>
@@ -1413,13 +1447,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>41700</v>
+        <v>415050</v>
       </c>
       <c r="B58" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C58" s="4">
-        <v>60007</v>
+        <v>60005</v>
       </c>
       <c r="D58" s="5">
         <v>0</v>
@@ -1428,43 +1462,43 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>41701</v>
+        <v>415051</v>
       </c>
       <c r="B59" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C59" s="4">
-        <v>60007</v>
+        <v>60005</v>
       </c>
       <c r="D59" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>41702</v>
+        <v>416000</v>
       </c>
       <c r="B60" s="3">
         <v>4103</v>
       </c>
       <c r="C60" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D60" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>41703</v>
+        <v>416010</v>
       </c>
       <c r="B61" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C61" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -1473,58 +1507,58 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>41704</v>
+        <v>416020</v>
       </c>
       <c r="B62" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C62" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D62" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>41705</v>
+        <v>416030</v>
       </c>
       <c r="B63" s="3">
         <v>4102</v>
       </c>
       <c r="C63" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D63" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>41706</v>
+        <v>416040</v>
       </c>
       <c r="B64" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C64" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D64" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>41707</v>
+        <v>416041</v>
       </c>
       <c r="B65" s="3">
         <v>4102</v>
       </c>
       <c r="C65" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
@@ -1533,13 +1567,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>41800</v>
+        <v>416050</v>
       </c>
       <c r="B66" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C66" s="4">
-        <v>60008</v>
+        <v>60006</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
@@ -1548,43 +1582,43 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>41801</v>
+        <v>416051</v>
       </c>
       <c r="B67" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C67" s="4">
-        <v>60008</v>
+        <v>60006</v>
       </c>
       <c r="D67" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>41802</v>
+        <v>417000</v>
       </c>
       <c r="B68" s="3">
         <v>4103</v>
       </c>
       <c r="C68" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D68" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>41803</v>
+        <v>417010</v>
       </c>
       <c r="B69" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C69" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D69" s="5">
         <v>1</v>
@@ -1593,58 +1627,58 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>41804</v>
+        <v>417020</v>
       </c>
       <c r="B70" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C70" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D70" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>41805</v>
+        <v>417030</v>
       </c>
       <c r="B71" s="3">
         <v>4102</v>
       </c>
       <c r="C71" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D71" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>41806</v>
+        <v>417040</v>
       </c>
       <c r="B72" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C72" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D72" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>41807</v>
+        <v>417041</v>
       </c>
       <c r="B73" s="3">
         <v>4102</v>
       </c>
       <c r="C73" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D73" s="5">
         <v>2</v>
@@ -1653,13 +1687,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>41900</v>
+        <v>417050</v>
       </c>
       <c r="B74" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C74" s="4">
-        <v>60009</v>
+        <v>60007</v>
       </c>
       <c r="D74" s="5">
         <v>0</v>
@@ -1668,43 +1702,43 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>41901</v>
+        <v>417051</v>
       </c>
       <c r="B75" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C75" s="4">
-        <v>60009</v>
+        <v>60007</v>
       </c>
       <c r="D75" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>41902</v>
+        <v>418000</v>
       </c>
       <c r="B76" s="3">
         <v>4103</v>
       </c>
       <c r="C76" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D76" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>41903</v>
+        <v>418010</v>
       </c>
       <c r="B77" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C77" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
@@ -1713,58 +1747,58 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>41904</v>
+        <v>418020</v>
       </c>
       <c r="B78" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C78" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D78" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>41905</v>
+        <v>418030</v>
       </c>
       <c r="B79" s="3">
         <v>4102</v>
       </c>
       <c r="C79" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D79" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>41906</v>
+        <v>418040</v>
       </c>
       <c r="B80" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C80" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D80" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>41907</v>
+        <v>418041</v>
       </c>
       <c r="B81" s="3">
         <v>4102</v>
       </c>
       <c r="C81" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D81" s="5">
         <v>2</v>
@@ -1773,13 +1807,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>42000</v>
+        <v>418050</v>
       </c>
       <c r="B82" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C82" s="4">
-        <v>60010</v>
+        <v>60008</v>
       </c>
       <c r="D82" s="5">
         <v>0</v>
@@ -1788,43 +1822,43 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>42001</v>
+        <v>418051</v>
       </c>
       <c r="B83" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C83" s="4">
-        <v>60010</v>
+        <v>60008</v>
       </c>
       <c r="D83" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>42002</v>
+        <v>419000</v>
       </c>
       <c r="B84" s="3">
         <v>4103</v>
       </c>
       <c r="C84" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D84" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>42003</v>
+        <v>419010</v>
       </c>
       <c r="B85" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C85" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D85" s="5">
         <v>1</v>
@@ -1833,58 +1867,58 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>42004</v>
+        <v>419020</v>
       </c>
       <c r="B86" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C86" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D86" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>42005</v>
+        <v>419030</v>
       </c>
       <c r="B87" s="3">
         <v>4102</v>
       </c>
       <c r="C87" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D87" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>42006</v>
+        <v>419040</v>
       </c>
       <c r="B88" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C88" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D88" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>42007</v>
+        <v>419041</v>
       </c>
       <c r="B89" s="3">
         <v>4102</v>
       </c>
       <c r="C89" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
@@ -1893,13 +1927,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>42100</v>
+        <v>419050</v>
       </c>
       <c r="B90" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C90" s="4">
-        <v>60011</v>
+        <v>60009</v>
       </c>
       <c r="D90" s="5">
         <v>0</v>
@@ -1908,43 +1942,43 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>42101</v>
+        <v>419051</v>
       </c>
       <c r="B91" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C91" s="4">
-        <v>60011</v>
+        <v>60009</v>
       </c>
       <c r="D91" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>42102</v>
+        <v>420000</v>
       </c>
       <c r="B92" s="3">
         <v>4103</v>
       </c>
       <c r="C92" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D92" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>42103</v>
+        <v>420010</v>
       </c>
       <c r="B93" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C93" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D93" s="5">
         <v>1</v>
@@ -1953,1522 +1987,1136 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>42104</v>
+        <v>420020</v>
       </c>
       <c r="B94" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C94" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D94" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>42105</v>
+        <v>420030</v>
       </c>
       <c r="B95" s="3">
         <v>4102</v>
       </c>
       <c r="C95" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D95" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>42106</v>
+        <v>420040</v>
       </c>
       <c r="B96" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C96" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D96" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>42107</v>
+        <v>420041</v>
       </c>
       <c r="B97" s="3">
         <v>4102</v>
       </c>
       <c r="C97" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D97" s="5">
         <v>2</v>
       </c>
       <c r="E97" s="2"/>
     </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>420050</v>
+      </c>
+      <c r="B98" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C98" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
     <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>410000</v>
+        <v>420051</v>
       </c>
       <c r="B99" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C99" s="4">
-        <v>60000</v>
+        <v>60010</v>
       </c>
       <c r="D99" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>410010</v>
+        <v>421000</v>
       </c>
       <c r="B100" s="3">
         <v>4103</v>
       </c>
       <c r="C100" s="4">
-        <v>60000</v>
+        <v>60011</v>
       </c>
       <c r="D100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>410020</v>
+        <v>421010</v>
       </c>
       <c r="B101" s="3">
         <v>4103</v>
       </c>
       <c r="C101" s="4">
-        <v>60000</v>
+        <v>60011</v>
       </c>
       <c r="D101" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>410030</v>
+        <v>421020</v>
       </c>
       <c r="B102" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C102" s="4">
-        <v>60000</v>
+        <v>60011</v>
       </c>
       <c r="D102" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>410040</v>
+        <v>421030</v>
       </c>
       <c r="B103" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C103" s="4">
-        <v>60000</v>
+        <v>60011</v>
       </c>
       <c r="D103" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>410041</v>
+        <v>421040</v>
       </c>
       <c r="B104" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C104" s="4">
-        <v>60000</v>
+        <v>60011</v>
       </c>
       <c r="D104" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>410050</v>
+        <v>421041</v>
       </c>
       <c r="B105" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C105" s="4">
-        <v>60000</v>
+        <v>60011</v>
       </c>
       <c r="D105" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>410051</v>
+        <v>421050</v>
       </c>
       <c r="B106" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C106" s="4">
-        <v>60000</v>
+        <v>60011</v>
       </c>
       <c r="D106" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>411000</v>
+        <v>421051</v>
       </c>
       <c r="B107" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C107" s="4">
-        <v>60001</v>
+        <v>60011</v>
       </c>
       <c r="D107" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>411010</v>
-      </c>
-      <c r="B108" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C108" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1</v>
-      </c>
-      <c r="E108" s="2"/>
-    </row>
+    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>411020</v>
+        <v>400100</v>
       </c>
       <c r="B109" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C109" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D109" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="5"/>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>411030</v>
+        <v>400110</v>
       </c>
       <c r="B110" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C110" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D110" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>411040</v>
+        <v>400120</v>
       </c>
       <c r="B111" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C111" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D111" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>411041</v>
+        <v>400130</v>
       </c>
       <c r="B112" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C112" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D112" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>411050</v>
+        <v>400140</v>
       </c>
       <c r="B113" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C113" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D113" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>411051</v>
+        <v>400150</v>
       </c>
       <c r="B114" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C114" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D114" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>412000</v>
+        <v>400160</v>
       </c>
       <c r="B115" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C115" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D115" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>412010</v>
+        <v>400170</v>
       </c>
       <c r="B116" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C116" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D116" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>412020</v>
+        <v>400180</v>
       </c>
       <c r="B117" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C117" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D117" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>412030</v>
-      </c>
-      <c r="B118" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C118" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D118" s="5">
-        <v>1</v>
-      </c>
-      <c r="E118" s="2"/>
-    </row>
+    <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>412040</v>
+        <v>400200</v>
       </c>
       <c r="B119" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C119" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D119" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="5"/>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>412041</v>
+        <v>400210</v>
       </c>
       <c r="B120" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C120" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D120" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="5"/>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>412050</v>
+        <v>400220</v>
       </c>
       <c r="B121" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C121" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D121" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>412051</v>
+        <v>400230</v>
       </c>
       <c r="B122" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C122" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D122" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>413000</v>
+        <v>400240</v>
       </c>
       <c r="B123" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C123" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D123" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>413010</v>
+        <v>400250</v>
       </c>
       <c r="B124" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C124" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D124" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>413020</v>
+        <v>400260</v>
       </c>
       <c r="B125" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C125" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D125" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>413030</v>
+        <v>400270</v>
       </c>
       <c r="B126" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C126" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D126" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>413040</v>
+        <v>400280</v>
       </c>
       <c r="B127" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C127" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D127" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>413041</v>
+        <v>400290</v>
       </c>
       <c r="B128" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C128" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D128" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>413050</v>
+        <v>400300</v>
       </c>
       <c r="B129" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C129" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D129" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="5"/>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>413051</v>
+        <v>400310</v>
       </c>
       <c r="B130" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C130" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D130" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>414000</v>
+        <v>400320</v>
       </c>
       <c r="B131" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C131" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D131" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="5"/>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>414001</v>
+        <v>400330</v>
       </c>
       <c r="B132" s="3">
-        <v>4501</v>
-      </c>
-      <c r="C132" s="4">
-        <v>110</v>
-      </c>
-      <c r="D132" s="5">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="5"/>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>414010</v>
+        <v>400340</v>
       </c>
       <c r="B133" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C133" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D133" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>414020</v>
+        <v>400350</v>
       </c>
       <c r="B134" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C134" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D134" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="5"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>414030</v>
-      </c>
-      <c r="B135" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C135" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D135" s="5">
-        <v>1</v>
-      </c>
-      <c r="E135" s="2"/>
-    </row>
+    <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>414040</v>
+        <v>401000</v>
       </c>
       <c r="B136" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C136" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D136" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>414041</v>
+        <v>401010</v>
       </c>
       <c r="B137" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C137" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D137" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>414050</v>
+        <v>401020</v>
       </c>
       <c r="B138" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C138" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D138" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="5"/>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>414051</v>
+        <v>401030</v>
       </c>
       <c r="B139" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C139" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D139" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>415000</v>
+        <v>401040</v>
       </c>
       <c r="B140" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C140" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D140" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="5"/>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>415010</v>
+        <v>401050</v>
       </c>
       <c r="B141" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C141" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D141" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>415020</v>
-      </c>
-      <c r="B142" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C142" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D142" s="5">
-        <v>2</v>
-      </c>
-      <c r="E142" s="2"/>
-    </row>
+    <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>415030</v>
+        <v>402000</v>
       </c>
       <c r="B143" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C143" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D143" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>415040</v>
+        <v>402010</v>
       </c>
       <c r="B144" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C144" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D144" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>415041</v>
+        <v>402020</v>
       </c>
       <c r="B145" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C145" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D145" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>415050</v>
+        <v>402030</v>
       </c>
       <c r="B146" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C146" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D146" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>415051</v>
-      </c>
-      <c r="B147" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C147" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D147" s="5">
-        <v>2</v>
-      </c>
-      <c r="E147" s="2"/>
-    </row>
+    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>416000</v>
+        <v>403000</v>
       </c>
       <c r="B148" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C148" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D148" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="5"/>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>416010</v>
+        <v>403010</v>
       </c>
       <c r="B149" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C149" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D149" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="5"/>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>416020</v>
+        <v>403020</v>
       </c>
       <c r="B150" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C150" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D150" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>416030</v>
+        <v>403030</v>
       </c>
       <c r="B151" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C151" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D151" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>416040</v>
+        <v>403040</v>
       </c>
       <c r="B152" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C152" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D152" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="5"/>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>416041</v>
+        <v>403100</v>
       </c>
       <c r="B153" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C153" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D153" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="5"/>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>416050</v>
+        <v>403110</v>
       </c>
       <c r="B154" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C154" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D154" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="5"/>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>416051</v>
+        <v>403120</v>
       </c>
       <c r="B155" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C155" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D155" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="5"/>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>417000</v>
+        <v>403130</v>
       </c>
       <c r="B156" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C156" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D156" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>417010</v>
+        <v>403140</v>
       </c>
       <c r="B157" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C157" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D157" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="5"/>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>417020</v>
+        <v>403150</v>
       </c>
       <c r="B158" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C158" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D158" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="5"/>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>417030</v>
+        <v>403160</v>
       </c>
       <c r="B159" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C159" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D159" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C159" s="4"/>
+      <c r="D159" s="5"/>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>417040</v>
+        <v>403170</v>
       </c>
       <c r="B160" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C160" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D160" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C160" s="4"/>
+      <c r="D160" s="5"/>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>417041</v>
+        <v>403180</v>
       </c>
       <c r="B161" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C161" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D161" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C161" s="4"/>
+      <c r="D161" s="5"/>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>417050</v>
+        <v>403190</v>
       </c>
       <c r="B162" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C162" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D162" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="5"/>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>417051</v>
+        <v>403200</v>
       </c>
       <c r="B163" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C163" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D163" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="5"/>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>418000</v>
+        <v>403210</v>
       </c>
       <c r="B164" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C164" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D164" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="5"/>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>418010</v>
+        <v>403220</v>
       </c>
       <c r="B165" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C165" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D165" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C165" s="4"/>
+      <c r="D165" s="5"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>418020</v>
-      </c>
-      <c r="B166" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C166" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D166" s="5">
-        <v>2</v>
-      </c>
-      <c r="E166" s="2"/>
-    </row>
+    <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>418030</v>
+        <v>403300</v>
       </c>
       <c r="B167" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C167" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D167" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>418040</v>
+        <v>403310</v>
       </c>
       <c r="B168" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C168" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D168" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C168" s="4"/>
+      <c r="D168" s="5"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>418041</v>
+        <v>403320</v>
       </c>
       <c r="B169" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C169" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D169" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C169" s="4"/>
+      <c r="D169" s="5"/>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>418050</v>
+        <v>403330</v>
       </c>
       <c r="B170" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C170" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D170" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C170" s="4"/>
+      <c r="D170" s="5"/>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>418051</v>
+        <v>403340</v>
       </c>
       <c r="B171" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C171" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D171" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C171" s="4"/>
+      <c r="D171" s="5"/>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>419000</v>
+        <v>403350</v>
       </c>
       <c r="B172" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C172" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D172" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="5"/>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>419010</v>
+        <v>403360</v>
       </c>
       <c r="B173" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C173" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D173" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="5"/>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>419020</v>
+        <v>403370</v>
       </c>
       <c r="B174" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C174" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D174" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="5"/>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>419030</v>
+        <v>403380</v>
       </c>
       <c r="B175" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C175" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D175" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="5"/>
       <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>419040</v>
+        <v>403390</v>
       </c>
       <c r="B176" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C176" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D176" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="5"/>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>419041</v>
+        <v>403400</v>
       </c>
       <c r="B177" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C177" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D177" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="5"/>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>419050</v>
+        <v>403410</v>
       </c>
       <c r="B178" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C178" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D178" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C178" s="4"/>
+      <c r="D178" s="5"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>419051</v>
+        <v>403500</v>
       </c>
       <c r="B179" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C179" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D179" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="5"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>420000</v>
+        <v>403510</v>
       </c>
       <c r="B180" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C180" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D180" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="5"/>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>420010</v>
+        <v>403520</v>
       </c>
       <c r="B181" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C181" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D181" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C181" s="4"/>
+      <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>420020</v>
+        <v>403530</v>
       </c>
       <c r="B182" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C182" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D182" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="5"/>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>420030</v>
+        <v>403540</v>
       </c>
       <c r="B183" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C183" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D183" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="5"/>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>420040</v>
+        <v>403550</v>
       </c>
       <c r="B184" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C184" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D184" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C184" s="4"/>
+      <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>420041</v>
+        <v>403560</v>
       </c>
       <c r="B185" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C185" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D185" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C185" s="4"/>
+      <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>420050</v>
+        <v>403570</v>
       </c>
       <c r="B186" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C186" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D186" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="5"/>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>420051</v>
+        <v>403580</v>
       </c>
       <c r="B187" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C187" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D187" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C187" s="4"/>
+      <c r="D187" s="5"/>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>421000</v>
+        <v>403590</v>
       </c>
       <c r="B188" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C188" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D188" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C188" s="4"/>
+      <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>421010</v>
+        <v>403600</v>
       </c>
       <c r="B189" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C189" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D189" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C189" s="4"/>
+      <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>421020</v>
+        <v>403610</v>
       </c>
       <c r="B190" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C190" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D190" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C190" s="4"/>
+      <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>421030</v>
+        <v>403700</v>
       </c>
       <c r="B191" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C191" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D191" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C191" s="4"/>
+      <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>421040</v>
+        <v>403710</v>
       </c>
       <c r="B192" s="3">
-        <v>4107</v>
-      </c>
-      <c r="C192" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D192" s="5">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C192" s="4"/>
+      <c r="D192" s="5"/>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>421041</v>
+        <v>403720</v>
       </c>
       <c r="B193" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C193" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D193" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="D193" s="5"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>421050</v>
+        <v>403730</v>
       </c>
       <c r="B194" s="3">
-        <v>4106</v>
-      </c>
-      <c r="C194" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D194" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="5"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>421051</v>
+        <v>403740</v>
       </c>
       <c r="B195" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C195" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D195" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="5"/>
       <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>403750</v>
+      </c>
+      <c r="B196" s="3">
+        <v>0</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>416100</v>
+        <v>403760</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -3479,159 +3127,2779 @@
     </row>
     <row r="198" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>416110</v>
+        <v>403770</v>
       </c>
       <c r="B198" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C198" s="4">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>416120</v>
+        <v>403780</v>
       </c>
       <c r="B199" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C199" s="4">
-        <v>116110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C199" s="4"/>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>416130</v>
+        <v>403790</v>
       </c>
       <c r="B200" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C200" s="4">
-        <v>116120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C200" s="4"/>
       <c r="D200" s="5"/>
       <c r="E200" s="2"/>
     </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>403800</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+      <c r="C201" s="4"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="2"/>
+    </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>417000</v>
+        <v>403810</v>
       </c>
       <c r="B202" s="3">
-        <v>4403</v>
-      </c>
-      <c r="C202" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C202" s="4"/>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
     </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>403900</v>
+      </c>
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="2"/>
+    </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>450000</v>
+        <v>403910</v>
       </c>
       <c r="B204" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C204" s="4">
-        <v>112100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C204" s="4"/>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>450001</v>
+        <v>403920</v>
       </c>
       <c r="B205" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C205" s="4">
-        <v>112110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C205" s="4"/>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="2">
-        <v>450002</v>
-      </c>
-      <c r="B206" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C206" s="4">
-        <v>112120</v>
-      </c>
-      <c r="D206" s="5"/>
-      <c r="E206" s="2"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>450003</v>
+        <v>404000</v>
       </c>
       <c r="B207" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C207" s="4">
-        <v>112130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C207" s="4"/>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>450010</v>
+        <v>404010</v>
       </c>
       <c r="B208" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C208" s="4">
-        <v>101000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C208" s="4"/>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>450011</v>
+        <v>404020</v>
       </c>
       <c r="B209" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C209" s="4">
-        <v>101010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C209" s="4"/>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>450012</v>
+        <v>404030</v>
       </c>
       <c r="B210" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C210" s="4">
-        <v>101020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C210" s="4"/>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>450013</v>
+        <v>404040</v>
       </c>
       <c r="B211" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C211" s="4">
-        <v>101040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C211" s="4"/>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>404050</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212" s="4"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>404060</v>
+      </c>
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+      <c r="C213" s="4"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>404070</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+      <c r="C214" s="4"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>404080</v>
+      </c>
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>404090</v>
+      </c>
+      <c r="B216" s="3">
+        <v>0</v>
+      </c>
+      <c r="C216" s="4"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>404100</v>
+      </c>
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+      <c r="C217" s="4"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>404110</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218" s="4"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>404120</v>
+      </c>
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+      <c r="C219" s="4"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>404130</v>
+      </c>
+      <c r="B220" s="3">
+        <v>0</v>
+      </c>
+      <c r="C220" s="4"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>404200</v>
+      </c>
+      <c r="B221" s="3">
+        <v>0</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>404210</v>
+      </c>
+      <c r="B222" s="3">
+        <v>0</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>404220</v>
+      </c>
+      <c r="B223" s="3">
+        <v>0</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>404230</v>
+      </c>
+      <c r="B224" s="3">
+        <v>0</v>
+      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>409000</v>
+      </c>
+      <c r="B226" s="3">
+        <v>0</v>
+      </c>
+      <c r="C226" s="4"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>409010</v>
+      </c>
+      <c r="B227" s="3">
+        <v>0</v>
+      </c>
+      <c r="C227" s="4"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>409020</v>
+      </c>
+      <c r="B228" s="3">
+        <v>0</v>
+      </c>
+      <c r="C228" s="4"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>409030</v>
+      </c>
+      <c r="B229" s="3">
+        <v>0</v>
+      </c>
+      <c r="C229" s="4"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>410100</v>
+      </c>
+      <c r="B232" s="3">
+        <v>4003</v>
+      </c>
+      <c r="C232" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" s="5">
+        <v>12</v>
+      </c>
+      <c r="E232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>410101</v>
+      </c>
+      <c r="B233" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C233" s="4">
+        <v>100032</v>
+      </c>
+      <c r="D233" s="5"/>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>410102</v>
+      </c>
+      <c r="B234" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C234" s="4">
+        <v>100031</v>
+      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>410110</v>
+      </c>
+      <c r="B235" s="3">
+        <v>4003</v>
+      </c>
+      <c r="C235" s="4">
+        <v>12</v>
+      </c>
+      <c r="D235" s="5">
+        <v>12</v>
+      </c>
+      <c r="E235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>410120</v>
+      </c>
+      <c r="B236" s="3">
+        <v>4003</v>
+      </c>
+      <c r="C236" s="4">
+        <v>13</v>
+      </c>
+      <c r="D236" s="5">
+        <v>12</v>
+      </c>
+      <c r="E236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="6"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="8">
+        <v>411060</v>
+      </c>
+      <c r="B238" s="9">
+        <v>4102</v>
+      </c>
+      <c r="C238" s="10"/>
+      <c r="D238" s="11">
+        <v>1</v>
+      </c>
+      <c r="E238" s="8"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="6"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>412100</v>
+      </c>
+      <c r="B240" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C240" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D240" s="5">
+        <v>1</v>
+      </c>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>412101</v>
+      </c>
+      <c r="B241" s="3">
+        <v>4114</v>
+      </c>
+      <c r="C241" s="4">
+        <v>61003</v>
+      </c>
+      <c r="D241" s="5"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>412110</v>
+      </c>
+      <c r="B242" s="3">
+        <v>0</v>
+      </c>
+      <c r="C242" s="4"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>412111</v>
+      </c>
+      <c r="B243" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C243" s="4">
+        <v>50</v>
+      </c>
+      <c r="D243" s="11"/>
+      <c r="E243" s="8"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>412120</v>
+      </c>
+      <c r="B244" s="3">
+        <v>0</v>
+      </c>
+      <c r="C244" s="4"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>412121</v>
+      </c>
+      <c r="B245" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C245" s="4">
+        <v>11214</v>
+      </c>
+      <c r="D245" s="11"/>
+      <c r="E245" s="8"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>412130</v>
+      </c>
+      <c r="B246" s="3">
+        <v>0</v>
+      </c>
+      <c r="C246" s="4"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>412131</v>
+      </c>
+      <c r="B247" s="3">
+        <v>4111</v>
+      </c>
+      <c r="C247" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D247" s="11"/>
+      <c r="E247" s="8"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>412140</v>
+      </c>
+      <c r="B248" s="3">
+        <v>4111</v>
+      </c>
+      <c r="C248" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D248" s="5"/>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="6"/>
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>413100</v>
+      </c>
+      <c r="B250" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C250" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D250" s="5">
+        <v>1</v>
+      </c>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>413110</v>
+      </c>
+      <c r="B251" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C251" s="4">
+        <v>113100</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>413120</v>
+      </c>
+      <c r="B252" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C252" s="4">
+        <v>121120</v>
+      </c>
+      <c r="D252" s="5"/>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>413130</v>
+      </c>
+      <c r="B253" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C253" s="4">
+        <v>121121</v>
+      </c>
+      <c r="D253" s="5"/>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>413140</v>
+      </c>
+      <c r="B254" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C254" s="4">
+        <v>121122</v>
+      </c>
+      <c r="D254" s="5"/>
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>413150</v>
+      </c>
+      <c r="B255" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C255" s="4">
+        <v>113140</v>
+      </c>
+      <c r="D255" s="5"/>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>413151</v>
+      </c>
+      <c r="B256" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C256" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D256" s="5">
+        <v>2</v>
+      </c>
+      <c r="E256" s="2"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>413160</v>
+      </c>
+      <c r="B257" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C257" s="4">
+        <v>113150</v>
+      </c>
+      <c r="D257" s="5"/>
+      <c r="E257" s="2"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>413161</v>
+      </c>
+      <c r="B258" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C258" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D258" s="5">
+        <v>3</v>
+      </c>
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>413200</v>
+      </c>
+      <c r="B259" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C259" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D259" s="5">
+        <v>1</v>
+      </c>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>413201</v>
+      </c>
+      <c r="B260" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C260" s="4">
+        <v>100040</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>413210</v>
+      </c>
+      <c r="B261" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C261" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D261" s="5">
+        <v>2</v>
+      </c>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>413211</v>
+      </c>
+      <c r="B262" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C262" s="4">
+        <v>113200</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>413220</v>
+      </c>
+      <c r="B263" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C263" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D263" s="5">
+        <v>3</v>
+      </c>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>413221</v>
+      </c>
+      <c r="B264" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C264" s="4">
+        <v>113210</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="2"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>413230</v>
+      </c>
+      <c r="B265" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C265" s="4">
+        <v>113220</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="2"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>413231</v>
+      </c>
+      <c r="B266" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C266" s="4">
+        <v>118114</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="2"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="6"/>
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>415100</v>
+      </c>
+      <c r="B268" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C268" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D268" s="5">
+        <v>1</v>
+      </c>
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>415110</v>
+      </c>
+      <c r="B269" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C269" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D269" s="5">
+        <v>2</v>
+      </c>
+      <c r="E269" s="2"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>415111</v>
+      </c>
+      <c r="B270" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C270" s="4">
+        <v>115100</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="2"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>415120</v>
+      </c>
+      <c r="B271" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C271" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D271" s="5">
+        <v>3</v>
+      </c>
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>415121</v>
+      </c>
+      <c r="B272" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C272" s="4">
+        <v>115101</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="2"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>415122</v>
+      </c>
+      <c r="B273" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C273" s="4">
+        <v>115111</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="2"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>415130</v>
+      </c>
+      <c r="B274" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C274" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D274" s="5">
+        <v>3</v>
+      </c>
+      <c r="E274" s="2"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>415131</v>
+      </c>
+      <c r="B275" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C275" s="4">
+        <v>115112</v>
+      </c>
+      <c r="D275" s="5"/>
+      <c r="E275" s="2"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>415140</v>
+      </c>
+      <c r="B276" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C276" s="4">
+        <v>115102</v>
+      </c>
+      <c r="D276" s="5"/>
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>415141</v>
+      </c>
+      <c r="B277" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C277" s="4">
+        <v>115111</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>415150</v>
+      </c>
+      <c r="B278" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C278" s="4">
+        <v>115102</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>415151</v>
+      </c>
+      <c r="B279" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C279" s="4">
+        <v>115111</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>415160</v>
+      </c>
+      <c r="B280" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C280" s="4">
+        <v>115102</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>415161</v>
+      </c>
+      <c r="B281" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C281" s="4">
+        <v>115111</v>
+      </c>
+      <c r="D281" s="5"/>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>415170</v>
+      </c>
+      <c r="B282" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C282" s="4">
+        <v>118114</v>
+      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="2"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>415171</v>
+      </c>
+      <c r="B283" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C283" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D283" s="5">
+        <v>3</v>
+      </c>
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>415172</v>
+      </c>
+      <c r="B284" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C284" s="4">
+        <v>115120</v>
+      </c>
+      <c r="D284" s="5"/>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>415180</v>
+      </c>
+      <c r="B285" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C285" s="4">
+        <v>115170</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="6"/>
+      <c r="B286" s="6"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>416100</v>
+      </c>
+      <c r="B287" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C287" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D287" s="5">
+        <v>1</v>
+      </c>
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>416101</v>
+      </c>
+      <c r="B288" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C288" s="4">
+        <v>116101</v>
+      </c>
+      <c r="D288" s="5"/>
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>416110</v>
+      </c>
+      <c r="B289" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C289" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D289" s="5">
+        <v>2</v>
+      </c>
+      <c r="E289" s="2"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="2">
+        <v>416111</v>
+      </c>
+      <c r="B290" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C290" s="4">
+        <v>116100</v>
+      </c>
+      <c r="D290" s="5"/>
+      <c r="E290" s="2"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>416120</v>
+      </c>
+      <c r="B291" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C291" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D291" s="5">
+        <v>3</v>
+      </c>
+      <c r="E291" s="2"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>416121</v>
+      </c>
+      <c r="B292" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C292" s="4">
+        <v>116110</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="2"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>416130</v>
+      </c>
+      <c r="B293" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C293" s="4">
+        <v>116121</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="2"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="6"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>417100</v>
+      </c>
+      <c r="B295" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C295" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D295" s="5">
+        <v>1</v>
+      </c>
+      <c r="E295" s="2"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>417101</v>
+      </c>
+      <c r="B296" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C296" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D296" s="5">
+        <v>1</v>
+      </c>
+      <c r="E296" s="2"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>417102</v>
+      </c>
+      <c r="B297" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C297" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D297" s="5">
+        <v>1</v>
+      </c>
+      <c r="E297" s="2"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>417110</v>
+      </c>
+      <c r="B298" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C298" s="4">
+        <v>117100</v>
+      </c>
+      <c r="D298" s="5"/>
+      <c r="E298" s="2"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>417120</v>
+      </c>
+      <c r="B299" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C299" s="4">
+        <v>117110</v>
+      </c>
+      <c r="D299" s="5"/>
+      <c r="E299" s="2"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>417130</v>
+      </c>
+      <c r="B300" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C300" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D300" s="5">
+        <v>2</v>
+      </c>
+      <c r="E300" s="2"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>417131</v>
+      </c>
+      <c r="B301" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C301" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D301" s="5">
+        <v>2</v>
+      </c>
+      <c r="E301" s="2"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>417132</v>
+      </c>
+      <c r="B302" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C302" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D302" s="5">
+        <v>2</v>
+      </c>
+      <c r="E302" s="2"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>417133</v>
+      </c>
+      <c r="B303" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C303" s="4">
+        <v>117120</v>
+      </c>
+      <c r="D303" s="5"/>
+      <c r="E303" s="2"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>417134</v>
+      </c>
+      <c r="B304" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C304" s="4">
+        <v>116110</v>
+      </c>
+      <c r="D304" s="5"/>
+      <c r="E304" s="2"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>417140</v>
+      </c>
+      <c r="B305" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C305" s="4">
+        <v>117130</v>
+      </c>
+      <c r="D305" s="5"/>
+      <c r="E305" s="2"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>417150</v>
+      </c>
+      <c r="B306" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C306" s="4">
+        <v>117140</v>
+      </c>
+      <c r="D306" s="5"/>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>417151</v>
+      </c>
+      <c r="B307" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C307" s="4">
+        <v>116121</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="2"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="6"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>418100</v>
+      </c>
+      <c r="B309" s="3">
+        <v>0</v>
+      </c>
+      <c r="C309" s="4"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>418110</v>
+      </c>
+      <c r="B310" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C310" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D310" s="5">
+        <v>1</v>
+      </c>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>418111</v>
+      </c>
+      <c r="B311" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C311" s="4">
+        <v>10</v>
+      </c>
+      <c r="D311" s="5"/>
+      <c r="E311" s="2"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>418112</v>
+      </c>
+      <c r="B312" s="3">
+        <v>4506</v>
+      </c>
+      <c r="C312" s="4">
+        <v>61004</v>
+      </c>
+      <c r="D312" s="5"/>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>418113</v>
+      </c>
+      <c r="B313" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C313" s="4">
+        <v>0</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="2"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="2">
+        <v>418114</v>
+      </c>
+      <c r="B314" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C314" s="4">
+        <v>118114</v>
+      </c>
+      <c r="D314" s="5"/>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>418115</v>
+      </c>
+      <c r="B315" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C315" s="4">
+        <v>118115</v>
+      </c>
+      <c r="D315" s="5"/>
+      <c r="E315" s="2"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>418116</v>
+      </c>
+      <c r="B316" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C316" s="4">
+        <v>118116</v>
+      </c>
+      <c r="D316" s="5"/>
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="6"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="2">
+        <v>419100</v>
+      </c>
+      <c r="B318" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C318" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D318" s="5">
+        <v>1</v>
+      </c>
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="2">
+        <v>419101</v>
+      </c>
+      <c r="B319" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C319" s="4">
+        <v>0</v>
+      </c>
+      <c r="D319" s="5"/>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="2">
+        <v>419110</v>
+      </c>
+      <c r="B320" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C320" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D320" s="5">
+        <v>2</v>
+      </c>
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="2">
+        <v>419111</v>
+      </c>
+      <c r="B321" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C321" s="4">
+        <v>119100</v>
+      </c>
+      <c r="D321" s="5"/>
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="2">
+        <v>419112</v>
+      </c>
+      <c r="B322" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C322" s="4">
+        <v>0</v>
+      </c>
+      <c r="D322" s="5"/>
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="2">
+        <v>419120</v>
+      </c>
+      <c r="B323" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C323" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D323" s="5">
+        <v>3</v>
+      </c>
+      <c r="E323" s="2"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="2">
+        <v>419121</v>
+      </c>
+      <c r="B324" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C324" s="4">
+        <v>119110</v>
+      </c>
+      <c r="D324" s="5"/>
+      <c r="E324" s="2"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="2">
+        <v>419122</v>
+      </c>
+      <c r="B325" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C325" s="4">
+        <v>0</v>
+      </c>
+      <c r="D325" s="5"/>
+      <c r="E325" s="2"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="2">
+        <v>419130</v>
+      </c>
+      <c r="B326" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C326" s="4">
+        <v>119121</v>
+      </c>
+      <c r="D326" s="5"/>
+      <c r="E326" s="2"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="2">
+        <v>419140</v>
+      </c>
+      <c r="B327" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C327" s="4">
+        <v>119121</v>
+      </c>
+      <c r="D327" s="5"/>
+      <c r="E327" s="2"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>419150</v>
+      </c>
+      <c r="B328" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C328" s="4">
+        <v>119121</v>
+      </c>
+      <c r="D328" s="5"/>
+      <c r="E328" s="2"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="6"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="2">
+        <v>420100</v>
+      </c>
+      <c r="B330" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C330" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D330" s="5">
+        <v>1</v>
+      </c>
+      <c r="E330" s="2"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="2">
+        <v>420110</v>
+      </c>
+      <c r="B331" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C331" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D331" s="5">
+        <v>3</v>
+      </c>
+      <c r="E331" s="2"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="2">
+        <v>420111</v>
+      </c>
+      <c r="B332" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C332" s="4">
+        <v>120100</v>
+      </c>
+      <c r="D332" s="5"/>
+      <c r="E332" s="2"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="2">
+        <v>420120</v>
+      </c>
+      <c r="B333" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C333" s="4">
+        <v>120110</v>
+      </c>
+      <c r="D333" s="5"/>
+      <c r="E333" s="2"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="2">
+        <v>420121</v>
+      </c>
+      <c r="B334" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C334" s="4">
+        <v>0</v>
+      </c>
+      <c r="D334" s="5"/>
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="2">
+        <v>420130</v>
+      </c>
+      <c r="B335" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C335" s="4">
+        <v>120121</v>
+      </c>
+      <c r="D335" s="5"/>
+      <c r="E335" s="2"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="2">
+        <v>420140</v>
+      </c>
+      <c r="B336" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C336" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D336" s="5"/>
+      <c r="E336" s="2"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
+        <v>420141</v>
+      </c>
+      <c r="B337" s="3">
+        <v>4111</v>
+      </c>
+      <c r="C337" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D337" s="5"/>
+      <c r="E337" s="2"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <v>420142</v>
+      </c>
+      <c r="B338" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C338" s="4">
+        <v>121110</v>
+      </c>
+      <c r="D338" s="5"/>
+      <c r="E338" s="2"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <v>420150</v>
+      </c>
+      <c r="B339" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C339" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D339" s="5"/>
+      <c r="E339" s="2"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="2">
+        <v>420151</v>
+      </c>
+      <c r="B340" s="3">
+        <v>4111</v>
+      </c>
+      <c r="C340" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D340" s="5"/>
+      <c r="E340" s="2"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <v>420152</v>
+      </c>
+      <c r="B341" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C341" s="4">
+        <v>121100</v>
+      </c>
+      <c r="D341" s="5"/>
+      <c r="E341" s="2"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="2">
+        <v>420160</v>
+      </c>
+      <c r="B342" s="3">
+        <v>4111</v>
+      </c>
+      <c r="C342" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D342" s="5"/>
+      <c r="E342" s="2"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <v>420161</v>
+      </c>
+      <c r="B343" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C343" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D343" s="5">
+        <v>1</v>
+      </c>
+      <c r="E343" s="2"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <v>420162</v>
+      </c>
+      <c r="B344" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C344" s="4">
+        <v>121110</v>
+      </c>
+      <c r="D344" s="5"/>
+      <c r="E344" s="2"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <v>420163</v>
+      </c>
+      <c r="B345" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C345" s="4">
+        <v>121100</v>
+      </c>
+      <c r="D345" s="5"/>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>420164</v>
+      </c>
+      <c r="B346" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C346" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D346" s="5"/>
+      <c r="E346" s="2"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>420165</v>
+      </c>
+      <c r="B347" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C347" s="4">
+        <v>20</v>
+      </c>
+      <c r="D347" s="5"/>
+      <c r="E347" s="2"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="12"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="2">
+        <v>421100</v>
+      </c>
+      <c r="B349" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C349" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D349" s="5">
+        <v>1</v>
+      </c>
+      <c r="E349" s="2"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="2">
+        <v>421101</v>
+      </c>
+      <c r="B350" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C350" s="4">
+        <v>100031</v>
+      </c>
+      <c r="D350" s="5"/>
+      <c r="E350" s="2"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="2">
+        <v>421110</v>
+      </c>
+      <c r="B351" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C351" s="4">
+        <v>121100</v>
+      </c>
+      <c r="D351" s="5"/>
+      <c r="E351" s="2"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="2">
+        <v>421111</v>
+      </c>
+      <c r="B352" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C352" s="4">
+        <v>113110</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="2"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="2">
+        <v>421120</v>
+      </c>
+      <c r="B353" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C353" s="4">
+        <v>121110</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="2"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="2">
+        <v>421121</v>
+      </c>
+      <c r="B354" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C354" s="4">
+        <v>120121</v>
+      </c>
+      <c r="D354" s="5"/>
+      <c r="E354" s="2"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>421122</v>
+      </c>
+      <c r="B355" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C355" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D355" s="5"/>
+      <c r="E355" s="2"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="2">
+        <v>421123</v>
+      </c>
+      <c r="B356" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C356" s="4">
+        <v>10</v>
+      </c>
+      <c r="D356" s="5"/>
+      <c r="E356" s="2"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="2">
+        <v>421130</v>
+      </c>
+      <c r="B357" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C357" s="4">
+        <v>100032</v>
+      </c>
+      <c r="D357" s="5"/>
+      <c r="E357" s="2"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>421140</v>
+      </c>
+      <c r="B358" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C358" s="4">
+        <v>121130</v>
+      </c>
+      <c r="D358" s="5"/>
+      <c r="E358" s="2"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>421150</v>
+      </c>
+      <c r="B359" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C359" s="4">
+        <v>121140</v>
+      </c>
+      <c r="D359" s="5"/>
+      <c r="E359" s="2"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>421160</v>
+      </c>
+      <c r="B360" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C360" s="4">
+        <v>121150</v>
+      </c>
+      <c r="D360" s="5"/>
+      <c r="E360" s="2"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>421161</v>
+      </c>
+      <c r="B361" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C361" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D361" s="5"/>
+      <c r="E361" s="2"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>421162</v>
+      </c>
+      <c r="B362" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C362" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D362" s="5"/>
+      <c r="E362" s="2"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>421170</v>
+      </c>
+      <c r="B363" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C363" s="4">
+        <v>121160</v>
+      </c>
+      <c r="D363" s="5"/>
+      <c r="E363" s="2"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>421171</v>
+      </c>
+      <c r="B364" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C364" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D364" s="5"/>
+      <c r="E364" s="2"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>421172</v>
+      </c>
+      <c r="B365" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C365" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D365" s="5"/>
+      <c r="E365" s="2"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>421180</v>
+      </c>
+      <c r="B366" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C366" s="4">
+        <v>121130</v>
+      </c>
+      <c r="D366" s="5"/>
+      <c r="E366" s="2"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>421181</v>
+      </c>
+      <c r="B367" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C367" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D367" s="5"/>
+      <c r="E367" s="2"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>421182</v>
+      </c>
+      <c r="B368" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C368" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D368" s="5"/>
+      <c r="E368" s="2"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="6"/>
+      <c r="B369" s="6"/>
+      <c r="C369" s="6"/>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>430000</v>
+      </c>
+      <c r="B370" s="3">
+        <v>4505</v>
+      </c>
+      <c r="C370" s="4">
+        <v>20</v>
+      </c>
+      <c r="D370" s="5"/>
+      <c r="E370" s="2"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>430010</v>
+      </c>
+      <c r="B371" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C371" s="4">
+        <v>40</v>
+      </c>
+      <c r="D371" s="5"/>
+      <c r="E371" s="2"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>430020</v>
+      </c>
+      <c r="B372" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C372" s="4">
+        <v>60</v>
+      </c>
+      <c r="D372" s="5"/>
+      <c r="E372" s="2"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>430021</v>
+      </c>
+      <c r="B373" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C373" s="4">
+        <v>130010</v>
+      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="2"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>430030</v>
+      </c>
+      <c r="B374" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C374" s="4">
+        <v>30</v>
+      </c>
+      <c r="D374" s="5"/>
+      <c r="E374" s="2"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>430031</v>
+      </c>
+      <c r="B375" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C375" s="4">
+        <v>130020</v>
+      </c>
+      <c r="D375" s="5"/>
+      <c r="E375" s="2"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>430040</v>
+      </c>
+      <c r="B376" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C376" s="4">
+        <v>40</v>
+      </c>
+      <c r="D376" s="5"/>
+      <c r="E376" s="2"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="2">
+        <v>430041</v>
+      </c>
+      <c r="B377" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C377" s="4">
+        <v>130030</v>
+      </c>
+      <c r="D377" s="5"/>
+      <c r="E377" s="2"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="2">
+        <v>430050</v>
+      </c>
+      <c r="B378" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C378" s="4">
+        <v>50</v>
+      </c>
+      <c r="D378" s="5"/>
+      <c r="E378" s="2"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>430051</v>
+      </c>
+      <c r="B379" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C379" s="4">
+        <v>130040</v>
+      </c>
+      <c r="D379" s="5"/>
+      <c r="E379" s="2"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="2">
+        <v>430052</v>
+      </c>
+      <c r="B380" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C380" s="4">
+        <v>116101</v>
+      </c>
+      <c r="D380" s="5"/>
+      <c r="E380" s="2"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>430060</v>
+      </c>
+      <c r="B381" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C381" s="4">
+        <v>30</v>
+      </c>
+      <c r="D381" s="5"/>
+      <c r="E381" s="2"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="2">
+        <v>430061</v>
+      </c>
+      <c r="B382" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C382" s="4">
+        <v>130020</v>
+      </c>
+      <c r="D382" s="5"/>
+      <c r="E382" s="2"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
+        <v>430070</v>
+      </c>
+      <c r="B383" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C383" s="4">
+        <v>40</v>
+      </c>
+      <c r="D383" s="5"/>
+      <c r="E383" s="2"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>430071</v>
+      </c>
+      <c r="B384" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C384" s="4">
+        <v>130060</v>
+      </c>
+      <c r="D384" s="5"/>
+      <c r="E384" s="2"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="2">
+        <v>430080</v>
+      </c>
+      <c r="B385" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C385" s="4">
+        <v>50</v>
+      </c>
+      <c r="D385" s="5"/>
+      <c r="E385" s="2"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="2">
+        <v>430081</v>
+      </c>
+      <c r="B386" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C386" s="4">
+        <v>130070</v>
+      </c>
+      <c r="D386" s="5"/>
+      <c r="E386" s="2"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="2">
+        <v>430082</v>
+      </c>
+      <c r="B387" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C387" s="4">
+        <v>118110</v>
+      </c>
+      <c r="D387" s="5"/>
+      <c r="E387" s="2"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="2">
+        <v>430090</v>
+      </c>
+      <c r="B388" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C388" s="4">
+        <v>30</v>
+      </c>
+      <c r="D388" s="5"/>
+      <c r="E388" s="2"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="2">
+        <v>430091</v>
+      </c>
+      <c r="B389" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C389" s="4">
+        <v>130020</v>
+      </c>
+      <c r="D389" s="5"/>
+      <c r="E389" s="2"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="2">
+        <v>430100</v>
+      </c>
+      <c r="B390" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C390" s="4">
+        <v>40</v>
+      </c>
+      <c r="D390" s="5"/>
+      <c r="E390" s="2"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
+        <v>430101</v>
+      </c>
+      <c r="B391" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C391" s="4">
+        <v>130090</v>
+      </c>
+      <c r="D391" s="5"/>
+      <c r="E391" s="2"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="2">
+        <v>430110</v>
+      </c>
+      <c r="B392" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C392" s="4">
+        <v>50</v>
+      </c>
+      <c r="D392" s="5"/>
+      <c r="E392" s="2"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="2">
+        <v>430111</v>
+      </c>
+      <c r="B393" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C393" s="4">
+        <v>130100</v>
+      </c>
+      <c r="D393" s="5"/>
+      <c r="E393" s="2"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="2">
+        <v>430112</v>
+      </c>
+      <c r="B394" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C394" s="4">
+        <v>121110</v>
+      </c>
+      <c r="D394" s="5"/>
+      <c r="E394" s="2"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="2">
+        <v>430113</v>
+      </c>
+      <c r="B395" s="3">
+        <v>4114</v>
+      </c>
+      <c r="C395" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D395" s="5">
+        <v>4</v>
+      </c>
+      <c r="E395" s="2"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="2">
+        <v>430120</v>
+      </c>
+      <c r="B396" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C396" s="4">
+        <v>130110</v>
+      </c>
+      <c r="D396" s="5"/>
+      <c r="E396" s="2"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>430130</v>
+      </c>
+      <c r="B397" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C397" s="4">
+        <v>130120</v>
+      </c>
+      <c r="D397" s="5"/>
+      <c r="E397" s="2"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>430140</v>
+      </c>
+      <c r="B398" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C398" s="4">
+        <v>130130</v>
+      </c>
+      <c r="D398" s="5"/>
+      <c r="E398" s="2"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>430150</v>
+      </c>
+      <c r="B399" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C399" s="4">
+        <v>130040</v>
+      </c>
+      <c r="D399" s="5"/>
+      <c r="E399" s="2"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
+        <v>430151</v>
+      </c>
+      <c r="B400" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C400" s="4">
+        <v>130140</v>
+      </c>
+      <c r="D400" s="5"/>
+      <c r="E400" s="2"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>430160</v>
+      </c>
+      <c r="B401" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C401" s="4">
+        <v>130070</v>
+      </c>
+      <c r="D401" s="5"/>
+      <c r="E401" s="2"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="2">
+        <v>430161</v>
+      </c>
+      <c r="B402" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C402" s="4">
+        <v>130150</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="2"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="2">
+        <v>430170</v>
+      </c>
+      <c r="B403" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C403" s="4">
+        <v>130100</v>
+      </c>
+      <c r="D403" s="5"/>
+      <c r="E403" s="2"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="2">
+        <v>430171</v>
+      </c>
+      <c r="B404" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C404" s="4">
+        <v>130160</v>
+      </c>
+      <c r="D404" s="5"/>
+      <c r="E404" s="2"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="2">
+        <v>430180</v>
+      </c>
+      <c r="B405" s="3">
+        <v>4505</v>
+      </c>
+      <c r="C405" s="4">
+        <v>0</v>
+      </c>
+      <c r="D405" s="5"/>
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="6"/>
+      <c r="B406" s="6"/>
+      <c r="C406" s="6"/>
+      <c r="D406" s="6"/>
+      <c r="E406" s="6"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B407" s="6"/>
+      <c r="C407" s="6"/>
+      <c r="D407" s="6"/>
+      <c r="E407" s="6"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>450000</v>
+      </c>
+      <c r="B408" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C408" s="4">
+        <v>112100</v>
+      </c>
+      <c r="D408" s="5"/>
+      <c r="E408" s="2"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>450001</v>
+      </c>
+      <c r="B409" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C409" s="4">
+        <v>112110</v>
+      </c>
+      <c r="D409" s="5"/>
+      <c r="E409" s="2"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="2">
+        <v>450002</v>
+      </c>
+      <c r="B410" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C410" s="4">
+        <v>112120</v>
+      </c>
+      <c r="D410" s="5"/>
+      <c r="E410" s="2"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>450003</v>
+      </c>
+      <c r="B411" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C411" s="4">
+        <v>112130</v>
+      </c>
+      <c r="D411" s="5"/>
+      <c r="E411" s="2"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>450010</v>
+      </c>
+      <c r="B412" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C412" s="4">
+        <v>101000</v>
+      </c>
+      <c r="D412" s="5"/>
+      <c r="E412" s="2"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>450011</v>
+      </c>
+      <c r="B413" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C413" s="4">
+        <v>101010</v>
+      </c>
+      <c r="D413" s="5"/>
+      <c r="E413" s="2"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="2">
+        <v>450012</v>
+      </c>
+      <c r="B414" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C414" s="4">
+        <v>101020</v>
+      </c>
+      <c r="D414" s="5"/>
+      <c r="E414" s="2"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B415" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C415" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D415" s="5"/>
+      <c r="E415" s="2"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="6"/>
+      <c r="B416" s="6"/>
+      <c r="C416" s="6"/>
+      <c r="D416" s="6"/>
+      <c r="E416" s="6"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" s="6"/>
+      <c r="B417" s="6"/>
+      <c r="C417" s="6"/>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B418" s="6"/>
+      <c r="C418" s="6"/>
+      <c r="D418" s="6"/>
+      <c r="E418" s="6"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>459000</v>
+      </c>
+      <c r="B419" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C419" s="4">
+        <v>559000</v>
+      </c>
+      <c r="D419" s="5"/>
+      <c r="E419" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4BB8C-1978-4E68-86F3-5B39348693F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF4397-4EC8-415F-9433-91C59B3AFA9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="3870" windowWidth="29835" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="4260" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>条件编号</t>
   </si>
@@ -121,24 +121,12 @@
   <si>
     <t>参数@2</t>
   </si>
-  <si>
-    <t>故事事件条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴谋目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -160,13 +148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -180,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +189,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,22 +240,19 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -595,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E419"/>
+  <dimension ref="A1:E415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226:B229"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3477,66 +3449,74 @@
       <c r="E230" s="6"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
+      <c r="A231" s="2">
+        <v>410100</v>
+      </c>
+      <c r="B231" s="3">
+        <v>4003</v>
+      </c>
+      <c r="C231" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" s="5">
+        <v>12</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>410100</v>
+        <v>410101</v>
       </c>
       <c r="B232" s="3">
-        <v>4003</v>
+        <v>4400</v>
       </c>
       <c r="C232" s="4">
-        <v>11</v>
-      </c>
-      <c r="D232" s="5">
-        <v>12</v>
-      </c>
-      <c r="E232" s="2">
-        <v>0</v>
-      </c>
+        <v>100032</v>
+      </c>
+      <c r="D232" s="5"/>
+      <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>410101</v>
+        <v>410102</v>
       </c>
       <c r="B233" s="3">
         <v>4400</v>
       </c>
       <c r="C233" s="4">
-        <v>100032</v>
+        <v>100031</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>410102</v>
+        <v>410110</v>
       </c>
       <c r="B234" s="3">
-        <v>4400</v>
+        <v>4003</v>
       </c>
       <c r="C234" s="4">
-        <v>100031</v>
-      </c>
-      <c r="D234" s="5"/>
-      <c r="E234" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D234" s="5">
+        <v>12</v>
+      </c>
+      <c r="E234" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>410110</v>
+        <v>410120</v>
       </c>
       <c r="B235" s="3">
         <v>4003</v>
       </c>
       <c r="C235" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D235" s="5">
         <v>12</v>
@@ -3546,280 +3526,278 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>410120</v>
-      </c>
-      <c r="B236" s="3">
-        <v>4003</v>
-      </c>
-      <c r="C236" s="4">
-        <v>13</v>
-      </c>
-      <c r="D236" s="5">
-        <v>12</v>
-      </c>
-      <c r="E236" s="2">
-        <v>0</v>
-      </c>
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
+      <c r="A237" s="7">
+        <v>411060</v>
+      </c>
+      <c r="B237" s="8">
+        <v>4102</v>
+      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" s="10">
+        <v>1</v>
+      </c>
+      <c r="E237" s="7"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="8">
-        <v>411060</v>
-      </c>
-      <c r="B238" s="9">
-        <v>4102</v>
-      </c>
-      <c r="C238" s="10"/>
-      <c r="D238" s="11">
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>412100</v>
+      </c>
+      <c r="B239" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C239" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D239" s="5">
         <v>1</v>
       </c>
-      <c r="E238" s="8"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
+      <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>412100</v>
+        <v>412101</v>
       </c>
       <c r="B240" s="3">
-        <v>4102</v>
+        <v>4114</v>
       </c>
       <c r="C240" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D240" s="5">
-        <v>1</v>
-      </c>
+        <v>61003</v>
+      </c>
+      <c r="D240" s="5"/>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>412101</v>
+        <v>412110</v>
       </c>
       <c r="B241" s="3">
-        <v>4114</v>
-      </c>
-      <c r="C241" s="4">
-        <v>61003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C241" s="4"/>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>412110</v>
+        <v>412111</v>
       </c>
       <c r="B242" s="3">
-        <v>0</v>
-      </c>
-      <c r="C242" s="4"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="2"/>
+        <v>4001</v>
+      </c>
+      <c r="C242" s="4">
+        <v>50</v>
+      </c>
+      <c r="D242" s="10"/>
+      <c r="E242" s="7"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>412111</v>
+        <v>412120</v>
       </c>
       <c r="B243" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C243" s="4">
-        <v>50</v>
-      </c>
-      <c r="D243" s="11"/>
-      <c r="E243" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="C243" s="4"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>412120</v>
+        <v>412121</v>
       </c>
       <c r="B244" s="3">
-        <v>0</v>
-      </c>
-      <c r="C244" s="4"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="2"/>
+        <v>4400</v>
+      </c>
+      <c r="C244" s="4">
+        <v>11214</v>
+      </c>
+      <c r="D244" s="10"/>
+      <c r="E244" s="7"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>412121</v>
+        <v>412130</v>
       </c>
       <c r="B245" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C245" s="4">
-        <v>11214</v>
-      </c>
-      <c r="D245" s="11"/>
-      <c r="E245" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="C245" s="4"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>412130</v>
+        <v>412131</v>
       </c>
       <c r="B246" s="3">
-        <v>0</v>
-      </c>
-      <c r="C246" s="4"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="2"/>
+        <v>4111</v>
+      </c>
+      <c r="C246" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D246" s="10"/>
+      <c r="E246" s="7"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>412131</v>
+        <v>412140</v>
       </c>
       <c r="B247" s="3">
         <v>4111</v>
       </c>
       <c r="C247" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D247" s="11"/>
-      <c r="E247" s="8"/>
+        <v>60009</v>
+      </c>
+      <c r="D247" s="5"/>
+      <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="2">
-        <v>412140</v>
-      </c>
-      <c r="B248" s="3">
-        <v>4111</v>
-      </c>
-      <c r="C248" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D248" s="5"/>
-      <c r="E248" s="2"/>
+      <c r="A248" s="6"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="6"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
+      <c r="A249" s="2">
+        <v>413100</v>
+      </c>
+      <c r="B249" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C249" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D249" s="5">
+        <v>1</v>
+      </c>
+      <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>413100</v>
+        <v>413110</v>
       </c>
       <c r="B250" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C250" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D250" s="5">
-        <v>1</v>
-      </c>
+        <v>113100</v>
+      </c>
+      <c r="D250" s="5"/>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>413110</v>
+        <v>413120</v>
       </c>
       <c r="B251" s="3">
         <v>4400</v>
       </c>
       <c r="C251" s="4">
-        <v>113100</v>
+        <v>121120</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>413120</v>
+        <v>413130</v>
       </c>
       <c r="B252" s="3">
         <v>4400</v>
       </c>
       <c r="C252" s="4">
-        <v>121120</v>
+        <v>121121</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>413130</v>
+        <v>413140</v>
       </c>
       <c r="B253" s="3">
         <v>4400</v>
       </c>
       <c r="C253" s="4">
-        <v>121121</v>
+        <v>121122</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>413140</v>
+        <v>413150</v>
       </c>
       <c r="B254" s="3">
         <v>4400</v>
       </c>
       <c r="C254" s="4">
-        <v>121122</v>
+        <v>113140</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>413150</v>
+        <v>413151</v>
       </c>
       <c r="B255" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C255" s="4">
-        <v>113140</v>
-      </c>
-      <c r="D255" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D255" s="5">
+        <v>2</v>
+      </c>
       <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>413151</v>
+        <v>413160</v>
       </c>
       <c r="B256" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C256" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D256" s="5">
-        <v>2</v>
-      </c>
+        <v>113150</v>
+      </c>
+      <c r="D256" s="5"/>
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>413160</v>
+        <v>413161</v>
       </c>
       <c r="B257" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C257" s="4">
-        <v>113150</v>
-      </c>
-      <c r="D257" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D257" s="5">
+        <v>3</v>
+      </c>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>413161</v>
+        <v>413200</v>
       </c>
       <c r="B258" s="3">
         <v>4102</v>
@@ -3828,130 +3806,130 @@
         <v>60003</v>
       </c>
       <c r="D258" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>413200</v>
+        <v>413201</v>
       </c>
       <c r="B259" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C259" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D259" s="5">
-        <v>1</v>
-      </c>
+        <v>100040</v>
+      </c>
+      <c r="D259" s="5"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>413201</v>
+        <v>413210</v>
       </c>
       <c r="B260" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C260" s="4">
-        <v>100040</v>
-      </c>
-      <c r="D260" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D260" s="5">
+        <v>2</v>
+      </c>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>413210</v>
+        <v>413211</v>
       </c>
       <c r="B261" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C261" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D261" s="5">
-        <v>2</v>
-      </c>
+        <v>113200</v>
+      </c>
+      <c r="D261" s="5"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>413211</v>
+        <v>413220</v>
       </c>
       <c r="B262" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C262" s="4">
-        <v>113200</v>
-      </c>
-      <c r="D262" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D262" s="5">
+        <v>3</v>
+      </c>
       <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>413220</v>
+        <v>413221</v>
       </c>
       <c r="B263" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C263" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D263" s="5">
-        <v>3</v>
-      </c>
+        <v>113210</v>
+      </c>
+      <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>413221</v>
+        <v>413230</v>
       </c>
       <c r="B264" s="3">
         <v>4400</v>
       </c>
       <c r="C264" s="4">
-        <v>113210</v>
+        <v>113220</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>413230</v>
+        <v>413231</v>
       </c>
       <c r="B265" s="3">
         <v>4400</v>
       </c>
       <c r="C265" s="4">
-        <v>113220</v>
+        <v>118114</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
-        <v>413231</v>
-      </c>
-      <c r="B266" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C266" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D266" s="5"/>
-      <c r="E266" s="2"/>
+      <c r="A266" s="6"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="6"/>
-      <c r="B267" s="6"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
+      <c r="A267" s="2">
+        <v>415100</v>
+      </c>
+      <c r="B267" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C267" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D267" s="5">
+        <v>1</v>
+      </c>
+      <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>415100</v>
+        <v>415110</v>
       </c>
       <c r="B268" s="3">
         <v>4102</v>
@@ -3960,359 +3938,359 @@
         <v>60005</v>
       </c>
       <c r="D268" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>415110</v>
+        <v>415111</v>
       </c>
       <c r="B269" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C269" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D269" s="5">
-        <v>2</v>
-      </c>
+        <v>115100</v>
+      </c>
+      <c r="D269" s="5"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>415111</v>
+        <v>415120</v>
       </c>
       <c r="B270" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C270" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D270" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D270" s="5">
+        <v>3</v>
+      </c>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>415120</v>
+        <v>415121</v>
       </c>
       <c r="B271" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C271" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D271" s="5">
-        <v>3</v>
-      </c>
+        <v>115101</v>
+      </c>
+      <c r="D271" s="5"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>415121</v>
+        <v>415122</v>
       </c>
       <c r="B272" s="3">
         <v>4400</v>
       </c>
       <c r="C272" s="4">
-        <v>115101</v>
+        <v>115111</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>415122</v>
+        <v>415130</v>
       </c>
       <c r="B273" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C273" s="4">
-        <v>115111</v>
-      </c>
-      <c r="D273" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D273" s="5">
+        <v>3</v>
+      </c>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>415130</v>
+        <v>415131</v>
       </c>
       <c r="B274" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C274" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D274" s="5">
-        <v>3</v>
-      </c>
+        <v>115112</v>
+      </c>
+      <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>415131</v>
+        <v>415140</v>
       </c>
       <c r="B275" s="3">
         <v>4400</v>
       </c>
       <c r="C275" s="4">
-        <v>115112</v>
+        <v>115102</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>415140</v>
+        <v>415141</v>
       </c>
       <c r="B276" s="3">
         <v>4400</v>
       </c>
       <c r="C276" s="4">
-        <v>115102</v>
+        <v>115111</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>415141</v>
+        <v>415150</v>
       </c>
       <c r="B277" s="3">
         <v>4400</v>
       </c>
       <c r="C277" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>415150</v>
+        <v>415151</v>
       </c>
       <c r="B278" s="3">
         <v>4400</v>
       </c>
       <c r="C278" s="4">
-        <v>115102</v>
+        <v>115111</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>415151</v>
+        <v>415160</v>
       </c>
       <c r="B279" s="3">
         <v>4400</v>
       </c>
       <c r="C279" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>415160</v>
+        <v>415161</v>
       </c>
       <c r="B280" s="3">
         <v>4400</v>
       </c>
       <c r="C280" s="4">
-        <v>115102</v>
+        <v>115111</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>415161</v>
+        <v>415170</v>
       </c>
       <c r="B281" s="3">
         <v>4400</v>
       </c>
       <c r="C281" s="4">
-        <v>115111</v>
+        <v>118114</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>415170</v>
+        <v>415171</v>
       </c>
       <c r="B282" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C282" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D282" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D282" s="5">
+        <v>3</v>
+      </c>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>415171</v>
+        <v>415172</v>
       </c>
       <c r="B283" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C283" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D283" s="5">
-        <v>3</v>
-      </c>
+        <v>115120</v>
+      </c>
+      <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>415172</v>
+        <v>415180</v>
       </c>
       <c r="B284" s="3">
         <v>4400</v>
       </c>
       <c r="C284" s="4">
-        <v>115120</v>
+        <v>115170</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>415180</v>
-      </c>
-      <c r="B285" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C285" s="4">
-        <v>115170</v>
-      </c>
-      <c r="D285" s="5"/>
-      <c r="E285" s="2"/>
+      <c r="A285" s="6"/>
+      <c r="B285" s="6"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="6"/>
-      <c r="B286" s="6"/>
-      <c r="C286" s="6"/>
-      <c r="D286" s="6"/>
-      <c r="E286" s="6"/>
+      <c r="A286" s="2">
+        <v>416100</v>
+      </c>
+      <c r="B286" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C286" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D286" s="5">
+        <v>1</v>
+      </c>
+      <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>416100</v>
+        <v>416101</v>
       </c>
       <c r="B287" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C287" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D287" s="5">
-        <v>1</v>
-      </c>
+        <v>116101</v>
+      </c>
+      <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>416101</v>
+        <v>416110</v>
       </c>
       <c r="B288" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C288" s="4">
-        <v>116101</v>
-      </c>
-      <c r="D288" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D288" s="5">
+        <v>2</v>
+      </c>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>416110</v>
+        <v>416111</v>
       </c>
       <c r="B289" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C289" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D289" s="5">
-        <v>2</v>
-      </c>
+        <v>116100</v>
+      </c>
+      <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>416111</v>
+        <v>416120</v>
       </c>
       <c r="B290" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C290" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D290" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D290" s="5">
+        <v>3</v>
+      </c>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>416120</v>
+        <v>416121</v>
       </c>
       <c r="B291" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C291" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D291" s="5">
-        <v>3</v>
-      </c>
+        <v>116110</v>
+      </c>
+      <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>416121</v>
+        <v>416130</v>
       </c>
       <c r="B292" s="3">
         <v>4400</v>
       </c>
       <c r="C292" s="4">
-        <v>116110</v>
+        <v>116121</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>416130</v>
-      </c>
-      <c r="B293" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C293" s="4">
-        <v>116121</v>
-      </c>
-      <c r="D293" s="5"/>
-      <c r="E293" s="2"/>
+      <c r="A293" s="6"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="6"/>
-      <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
+      <c r="A294" s="2">
+        <v>417100</v>
+      </c>
+      <c r="B294" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C294" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D294" s="5">
+        <v>1</v>
+      </c>
+      <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>417100</v>
+        <v>417101</v>
       </c>
       <c r="B295" s="3">
         <v>4102</v>
       </c>
       <c r="C295" s="4">
-        <v>60007</v>
+        <v>60008</v>
       </c>
       <c r="D295" s="5">
         <v>1</v>
@@ -4321,13 +4299,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>417101</v>
+        <v>417102</v>
       </c>
       <c r="B296" s="3">
         <v>4102</v>
       </c>
       <c r="C296" s="4">
-        <v>60008</v>
+        <v>60009</v>
       </c>
       <c r="D296" s="5">
         <v>1</v>
@@ -4336,54 +4314,54 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>417102</v>
+        <v>417110</v>
       </c>
       <c r="B297" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C297" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D297" s="5">
-        <v>1</v>
-      </c>
+        <v>117100</v>
+      </c>
+      <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>417110</v>
+        <v>417120</v>
       </c>
       <c r="B298" s="3">
         <v>4400</v>
       </c>
       <c r="C298" s="4">
-        <v>117100</v>
+        <v>117110</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>417120</v>
+        <v>417130</v>
       </c>
       <c r="B299" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C299" s="4">
-        <v>117110</v>
-      </c>
-      <c r="D299" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D299" s="5">
+        <v>2</v>
+      </c>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>417130</v>
+        <v>417131</v>
       </c>
       <c r="B300" s="3">
         <v>4102</v>
       </c>
       <c r="C300" s="4">
-        <v>60007</v>
+        <v>60008</v>
       </c>
       <c r="D300" s="5">
         <v>2</v>
@@ -4392,13 +4370,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>417131</v>
+        <v>417132</v>
       </c>
       <c r="B301" s="3">
         <v>4102</v>
       </c>
       <c r="C301" s="4">
-        <v>60008</v>
+        <v>60009</v>
       </c>
       <c r="D301" s="5">
         <v>2</v>
@@ -4407,315 +4385,313 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>417132</v>
+        <v>417133</v>
       </c>
       <c r="B302" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C302" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D302" s="5">
-        <v>2</v>
-      </c>
+        <v>117120</v>
+      </c>
+      <c r="D302" s="5"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>417133</v>
+        <v>417134</v>
       </c>
       <c r="B303" s="3">
         <v>4400</v>
       </c>
       <c r="C303" s="4">
-        <v>117120</v>
+        <v>116110</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>417134</v>
+        <v>417140</v>
       </c>
       <c r="B304" s="3">
         <v>4400</v>
       </c>
       <c r="C304" s="4">
-        <v>116110</v>
+        <v>117130</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>417140</v>
+        <v>417150</v>
       </c>
       <c r="B305" s="3">
         <v>4400</v>
       </c>
       <c r="C305" s="4">
-        <v>117130</v>
+        <v>117140</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>417150</v>
+        <v>417151</v>
       </c>
       <c r="B306" s="3">
         <v>4400</v>
       </c>
       <c r="C306" s="4">
-        <v>117140</v>
+        <v>116121</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" s="2">
-        <v>417151</v>
-      </c>
-      <c r="B307" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C307" s="4">
-        <v>116121</v>
-      </c>
-      <c r="D307" s="5"/>
-      <c r="E307" s="2"/>
+      <c r="A307" s="6"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="6"/>
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="6"/>
-      <c r="B308" s="6"/>
-      <c r="C308" s="6"/>
-      <c r="D308" s="6"/>
-      <c r="E308" s="6"/>
+      <c r="A308" s="2">
+        <v>418100</v>
+      </c>
+      <c r="B308" s="3">
+        <v>0</v>
+      </c>
+      <c r="C308" s="4"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>418100</v>
+        <v>418110</v>
       </c>
       <c r="B309" s="3">
-        <v>0</v>
-      </c>
-      <c r="C309" s="4"/>
-      <c r="D309" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C309" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D309" s="5">
+        <v>1</v>
+      </c>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>418110</v>
+        <v>418111</v>
       </c>
       <c r="B310" s="3">
-        <v>4102</v>
+        <v>4000</v>
       </c>
       <c r="C310" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D310" s="5">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>418111</v>
+        <v>418112</v>
       </c>
       <c r="B311" s="3">
-        <v>4000</v>
+        <v>4506</v>
       </c>
       <c r="C311" s="4">
-        <v>10</v>
+        <v>61004</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>418112</v>
+        <v>418113</v>
       </c>
       <c r="B312" s="3">
-        <v>4506</v>
+        <v>4403</v>
       </c>
       <c r="C312" s="4">
-        <v>61004</v>
+        <v>0</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>418113</v>
+        <v>418114</v>
       </c>
       <c r="B313" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C313" s="4">
-        <v>0</v>
+        <v>118114</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>418114</v>
+        <v>418115</v>
       </c>
       <c r="B314" s="3">
         <v>4400</v>
       </c>
       <c r="C314" s="4">
-        <v>118114</v>
+        <v>118115</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>418115</v>
+        <v>418116</v>
       </c>
       <c r="B315" s="3">
         <v>4400</v>
       </c>
       <c r="C315" s="4">
-        <v>118115</v>
+        <v>118116</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="2">
-        <v>418116</v>
-      </c>
-      <c r="B316" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C316" s="4">
-        <v>118116</v>
-      </c>
-      <c r="D316" s="5"/>
-      <c r="E316" s="2"/>
+      <c r="A316" s="6"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="6"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
+      <c r="A317" s="2">
+        <v>419100</v>
+      </c>
+      <c r="B317" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C317" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D317" s="5">
+        <v>1</v>
+      </c>
+      <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>419100</v>
+        <v>419101</v>
       </c>
       <c r="B318" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C318" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D318" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D318" s="5"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>419101</v>
+        <v>419110</v>
       </c>
       <c r="B319" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C319" s="4">
-        <v>0</v>
-      </c>
-      <c r="D319" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D319" s="5">
+        <v>2</v>
+      </c>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>419110</v>
+        <v>419111</v>
       </c>
       <c r="B320" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C320" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D320" s="5">
-        <v>2</v>
-      </c>
+        <v>119100</v>
+      </c>
+      <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>419111</v>
+        <v>419112</v>
       </c>
       <c r="B321" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C321" s="4">
-        <v>119100</v>
+        <v>0</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>419112</v>
+        <v>419120</v>
       </c>
       <c r="B322" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C322" s="4">
-        <v>0</v>
-      </c>
-      <c r="D322" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D322" s="5">
+        <v>3</v>
+      </c>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>419120</v>
+        <v>419121</v>
       </c>
       <c r="B323" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C323" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D323" s="5">
-        <v>3</v>
-      </c>
+        <v>119110</v>
+      </c>
+      <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>419121</v>
+        <v>419122</v>
       </c>
       <c r="B324" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C324" s="4">
-        <v>119110</v>
+        <v>0</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>419122</v>
+        <v>419130</v>
       </c>
       <c r="B325" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C325" s="4">
-        <v>0</v>
+        <v>119121</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>419130</v>
+        <v>419140</v>
       </c>
       <c r="B326" s="3">
         <v>4400</v>
@@ -4728,7 +4704,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>419140</v>
+        <v>419150</v>
       </c>
       <c r="B327" s="3">
         <v>4400</v>
@@ -4740,28 +4716,30 @@
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="2">
-        <v>419150</v>
-      </c>
-      <c r="B328" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C328" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D328" s="5"/>
-      <c r="E328" s="2"/>
+      <c r="A328" s="6"/>
+      <c r="B328" s="6"/>
+      <c r="C328" s="6"/>
+      <c r="D328" s="6"/>
+      <c r="E328" s="6"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="6"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="6"/>
-      <c r="D329" s="6"/>
-      <c r="E329" s="6"/>
+      <c r="A329" s="2">
+        <v>420100</v>
+      </c>
+      <c r="B329" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C329" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D329" s="5">
+        <v>1</v>
+      </c>
+      <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>420100</v>
+        <v>420110</v>
       </c>
       <c r="B330" s="3">
         <v>4102</v>
@@ -4770,1136 +4748,1096 @@
         <v>60010</v>
       </c>
       <c r="D330" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>420110</v>
+        <v>420111</v>
       </c>
       <c r="B331" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C331" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D331" s="5">
-        <v>3</v>
-      </c>
+        <v>120100</v>
+      </c>
+      <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>420111</v>
+        <v>420120</v>
       </c>
       <c r="B332" s="3">
         <v>4400</v>
       </c>
       <c r="C332" s="4">
-        <v>120100</v>
+        <v>120110</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>420120</v>
+        <v>420121</v>
       </c>
       <c r="B333" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C333" s="4">
-        <v>120110</v>
+        <v>0</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>420121</v>
+        <v>420130</v>
       </c>
       <c r="B334" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C334" s="4">
-        <v>0</v>
+        <v>120121</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>420130</v>
+        <v>420140</v>
       </c>
       <c r="B335" s="3">
         <v>4400</v>
       </c>
       <c r="C335" s="4">
-        <v>120121</v>
+        <v>120160</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>420140</v>
+        <v>420141</v>
       </c>
       <c r="B336" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C336" s="4">
-        <v>120160</v>
+        <v>60011</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>420141</v>
+        <v>420142</v>
       </c>
       <c r="B337" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C337" s="4">
-        <v>60011</v>
+        <v>121110</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>420142</v>
+        <v>420150</v>
       </c>
       <c r="B338" s="3">
         <v>4400</v>
       </c>
       <c r="C338" s="4">
-        <v>121110</v>
+        <v>120160</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>420150</v>
+        <v>420151</v>
       </c>
       <c r="B339" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C339" s="4">
-        <v>120160</v>
+        <v>60011</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>420151</v>
+        <v>420152</v>
       </c>
       <c r="B340" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C340" s="4">
-        <v>60011</v>
+        <v>121100</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>420152</v>
+        <v>420160</v>
       </c>
       <c r="B341" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C341" s="4">
-        <v>121100</v>
+        <v>60010</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>420160</v>
+        <v>420161</v>
       </c>
       <c r="B342" s="3">
-        <v>4111</v>
+        <v>4102</v>
       </c>
       <c r="C342" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D342" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D342" s="5">
+        <v>1</v>
+      </c>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>420161</v>
+        <v>420162</v>
       </c>
       <c r="B343" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C343" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D343" s="5">
-        <v>1</v>
-      </c>
+        <v>121110</v>
+      </c>
+      <c r="D343" s="5"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>420162</v>
+        <v>420163</v>
       </c>
       <c r="B344" s="3">
         <v>4400</v>
       </c>
       <c r="C344" s="4">
-        <v>121110</v>
+        <v>121100</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>420163</v>
+        <v>420164</v>
       </c>
       <c r="B345" s="3">
         <v>4400</v>
       </c>
       <c r="C345" s="4">
-        <v>121100</v>
+        <v>120130</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>420164</v>
+        <v>420165</v>
       </c>
       <c r="B346" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C346" s="4">
-        <v>120130</v>
+        <v>20</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="2">
-        <v>420165</v>
-      </c>
-      <c r="B347" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C347" s="4">
-        <v>20</v>
-      </c>
-      <c r="D347" s="5"/>
-      <c r="E347" s="2"/>
+      <c r="A347" s="11"/>
+      <c r="B347" s="6"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="12"/>
-      <c r="B348" s="6"/>
-      <c r="C348" s="6"/>
-      <c r="D348" s="6"/>
-      <c r="E348" s="6"/>
+      <c r="A348" s="2">
+        <v>421100</v>
+      </c>
+      <c r="B348" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C348" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D348" s="5">
+        <v>1</v>
+      </c>
+      <c r="E348" s="2"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>421100</v>
+        <v>421101</v>
       </c>
       <c r="B349" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C349" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D349" s="5">
-        <v>1</v>
-      </c>
+        <v>100031</v>
+      </c>
+      <c r="D349" s="5"/>
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>421101</v>
+        <v>421110</v>
       </c>
       <c r="B350" s="3">
         <v>4400</v>
       </c>
       <c r="C350" s="4">
-        <v>100031</v>
+        <v>121100</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>421110</v>
+        <v>421111</v>
       </c>
       <c r="B351" s="3">
         <v>4400</v>
       </c>
       <c r="C351" s="4">
-        <v>121100</v>
+        <v>113110</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>421111</v>
+        <v>421120</v>
       </c>
       <c r="B352" s="3">
         <v>4400</v>
       </c>
       <c r="C352" s="4">
-        <v>113110</v>
+        <v>121110</v>
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>421120</v>
+        <v>421121</v>
       </c>
       <c r="B353" s="3">
         <v>4400</v>
       </c>
       <c r="C353" s="4">
-        <v>121110</v>
+        <v>120121</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>421121</v>
+        <v>421122</v>
       </c>
       <c r="B354" s="3">
         <v>4400</v>
       </c>
       <c r="C354" s="4">
-        <v>120121</v>
+        <v>120160</v>
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>421122</v>
+        <v>421123</v>
       </c>
       <c r="B355" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C355" s="4">
-        <v>120160</v>
+        <v>10</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="2"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>421123</v>
+        <v>421130</v>
       </c>
       <c r="B356" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C356" s="4">
-        <v>10</v>
+        <v>100032</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>421130</v>
+        <v>421140</v>
       </c>
       <c r="B357" s="3">
         <v>4400</v>
       </c>
       <c r="C357" s="4">
-        <v>100032</v>
+        <v>121130</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>421140</v>
+        <v>421150</v>
       </c>
       <c r="B358" s="3">
         <v>4400</v>
       </c>
       <c r="C358" s="4">
-        <v>121130</v>
+        <v>121140</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>421150</v>
+        <v>421160</v>
       </c>
       <c r="B359" s="3">
         <v>4400</v>
       </c>
       <c r="C359" s="4">
-        <v>121140</v>
+        <v>121150</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>421160</v>
+        <v>421161</v>
       </c>
       <c r="B360" s="3">
         <v>4400</v>
       </c>
       <c r="C360" s="4">
-        <v>121150</v>
+        <v>120160</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>421161</v>
+        <v>421162</v>
       </c>
       <c r="B361" s="3">
         <v>4400</v>
       </c>
       <c r="C361" s="4">
-        <v>120160</v>
+        <v>120130</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>421162</v>
+        <v>421170</v>
       </c>
       <c r="B362" s="3">
         <v>4400</v>
       </c>
       <c r="C362" s="4">
-        <v>120130</v>
+        <v>121160</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>421170</v>
+        <v>421171</v>
       </c>
       <c r="B363" s="3">
         <v>4400</v>
       </c>
       <c r="C363" s="4">
-        <v>121160</v>
+        <v>120160</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>421171</v>
+        <v>421172</v>
       </c>
       <c r="B364" s="3">
         <v>4400</v>
       </c>
       <c r="C364" s="4">
-        <v>120160</v>
+        <v>120130</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>421172</v>
+        <v>421180</v>
       </c>
       <c r="B365" s="3">
         <v>4400</v>
       </c>
       <c r="C365" s="4">
-        <v>120130</v>
+        <v>121130</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>421180</v>
+        <v>421181</v>
       </c>
       <c r="B366" s="3">
         <v>4400</v>
       </c>
       <c r="C366" s="4">
-        <v>121130</v>
+        <v>120160</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>421181</v>
+        <v>421182</v>
       </c>
       <c r="B367" s="3">
         <v>4400</v>
       </c>
       <c r="C367" s="4">
-        <v>120160</v>
+        <v>120130</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="2">
-        <v>421182</v>
-      </c>
-      <c r="B368" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C368" s="4">
-        <v>120130</v>
-      </c>
-      <c r="D368" s="5"/>
-      <c r="E368" s="2"/>
+      <c r="A368" s="6"/>
+      <c r="B368" s="6"/>
+      <c r="C368" s="6"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="6"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
-      <c r="D369" s="6"/>
-      <c r="E369" s="6"/>
+      <c r="A369" s="2">
+        <v>430000</v>
+      </c>
+      <c r="B369" s="3">
+        <v>4505</v>
+      </c>
+      <c r="C369" s="4">
+        <v>20</v>
+      </c>
+      <c r="D369" s="5"/>
+      <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>430000</v>
+        <v>430010</v>
       </c>
       <c r="B370" s="3">
-        <v>4505</v>
+        <v>4001</v>
       </c>
       <c r="C370" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="2"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>430010</v>
+        <v>430020</v>
       </c>
       <c r="B371" s="3">
         <v>4001</v>
       </c>
       <c r="C371" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D371" s="5"/>
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>430020</v>
+        <v>430021</v>
       </c>
       <c r="B372" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C372" s="4">
-        <v>60</v>
+        <v>130010</v>
       </c>
       <c r="D372" s="5"/>
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>430021</v>
+        <v>430030</v>
       </c>
       <c r="B373" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C373" s="4">
-        <v>130010</v>
+        <v>30</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>430030</v>
+        <v>430031</v>
       </c>
       <c r="B374" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C374" s="4">
-        <v>30</v>
+        <v>130020</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>430031</v>
+        <v>430040</v>
       </c>
       <c r="B375" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C375" s="4">
-        <v>130020</v>
+        <v>40</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>430040</v>
+        <v>430041</v>
       </c>
       <c r="B376" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C376" s="4">
-        <v>40</v>
+        <v>130030</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>430041</v>
+        <v>430050</v>
       </c>
       <c r="B377" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C377" s="4">
-        <v>130030</v>
+        <v>50</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>430050</v>
+        <v>430051</v>
       </c>
       <c r="B378" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C378" s="4">
-        <v>50</v>
+        <v>130040</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>430051</v>
+        <v>430052</v>
       </c>
       <c r="B379" s="3">
         <v>4400</v>
       </c>
       <c r="C379" s="4">
-        <v>130040</v>
+        <v>116101</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>430052</v>
+        <v>430060</v>
       </c>
       <c r="B380" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C380" s="4">
-        <v>116101</v>
+        <v>30</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>430060</v>
+        <v>430061</v>
       </c>
       <c r="B381" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C381" s="4">
-        <v>30</v>
+        <v>130020</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>430061</v>
+        <v>430070</v>
       </c>
       <c r="B382" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C382" s="4">
-        <v>130020</v>
+        <v>40</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>430070</v>
+        <v>430071</v>
       </c>
       <c r="B383" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C383" s="4">
-        <v>40</v>
+        <v>130060</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>430071</v>
+        <v>430080</v>
       </c>
       <c r="B384" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C384" s="4">
-        <v>130060</v>
+        <v>50</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>430080</v>
+        <v>430081</v>
       </c>
       <c r="B385" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C385" s="4">
-        <v>50</v>
+        <v>130070</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>430081</v>
+        <v>430082</v>
       </c>
       <c r="B386" s="3">
         <v>4400</v>
       </c>
       <c r="C386" s="4">
-        <v>130070</v>
+        <v>118110</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>430082</v>
+        <v>430090</v>
       </c>
       <c r="B387" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C387" s="4">
-        <v>118110</v>
+        <v>30</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>430090</v>
+        <v>430091</v>
       </c>
       <c r="B388" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C388" s="4">
-        <v>30</v>
+        <v>130020</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>430091</v>
+        <v>430100</v>
       </c>
       <c r="B389" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C389" s="4">
-        <v>130020</v>
+        <v>40</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>430100</v>
+        <v>430101</v>
       </c>
       <c r="B390" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C390" s="4">
-        <v>40</v>
+        <v>130090</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>430101</v>
+        <v>430110</v>
       </c>
       <c r="B391" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C391" s="4">
-        <v>130090</v>
+        <v>50</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>430110</v>
+        <v>430111</v>
       </c>
       <c r="B392" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C392" s="4">
-        <v>50</v>
+        <v>130100</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>430111</v>
+        <v>430112</v>
       </c>
       <c r="B393" s="3">
         <v>4400</v>
       </c>
       <c r="C393" s="4">
-        <v>130100</v>
+        <v>121110</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>430112</v>
+        <v>430113</v>
       </c>
       <c r="B394" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C394" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D394" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D394" s="5">
+        <v>4</v>
+      </c>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>430113</v>
+        <v>430120</v>
       </c>
       <c r="B395" s="3">
-        <v>4114</v>
+        <v>4400</v>
       </c>
       <c r="C395" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D395" s="5">
-        <v>4</v>
-      </c>
+        <v>130110</v>
+      </c>
+      <c r="D395" s="5"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>430120</v>
+        <v>430130</v>
       </c>
       <c r="B396" s="3">
         <v>4400</v>
       </c>
       <c r="C396" s="4">
-        <v>130110</v>
+        <v>130120</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>430130</v>
+        <v>430140</v>
       </c>
       <c r="B397" s="3">
         <v>4400</v>
       </c>
       <c r="C397" s="4">
-        <v>130120</v>
+        <v>130130</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>430140</v>
+        <v>430150</v>
       </c>
       <c r="B398" s="3">
         <v>4400</v>
       </c>
       <c r="C398" s="4">
-        <v>130130</v>
+        <v>130040</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>430150</v>
+        <v>430151</v>
       </c>
       <c r="B399" s="3">
         <v>4400</v>
       </c>
       <c r="C399" s="4">
-        <v>130040</v>
+        <v>130140</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>430151</v>
+        <v>430160</v>
       </c>
       <c r="B400" s="3">
         <v>4400</v>
       </c>
       <c r="C400" s="4">
-        <v>130140</v>
+        <v>130070</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>430160</v>
+        <v>430161</v>
       </c>
       <c r="B401" s="3">
         <v>4400</v>
       </c>
       <c r="C401" s="4">
-        <v>130070</v>
+        <v>130150</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="2"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>430161</v>
+        <v>430170</v>
       </c>
       <c r="B402" s="3">
         <v>4400</v>
       </c>
       <c r="C402" s="4">
-        <v>130150</v>
+        <v>130100</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>430170</v>
+        <v>430171</v>
       </c>
       <c r="B403" s="3">
         <v>4400</v>
       </c>
       <c r="C403" s="4">
-        <v>130100</v>
+        <v>130160</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>430171</v>
+        <v>430180</v>
       </c>
       <c r="B404" s="3">
-        <v>4400</v>
+        <v>4505</v>
       </c>
       <c r="C404" s="4">
-        <v>130160</v>
+        <v>0</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="2">
-        <v>430180</v>
-      </c>
-      <c r="B405" s="3">
-        <v>4505</v>
-      </c>
-      <c r="C405" s="4">
-        <v>0</v>
-      </c>
-      <c r="D405" s="5"/>
-      <c r="E405" s="2"/>
+      <c r="A405" s="6"/>
+      <c r="B405" s="6"/>
+      <c r="C405" s="6"/>
+      <c r="D405" s="6"/>
+      <c r="E405" s="6"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="6"/>
-      <c r="B406" s="6"/>
-      <c r="C406" s="6"/>
-      <c r="D406" s="6"/>
-      <c r="E406" s="6"/>
+      <c r="A406" s="2">
+        <v>450000</v>
+      </c>
+      <c r="B406" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C406" s="4">
+        <v>112100</v>
+      </c>
+      <c r="D406" s="5"/>
+      <c r="E406" s="2"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B407" s="6"/>
-      <c r="C407" s="6"/>
-      <c r="D407" s="6"/>
-      <c r="E407" s="6"/>
+      <c r="A407" s="2">
+        <v>450001</v>
+      </c>
+      <c r="B407" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C407" s="4">
+        <v>112110</v>
+      </c>
+      <c r="D407" s="5"/>
+      <c r="E407" s="2"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>450000</v>
+        <v>450002</v>
       </c>
       <c r="B408" s="3">
         <v>4400</v>
       </c>
       <c r="C408" s="4">
-        <v>112100</v>
+        <v>112120</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>450001</v>
+        <v>450003</v>
       </c>
       <c r="B409" s="3">
         <v>4400</v>
       </c>
       <c r="C409" s="4">
-        <v>112110</v>
+        <v>112130</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>450002</v>
+        <v>450010</v>
       </c>
       <c r="B410" s="3">
         <v>4400</v>
       </c>
       <c r="C410" s="4">
-        <v>112120</v>
+        <v>101000</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>450003</v>
+        <v>450011</v>
       </c>
       <c r="B411" s="3">
         <v>4400</v>
       </c>
       <c r="C411" s="4">
-        <v>112130</v>
+        <v>101010</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>450010</v>
+        <v>450012</v>
       </c>
       <c r="B412" s="3">
         <v>4400</v>
       </c>
       <c r="C412" s="4">
-        <v>101000</v>
+        <v>101020</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>450011</v>
+        <v>450013</v>
       </c>
       <c r="B413" s="3">
         <v>4400</v>
       </c>
       <c r="C413" s="4">
-        <v>101010</v>
+        <v>101040</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A414" s="2">
-        <v>450012</v>
-      </c>
-      <c r="B414" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C414" s="4">
-        <v>101020</v>
-      </c>
-      <c r="D414" s="5"/>
-      <c r="E414" s="2"/>
+      <c r="A414" s="6"/>
+      <c r="B414" s="6"/>
+      <c r="C414" s="6"/>
+      <c r="D414" s="6"/>
+      <c r="E414" s="6"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>450013</v>
+        <v>459000</v>
       </c>
       <c r="B415" s="3">
         <v>4400</v>
       </c>
       <c r="C415" s="4">
-        <v>101040</v>
+        <v>559000</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A416" s="6"/>
-      <c r="B416" s="6"/>
-      <c r="C416" s="6"/>
-      <c r="D416" s="6"/>
-      <c r="E416" s="6"/>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A417" s="6"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
-      <c r="D417" s="6"/>
-      <c r="E417" s="6"/>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A418" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B418" s="6"/>
-      <c r="C418" s="6"/>
-      <c r="D418" s="6"/>
-      <c r="E418" s="6"/>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A419" s="2">
-        <v>459000</v>
-      </c>
-      <c r="B419" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C419" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D419" s="5"/>
-      <c r="E419" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF4397-4EC8-415F-9433-91C59B3AFA9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF9FF98-827A-4487-96B6-FA45C3B3D4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="4260" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12270" yWindow="2775" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -100,12 +100,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{83AE71EE-8E78-41D4-A949-BB4E69E9A5B3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>paras
+int32</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>条件编号</t>
   </si>
@@ -120,6 +135,10 @@
   </si>
   <si>
     <t>参数@2</t>
+  </si>
+  <si>
+    <t>参数@3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -222,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,16 +262,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -567,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E415"/>
+  <dimension ref="A1:F415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="K233" sqref="K233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,7 +596,7 @@
     <col min="3" max="5" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,8 +612,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>400000</v>
       </c>
@@ -611,8 +630,9 @@
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>400010</v>
       </c>
@@ -624,8 +644,9 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>400020</v>
       </c>
@@ -637,8 +658,9 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>400030</v>
       </c>
@@ -652,8 +674,9 @@
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>400040</v>
       </c>
@@ -665,8 +688,9 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>400050</v>
       </c>
@@ -678,8 +702,9 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>400060</v>
       </c>
@@ -691,8 +716,9 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>400070</v>
       </c>
@@ -704,15 +730,16 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>410000</v>
       </c>
@@ -726,8 +753,9 @@
         <v>0</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>410010</v>
       </c>
@@ -741,8 +769,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>410020</v>
       </c>
@@ -756,8 +785,9 @@
         <v>2</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>410030</v>
       </c>
@@ -771,8 +801,9 @@
         <v>1</v>
       </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>410040</v>
       </c>
@@ -786,8 +817,9 @@
         <v>6</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>410041</v>
       </c>
@@ -801,8 +833,9 @@
         <v>2</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>410050</v>
       </c>
@@ -816,8 +849,9 @@
         <v>0</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>410051</v>
       </c>
@@ -831,8 +865,9 @@
         <v>2</v>
       </c>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>411000</v>
       </c>
@@ -846,8 +881,9 @@
         <v>0</v>
       </c>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>411010</v>
       </c>
@@ -861,8 +897,9 @@
         <v>1</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>411020</v>
       </c>
@@ -876,8 +913,9 @@
         <v>2</v>
       </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>411030</v>
       </c>
@@ -891,8 +929,9 @@
         <v>1</v>
       </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>411040</v>
       </c>
@@ -906,8 +945,9 @@
         <v>6</v>
       </c>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>411041</v>
       </c>
@@ -921,8 +961,9 @@
         <v>2</v>
       </c>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>411050</v>
       </c>
@@ -936,8 +977,9 @@
         <v>0</v>
       </c>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>411051</v>
       </c>
@@ -951,8 +993,9 @@
         <v>2</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>412000</v>
       </c>
@@ -966,8 +1009,9 @@
         <v>0</v>
       </c>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>412010</v>
       </c>
@@ -981,8 +1025,9 @@
         <v>1</v>
       </c>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>412020</v>
       </c>
@@ -996,8 +1041,9 @@
         <v>2</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>412030</v>
       </c>
@@ -1011,8 +1057,9 @@
         <v>1</v>
       </c>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>412040</v>
       </c>
@@ -1026,8 +1073,9 @@
         <v>6</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>412041</v>
       </c>
@@ -1041,8 +1089,9 @@
         <v>2</v>
       </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>412050</v>
       </c>
@@ -1056,8 +1105,9 @@
         <v>0</v>
       </c>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>412051</v>
       </c>
@@ -1071,8 +1121,9 @@
         <v>2</v>
       </c>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>413000</v>
       </c>
@@ -1086,8 +1137,9 @@
         <v>0</v>
       </c>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>413010</v>
       </c>
@@ -1101,8 +1153,9 @@
         <v>1</v>
       </c>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>413020</v>
       </c>
@@ -1116,8 +1169,9 @@
         <v>2</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>413030</v>
       </c>
@@ -1131,8 +1185,9 @@
         <v>1</v>
       </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>413040</v>
       </c>
@@ -1146,8 +1201,9 @@
         <v>6</v>
       </c>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>413041</v>
       </c>
@@ -1161,8 +1217,9 @@
         <v>2</v>
       </c>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>413050</v>
       </c>
@@ -1176,8 +1233,9 @@
         <v>0</v>
       </c>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>413051</v>
       </c>
@@ -1191,8 +1249,9 @@
         <v>2</v>
       </c>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>414000</v>
       </c>
@@ -1206,8 +1265,9 @@
         <v>0</v>
       </c>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>414001</v>
       </c>
@@ -1221,8 +1281,9 @@
         <v>110</v>
       </c>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>414010</v>
       </c>
@@ -1236,8 +1297,9 @@
         <v>1</v>
       </c>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>414020</v>
       </c>
@@ -1251,8 +1313,9 @@
         <v>2</v>
       </c>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>414030</v>
       </c>
@@ -1266,8 +1329,9 @@
         <v>1</v>
       </c>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>414040</v>
       </c>
@@ -1281,8 +1345,9 @@
         <v>6</v>
       </c>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>414041</v>
       </c>
@@ -1296,8 +1361,9 @@
         <v>2</v>
       </c>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>414050</v>
       </c>
@@ -1311,8 +1377,9 @@
         <v>0</v>
       </c>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>414051</v>
       </c>
@@ -1326,8 +1393,9 @@
         <v>2</v>
       </c>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>415000</v>
       </c>
@@ -1341,8 +1409,9 @@
         <v>0</v>
       </c>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>415010</v>
       </c>
@@ -1356,8 +1425,9 @@
         <v>1</v>
       </c>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>415020</v>
       </c>
@@ -1371,8 +1441,9 @@
         <v>2</v>
       </c>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>415030</v>
       </c>
@@ -1386,8 +1457,9 @@
         <v>1</v>
       </c>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>415040</v>
       </c>
@@ -1401,8 +1473,9 @@
         <v>6</v>
       </c>
       <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>415041</v>
       </c>
@@ -1416,8 +1489,9 @@
         <v>2</v>
       </c>
       <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>415050</v>
       </c>
@@ -1431,8 +1505,9 @@
         <v>0</v>
       </c>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>415051</v>
       </c>
@@ -1446,8 +1521,9 @@
         <v>2</v>
       </c>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>416000</v>
       </c>
@@ -1461,8 +1537,9 @@
         <v>0</v>
       </c>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>416010</v>
       </c>
@@ -1476,8 +1553,9 @@
         <v>1</v>
       </c>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>416020</v>
       </c>
@@ -1491,8 +1569,9 @@
         <v>2</v>
       </c>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>416030</v>
       </c>
@@ -1506,8 +1585,9 @@
         <v>1</v>
       </c>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>416040</v>
       </c>
@@ -1521,8 +1601,9 @@
         <v>6</v>
       </c>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>416041</v>
       </c>
@@ -1536,8 +1617,9 @@
         <v>2</v>
       </c>
       <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>416050</v>
       </c>
@@ -1551,8 +1633,9 @@
         <v>0</v>
       </c>
       <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>416051</v>
       </c>
@@ -1566,8 +1649,9 @@
         <v>2</v>
       </c>
       <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>417000</v>
       </c>
@@ -1581,8 +1665,9 @@
         <v>0</v>
       </c>
       <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>417010</v>
       </c>
@@ -1596,8 +1681,9 @@
         <v>1</v>
       </c>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>417020</v>
       </c>
@@ -1611,8 +1697,9 @@
         <v>2</v>
       </c>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>417030</v>
       </c>
@@ -1626,8 +1713,9 @@
         <v>1</v>
       </c>
       <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>417040</v>
       </c>
@@ -1641,8 +1729,9 @@
         <v>6</v>
       </c>
       <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>417041</v>
       </c>
@@ -1656,8 +1745,9 @@
         <v>2</v>
       </c>
       <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>417050</v>
       </c>
@@ -1671,8 +1761,9 @@
         <v>0</v>
       </c>
       <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>417051</v>
       </c>
@@ -1686,8 +1777,9 @@
         <v>2</v>
       </c>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>418000</v>
       </c>
@@ -1701,8 +1793,9 @@
         <v>0</v>
       </c>
       <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>418010</v>
       </c>
@@ -1716,8 +1809,9 @@
         <v>1</v>
       </c>
       <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>418020</v>
       </c>
@@ -1731,8 +1825,9 @@
         <v>2</v>
       </c>
       <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>418030</v>
       </c>
@@ -1746,8 +1841,9 @@
         <v>1</v>
       </c>
       <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>418040</v>
       </c>
@@ -1761,8 +1857,9 @@
         <v>6</v>
       </c>
       <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>418041</v>
       </c>
@@ -1776,8 +1873,9 @@
         <v>2</v>
       </c>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>418050</v>
       </c>
@@ -1791,8 +1889,9 @@
         <v>0</v>
       </c>
       <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>418051</v>
       </c>
@@ -1806,8 +1905,9 @@
         <v>2</v>
       </c>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>419000</v>
       </c>
@@ -1821,8 +1921,9 @@
         <v>0</v>
       </c>
       <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>419010</v>
       </c>
@@ -1836,8 +1937,9 @@
         <v>1</v>
       </c>
       <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>419020</v>
       </c>
@@ -1851,8 +1953,9 @@
         <v>2</v>
       </c>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>419030</v>
       </c>
@@ -1866,8 +1969,9 @@
         <v>1</v>
       </c>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>419040</v>
       </c>
@@ -1881,8 +1985,9 @@
         <v>6</v>
       </c>
       <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>419041</v>
       </c>
@@ -1896,8 +2001,9 @@
         <v>2</v>
       </c>
       <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>419050</v>
       </c>
@@ -1911,8 +2017,9 @@
         <v>0</v>
       </c>
       <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>419051</v>
       </c>
@@ -1926,8 +2033,9 @@
         <v>2</v>
       </c>
       <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>420000</v>
       </c>
@@ -1941,8 +2049,9 @@
         <v>0</v>
       </c>
       <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>420010</v>
       </c>
@@ -1956,8 +2065,9 @@
         <v>1</v>
       </c>
       <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>420020</v>
       </c>
@@ -1971,8 +2081,9 @@
         <v>2</v>
       </c>
       <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>420030</v>
       </c>
@@ -1986,8 +2097,9 @@
         <v>1</v>
       </c>
       <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>420040</v>
       </c>
@@ -2001,8 +2113,9 @@
         <v>6</v>
       </c>
       <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>420041</v>
       </c>
@@ -2016,8 +2129,9 @@
         <v>2</v>
       </c>
       <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>420050</v>
       </c>
@@ -2031,8 +2145,9 @@
         <v>0</v>
       </c>
       <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>420051</v>
       </c>
@@ -2046,8 +2161,9 @@
         <v>2</v>
       </c>
       <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>421000</v>
       </c>
@@ -2061,8 +2177,9 @@
         <v>0</v>
       </c>
       <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>421010</v>
       </c>
@@ -2076,8 +2193,9 @@
         <v>1</v>
       </c>
       <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>421020</v>
       </c>
@@ -2091,8 +2209,9 @@
         <v>2</v>
       </c>
       <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>421030</v>
       </c>
@@ -2106,8 +2225,9 @@
         <v>1</v>
       </c>
       <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>421040</v>
       </c>
@@ -2121,8 +2241,9 @@
         <v>6</v>
       </c>
       <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>421041</v>
       </c>
@@ -2136,8 +2257,9 @@
         <v>2</v>
       </c>
       <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>421050</v>
       </c>
@@ -2151,8 +2273,9 @@
         <v>0</v>
       </c>
       <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>421051</v>
       </c>
@@ -2166,9 +2289,10 @@
         <v>2</v>
       </c>
       <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>400100</v>
       </c>
@@ -2178,8 +2302,9 @@
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>400110</v>
       </c>
@@ -2189,8 +2314,9 @@
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>400120</v>
       </c>
@@ -2200,8 +2326,9 @@
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>400130</v>
       </c>
@@ -2211,8 +2338,9 @@
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>400140</v>
       </c>
@@ -2222,8 +2350,9 @@
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
       <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>400150</v>
       </c>
@@ -2233,8 +2362,9 @@
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>400160</v>
       </c>
@@ -2244,8 +2374,9 @@
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>400170</v>
       </c>
@@ -2255,8 +2386,9 @@
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>400180</v>
       </c>
@@ -2266,9 +2398,10 @@
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>400200</v>
       </c>
@@ -2278,8 +2411,9 @@
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>400210</v>
       </c>
@@ -2289,8 +2423,9 @@
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
       <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>400220</v>
       </c>
@@ -2300,8 +2435,9 @@
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>400230</v>
       </c>
@@ -2311,8 +2447,9 @@
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>400240</v>
       </c>
@@ -2322,8 +2459,9 @@
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>400250</v>
       </c>
@@ -2333,8 +2471,9 @@
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>400260</v>
       </c>
@@ -2344,8 +2483,9 @@
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>400270</v>
       </c>
@@ -2355,8 +2495,9 @@
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
       <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>400280</v>
       </c>
@@ -2366,8 +2507,9 @@
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
       <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>400290</v>
       </c>
@@ -2377,8 +2519,9 @@
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
       <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>400300</v>
       </c>
@@ -2388,8 +2531,9 @@
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>400310</v>
       </c>
@@ -2399,8 +2543,9 @@
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>400320</v>
       </c>
@@ -2410,8 +2555,9 @@
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>400330</v>
       </c>
@@ -2421,8 +2567,9 @@
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>400340</v>
       </c>
@@ -2432,8 +2579,9 @@
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>400350</v>
       </c>
@@ -2443,9 +2591,10 @@
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
       <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>401000</v>
       </c>
@@ -2455,8 +2604,9 @@
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>401010</v>
       </c>
@@ -2466,8 +2616,9 @@
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>401020</v>
       </c>
@@ -2477,8 +2628,9 @@
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>401030</v>
       </c>
@@ -2488,8 +2640,9 @@
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>401040</v>
       </c>
@@ -2499,8 +2652,9 @@
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>401050</v>
       </c>
@@ -2510,9 +2664,10 @@
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>402000</v>
       </c>
@@ -2522,8 +2677,9 @@
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>402010</v>
       </c>
@@ -2533,8 +2689,9 @@
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>402020</v>
       </c>
@@ -2544,8 +2701,9 @@
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
       <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>402030</v>
       </c>
@@ -2555,9 +2713,10 @@
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
       <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>403000</v>
       </c>
@@ -2567,8 +2726,9 @@
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
       <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>403010</v>
       </c>
@@ -2578,8 +2738,9 @@
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
       <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>403020</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>403030</v>
       </c>
@@ -2600,8 +2762,9 @@
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>403040</v>
       </c>
@@ -2611,8 +2774,9 @@
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>403100</v>
       </c>
@@ -2622,8 +2786,9 @@
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>403110</v>
       </c>
@@ -2633,8 +2798,9 @@
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>403120</v>
       </c>
@@ -2644,8 +2810,9 @@
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
       <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>403130</v>
       </c>
@@ -2655,8 +2822,9 @@
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>403140</v>
       </c>
@@ -2666,8 +2834,9 @@
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>403150</v>
       </c>
@@ -2677,8 +2846,9 @@
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>403160</v>
       </c>
@@ -2688,8 +2858,9 @@
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
       <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>403170</v>
       </c>
@@ -2699,8 +2870,9 @@
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
       <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>403180</v>
       </c>
@@ -2710,8 +2882,9 @@
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>403190</v>
       </c>
@@ -2721,8 +2894,9 @@
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>403200</v>
       </c>
@@ -2732,8 +2906,9 @@
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>403210</v>
       </c>
@@ -2743,8 +2918,9 @@
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>403220</v>
       </c>
@@ -2754,9 +2930,10 @@
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>403300</v>
       </c>
@@ -2766,8 +2943,9 @@
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>403310</v>
       </c>
@@ -2777,8 +2955,9 @@
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>403320</v>
       </c>
@@ -2788,8 +2967,9 @@
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>403330</v>
       </c>
@@ -2799,8 +2979,9 @@
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>403340</v>
       </c>
@@ -2810,8 +2991,9 @@
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>403350</v>
       </c>
@@ -2821,8 +3003,9 @@
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
       <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>403360</v>
       </c>
@@ -2832,8 +3015,9 @@
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
       <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>403370</v>
       </c>
@@ -2843,8 +3027,9 @@
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>403380</v>
       </c>
@@ -2854,8 +3039,9 @@
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>403390</v>
       </c>
@@ -2865,8 +3051,9 @@
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
       <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>403400</v>
       </c>
@@ -2876,8 +3063,9 @@
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
       <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>403410</v>
       </c>
@@ -2887,8 +3075,9 @@
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
       <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>403500</v>
       </c>
@@ -2898,8 +3087,9 @@
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
       <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>403510</v>
       </c>
@@ -2909,8 +3099,9 @@
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
       <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>403520</v>
       </c>
@@ -2920,8 +3111,9 @@
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>403530</v>
       </c>
@@ -2931,8 +3123,9 @@
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
       <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>403540</v>
       </c>
@@ -2942,8 +3135,9 @@
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>403550</v>
       </c>
@@ -2953,8 +3147,9 @@
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>403560</v>
       </c>
@@ -2964,8 +3159,9 @@
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>403570</v>
       </c>
@@ -2975,8 +3171,9 @@
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>403580</v>
       </c>
@@ -2986,8 +3183,9 @@
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>403590</v>
       </c>
@@ -2997,8 +3195,9 @@
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>403600</v>
       </c>
@@ -3008,8 +3207,9 @@
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>403610</v>
       </c>
@@ -3019,8 +3219,9 @@
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>403700</v>
       </c>
@@ -3030,8 +3231,9 @@
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>403710</v>
       </c>
@@ -3041,8 +3243,9 @@
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>403720</v>
       </c>
@@ -3052,8 +3255,9 @@
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>403730</v>
       </c>
@@ -3063,8 +3267,9 @@
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
       <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>403740</v>
       </c>
@@ -3074,8 +3279,9 @@
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
       <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>403750</v>
       </c>
@@ -3085,8 +3291,9 @@
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
       <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>403760</v>
       </c>
@@ -3096,8 +3303,9 @@
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>403770</v>
       </c>
@@ -3107,8 +3315,9 @@
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>403780</v>
       </c>
@@ -3118,8 +3327,9 @@
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>403790</v>
       </c>
@@ -3129,8 +3339,9 @@
       <c r="C200" s="4"/>
       <c r="D200" s="5"/>
       <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>403800</v>
       </c>
@@ -3140,8 +3351,9 @@
       <c r="C201" s="4"/>
       <c r="D201" s="5"/>
       <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>403810</v>
       </c>
@@ -3151,8 +3363,9 @@
       <c r="C202" s="4"/>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>403900</v>
       </c>
@@ -3162,8 +3375,9 @@
       <c r="C203" s="4"/>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>403910</v>
       </c>
@@ -3173,8 +3387,9 @@
       <c r="C204" s="4"/>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>403920</v>
       </c>
@@ -3184,15 +3399,16 @@
       <c r="C205" s="4"/>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>404000</v>
       </c>
@@ -3202,8 +3418,9 @@
       <c r="C207" s="4"/>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>404010</v>
       </c>
@@ -3213,8 +3430,9 @@
       <c r="C208" s="4"/>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>404020</v>
       </c>
@@ -3224,8 +3442,9 @@
       <c r="C209" s="4"/>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>404030</v>
       </c>
@@ -3235,8 +3454,9 @@
       <c r="C210" s="4"/>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>404040</v>
       </c>
@@ -3246,8 +3466,9 @@
       <c r="C211" s="4"/>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>404050</v>
       </c>
@@ -3257,8 +3478,9 @@
       <c r="C212" s="4"/>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>404060</v>
       </c>
@@ -3268,8 +3490,9 @@
       <c r="C213" s="4"/>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>404070</v>
       </c>
@@ -3279,8 +3502,9 @@
       <c r="C214" s="4"/>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>404080</v>
       </c>
@@ -3290,8 +3514,9 @@
       <c r="C215" s="4"/>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>404090</v>
       </c>
@@ -3301,8 +3526,9 @@
       <c r="C216" s="4"/>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>404100</v>
       </c>
@@ -3312,8 +3538,9 @@
       <c r="C217" s="4"/>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>404110</v>
       </c>
@@ -3323,8 +3550,9 @@
       <c r="C218" s="4"/>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>404120</v>
       </c>
@@ -3334,8 +3562,9 @@
       <c r="C219" s="4"/>
       <c r="D219" s="5"/>
       <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>404130</v>
       </c>
@@ -3345,8 +3574,9 @@
       <c r="C220" s="4"/>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>404200</v>
       </c>
@@ -3356,8 +3586,9 @@
       <c r="C221" s="4"/>
       <c r="D221" s="5"/>
       <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>404210</v>
       </c>
@@ -3367,8 +3598,9 @@
       <c r="C222" s="4"/>
       <c r="D222" s="5"/>
       <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>404220</v>
       </c>
@@ -3378,8 +3610,9 @@
       <c r="C223" s="4"/>
       <c r="D223" s="5"/>
       <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>404230</v>
       </c>
@@ -3389,15 +3622,16 @@
       <c r="C224" s="4"/>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>409000</v>
       </c>
@@ -3407,8 +3641,9 @@
       <c r="C226" s="4"/>
       <c r="D226" s="5"/>
       <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>409010</v>
       </c>
@@ -3418,8 +3653,9 @@
       <c r="C227" s="4"/>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>409020</v>
       </c>
@@ -3429,8 +3665,9 @@
       <c r="C228" s="4"/>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>409030</v>
       </c>
@@ -3440,15 +3677,16 @@
       <c r="C229" s="4"/>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>410100</v>
       </c>
@@ -3456,16 +3694,19 @@
         <v>4003</v>
       </c>
       <c r="C231" s="4">
+        <v>7</v>
+      </c>
+      <c r="D231" s="5">
         <v>11</v>
       </c>
-      <c r="D231" s="5">
+      <c r="E231" s="2">
         <v>12</v>
       </c>
-      <c r="E231" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>410101</v>
       </c>
@@ -3477,8 +3718,9 @@
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>410102</v>
       </c>
@@ -3490,8 +3732,9 @@
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>410110</v>
       </c>
@@ -3499,16 +3742,19 @@
         <v>4003</v>
       </c>
       <c r="C234" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D234" s="5">
         <v>12</v>
       </c>
       <c r="E234" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>410120</v>
       </c>
@@ -3516,43 +3762,50 @@
         <v>4003</v>
       </c>
       <c r="C235" s="4">
+        <v>7</v>
+      </c>
+      <c r="D235" s="5">
         <v>13</v>
       </c>
-      <c r="D235" s="5">
+      <c r="E235" s="2">
         <v>12</v>
       </c>
-      <c r="E235" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="7">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
         <v>411060</v>
       </c>
-      <c r="B237" s="8">
-        <v>4102</v>
-      </c>
-      <c r="C237" s="9"/>
-      <c r="D237" s="10">
+      <c r="B237" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C237" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D237" s="5">
         <v>1</v>
       </c>
-      <c r="E237" s="7"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E237" s="2"/>
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="9"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="10"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>412100</v>
       </c>
@@ -3566,8 +3819,9 @@
         <v>1</v>
       </c>
       <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>412101</v>
       </c>
@@ -3579,8 +3833,9 @@
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>412110</v>
       </c>
@@ -3590,8 +3845,9 @@
       <c r="C241" s="4"/>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>412111</v>
       </c>
@@ -3601,10 +3857,11 @@
       <c r="C242" s="4">
         <v>50</v>
       </c>
-      <c r="D242" s="10"/>
+      <c r="D242" s="8"/>
       <c r="E242" s="7"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>412120</v>
       </c>
@@ -3614,8 +3871,9 @@
       <c r="C243" s="4"/>
       <c r="D243" s="5"/>
       <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>412121</v>
       </c>
@@ -3625,10 +3883,11 @@
       <c r="C244" s="4">
         <v>11214</v>
       </c>
-      <c r="D244" s="10"/>
+      <c r="D244" s="8"/>
       <c r="E244" s="7"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>412130</v>
       </c>
@@ -3638,8 +3897,9 @@
       <c r="C245" s="4"/>
       <c r="D245" s="5"/>
       <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>412131</v>
       </c>
@@ -3649,10 +3909,11 @@
       <c r="C246" s="4">
         <v>60002</v>
       </c>
-      <c r="D246" s="10"/>
+      <c r="D246" s="8"/>
       <c r="E246" s="7"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>412140</v>
       </c>
@@ -3664,15 +3925,16 @@
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>413100</v>
       </c>
@@ -3686,8 +3948,9 @@
         <v>1</v>
       </c>
       <c r="E249" s="2"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>413110</v>
       </c>
@@ -3699,8 +3962,9 @@
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>413120</v>
       </c>
@@ -3712,8 +3976,9 @@
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>413130</v>
       </c>
@@ -3725,8 +3990,9 @@
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>413140</v>
       </c>
@@ -3738,8 +4004,9 @@
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>413150</v>
       </c>
@@ -3751,8 +4018,9 @@
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>413151</v>
       </c>
@@ -3766,8 +4034,9 @@
         <v>2</v>
       </c>
       <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>413160</v>
       </c>
@@ -3779,8 +4048,9 @@
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="2"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>413161</v>
       </c>
@@ -3794,8 +4064,9 @@
         <v>3</v>
       </c>
       <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>413200</v>
       </c>
@@ -3809,8 +4080,9 @@
         <v>1</v>
       </c>
       <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>413201</v>
       </c>
@@ -3822,8 +4094,9 @@
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>413210</v>
       </c>
@@ -3837,8 +4110,9 @@
         <v>2</v>
       </c>
       <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>413211</v>
       </c>
@@ -3850,8 +4124,9 @@
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>413220</v>
       </c>
@@ -3865,8 +4140,9 @@
         <v>3</v>
       </c>
       <c r="E262" s="2"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>413221</v>
       </c>
@@ -3878,8 +4154,9 @@
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>413230</v>
       </c>
@@ -3891,8 +4168,9 @@
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>413231</v>
       </c>
@@ -3904,15 +4182,16 @@
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>415100</v>
       </c>
@@ -3926,8 +4205,9 @@
         <v>1</v>
       </c>
       <c r="E267" s="2"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>415110</v>
       </c>
@@ -3941,8 +4221,9 @@
         <v>2</v>
       </c>
       <c r="E268" s="2"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>415111</v>
       </c>
@@ -3954,8 +4235,9 @@
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>415120</v>
       </c>
@@ -3969,8 +4251,9 @@
         <v>3</v>
       </c>
       <c r="E270" s="2"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>415121</v>
       </c>
@@ -3982,8 +4265,9 @@
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>415122</v>
       </c>
@@ -3995,8 +4279,9 @@
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>415130</v>
       </c>
@@ -4010,8 +4295,9 @@
         <v>3</v>
       </c>
       <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>415131</v>
       </c>
@@ -4023,8 +4309,9 @@
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="2"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>415140</v>
       </c>
@@ -4036,8 +4323,9 @@
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>415141</v>
       </c>
@@ -4049,8 +4337,9 @@
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>415150</v>
       </c>
@@ -4062,8 +4351,9 @@
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>415151</v>
       </c>
@@ -4075,8 +4365,9 @@
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>415160</v>
       </c>
@@ -4088,8 +4379,9 @@
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="2"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>415161</v>
       </c>
@@ -4101,8 +4393,9 @@
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>415170</v>
       </c>
@@ -4114,8 +4407,9 @@
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>415171</v>
       </c>
@@ -4129,8 +4423,9 @@
         <v>3</v>
       </c>
       <c r="E282" s="2"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>415172</v>
       </c>
@@ -4142,8 +4437,9 @@
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283" s="3"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>415180</v>
       </c>
@@ -4155,15 +4451,16 @@
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>416100</v>
       </c>
@@ -4177,8 +4474,9 @@
         <v>1</v>
       </c>
       <c r="E286" s="2"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>416101</v>
       </c>
@@ -4190,8 +4488,9 @@
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>416110</v>
       </c>
@@ -4205,8 +4504,9 @@
         <v>2</v>
       </c>
       <c r="E288" s="2"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>416111</v>
       </c>
@@ -4218,8 +4518,9 @@
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>416120</v>
       </c>
@@ -4233,8 +4534,9 @@
         <v>3</v>
       </c>
       <c r="E290" s="2"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>416121</v>
       </c>
@@ -4246,8 +4548,9 @@
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>416130</v>
       </c>
@@ -4259,15 +4562,16 @@
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>417100</v>
       </c>
@@ -4281,8 +4585,9 @@
         <v>1</v>
       </c>
       <c r="E294" s="2"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>417101</v>
       </c>
@@ -4296,8 +4601,9 @@
         <v>1</v>
       </c>
       <c r="E295" s="2"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>417102</v>
       </c>
@@ -4311,8 +4617,9 @@
         <v>1</v>
       </c>
       <c r="E296" s="2"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>417110</v>
       </c>
@@ -4324,8 +4631,9 @@
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>417120</v>
       </c>
@@ -4337,8 +4645,9 @@
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>417130</v>
       </c>
@@ -4352,8 +4661,9 @@
         <v>2</v>
       </c>
       <c r="E299" s="2"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>417131</v>
       </c>
@@ -4367,8 +4677,9 @@
         <v>2</v>
       </c>
       <c r="E300" s="2"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>417132</v>
       </c>
@@ -4382,8 +4693,9 @@
         <v>2</v>
       </c>
       <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>417133</v>
       </c>
@@ -4395,8 +4707,9 @@
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>417134</v>
       </c>
@@ -4408,8 +4721,9 @@
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>417140</v>
       </c>
@@ -4421,8 +4735,9 @@
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>417150</v>
       </c>
@@ -4434,8 +4749,9 @@
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>417151</v>
       </c>
@@ -4447,15 +4763,16 @@
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>418100</v>
       </c>
@@ -4465,8 +4782,9 @@
       <c r="C308" s="4"/>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>418110</v>
       </c>
@@ -4480,8 +4798,9 @@
         <v>1</v>
       </c>
       <c r="E309" s="2"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>418111</v>
       </c>
@@ -4493,8 +4812,9 @@
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>418112</v>
       </c>
@@ -4506,8 +4826,9 @@
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>418113</v>
       </c>
@@ -4519,8 +4840,9 @@
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>418114</v>
       </c>
@@ -4532,8 +4854,9 @@
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>418115</v>
       </c>
@@ -4545,8 +4868,9 @@
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>418116</v>
       </c>
@@ -4558,15 +4882,16 @@
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>419100</v>
       </c>
@@ -4580,8 +4905,9 @@
         <v>1</v>
       </c>
       <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>419101</v>
       </c>
@@ -4593,8 +4919,9 @@
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>419110</v>
       </c>
@@ -4608,8 +4935,9 @@
         <v>2</v>
       </c>
       <c r="E319" s="2"/>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>419111</v>
       </c>
@@ -4621,8 +4949,9 @@
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>419112</v>
       </c>
@@ -4634,8 +4963,9 @@
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>419120</v>
       </c>
@@ -4649,8 +4979,9 @@
         <v>3</v>
       </c>
       <c r="E322" s="2"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>419121</v>
       </c>
@@ -4662,8 +4993,9 @@
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>419122</v>
       </c>
@@ -4675,8 +5007,9 @@
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>419130</v>
       </c>
@@ -4688,8 +5021,9 @@
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>419140</v>
       </c>
@@ -4701,8 +5035,9 @@
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>419150</v>
       </c>
@@ -4714,15 +5049,16 @@
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>420100</v>
       </c>
@@ -4736,8 +5072,9 @@
         <v>1</v>
       </c>
       <c r="E329" s="2"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>420110</v>
       </c>
@@ -4751,8 +5088,9 @@
         <v>3</v>
       </c>
       <c r="E330" s="2"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>420111</v>
       </c>
@@ -4764,8 +5102,9 @@
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>420120</v>
       </c>
@@ -4777,8 +5116,9 @@
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>420121</v>
       </c>
@@ -4790,8 +5130,9 @@
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>420130</v>
       </c>
@@ -4803,8 +5144,9 @@
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>420140</v>
       </c>
@@ -4816,8 +5158,9 @@
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>420141</v>
       </c>
@@ -4829,8 +5172,9 @@
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>420142</v>
       </c>
@@ -4842,8 +5186,9 @@
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>420150</v>
       </c>
@@ -4855,8 +5200,9 @@
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>420151</v>
       </c>
@@ -4868,8 +5214,9 @@
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>420152</v>
       </c>
@@ -4881,8 +5228,9 @@
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>420160</v>
       </c>
@@ -4894,8 +5242,9 @@
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>420161</v>
       </c>
@@ -4909,8 +5258,9 @@
         <v>1</v>
       </c>
       <c r="E342" s="2"/>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>420162</v>
       </c>
@@ -4922,8 +5272,9 @@
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>420163</v>
       </c>
@@ -4935,8 +5286,9 @@
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F344" s="3"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>420164</v>
       </c>
@@ -4948,8 +5300,9 @@
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F345" s="3"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>420165</v>
       </c>
@@ -4961,15 +5314,16 @@
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="11"/>
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" s="9"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>421100</v>
       </c>
@@ -4983,8 +5337,9 @@
         <v>1</v>
       </c>
       <c r="E348" s="2"/>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>421101</v>
       </c>
@@ -4996,8 +5351,9 @@
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="2"/>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>421110</v>
       </c>
@@ -5009,8 +5365,9 @@
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F350" s="3"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>421111</v>
       </c>
@@ -5022,8 +5379,9 @@
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>421120</v>
       </c>
@@ -5035,8 +5393,9 @@
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="2"/>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>421121</v>
       </c>
@@ -5048,8 +5407,9 @@
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="2"/>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>421122</v>
       </c>
@@ -5061,8 +5421,9 @@
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="2"/>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>421123</v>
       </c>
@@ -5074,8 +5435,9 @@
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="2"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F355" s="3"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>421130</v>
       </c>
@@ -5087,8 +5449,9 @@
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="2"/>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F356" s="3"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>421140</v>
       </c>
@@ -5100,8 +5463,9 @@
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F357" s="3"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>421150</v>
       </c>
@@ -5113,8 +5477,9 @@
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="2"/>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F358" s="3"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>421160</v>
       </c>
@@ -5126,8 +5491,9 @@
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="2"/>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F359" s="3"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>421161</v>
       </c>
@@ -5139,8 +5505,9 @@
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="2"/>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F360" s="3"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>421162</v>
       </c>
@@ -5152,8 +5519,9 @@
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="2"/>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>421170</v>
       </c>
@@ -5165,8 +5533,9 @@
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="2"/>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>421171</v>
       </c>
@@ -5178,8 +5547,9 @@
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="2"/>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>421172</v>
       </c>
@@ -5191,8 +5561,9 @@
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="2"/>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F364" s="3"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>421180</v>
       </c>
@@ -5204,8 +5575,9 @@
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="2"/>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F365" s="3"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>421181</v>
       </c>
@@ -5217,8 +5589,9 @@
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="2"/>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F366" s="3"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>421182</v>
       </c>
@@ -5230,15 +5603,16 @@
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="2"/>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F367" s="3"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>430000</v>
       </c>
@@ -5250,8 +5624,9 @@
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="2"/>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F369" s="3"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>430010</v>
       </c>
@@ -5263,8 +5638,9 @@
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="2"/>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F370" s="3"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>430020</v>
       </c>
@@ -5276,8 +5652,9 @@
       </c>
       <c r="D371" s="5"/>
       <c r="E371" s="2"/>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F371" s="3"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>430021</v>
       </c>
@@ -5289,8 +5666,9 @@
       </c>
       <c r="D372" s="5"/>
       <c r="E372" s="2"/>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F372" s="3"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>430030</v>
       </c>
@@ -5302,8 +5680,9 @@
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="2"/>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F373" s="3"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>430031</v>
       </c>
@@ -5315,8 +5694,9 @@
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="2"/>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F374" s="3"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>430040</v>
       </c>
@@ -5328,8 +5708,9 @@
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F375" s="3"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>430041</v>
       </c>
@@ -5341,8 +5722,9 @@
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="2"/>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F376" s="3"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>430050</v>
       </c>
@@ -5354,8 +5736,9 @@
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F377" s="3"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>430051</v>
       </c>
@@ -5367,8 +5750,9 @@
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F378" s="3"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>430052</v>
       </c>
@@ -5380,8 +5764,9 @@
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F379" s="3"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>430060</v>
       </c>
@@ -5393,8 +5778,9 @@
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F380" s="3"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>430061</v>
       </c>
@@ -5406,8 +5792,9 @@
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="2"/>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F381" s="3"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>430070</v>
       </c>
@@ -5419,8 +5806,9 @@
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="2"/>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F382" s="3"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>430071</v>
       </c>
@@ -5432,8 +5820,9 @@
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="2"/>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F383" s="3"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>430080</v>
       </c>
@@ -5445,8 +5834,9 @@
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="2"/>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F384" s="3"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>430081</v>
       </c>
@@ -5458,8 +5848,9 @@
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F385" s="3"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>430082</v>
       </c>
@@ -5471,8 +5862,9 @@
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F386" s="3"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>430090</v>
       </c>
@@ -5484,8 +5876,9 @@
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F387" s="3"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>430091</v>
       </c>
@@ -5497,8 +5890,9 @@
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="2"/>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F388" s="3"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>430100</v>
       </c>
@@ -5510,8 +5904,9 @@
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="2"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F389" s="3"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>430101</v>
       </c>
@@ -5523,8 +5918,9 @@
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="2"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F390" s="3"/>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>430110</v>
       </c>
@@ -5536,8 +5932,9 @@
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="2"/>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F391" s="3"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>430111</v>
       </c>
@@ -5549,8 +5946,9 @@
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="2"/>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F392" s="3"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>430112</v>
       </c>
@@ -5562,8 +5960,9 @@
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="2"/>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F393" s="3"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>430113</v>
       </c>
@@ -5577,8 +5976,9 @@
         <v>4</v>
       </c>
       <c r="E394" s="2"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F394" s="3"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>430120</v>
       </c>
@@ -5590,8 +5990,9 @@
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="2"/>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F395" s="3"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>430130</v>
       </c>
@@ -5603,8 +6004,9 @@
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="2"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F396" s="3"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>430140</v>
       </c>
@@ -5616,8 +6018,9 @@
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F397" s="3"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>430150</v>
       </c>
@@ -5629,8 +6032,9 @@
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="2"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F398" s="3"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>430151</v>
       </c>
@@ -5642,8 +6046,9 @@
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="2"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F399" s="3"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>430160</v>
       </c>
@@ -5655,8 +6060,9 @@
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="2"/>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F400" s="3"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>430161</v>
       </c>
@@ -5668,8 +6074,9 @@
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="2"/>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F401" s="3"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>430170</v>
       </c>
@@ -5681,8 +6088,9 @@
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="2"/>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F402" s="3"/>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>430171</v>
       </c>
@@ -5694,8 +6102,9 @@
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="2"/>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F403" s="3"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>430180</v>
       </c>
@@ -5707,15 +6116,16 @@
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F404" s="3"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>450000</v>
       </c>
@@ -5727,8 +6137,9 @@
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="2"/>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F406" s="3"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>450001</v>
       </c>
@@ -5740,8 +6151,9 @@
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="2"/>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F407" s="3"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>450002</v>
       </c>
@@ -5753,8 +6165,9 @@
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="2"/>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F408" s="3"/>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>450003</v>
       </c>
@@ -5766,8 +6179,9 @@
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F409" s="3"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>450010</v>
       </c>
@@ -5779,8 +6193,9 @@
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="2"/>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F410" s="3"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>450011</v>
       </c>
@@ -5792,8 +6207,9 @@
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="2"/>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F411" s="3"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>450012</v>
       </c>
@@ -5805,8 +6221,9 @@
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="2"/>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F412" s="3"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>450013</v>
       </c>
@@ -5818,15 +6235,16 @@
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="2"/>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F413" s="3"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>459000</v>
       </c>
@@ -5838,10 +6256,14 @@
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
+      <c r="F415" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{CEE98ABE-90F0-4523-BB10-4214F81ADED0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF9FF98-827A-4487-96B6-FA45C3B3D4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0405EEC-2988-4720-9C3C-55C132D1B0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="2775" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="5685" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="K233" sqref="K233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>60000</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -1277,9 +1277,7 @@
       <c r="C44" s="4">
         <v>110</v>
       </c>
-      <c r="D44" s="5">
-        <v>110</v>
-      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
     </row>
@@ -5617,11 +5615,9 @@
         <v>430000</v>
       </c>
       <c r="B369" s="3">
-        <v>4505</v>
-      </c>
-      <c r="C369" s="4">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C369" s="4"/>
       <c r="D369" s="5"/>
       <c r="E369" s="2"/>
       <c r="F369" s="3"/>
@@ -6109,11 +6105,9 @@
         <v>430180</v>
       </c>
       <c r="B404" s="3">
-        <v>4505</v>
-      </c>
-      <c r="C404" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C404" s="4"/>
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
       <c r="F404" s="3"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0405EEC-2988-4720-9C3C-55C132D1B0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83EF0D-5C21-4FC4-9936-884F45C75FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="5685" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="4560" windowWidth="24060" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -723,12 +723,14 @@
         <v>400070</v>
       </c>
       <c r="B9" s="3">
-        <v>4501</v>
+        <v>4102</v>
       </c>
       <c r="C9" s="4">
-        <v>200</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83EF0D-5C21-4FC4-9936-884F45C75FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1D6FE3-455A-4B76-97F0-ABABABCF47B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="4560" windowWidth="24060" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21390" yWindow="4515" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F415"/>
+  <dimension ref="A1:F418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6254,6 +6254,34 @@
       <c r="E415" s="2"/>
       <c r="F415" s="3"/>
     </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>440030</v>
+      </c>
+      <c r="B417" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C417" s="4">
+        <v>140020</v>
+      </c>
+      <c r="D417" s="5"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="3"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" s="2">
+        <v>440040</v>
+      </c>
+      <c r="B418" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C418" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D418" s="5"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1D6FE3-455A-4B76-97F0-ABABABCF47B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F94E1-412C-493E-8E30-50D8B9961E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21390" yWindow="4515" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16140" yWindow="3870" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F418"/>
+  <dimension ref="A1:F431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="F379" sqref="F379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2599,9 +2599,11 @@
         <v>401000</v>
       </c>
       <c r="B136" s="3">
-        <v>0</v>
-      </c>
-      <c r="C136" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C136" s="4">
+        <v>130050</v>
+      </c>
       <c r="D136" s="5"/>
       <c r="E136" s="2"/>
       <c r="F136" s="3"/>
@@ -2611,9 +2613,11 @@
         <v>401010</v>
       </c>
       <c r="B137" s="3">
-        <v>0</v>
-      </c>
-      <c r="C137" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C137" s="4">
+        <v>130080</v>
+      </c>
       <c r="D137" s="5"/>
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
@@ -2623,9 +2627,11 @@
         <v>401020</v>
       </c>
       <c r="B138" s="3">
-        <v>0</v>
-      </c>
-      <c r="C138" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C138" s="4">
+        <v>130110</v>
+      </c>
       <c r="D138" s="5"/>
       <c r="E138" s="2"/>
       <c r="F138" s="3"/>
@@ -2635,174 +2641,208 @@
         <v>401030</v>
       </c>
       <c r="B139" s="3">
-        <v>0</v>
-      </c>
-      <c r="C139" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C139" s="4">
+        <v>101000</v>
+      </c>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>401040</v>
+        <v>401031</v>
       </c>
       <c r="B140" s="3">
-        <v>0</v>
-      </c>
-      <c r="C140" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C140" s="4">
+        <v>101010</v>
+      </c>
       <c r="D140" s="5"/>
       <c r="E140" s="2"/>
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>401050</v>
+        <v>401032</v>
       </c>
       <c r="B141" s="3">
-        <v>0</v>
-      </c>
-      <c r="C141" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C141" s="4">
+        <v>101020</v>
+      </c>
       <c r="D141" s="5"/>
       <c r="E141" s="2"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>401040</v>
+      </c>
+      <c r="B142" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C142" s="4">
+        <v>101030</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="3"/>
+    </row>
     <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>402000</v>
+        <v>401041</v>
       </c>
       <c r="B143" s="3">
-        <v>0</v>
-      </c>
-      <c r="C143" s="4"/>
+        <v>4111</v>
+      </c>
+      <c r="C143" s="4">
+        <v>60011</v>
+      </c>
       <c r="D143" s="5"/>
       <c r="E143" s="2"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>402010</v>
+        <v>401050</v>
       </c>
       <c r="B144" s="3">
-        <v>0</v>
-      </c>
-      <c r="C144" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C144" s="4">
+        <v>101040</v>
+      </c>
       <c r="D144" s="5"/>
       <c r="E144" s="2"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>402020</v>
-      </c>
-      <c r="B145" s="3">
-        <v>0</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="3"/>
-    </row>
+    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>402030</v>
+        <v>402000</v>
       </c>
       <c r="B146" s="3">
-        <v>0</v>
-      </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C146" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D146" s="5">
+        <v>3</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>402001</v>
+      </c>
+      <c r="B147" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C147" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D147" s="5">
+        <v>3</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="3"/>
+    </row>
     <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>403000</v>
+        <v>402002</v>
       </c>
       <c r="B148" s="3">
-        <v>0</v>
-      </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C148" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D148" s="5">
+        <v>3</v>
+      </c>
       <c r="E148" s="2"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>403010</v>
+        <v>402003</v>
       </c>
       <c r="B149" s="3">
-        <v>0</v>
-      </c>
-      <c r="C149" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C149" s="4">
+        <v>117130</v>
+      </c>
       <c r="D149" s="5"/>
       <c r="E149" s="2"/>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>403020</v>
+        <v>402004</v>
       </c>
       <c r="B150" s="3">
-        <v>0</v>
-      </c>
-      <c r="C150" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C150" s="4">
+        <v>100031</v>
+      </c>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>403030</v>
+        <v>402010</v>
       </c>
       <c r="B151" s="3">
-        <v>0</v>
-      </c>
-      <c r="C151" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C151" s="4">
+        <v>102000</v>
+      </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>403040</v>
+        <v>402020</v>
       </c>
       <c r="B152" s="3">
-        <v>0</v>
-      </c>
-      <c r="C152" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C152" s="4">
+        <v>102010</v>
+      </c>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>403100</v>
+        <v>402030</v>
       </c>
       <c r="B153" s="3">
-        <v>0</v>
-      </c>
-      <c r="C153" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C153" s="4">
+        <v>102020</v>
+      </c>
       <c r="D153" s="5"/>
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>403110</v>
-      </c>
-      <c r="B154" s="3">
-        <v>0</v>
-      </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="3"/>
-    </row>
+    <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>403120</v>
+        <v>403000</v>
       </c>
       <c r="B155" s="3">
         <v>0</v>
@@ -2814,7 +2854,7 @@
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>403130</v>
+        <v>403010</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
@@ -2826,7 +2866,7 @@
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>403140</v>
+        <v>403020</v>
       </c>
       <c r="B157" s="3">
         <v>0</v>
@@ -2838,7 +2878,7 @@
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>403150</v>
+        <v>403030</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -2850,7 +2890,7 @@
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>403160</v>
+        <v>403040</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -2862,7 +2902,7 @@
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>403170</v>
+        <v>403100</v>
       </c>
       <c r="B160" s="3">
         <v>0</v>
@@ -2874,7 +2914,7 @@
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>403180</v>
+        <v>403110</v>
       </c>
       <c r="B161" s="3">
         <v>0</v>
@@ -2886,7 +2926,7 @@
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>403190</v>
+        <v>403120</v>
       </c>
       <c r="B162" s="3">
         <v>0</v>
@@ -2898,7 +2938,7 @@
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>403200</v>
+        <v>403130</v>
       </c>
       <c r="B163" s="3">
         <v>0</v>
@@ -2910,7 +2950,7 @@
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>403210</v>
+        <v>403140</v>
       </c>
       <c r="B164" s="3">
         <v>0</v>
@@ -2922,7 +2962,7 @@
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>403220</v>
+        <v>403150</v>
       </c>
       <c r="B165" s="3">
         <v>0</v>
@@ -2932,10 +2972,21 @@
       <c r="E165" s="2"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>403160</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="3"/>
+    </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>403300</v>
+        <v>403170</v>
       </c>
       <c r="B167" s="3">
         <v>0</v>
@@ -2947,7 +2998,7 @@
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>403310</v>
+        <v>403180</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -2959,7 +3010,7 @@
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>403320</v>
+        <v>403190</v>
       </c>
       <c r="B169" s="3">
         <v>0</v>
@@ -2971,7 +3022,7 @@
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>403330</v>
+        <v>403200</v>
       </c>
       <c r="B170" s="3">
         <v>0</v>
@@ -2983,7 +3034,7 @@
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>403340</v>
+        <v>403210</v>
       </c>
       <c r="B171" s="3">
         <v>0</v>
@@ -2995,7 +3046,7 @@
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>403350</v>
+        <v>403220</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
@@ -3005,21 +3056,10 @@
       <c r="E172" s="2"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>403360</v>
-      </c>
-      <c r="B173" s="3">
-        <v>0</v>
-      </c>
-      <c r="C173" s="4"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="3"/>
-    </row>
+    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>403370</v>
+        <v>403300</v>
       </c>
       <c r="B174" s="3">
         <v>0</v>
@@ -3031,7 +3071,7 @@
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>403380</v>
+        <v>403310</v>
       </c>
       <c r="B175" s="3">
         <v>0</v>
@@ -3043,7 +3083,7 @@
     </row>
     <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>403390</v>
+        <v>403320</v>
       </c>
       <c r="B176" s="3">
         <v>0</v>
@@ -3055,7 +3095,7 @@
     </row>
     <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>403400</v>
+        <v>403330</v>
       </c>
       <c r="B177" s="3">
         <v>0</v>
@@ -3067,7 +3107,7 @@
     </row>
     <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>403410</v>
+        <v>403340</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -3079,7 +3119,7 @@
     </row>
     <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>403500</v>
+        <v>403350</v>
       </c>
       <c r="B179" s="3">
         <v>0</v>
@@ -3091,7 +3131,7 @@
     </row>
     <row r="180" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>403510</v>
+        <v>403360</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -3103,7 +3143,7 @@
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>403520</v>
+        <v>403370</v>
       </c>
       <c r="B181" s="3">
         <v>0</v>
@@ -3115,7 +3155,7 @@
     </row>
     <row r="182" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>403530</v>
+        <v>403380</v>
       </c>
       <c r="B182" s="3">
         <v>0</v>
@@ -3127,7 +3167,7 @@
     </row>
     <row r="183" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>403540</v>
+        <v>403390</v>
       </c>
       <c r="B183" s="3">
         <v>0</v>
@@ -3139,7 +3179,7 @@
     </row>
     <row r="184" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>403550</v>
+        <v>403400</v>
       </c>
       <c r="B184" s="3">
         <v>0</v>
@@ -3151,7 +3191,7 @@
     </row>
     <row r="185" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>403560</v>
+        <v>403410</v>
       </c>
       <c r="B185" s="3">
         <v>0</v>
@@ -3163,7 +3203,7 @@
     </row>
     <row r="186" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>403570</v>
+        <v>403500</v>
       </c>
       <c r="B186" s="3">
         <v>0</v>
@@ -3175,7 +3215,7 @@
     </row>
     <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>403580</v>
+        <v>403510</v>
       </c>
       <c r="B187" s="3">
         <v>0</v>
@@ -3187,7 +3227,7 @@
     </row>
     <row r="188" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>403590</v>
+        <v>403520</v>
       </c>
       <c r="B188" s="3">
         <v>0</v>
@@ -3199,7 +3239,7 @@
     </row>
     <row r="189" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>403600</v>
+        <v>403530</v>
       </c>
       <c r="B189" s="3">
         <v>0</v>
@@ -3211,7 +3251,7 @@
     </row>
     <row r="190" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>403610</v>
+        <v>403540</v>
       </c>
       <c r="B190" s="3">
         <v>0</v>
@@ -3223,7 +3263,7 @@
     </row>
     <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>403700</v>
+        <v>403550</v>
       </c>
       <c r="B191" s="3">
         <v>0</v>
@@ -3235,7 +3275,7 @@
     </row>
     <row r="192" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>403710</v>
+        <v>403560</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -3247,7 +3287,7 @@
     </row>
     <row r="193" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>403720</v>
+        <v>403570</v>
       </c>
       <c r="B193" s="3">
         <v>0</v>
@@ -3259,7 +3299,7 @@
     </row>
     <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>403730</v>
+        <v>403580</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -3269,9 +3309,9 @@
       <c r="E194" s="2"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>403740</v>
+        <v>403590</v>
       </c>
       <c r="B195" s="3">
         <v>0</v>
@@ -3283,7 +3323,7 @@
     </row>
     <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>403750</v>
+        <v>403600</v>
       </c>
       <c r="B196" s="3">
         <v>0</v>
@@ -3295,7 +3335,7 @@
     </row>
     <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>403760</v>
+        <v>403610</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -3307,7 +3347,7 @@
     </row>
     <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>403770</v>
+        <v>403700</v>
       </c>
       <c r="B198" s="3">
         <v>0</v>
@@ -3319,7 +3359,7 @@
     </row>
     <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>403780</v>
+        <v>403710</v>
       </c>
       <c r="B199" s="3">
         <v>0</v>
@@ -3329,9 +3369,9 @@
       <c r="E199" s="2"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>403790</v>
+        <v>403720</v>
       </c>
       <c r="B200" s="3">
         <v>0</v>
@@ -3341,9 +3381,9 @@
       <c r="E200" s="2"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>403800</v>
+        <v>403730</v>
       </c>
       <c r="B201" s="3">
         <v>0</v>
@@ -3355,7 +3395,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>403810</v>
+        <v>403740</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
@@ -3365,9 +3405,9 @@
       <c r="E202" s="2"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>403900</v>
+        <v>403750</v>
       </c>
       <c r="B203" s="3">
         <v>0</v>
@@ -3377,9 +3417,9 @@
       <c r="E203" s="2"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>403910</v>
+        <v>403760</v>
       </c>
       <c r="B204" s="3">
         <v>0</v>
@@ -3389,9 +3429,9 @@
       <c r="E204" s="2"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>403920</v>
+        <v>403770</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
@@ -3401,16 +3441,21 @@
       <c r="E205" s="2"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="6"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
+    <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>403780</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206" s="4"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>404000</v>
+        <v>403790</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
@@ -3422,7 +3467,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>404010</v>
+        <v>403800</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
@@ -3434,7 +3479,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>404020</v>
+        <v>403810</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
@@ -3446,7 +3491,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>404030</v>
+        <v>403900</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -3458,7 +3503,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>404040</v>
+        <v>403910</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
@@ -3470,7 +3515,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>404050</v>
+        <v>403920</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
@@ -3481,20 +3526,15 @@
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
-        <v>404060</v>
-      </c>
-      <c r="B213" s="3">
-        <v>0</v>
-      </c>
-      <c r="C213" s="4"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="3"/>
+      <c r="A213" s="6"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>404070</v>
+        <v>404000</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -3506,7 +3546,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>404080</v>
+        <v>404010</v>
       </c>
       <c r="B215" s="3">
         <v>0</v>
@@ -3518,7 +3558,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>404090</v>
+        <v>404020</v>
       </c>
       <c r="B216" s="3">
         <v>0</v>
@@ -3530,7 +3570,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>404100</v>
+        <v>404030</v>
       </c>
       <c r="B217" s="3">
         <v>0</v>
@@ -3542,7 +3582,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>404110</v>
+        <v>404040</v>
       </c>
       <c r="B218" s="3">
         <v>0</v>
@@ -3554,7 +3594,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>404120</v>
+        <v>404050</v>
       </c>
       <c r="B219" s="3">
         <v>0</v>
@@ -3566,7 +3606,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>404130</v>
+        <v>404060</v>
       </c>
       <c r="B220" s="3">
         <v>0</v>
@@ -3578,7 +3618,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>404200</v>
+        <v>404070</v>
       </c>
       <c r="B221" s="3">
         <v>0</v>
@@ -3590,7 +3630,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>404210</v>
+        <v>404080</v>
       </c>
       <c r="B222" s="3">
         <v>0</v>
@@ -3602,7 +3642,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>404220</v>
+        <v>404090</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -3614,7 +3654,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>404230</v>
+        <v>404100</v>
       </c>
       <c r="B224" s="3">
         <v>0</v>
@@ -3625,15 +3665,20 @@
       <c r="F224" s="3"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
+      <c r="A225" s="2">
+        <v>404110</v>
+      </c>
+      <c r="B225" s="3">
+        <v>0</v>
+      </c>
+      <c r="C225" s="4"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="3"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>409000</v>
+        <v>404120</v>
       </c>
       <c r="B226" s="3">
         <v>0</v>
@@ -3645,7 +3690,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>409010</v>
+        <v>404130</v>
       </c>
       <c r="B227" s="3">
         <v>0</v>
@@ -3657,7 +3702,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>409020</v>
+        <v>404200</v>
       </c>
       <c r="B228" s="3">
         <v>0</v>
@@ -3669,7 +3714,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>409030</v>
+        <v>404210</v>
       </c>
       <c r="B229" s="3">
         <v>0</v>
@@ -3680,156 +3725,134 @@
       <c r="F229" s="3"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
+      <c r="A230" s="2">
+        <v>404220</v>
+      </c>
+      <c r="B230" s="3">
+        <v>0</v>
+      </c>
+      <c r="C230" s="4"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="3"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>410100</v>
+        <v>404230</v>
       </c>
       <c r="B231" s="3">
-        <v>4003</v>
-      </c>
-      <c r="C231" s="4">
-        <v>7</v>
-      </c>
-      <c r="D231" s="5">
-        <v>11</v>
-      </c>
-      <c r="E231" s="2">
-        <v>12</v>
-      </c>
-      <c r="F231" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C231" s="4"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="3"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="2">
-        <v>410101</v>
-      </c>
-      <c r="B232" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C232" s="4">
-        <v>100032</v>
-      </c>
-      <c r="D232" s="5"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="3"/>
+      <c r="A232" s="6"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>410102</v>
+        <v>409000</v>
       </c>
       <c r="B233" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C233" s="4">
-        <v>100031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C233" s="4"/>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
       <c r="F233" s="3"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>410110</v>
+        <v>409010</v>
       </c>
       <c r="B234" s="3">
-        <v>4003</v>
-      </c>
-      <c r="C234" s="4">
-        <v>7</v>
-      </c>
-      <c r="D234" s="5">
-        <v>12</v>
-      </c>
-      <c r="E234" s="2">
-        <v>12</v>
-      </c>
-      <c r="F234" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C234" s="4"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="3"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>410120</v>
+        <v>409020</v>
       </c>
       <c r="B235" s="3">
+        <v>0</v>
+      </c>
+      <c r="C235" s="4"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>409030</v>
+      </c>
+      <c r="B236" s="3">
+        <v>0</v>
+      </c>
+      <c r="C236" s="4"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="6"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>410100</v>
+      </c>
+      <c r="B238" s="3">
         <v>4003</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C238" s="4">
         <v>7</v>
       </c>
-      <c r="D235" s="5">
-        <v>13</v>
-      </c>
-      <c r="E235" s="2">
+      <c r="D238" s="5">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2">
         <v>12</v>
       </c>
-      <c r="F235" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="2">
-        <v>411060</v>
-      </c>
-      <c r="B237" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C237" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D237" s="5">
-        <v>1</v>
-      </c>
-      <c r="E237" s="2"/>
-      <c r="F237" s="3"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="10"/>
+      <c r="F238" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>412100</v>
+        <v>410101</v>
       </c>
       <c r="B239" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C239" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D239" s="5">
-        <v>1</v>
-      </c>
+        <v>100032</v>
+      </c>
+      <c r="D239" s="5"/>
       <c r="E239" s="2"/>
       <c r="F239" s="3"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>412101</v>
+        <v>410102</v>
       </c>
       <c r="B240" s="3">
-        <v>4114</v>
+        <v>4400</v>
       </c>
       <c r="C240" s="4">
-        <v>61003</v>
+        <v>100031</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="2"/>
@@ -3837,260 +3860,257 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>412110</v>
+        <v>410110</v>
       </c>
       <c r="B241" s="3">
-        <v>0</v>
-      </c>
-      <c r="C241" s="4"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="3"/>
+        <v>4003</v>
+      </c>
+      <c r="C241" s="4">
+        <v>7</v>
+      </c>
+      <c r="D241" s="5">
+        <v>12</v>
+      </c>
+      <c r="E241" s="2">
+        <v>12</v>
+      </c>
+      <c r="F241" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>412111</v>
+        <v>410120</v>
       </c>
       <c r="B242" s="3">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="C242" s="4">
-        <v>50</v>
-      </c>
-      <c r="D242" s="8"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="D242" s="5">
+        <v>13</v>
+      </c>
+      <c r="E242" s="2">
+        <v>12</v>
+      </c>
+      <c r="F242" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>412120</v>
-      </c>
-      <c r="B243" s="3">
-        <v>0</v>
-      </c>
-      <c r="C243" s="4"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="3"/>
+      <c r="A243" s="6"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>412121</v>
+        <v>411060</v>
       </c>
       <c r="B244" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C244" s="4">
-        <v>11214</v>
-      </c>
-      <c r="D244" s="8"/>
-      <c r="E244" s="7"/>
+        <v>60001</v>
+      </c>
+      <c r="D244" s="5">
+        <v>1</v>
+      </c>
+      <c r="E244" s="2"/>
       <c r="F244" s="3"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="2">
-        <v>412130</v>
-      </c>
-      <c r="B245" s="3">
-        <v>0</v>
-      </c>
-      <c r="C245" s="4"/>
-      <c r="D245" s="5"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="3"/>
+      <c r="A245" s="9"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="9"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="10"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>412131</v>
+        <v>412100</v>
       </c>
       <c r="B246" s="3">
-        <v>4111</v>
+        <v>4102</v>
       </c>
       <c r="C246" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D246" s="8"/>
-      <c r="E246" s="7"/>
+        <v>60003</v>
+      </c>
+      <c r="D246" s="5">
+        <v>1</v>
+      </c>
+      <c r="E246" s="2"/>
       <c r="F246" s="3"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>412140</v>
+        <v>412101</v>
       </c>
       <c r="B247" s="3">
-        <v>4111</v>
+        <v>4114</v>
       </c>
       <c r="C247" s="4">
-        <v>60009</v>
+        <v>61003</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
       <c r="F247" s="3"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="6"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
+      <c r="A248" s="2">
+        <v>412110</v>
+      </c>
+      <c r="B248" s="3">
+        <v>0</v>
+      </c>
+      <c r="C248" s="4"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>413100</v>
+        <v>412111</v>
       </c>
       <c r="B249" s="3">
-        <v>4102</v>
+        <v>4001</v>
       </c>
       <c r="C249" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D249" s="5">
-        <v>1</v>
-      </c>
-      <c r="E249" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D249" s="8"/>
+      <c r="E249" s="7"/>
       <c r="F249" s="3"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>413110</v>
+        <v>412120</v>
       </c>
       <c r="B250" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C250" s="4">
-        <v>113100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C250" s="4"/>
       <c r="D250" s="5"/>
       <c r="E250" s="2"/>
       <c r="F250" s="3"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>413120</v>
+        <v>412121</v>
       </c>
       <c r="B251" s="3">
         <v>4400</v>
       </c>
       <c r="C251" s="4">
-        <v>121120</v>
-      </c>
-      <c r="D251" s="5"/>
-      <c r="E251" s="2"/>
+        <v>11214</v>
+      </c>
+      <c r="D251" s="8"/>
+      <c r="E251" s="7"/>
       <c r="F251" s="3"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>413130</v>
+        <v>412130</v>
       </c>
       <c r="B252" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C252" s="4">
-        <v>121121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C252" s="4"/>
       <c r="D252" s="5"/>
       <c r="E252" s="2"/>
       <c r="F252" s="3"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>413140</v>
+        <v>412131</v>
       </c>
       <c r="B253" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C253" s="4">
-        <v>121122</v>
-      </c>
-      <c r="D253" s="5"/>
-      <c r="E253" s="2"/>
+        <v>60002</v>
+      </c>
+      <c r="D253" s="8"/>
+      <c r="E253" s="7"/>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>413150</v>
+        <v>412140</v>
       </c>
       <c r="B254" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C254" s="4">
-        <v>113140</v>
+        <v>60009</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
       <c r="F254" s="3"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>413151</v>
-      </c>
-      <c r="B255" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C255" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D255" s="5">
-        <v>2</v>
-      </c>
-      <c r="E255" s="2"/>
-      <c r="F255" s="3"/>
+      <c r="A255" s="6"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>413160</v>
+        <v>413100</v>
       </c>
       <c r="B256" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C256" s="4">
-        <v>113150</v>
-      </c>
-      <c r="D256" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D256" s="5">
+        <v>1</v>
+      </c>
       <c r="E256" s="2"/>
       <c r="F256" s="3"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>413161</v>
+        <v>413110</v>
       </c>
       <c r="B257" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C257" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D257" s="5">
-        <v>3</v>
-      </c>
+        <v>113100</v>
+      </c>
+      <c r="D257" s="5"/>
       <c r="E257" s="2"/>
       <c r="F257" s="3"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>413200</v>
+        <v>413120</v>
       </c>
       <c r="B258" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C258" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D258" s="5">
-        <v>1</v>
-      </c>
+        <v>121120</v>
+      </c>
+      <c r="D258" s="5"/>
       <c r="E258" s="2"/>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>413201</v>
+        <v>413130</v>
       </c>
       <c r="B259" s="3">
         <v>4400</v>
       </c>
       <c r="C259" s="4">
-        <v>100040</v>
+        <v>121121</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
@@ -4098,29 +4118,27 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>413210</v>
+        <v>413140</v>
       </c>
       <c r="B260" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C260" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D260" s="5">
-        <v>2</v>
-      </c>
+        <v>121122</v>
+      </c>
+      <c r="D260" s="5"/>
       <c r="E260" s="2"/>
       <c r="F260" s="3"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>413211</v>
+        <v>413150</v>
       </c>
       <c r="B261" s="3">
         <v>4400</v>
       </c>
       <c r="C261" s="4">
-        <v>113200</v>
+        <v>113140</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
@@ -4128,7 +4146,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>413220</v>
+        <v>413151</v>
       </c>
       <c r="B262" s="3">
         <v>4102</v>
@@ -4137,20 +4155,20 @@
         <v>60003</v>
       </c>
       <c r="D262" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="3"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>413221</v>
+        <v>413160</v>
       </c>
       <c r="B263" s="3">
         <v>4400</v>
       </c>
       <c r="C263" s="4">
-        <v>113210</v>
+        <v>113150</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
@@ -4158,110 +4176,119 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>413230</v>
+        <v>413161</v>
       </c>
       <c r="B264" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C264" s="4">
-        <v>113220</v>
-      </c>
-      <c r="D264" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D264" s="5">
+        <v>3</v>
+      </c>
       <c r="E264" s="2"/>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>413231</v>
+        <v>413200</v>
       </c>
       <c r="B265" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C265" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D265" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D265" s="5">
+        <v>1</v>
+      </c>
       <c r="E265" s="2"/>
       <c r="F265" s="3"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="6"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
+      <c r="A266" s="2">
+        <v>413201</v>
+      </c>
+      <c r="B266" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C266" s="4">
+        <v>100040</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="3"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>415100</v>
+        <v>413210</v>
       </c>
       <c r="B267" s="3">
         <v>4102</v>
       </c>
       <c r="C267" s="4">
-        <v>60005</v>
+        <v>60003</v>
       </c>
       <c r="D267" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="3"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>415110</v>
+        <v>413211</v>
       </c>
       <c r="B268" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C268" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D268" s="5">
-        <v>2</v>
-      </c>
+        <v>113200</v>
+      </c>
+      <c r="D268" s="5"/>
       <c r="E268" s="2"/>
       <c r="F268" s="3"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>415111</v>
+        <v>413220</v>
       </c>
       <c r="B269" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C269" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D269" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D269" s="5">
+        <v>3</v>
+      </c>
       <c r="E269" s="2"/>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>415120</v>
+        <v>413221</v>
       </c>
       <c r="B270" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C270" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D270" s="5">
-        <v>3</v>
-      </c>
+        <v>113210</v>
+      </c>
+      <c r="D270" s="5"/>
       <c r="E270" s="2"/>
       <c r="F270" s="3"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>415121</v>
+        <v>413230</v>
       </c>
       <c r="B271" s="3">
         <v>4400</v>
       </c>
       <c r="C271" s="4">
-        <v>115101</v>
+        <v>113220</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
@@ -4269,71 +4296,66 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>415122</v>
+        <v>413231</v>
       </c>
       <c r="B272" s="3">
         <v>4400</v>
       </c>
       <c r="C272" s="4">
-        <v>115111</v>
+        <v>118114</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
       <c r="F272" s="3"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="2">
-        <v>415130</v>
-      </c>
-      <c r="B273" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C273" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D273" s="5">
-        <v>3</v>
-      </c>
-      <c r="E273" s="2"/>
-      <c r="F273" s="3"/>
+      <c r="A273" s="6"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>415131</v>
+        <v>415100</v>
       </c>
       <c r="B274" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C274" s="4">
-        <v>115112</v>
-      </c>
-      <c r="D274" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D274" s="5">
+        <v>1</v>
+      </c>
       <c r="E274" s="2"/>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>415140</v>
+        <v>415110</v>
       </c>
       <c r="B275" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C275" s="4">
-        <v>115102</v>
-      </c>
-      <c r="D275" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D275" s="5">
+        <v>2</v>
+      </c>
       <c r="E275" s="2"/>
       <c r="F275" s="3"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>415141</v>
+        <v>415111</v>
       </c>
       <c r="B276" s="3">
         <v>4400</v>
       </c>
       <c r="C276" s="4">
-        <v>115111</v>
+        <v>115100</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
@@ -4341,27 +4363,29 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>415150</v>
+        <v>415120</v>
       </c>
       <c r="B277" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C277" s="4">
-        <v>115102</v>
-      </c>
-      <c r="D277" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D277" s="5">
+        <v>3</v>
+      </c>
       <c r="E277" s="2"/>
       <c r="F277" s="3"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>415151</v>
+        <v>415121</v>
       </c>
       <c r="B278" s="3">
         <v>4400</v>
       </c>
       <c r="C278" s="4">
-        <v>115111</v>
+        <v>115101</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
@@ -4369,13 +4393,13 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>415160</v>
+        <v>415122</v>
       </c>
       <c r="B279" s="3">
         <v>4400</v>
       </c>
       <c r="C279" s="4">
-        <v>115102</v>
+        <v>115111</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="2"/>
@@ -4383,27 +4407,29 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>415161</v>
+        <v>415130</v>
       </c>
       <c r="B280" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C280" s="4">
-        <v>115111</v>
-      </c>
-      <c r="D280" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D280" s="5">
+        <v>3</v>
+      </c>
       <c r="E280" s="2"/>
       <c r="F280" s="3"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>415170</v>
+        <v>415131</v>
       </c>
       <c r="B281" s="3">
         <v>4400</v>
       </c>
       <c r="C281" s="4">
-        <v>118114</v>
+        <v>115112</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
@@ -4411,29 +4437,27 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>415171</v>
+        <v>415140</v>
       </c>
       <c r="B282" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C282" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D282" s="5">
-        <v>3</v>
-      </c>
+        <v>115102</v>
+      </c>
+      <c r="D282" s="5"/>
       <c r="E282" s="2"/>
       <c r="F282" s="3"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>415172</v>
+        <v>415141</v>
       </c>
       <c r="B283" s="3">
         <v>4400</v>
       </c>
       <c r="C283" s="4">
-        <v>115120</v>
+        <v>115111</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
@@ -4441,50 +4465,55 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>415180</v>
+        <v>415150</v>
       </c>
       <c r="B284" s="3">
         <v>4400</v>
       </c>
       <c r="C284" s="4">
-        <v>115170</v>
+        <v>115102</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="6"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="6"/>
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
+      <c r="A285" s="2">
+        <v>415151</v>
+      </c>
+      <c r="B285" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C285" s="4">
+        <v>115111</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="3"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>416100</v>
+        <v>415160</v>
       </c>
       <c r="B286" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C286" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D286" s="5">
-        <v>1</v>
-      </c>
+        <v>115102</v>
+      </c>
+      <c r="D286" s="5"/>
       <c r="E286" s="2"/>
       <c r="F286" s="3"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>416101</v>
+        <v>415161</v>
       </c>
       <c r="B287" s="3">
         <v>4400</v>
       </c>
       <c r="C287" s="4">
-        <v>116101</v>
+        <v>115111</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
@@ -4492,156 +4521,154 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>416110</v>
+        <v>415170</v>
       </c>
       <c r="B288" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C288" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D288" s="5">
-        <v>2</v>
-      </c>
+        <v>118114</v>
+      </c>
+      <c r="D288" s="5"/>
       <c r="E288" s="2"/>
       <c r="F288" s="3"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>416111</v>
+        <v>415171</v>
       </c>
       <c r="B289" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C289" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D289" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D289" s="5">
+        <v>3</v>
+      </c>
       <c r="E289" s="2"/>
       <c r="F289" s="3"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>416120</v>
+        <v>415172</v>
       </c>
       <c r="B290" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C290" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D290" s="5">
-        <v>3</v>
-      </c>
+        <v>115120</v>
+      </c>
+      <c r="D290" s="5"/>
       <c r="E290" s="2"/>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>416121</v>
+        <v>415180</v>
       </c>
       <c r="B291" s="3">
         <v>4400</v>
       </c>
       <c r="C291" s="4">
-        <v>116110</v>
+        <v>115170</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
       <c r="F291" s="3"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="2">
-        <v>416130</v>
-      </c>
-      <c r="B292" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C292" s="4">
-        <v>116121</v>
-      </c>
-      <c r="D292" s="5"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="3"/>
+      <c r="A292" s="6"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
+      <c r="A293" s="2">
+        <v>416100</v>
+      </c>
+      <c r="B293" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C293" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D293" s="5">
+        <v>1</v>
+      </c>
+      <c r="E293" s="2"/>
+      <c r="F293" s="3"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>417100</v>
+        <v>416101</v>
       </c>
       <c r="B294" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C294" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D294" s="5">
-        <v>1</v>
-      </c>
+        <v>116101</v>
+      </c>
+      <c r="D294" s="5"/>
       <c r="E294" s="2"/>
       <c r="F294" s="3"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>417101</v>
+        <v>416110</v>
       </c>
       <c r="B295" s="3">
         <v>4102</v>
       </c>
       <c r="C295" s="4">
-        <v>60008</v>
+        <v>60006</v>
       </c>
       <c r="D295" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>417102</v>
+        <v>416111</v>
       </c>
       <c r="B296" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C296" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D296" s="5">
-        <v>1</v>
-      </c>
+        <v>116100</v>
+      </c>
+      <c r="D296" s="5"/>
       <c r="E296" s="2"/>
       <c r="F296" s="3"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>417110</v>
+        <v>416120</v>
       </c>
       <c r="B297" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C297" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D297" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D297" s="5">
+        <v>3</v>
+      </c>
       <c r="E297" s="2"/>
       <c r="F297" s="3"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>417120</v>
+        <v>416121</v>
       </c>
       <c r="B298" s="3">
         <v>4400</v>
       </c>
       <c r="C298" s="4">
-        <v>117110</v>
+        <v>116110</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
@@ -4649,89 +4676,82 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>417130</v>
+        <v>416130</v>
       </c>
       <c r="B299" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C299" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D299" s="5">
-        <v>2</v>
-      </c>
+        <v>116121</v>
+      </c>
+      <c r="D299" s="5"/>
       <c r="E299" s="2"/>
       <c r="F299" s="3"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="2">
-        <v>417131</v>
-      </c>
-      <c r="B300" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C300" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D300" s="5">
-        <v>2</v>
-      </c>
-      <c r="E300" s="2"/>
-      <c r="F300" s="3"/>
+      <c r="A300" s="6"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>417132</v>
+        <v>417100</v>
       </c>
       <c r="B301" s="3">
         <v>4102</v>
       </c>
       <c r="C301" s="4">
-        <v>60009</v>
+        <v>60007</v>
       </c>
       <c r="D301" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E301" s="2"/>
       <c r="F301" s="3"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>417133</v>
+        <v>417101</v>
       </c>
       <c r="B302" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C302" s="4">
-        <v>117120</v>
-      </c>
-      <c r="D302" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D302" s="5">
+        <v>1</v>
+      </c>
       <c r="E302" s="2"/>
       <c r="F302" s="3"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>417134</v>
+        <v>417102</v>
       </c>
       <c r="B303" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C303" s="4">
-        <v>116110</v>
-      </c>
-      <c r="D303" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D303" s="5">
+        <v>1</v>
+      </c>
       <c r="E303" s="2"/>
       <c r="F303" s="3"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>417140</v>
+        <v>417110</v>
       </c>
       <c r="B304" s="3">
         <v>4400</v>
       </c>
       <c r="C304" s="4">
-        <v>117130</v>
+        <v>117100</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
@@ -4739,13 +4759,13 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>417150</v>
+        <v>417120</v>
       </c>
       <c r="B305" s="3">
         <v>4400</v>
       </c>
       <c r="C305" s="4">
-        <v>117140</v>
+        <v>117110</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
@@ -4753,62 +4773,75 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>417151</v>
+        <v>417130</v>
       </c>
       <c r="B306" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C306" s="4">
-        <v>116121</v>
-      </c>
-      <c r="D306" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D306" s="5">
+        <v>2</v>
+      </c>
       <c r="E306" s="2"/>
       <c r="F306" s="3"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="6"/>
-      <c r="B307" s="6"/>
-      <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
+      <c r="A307" s="2">
+        <v>417131</v>
+      </c>
+      <c r="B307" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C307" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D307" s="5">
+        <v>2</v>
+      </c>
+      <c r="E307" s="2"/>
+      <c r="F307" s="3"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>418100</v>
+        <v>417132</v>
       </c>
       <c r="B308" s="3">
-        <v>0</v>
-      </c>
-      <c r="C308" s="4"/>
-      <c r="D308" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C308" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D308" s="5">
+        <v>2</v>
+      </c>
       <c r="E308" s="2"/>
       <c r="F308" s="3"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>418110</v>
+        <v>417133</v>
       </c>
       <c r="B309" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C309" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D309" s="5">
-        <v>1</v>
-      </c>
+        <v>117120</v>
+      </c>
+      <c r="D309" s="5"/>
       <c r="E309" s="2"/>
       <c r="F309" s="3"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>418111</v>
+        <v>417134</v>
       </c>
       <c r="B310" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C310" s="4">
-        <v>10</v>
+        <v>116110</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
@@ -4816,13 +4849,13 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>418112</v>
+        <v>417140</v>
       </c>
       <c r="B311" s="3">
-        <v>4506</v>
+        <v>4400</v>
       </c>
       <c r="C311" s="4">
-        <v>61004</v>
+        <v>117130</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
@@ -4830,13 +4863,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>418113</v>
+        <v>417150</v>
       </c>
       <c r="B312" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C312" s="4">
-        <v>0</v>
+        <v>117140</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
@@ -4844,78 +4877,76 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>418114</v>
+        <v>417151</v>
       </c>
       <c r="B313" s="3">
         <v>4400</v>
       </c>
       <c r="C313" s="4">
-        <v>118114</v>
+        <v>116121</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
       <c r="F313" s="3"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="2">
-        <v>418115</v>
-      </c>
-      <c r="B314" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C314" s="4">
-        <v>118115</v>
-      </c>
-      <c r="D314" s="5"/>
-      <c r="E314" s="2"/>
-      <c r="F314" s="3"/>
+      <c r="A314" s="6"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>418116</v>
+        <v>418100</v>
       </c>
       <c r="B315" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C315" s="4">
-        <v>118116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C315" s="4"/>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
       <c r="F315" s="3"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="6"/>
-      <c r="B316" s="6"/>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
+      <c r="A316" s="2">
+        <v>418110</v>
+      </c>
+      <c r="B316" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C316" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D316" s="5">
+        <v>1</v>
+      </c>
+      <c r="E316" s="2"/>
+      <c r="F316" s="3"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>419100</v>
+        <v>418111</v>
       </c>
       <c r="B317" s="3">
-        <v>4102</v>
+        <v>4000</v>
       </c>
       <c r="C317" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D317" s="5">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D317" s="5"/>
       <c r="E317" s="2"/>
       <c r="F317" s="3"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>419101</v>
+        <v>418112</v>
       </c>
       <c r="B318" s="3">
-        <v>4403</v>
+        <v>4506</v>
       </c>
       <c r="C318" s="4">
-        <v>0</v>
+        <v>61004</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
@@ -4923,29 +4954,27 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>419110</v>
+        <v>418113</v>
       </c>
       <c r="B319" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C319" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D319" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D319" s="5"/>
       <c r="E319" s="2"/>
       <c r="F319" s="3"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>419111</v>
+        <v>418114</v>
       </c>
       <c r="B320" s="3">
         <v>4400</v>
       </c>
       <c r="C320" s="4">
-        <v>119100</v>
+        <v>118114</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
@@ -4953,13 +4982,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>419112</v>
+        <v>418115</v>
       </c>
       <c r="B321" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C321" s="4">
-        <v>0</v>
+        <v>118115</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
@@ -4967,57 +4996,50 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>419120</v>
+        <v>418116</v>
       </c>
       <c r="B322" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C322" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D322" s="5">
-        <v>3</v>
-      </c>
+        <v>118116</v>
+      </c>
+      <c r="D322" s="5"/>
       <c r="E322" s="2"/>
       <c r="F322" s="3"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="2">
-        <v>419121</v>
-      </c>
-      <c r="B323" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C323" s="4">
-        <v>119110</v>
-      </c>
-      <c r="D323" s="5"/>
-      <c r="E323" s="2"/>
-      <c r="F323" s="3"/>
+      <c r="A323" s="6"/>
+      <c r="B323" s="6"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="6"/>
+      <c r="E323" s="6"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>419122</v>
+        <v>419100</v>
       </c>
       <c r="B324" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C324" s="4">
-        <v>0</v>
-      </c>
-      <c r="D324" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D324" s="5">
+        <v>1</v>
+      </c>
       <c r="E324" s="2"/>
       <c r="F324" s="3"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>419130</v>
+        <v>419101</v>
       </c>
       <c r="B325" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C325" s="4">
-        <v>119121</v>
+        <v>0</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
@@ -5025,80 +5047,87 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>419140</v>
+        <v>419110</v>
       </c>
       <c r="B326" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C326" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D326" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D326" s="5">
+        <v>2</v>
+      </c>
       <c r="E326" s="2"/>
       <c r="F326" s="3"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>419150</v>
+        <v>419111</v>
       </c>
       <c r="B327" s="3">
         <v>4400</v>
       </c>
       <c r="C327" s="4">
-        <v>119121</v>
+        <v>119100</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
       <c r="F327" s="3"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="6"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="6"/>
-      <c r="D328" s="6"/>
-      <c r="E328" s="6"/>
+      <c r="A328" s="2">
+        <v>419112</v>
+      </c>
+      <c r="B328" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C328" s="4">
+        <v>0</v>
+      </c>
+      <c r="D328" s="5"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="3"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>420100</v>
+        <v>419120</v>
       </c>
       <c r="B329" s="3">
         <v>4102</v>
       </c>
       <c r="C329" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D329" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E329" s="2"/>
       <c r="F329" s="3"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>420110</v>
+        <v>419121</v>
       </c>
       <c r="B330" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C330" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D330" s="5">
-        <v>3</v>
-      </c>
+        <v>119110</v>
+      </c>
+      <c r="D330" s="5"/>
       <c r="E330" s="2"/>
       <c r="F330" s="3"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>420111</v>
+        <v>419122</v>
       </c>
       <c r="B331" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C331" s="4">
-        <v>120100</v>
+        <v>0</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
@@ -5106,13 +5135,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>420120</v>
+        <v>419130</v>
       </c>
       <c r="B332" s="3">
         <v>4400</v>
       </c>
       <c r="C332" s="4">
-        <v>120110</v>
+        <v>119121</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
@@ -5120,13 +5149,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>420121</v>
+        <v>419140</v>
       </c>
       <c r="B333" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C333" s="4">
-        <v>0</v>
+        <v>119121</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
@@ -5134,69 +5163,66 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>420130</v>
+        <v>419150</v>
       </c>
       <c r="B334" s="3">
         <v>4400</v>
       </c>
       <c r="C334" s="4">
-        <v>120121</v>
+        <v>119121</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
       <c r="F334" s="3"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="2">
-        <v>420140</v>
-      </c>
-      <c r="B335" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C335" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D335" s="5"/>
-      <c r="E335" s="2"/>
-      <c r="F335" s="3"/>
+      <c r="A335" s="6"/>
+      <c r="B335" s="6"/>
+      <c r="C335" s="6"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>420141</v>
+        <v>420100</v>
       </c>
       <c r="B336" s="3">
-        <v>4111</v>
+        <v>4102</v>
       </c>
       <c r="C336" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D336" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D336" s="5">
+        <v>1</v>
+      </c>
       <c r="E336" s="2"/>
       <c r="F336" s="3"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>420142</v>
+        <v>420110</v>
       </c>
       <c r="B337" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C337" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D337" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D337" s="5">
+        <v>3</v>
+      </c>
       <c r="E337" s="2"/>
       <c r="F337" s="3"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>420150</v>
+        <v>420111</v>
       </c>
       <c r="B338" s="3">
         <v>4400</v>
       </c>
       <c r="C338" s="4">
-        <v>120160</v>
+        <v>120100</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
@@ -5204,13 +5230,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>420151</v>
+        <v>420120</v>
       </c>
       <c r="B339" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C339" s="4">
-        <v>60011</v>
+        <v>120110</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
@@ -5218,13 +5244,13 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>420152</v>
+        <v>420121</v>
       </c>
       <c r="B340" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C340" s="4">
-        <v>121100</v>
+        <v>0</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
@@ -5232,13 +5258,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>420160</v>
+        <v>420130</v>
       </c>
       <c r="B341" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C341" s="4">
-        <v>60010</v>
+        <v>120121</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
@@ -5246,29 +5272,27 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>420161</v>
+        <v>420140</v>
       </c>
       <c r="B342" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C342" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D342" s="5">
-        <v>1</v>
-      </c>
+        <v>120160</v>
+      </c>
+      <c r="D342" s="5"/>
       <c r="E342" s="2"/>
       <c r="F342" s="3"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>420162</v>
+        <v>420141</v>
       </c>
       <c r="B343" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C343" s="4">
-        <v>121110</v>
+        <v>60011</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
@@ -5276,13 +5300,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>420163</v>
+        <v>420142</v>
       </c>
       <c r="B344" s="3">
         <v>4400</v>
       </c>
       <c r="C344" s="4">
-        <v>121100</v>
+        <v>121110</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
@@ -5290,13 +5314,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>420164</v>
+        <v>420150</v>
       </c>
       <c r="B345" s="3">
         <v>4400</v>
       </c>
       <c r="C345" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
@@ -5304,64 +5328,71 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>420165</v>
+        <v>420151</v>
       </c>
       <c r="B346" s="3">
-        <v>4000</v>
+        <v>4111</v>
       </c>
       <c r="C346" s="4">
-        <v>20</v>
+        <v>60011</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
       <c r="F346" s="3"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="9"/>
-      <c r="B347" s="6"/>
-      <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
-      <c r="E347" s="6"/>
+      <c r="A347" s="2">
+        <v>420152</v>
+      </c>
+      <c r="B347" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C347" s="4">
+        <v>121100</v>
+      </c>
+      <c r="D347" s="5"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="3"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>421100</v>
+        <v>420160</v>
       </c>
       <c r="B348" s="3">
-        <v>4102</v>
+        <v>4111</v>
       </c>
       <c r="C348" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D348" s="5">
-        <v>1</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D348" s="5"/>
       <c r="E348" s="2"/>
       <c r="F348" s="3"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>421101</v>
+        <v>420161</v>
       </c>
       <c r="B349" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C349" s="4">
-        <v>100031</v>
-      </c>
-      <c r="D349" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D349" s="5">
+        <v>1</v>
+      </c>
       <c r="E349" s="2"/>
       <c r="F349" s="3"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>421110</v>
+        <v>420162</v>
       </c>
       <c r="B350" s="3">
         <v>4400</v>
       </c>
       <c r="C350" s="4">
-        <v>121100</v>
+        <v>121110</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
@@ -5369,13 +5400,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>421111</v>
+        <v>420163</v>
       </c>
       <c r="B351" s="3">
         <v>4400</v>
       </c>
       <c r="C351" s="4">
-        <v>113110</v>
+        <v>121100</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
@@ -5383,13 +5414,13 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>421120</v>
+        <v>420164</v>
       </c>
       <c r="B352" s="3">
         <v>4400</v>
       </c>
       <c r="C352" s="4">
-        <v>121110</v>
+        <v>120130</v>
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="2"/>
@@ -5397,55 +5428,50 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>421121</v>
+        <v>420165</v>
       </c>
       <c r="B353" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C353" s="4">
-        <v>120121</v>
+        <v>20</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="2"/>
       <c r="F353" s="3"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" s="2">
-        <v>421122</v>
-      </c>
-      <c r="B354" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C354" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D354" s="5"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="3"/>
+      <c r="A354" s="9"/>
+      <c r="B354" s="6"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>421123</v>
+        <v>421100</v>
       </c>
       <c r="B355" s="3">
-        <v>4000</v>
+        <v>4102</v>
       </c>
       <c r="C355" s="4">
-        <v>10</v>
-      </c>
-      <c r="D355" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D355" s="5">
+        <v>1</v>
+      </c>
       <c r="E355" s="2"/>
       <c r="F355" s="3"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>421130</v>
+        <v>421101</v>
       </c>
       <c r="B356" s="3">
         <v>4400</v>
       </c>
       <c r="C356" s="4">
-        <v>100032</v>
+        <v>100031</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="2"/>
@@ -5453,13 +5479,13 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>421140</v>
+        <v>421110</v>
       </c>
       <c r="B357" s="3">
         <v>4400</v>
       </c>
       <c r="C357" s="4">
-        <v>121130</v>
+        <v>121100</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
@@ -5467,13 +5493,13 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>421150</v>
+        <v>421111</v>
       </c>
       <c r="B358" s="3">
         <v>4400</v>
       </c>
       <c r="C358" s="4">
-        <v>121140</v>
+        <v>113121</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="2"/>
@@ -5481,27 +5507,29 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>421160</v>
+        <v>421112</v>
       </c>
       <c r="B359" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C359" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D359" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D359" s="5">
+        <v>2</v>
+      </c>
       <c r="E359" s="2"/>
       <c r="F359" s="3"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>421161</v>
+        <v>421113</v>
       </c>
       <c r="B360" s="3">
         <v>4400</v>
       </c>
       <c r="C360" s="4">
-        <v>120160</v>
+        <v>113120</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="2"/>
@@ -5509,13 +5537,13 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>421162</v>
+        <v>421120</v>
       </c>
       <c r="B361" s="3">
         <v>4400</v>
       </c>
       <c r="C361" s="4">
-        <v>120130</v>
+        <v>121110</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="2"/>
@@ -5523,13 +5551,13 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>421170</v>
+        <v>421121</v>
       </c>
       <c r="B362" s="3">
         <v>4400</v>
       </c>
       <c r="C362" s="4">
-        <v>121160</v>
+        <v>120121</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="2"/>
@@ -5537,7 +5565,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>421171</v>
+        <v>421122</v>
       </c>
       <c r="B363" s="3">
         <v>4400</v>
@@ -5551,13 +5579,13 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>421172</v>
+        <v>421123</v>
       </c>
       <c r="B364" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C364" s="4">
-        <v>120130</v>
+        <v>20</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="2"/>
@@ -5565,27 +5593,29 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>421180</v>
+        <v>421124</v>
       </c>
       <c r="B365" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C365" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D365" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D365" s="5">
+        <v>3</v>
+      </c>
       <c r="E365" s="2"/>
       <c r="F365" s="3"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>421181</v>
+        <v>421130</v>
       </c>
       <c r="B366" s="3">
         <v>4400</v>
       </c>
       <c r="C366" s="4">
-        <v>120160</v>
+        <v>100032</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="2"/>
@@ -5593,60 +5623,73 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>421182</v>
+        <v>421140</v>
       </c>
       <c r="B367" s="3">
         <v>4400</v>
       </c>
       <c r="C367" s="4">
-        <v>120130</v>
+        <v>121130</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="2"/>
       <c r="F367" s="3"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A368" s="6"/>
-      <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
-      <c r="D368" s="6"/>
-      <c r="E368" s="6"/>
+      <c r="A368" s="2">
+        <v>421141</v>
+      </c>
+      <c r="B368" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C368" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D368" s="5">
+        <v>1</v>
+      </c>
+      <c r="E368" s="2"/>
+      <c r="F368" s="3"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>430000</v>
+        <v>421150</v>
       </c>
       <c r="B369" s="3">
-        <v>0</v>
-      </c>
-      <c r="C369" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C369" s="4">
+        <v>121140</v>
+      </c>
       <c r="D369" s="5"/>
       <c r="E369" s="2"/>
       <c r="F369" s="3"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>430010</v>
+        <v>421151</v>
       </c>
       <c r="B370" s="3">
-        <v>4001</v>
+        <v>4102</v>
       </c>
       <c r="C370" s="4">
-        <v>40</v>
-      </c>
-      <c r="D370" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D370" s="5">
+        <v>2</v>
+      </c>
       <c r="E370" s="2"/>
       <c r="F370" s="3"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>430020</v>
+        <v>421160</v>
       </c>
       <c r="B371" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C371" s="4">
-        <v>60</v>
+        <v>121150</v>
       </c>
       <c r="D371" s="5"/>
       <c r="E371" s="2"/>
@@ -5654,13 +5697,13 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>430021</v>
+        <v>421161</v>
       </c>
       <c r="B372" s="3">
         <v>4400</v>
       </c>
       <c r="C372" s="4">
-        <v>130010</v>
+        <v>120160</v>
       </c>
       <c r="D372" s="5"/>
       <c r="E372" s="2"/>
@@ -5668,13 +5711,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>430030</v>
+        <v>421162</v>
       </c>
       <c r="B373" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C373" s="4">
-        <v>30</v>
+        <v>120130</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="2"/>
@@ -5682,27 +5725,29 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>430031</v>
+        <v>421163</v>
       </c>
       <c r="B374" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C374" s="4">
-        <v>130020</v>
-      </c>
-      <c r="D374" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D374" s="5">
+        <v>3</v>
+      </c>
       <c r="E374" s="2"/>
       <c r="F374" s="3"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>430040</v>
+        <v>421170</v>
       </c>
       <c r="B375" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C375" s="4">
-        <v>40</v>
+        <v>121160</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
@@ -5710,13 +5755,13 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>430041</v>
+        <v>421171</v>
       </c>
       <c r="B376" s="3">
         <v>4400</v>
       </c>
       <c r="C376" s="4">
-        <v>130030</v>
+        <v>120160</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="2"/>
@@ -5724,13 +5769,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>430050</v>
+        <v>421172</v>
       </c>
       <c r="B377" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C377" s="4">
-        <v>50</v>
+        <v>120130</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
@@ -5738,13 +5783,13 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>430051</v>
+        <v>421180</v>
       </c>
       <c r="B378" s="3">
         <v>4400</v>
       </c>
       <c r="C378" s="4">
-        <v>130040</v>
+        <v>121130</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
@@ -5752,13 +5797,13 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>430052</v>
+        <v>421181</v>
       </c>
       <c r="B379" s="3">
         <v>4400</v>
       </c>
       <c r="C379" s="4">
-        <v>116101</v>
+        <v>120160</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
@@ -5766,55 +5811,46 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>430060</v>
+        <v>421182</v>
       </c>
       <c r="B380" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C380" s="4">
-        <v>30</v>
+        <v>120130</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
       <c r="F380" s="3"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A381" s="2">
-        <v>430061</v>
-      </c>
-      <c r="B381" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C381" s="4">
-        <v>130020</v>
-      </c>
-      <c r="D381" s="5"/>
-      <c r="E381" s="2"/>
-      <c r="F381" s="3"/>
+      <c r="A381" s="6"/>
+      <c r="B381" s="6"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>430070</v>
+        <v>430000</v>
       </c>
       <c r="B382" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C382" s="4">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C382" s="4"/>
       <c r="D382" s="5"/>
       <c r="E382" s="2"/>
       <c r="F382" s="3"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>430071</v>
+        <v>430010</v>
       </c>
       <c r="B383" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C383" s="4">
-        <v>130060</v>
+        <v>40</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="2"/>
@@ -5822,13 +5858,13 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>430080</v>
+        <v>430020</v>
       </c>
       <c r="B384" s="3">
         <v>4001</v>
       </c>
       <c r="C384" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="2"/>
@@ -5836,13 +5872,13 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>430081</v>
+        <v>430021</v>
       </c>
       <c r="B385" s="3">
         <v>4400</v>
       </c>
       <c r="C385" s="4">
-        <v>130070</v>
+        <v>130010</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
@@ -5850,13 +5886,13 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>430082</v>
+        <v>430030</v>
       </c>
       <c r="B386" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C386" s="4">
-        <v>118110</v>
+        <v>30</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
@@ -5864,13 +5900,13 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>430090</v>
+        <v>430031</v>
       </c>
       <c r="B387" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C387" s="4">
-        <v>30</v>
+        <v>130020</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
@@ -5878,13 +5914,13 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>430091</v>
+        <v>430040</v>
       </c>
       <c r="B388" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C388" s="4">
-        <v>130020</v>
+        <v>40</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="2"/>
@@ -5892,13 +5928,13 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>430100</v>
+        <v>430041</v>
       </c>
       <c r="B389" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C389" s="4">
-        <v>40</v>
+        <v>130030</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="2"/>
@@ -5906,13 +5942,13 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>430101</v>
+        <v>430050</v>
       </c>
       <c r="B390" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C390" s="4">
-        <v>130090</v>
+        <v>50</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="2"/>
@@ -5920,13 +5956,13 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>430110</v>
+        <v>430051</v>
       </c>
       <c r="B391" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C391" s="4">
-        <v>50</v>
+        <v>130040</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="2"/>
@@ -5934,13 +5970,13 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>430111</v>
+        <v>430052</v>
       </c>
       <c r="B392" s="3">
         <v>4400</v>
       </c>
       <c r="C392" s="4">
-        <v>130100</v>
+        <v>116101</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="2"/>
@@ -5948,13 +5984,13 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>430112</v>
+        <v>430060</v>
       </c>
       <c r="B393" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C393" s="4">
-        <v>121110</v>
+        <v>30</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="2"/>
@@ -5962,29 +5998,27 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>430113</v>
+        <v>430061</v>
       </c>
       <c r="B394" s="3">
-        <v>4114</v>
+        <v>4400</v>
       </c>
       <c r="C394" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D394" s="5">
-        <v>4</v>
-      </c>
+        <v>130020</v>
+      </c>
+      <c r="D394" s="5"/>
       <c r="E394" s="2"/>
       <c r="F394" s="3"/>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>430120</v>
+        <v>430070</v>
       </c>
       <c r="B395" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C395" s="4">
-        <v>130110</v>
+        <v>40</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="2"/>
@@ -5992,13 +6026,13 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>430130</v>
+        <v>430071</v>
       </c>
       <c r="B396" s="3">
         <v>4400</v>
       </c>
       <c r="C396" s="4">
-        <v>130120</v>
+        <v>130060</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="2"/>
@@ -6006,13 +6040,13 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>430140</v>
+        <v>430080</v>
       </c>
       <c r="B397" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C397" s="4">
-        <v>130130</v>
+        <v>50</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
@@ -6020,13 +6054,13 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>430150</v>
+        <v>430081</v>
       </c>
       <c r="B398" s="3">
         <v>4400</v>
       </c>
       <c r="C398" s="4">
-        <v>130040</v>
+        <v>130070</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="2"/>
@@ -6034,13 +6068,13 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>430151</v>
+        <v>430082</v>
       </c>
       <c r="B399" s="3">
         <v>4400</v>
       </c>
       <c r="C399" s="4">
-        <v>130140</v>
+        <v>118110</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="2"/>
@@ -6048,13 +6082,13 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>430160</v>
+        <v>430090</v>
       </c>
       <c r="B400" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C400" s="4">
-        <v>130070</v>
+        <v>30</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="2"/>
@@ -6062,13 +6096,13 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>430161</v>
+        <v>430091</v>
       </c>
       <c r="B401" s="3">
         <v>4400</v>
       </c>
       <c r="C401" s="4">
-        <v>130150</v>
+        <v>130020</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="2"/>
@@ -6076,13 +6110,13 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>430170</v>
+        <v>430100</v>
       </c>
       <c r="B402" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C402" s="4">
-        <v>130100</v>
+        <v>40</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="2"/>
@@ -6090,13 +6124,13 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>430171</v>
+        <v>430101</v>
       </c>
       <c r="B403" s="3">
         <v>4400</v>
       </c>
       <c r="C403" s="4">
-        <v>130160</v>
+        <v>130090</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="2"/>
@@ -6104,32 +6138,41 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>430180</v>
+        <v>430110</v>
       </c>
       <c r="B404" s="3">
-        <v>0</v>
-      </c>
-      <c r="C404" s="4"/>
+        <v>4001</v>
+      </c>
+      <c r="C404" s="4">
+        <v>50</v>
+      </c>
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
       <c r="F404" s="3"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A405" s="6"/>
-      <c r="B405" s="6"/>
-      <c r="C405" s="6"/>
-      <c r="D405" s="6"/>
-      <c r="E405" s="6"/>
+      <c r="A405" s="2">
+        <v>430111</v>
+      </c>
+      <c r="B405" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C405" s="4">
+        <v>130100</v>
+      </c>
+      <c r="D405" s="5"/>
+      <c r="E405" s="2"/>
+      <c r="F405" s="3"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>450000</v>
+        <v>430112</v>
       </c>
       <c r="B406" s="3">
         <v>4400</v>
       </c>
       <c r="C406" s="4">
-        <v>112100</v>
+        <v>121110</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="2"/>
@@ -6137,27 +6180,29 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>450001</v>
+        <v>430113</v>
       </c>
       <c r="B407" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C407" s="4">
-        <v>112110</v>
-      </c>
-      <c r="D407" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D407" s="5">
+        <v>4</v>
+      </c>
       <c r="E407" s="2"/>
       <c r="F407" s="3"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>450002</v>
+        <v>430120</v>
       </c>
       <c r="B408" s="3">
         <v>4400</v>
       </c>
       <c r="C408" s="4">
-        <v>112120</v>
+        <v>130110</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="2"/>
@@ -6165,13 +6210,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>450003</v>
+        <v>430130</v>
       </c>
       <c r="B409" s="3">
         <v>4400</v>
       </c>
       <c r="C409" s="4">
-        <v>112130</v>
+        <v>130120</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
@@ -6179,13 +6224,13 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>450010</v>
+        <v>430140</v>
       </c>
       <c r="B410" s="3">
         <v>4400</v>
       </c>
       <c r="C410" s="4">
-        <v>101000</v>
+        <v>130130</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="2"/>
@@ -6193,13 +6238,13 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>450011</v>
+        <v>430150</v>
       </c>
       <c r="B411" s="3">
         <v>4400</v>
       </c>
       <c r="C411" s="4">
-        <v>101010</v>
+        <v>130040</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="2"/>
@@ -6207,13 +6252,13 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>450012</v>
+        <v>430151</v>
       </c>
       <c r="B412" s="3">
         <v>4400</v>
       </c>
       <c r="C412" s="4">
-        <v>101020</v>
+        <v>130140</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="2"/>
@@ -6221,66 +6266,239 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>450013</v>
+        <v>430160</v>
       </c>
       <c r="B413" s="3">
         <v>4400</v>
       </c>
       <c r="C413" s="4">
-        <v>101040</v>
+        <v>130070</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="2"/>
       <c r="F413" s="3"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414" s="6"/>
-      <c r="B414" s="6"/>
-      <c r="C414" s="6"/>
-      <c r="D414" s="6"/>
-      <c r="E414" s="6"/>
+      <c r="A414" s="2">
+        <v>430161</v>
+      </c>
+      <c r="B414" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C414" s="4">
+        <v>130150</v>
+      </c>
+      <c r="D414" s="5"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="3"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>459000</v>
+        <v>430170</v>
       </c>
       <c r="B415" s="3">
         <v>4400</v>
       </c>
       <c r="C415" s="4">
-        <v>559000</v>
+        <v>130100</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
       <c r="F415" s="3"/>
     </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416" s="2">
+        <v>430171</v>
+      </c>
+      <c r="B416" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C416" s="4">
+        <v>130160</v>
+      </c>
+      <c r="D416" s="5"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="3"/>
+    </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>440030</v>
+        <v>430180</v>
       </c>
       <c r="B417" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C417" s="4">
-        <v>140020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C417" s="4"/>
       <c r="D417" s="5"/>
       <c r="E417" s="2"/>
       <c r="F417" s="3"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A418" s="2">
+      <c r="A418" s="6"/>
+      <c r="B418" s="6"/>
+      <c r="C418" s="6"/>
+      <c r="D418" s="6"/>
+      <c r="E418" s="6"/>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>450000</v>
+      </c>
+      <c r="B419" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C419" s="4">
+        <v>112100</v>
+      </c>
+      <c r="D419" s="5"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="3"/>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" s="2">
+        <v>450001</v>
+      </c>
+      <c r="B420" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C420" s="4">
+        <v>112110</v>
+      </c>
+      <c r="D420" s="5"/>
+      <c r="E420" s="2"/>
+      <c r="F420" s="3"/>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>450002</v>
+      </c>
+      <c r="B421" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C421" s="4">
+        <v>112120</v>
+      </c>
+      <c r="D421" s="5"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="3"/>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>450003</v>
+      </c>
+      <c r="B422" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C422" s="4">
+        <v>112130</v>
+      </c>
+      <c r="D422" s="5"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="3"/>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>450010</v>
+      </c>
+      <c r="B423" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C423" s="4">
+        <v>101000</v>
+      </c>
+      <c r="D423" s="5"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="3"/>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>450011</v>
+      </c>
+      <c r="B424" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C424" s="4">
+        <v>101010</v>
+      </c>
+      <c r="D424" s="5"/>
+      <c r="E424" s="2"/>
+      <c r="F424" s="3"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>450012</v>
+      </c>
+      <c r="B425" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C425" s="4">
+        <v>101020</v>
+      </c>
+      <c r="D425" s="5"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="3"/>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B426" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C426" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D426" s="5"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="3"/>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427" s="6"/>
+      <c r="B427" s="6"/>
+      <c r="C427" s="6"/>
+      <c r="D427" s="6"/>
+      <c r="E427" s="6"/>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>459000</v>
+      </c>
+      <c r="B428" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C428" s="4">
+        <v>559000</v>
+      </c>
+      <c r="D428" s="5"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="3"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>440030</v>
+      </c>
+      <c r="B430" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C430" s="4">
+        <v>140020</v>
+      </c>
+      <c r="D430" s="5"/>
+      <c r="E430" s="2"/>
+      <c r="F430" s="3"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
         <v>440040</v>
       </c>
-      <c r="B418" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C418" s="4">
+      <c r="B431" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C431" s="4">
         <v>140030</v>
       </c>
-      <c r="D418" s="5"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="3"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="2"/>
+      <c r="F431" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F94E1-412C-493E-8E30-50D8B9961E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE8A007-4320-40C9-B7DF-7538A3CE5AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="3870" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="6300" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -241,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,8 +276,11 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F431"/>
+  <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="F379" sqref="F379"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,35 +643,35 @@
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>400010</v>
       </c>
       <c r="B3" s="3">
-        <v>4501</v>
+        <v>4400</v>
       </c>
       <c r="C3" s="4">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>400020</v>
       </c>
       <c r="B4" s="3">
-        <v>4501</v>
+        <v>4400</v>
       </c>
       <c r="C4" s="4">
-        <v>110</v>
+        <v>100010</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -674,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -688,7 +701,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -702,51 +715,56 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>400060</v>
+        <v>400051</v>
       </c>
       <c r="B8" s="3">
-        <v>4501</v>
+        <v>4400</v>
       </c>
       <c r="C8" s="4">
-        <v>100040</v>
+        <v>100200</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>400070</v>
+        <v>400060</v>
       </c>
       <c r="B9" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C9" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
+        <v>100040</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="2">
+        <v>400061</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100200</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>410000</v>
+        <v>400070</v>
       </c>
       <c r="B11" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C11" s="4">
         <v>60000</v>
@@ -755,27 +773,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>410010</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C12" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>410020</v>
+        <v>410000</v>
       </c>
       <c r="B13" s="3">
         <v>4103</v>
@@ -784,17 +794,17 @@
         <v>60000</v>
       </c>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>410030</v>
+        <v>410010</v>
       </c>
       <c r="B14" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C14" s="4">
         <v>60000</v>
@@ -803,27 +813,27 @@
         <v>1</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>410040</v>
+        <v>410020</v>
       </c>
       <c r="B15" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C15" s="4">
         <v>60000</v>
       </c>
       <c r="D15" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>410041</v>
+        <v>410030</v>
       </c>
       <c r="B16" s="3">
         <v>4102</v>
@@ -832,30 +842,30 @@
         <v>60000</v>
       </c>
       <c r="D16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>410050</v>
+        <v>410040</v>
       </c>
       <c r="B17" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C17" s="4">
         <v>60000</v>
       </c>
       <c r="D17" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>410051</v>
+        <v>410041</v>
       </c>
       <c r="B18" s="3">
         <v>4102</v>
@@ -867,94 +877,90 @@
         <v>2</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>411000</v>
+        <v>410050</v>
       </c>
       <c r="B19" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C19" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>411010</v>
+        <v>410051</v>
       </c>
       <c r="B20" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C20" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>411020</v>
+        <v>410052</v>
       </c>
       <c r="B21" s="3">
-        <v>4103</v>
+        <v>4400</v>
       </c>
       <c r="C21" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2</v>
-      </c>
+        <v>102030</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>411030</v>
+        <v>411000</v>
       </c>
       <c r="B22" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C22" s="4">
         <v>60001</v>
       </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>411040</v>
+        <v>411010</v>
       </c>
       <c r="B23" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C23" s="4">
         <v>60001</v>
       </c>
       <c r="D23" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>411041</v>
+        <v>411020</v>
       </c>
       <c r="B24" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C24" s="4">
         <v>60001</v>
@@ -963,126 +969,126 @@
         <v>2</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>411050</v>
+        <v>411030</v>
       </c>
       <c r="B25" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C25" s="4">
         <v>60001</v>
       </c>
       <c r="D25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>411051</v>
+        <v>411040</v>
       </c>
       <c r="B26" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C26" s="4">
         <v>60001</v>
       </c>
       <c r="D26" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>412000</v>
+        <v>411041</v>
       </c>
       <c r="B27" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C27" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D27" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>412010</v>
+        <v>411050</v>
       </c>
       <c r="B28" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C28" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>412020</v>
+        <v>411051</v>
       </c>
       <c r="B29" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C29" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D29" s="5">
         <v>2</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>412030</v>
+        <v>412000</v>
       </c>
       <c r="B30" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C30" s="4">
         <v>60002</v>
       </c>
       <c r="D30" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>412040</v>
+        <v>412010</v>
       </c>
       <c r="B31" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C31" s="4">
         <v>60002</v>
       </c>
       <c r="D31" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>412041</v>
+        <v>412020</v>
       </c>
       <c r="B32" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C32" s="4">
         <v>60002</v>
@@ -1091,158 +1097,156 @@
         <v>2</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>412050</v>
+        <v>412030</v>
       </c>
       <c r="B33" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C33" s="4">
         <v>60002</v>
       </c>
       <c r="D33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>412051</v>
+        <v>412040</v>
       </c>
       <c r="B34" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C34" s="4">
         <v>60002</v>
       </c>
       <c r="D34" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>413000</v>
+        <v>412041</v>
       </c>
       <c r="B35" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C35" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D35" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>413010</v>
+        <v>412042</v>
       </c>
       <c r="B36" s="3">
-        <v>4103</v>
+        <v>4506</v>
       </c>
       <c r="C36" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
+        <v>61003</v>
+      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>413020</v>
+        <v>412050</v>
       </c>
       <c r="B37" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C37" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D37" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>413030</v>
+        <v>412051</v>
       </c>
       <c r="B38" s="3">
         <v>4102</v>
       </c>
       <c r="C38" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>413040</v>
+        <v>412052</v>
       </c>
       <c r="B39" s="3">
-        <v>4107</v>
+        <v>4114</v>
       </c>
       <c r="C39" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D39" s="5">
-        <v>6</v>
+        <v>61003</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>413041</v>
+        <v>413000</v>
       </c>
       <c r="B40" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C40" s="4">
         <v>60003</v>
       </c>
       <c r="D40" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>413050</v>
+        <v>413010</v>
       </c>
       <c r="B41" s="3">
-        <v>4106</v>
+        <v>4103</v>
       </c>
       <c r="C41" s="4">
         <v>60003</v>
       </c>
       <c r="D41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>413051</v>
+        <v>413020</v>
       </c>
       <c r="B42" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C42" s="4">
         <v>60003</v>
@@ -1251,124 +1255,124 @@
         <v>2</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>414000</v>
+        <v>413030</v>
       </c>
       <c r="B43" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C43" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>414001</v>
+        <v>413040</v>
       </c>
       <c r="B44" s="3">
-        <v>4501</v>
+        <v>4107</v>
       </c>
       <c r="C44" s="4">
-        <v>110</v>
-      </c>
-      <c r="D44" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D44" s="5">
+        <v>6</v>
+      </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>414010</v>
+        <v>413041</v>
       </c>
       <c r="B45" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C45" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D45" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>414020</v>
+        <v>413042</v>
       </c>
       <c r="B46" s="3">
-        <v>4103</v>
+        <v>4506</v>
       </c>
       <c r="C46" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D46" s="5">
-        <v>2</v>
-      </c>
+        <v>61004</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>414030</v>
+        <v>413050</v>
       </c>
       <c r="B47" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C47" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>414040</v>
+        <v>413051</v>
       </c>
       <c r="B48" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C48" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D48" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>414041</v>
+        <v>413052</v>
       </c>
       <c r="B49" s="3">
-        <v>4102</v>
+        <v>4114</v>
       </c>
       <c r="C49" s="4">
-        <v>60004</v>
+        <v>60002</v>
       </c>
       <c r="D49" s="5">
-        <v>2</v>
+        <v>61004</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>414050</v>
+        <v>414000</v>
       </c>
       <c r="B50" s="3">
-        <v>4106</v>
+        <v>4103</v>
       </c>
       <c r="C50" s="4">
         <v>60004</v>
@@ -1377,1484 +1381,1582 @@
         <v>0</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>414051</v>
+        <v>414001</v>
       </c>
       <c r="B51" s="3">
-        <v>4102</v>
+        <v>4501</v>
       </c>
       <c r="C51" s="4">
-        <v>60004</v>
+        <v>110</v>
       </c>
       <c r="D51" s="5">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>415000</v>
+        <v>414010</v>
       </c>
       <c r="B52" s="3">
         <v>4103</v>
       </c>
       <c r="C52" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D52" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>415010</v>
+        <v>414020</v>
       </c>
       <c r="B53" s="3">
         <v>4103</v>
       </c>
       <c r="C53" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D53" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>415020</v>
+        <v>414030</v>
       </c>
       <c r="B54" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C54" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D54" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>415030</v>
+        <v>414040</v>
       </c>
       <c r="B55" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C55" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D55" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>415040</v>
+        <v>414041</v>
       </c>
       <c r="B56" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C56" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D56" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>415041</v>
+        <v>414050</v>
       </c>
       <c r="B57" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C57" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D57" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>415050</v>
+        <v>414051</v>
       </c>
       <c r="B58" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C58" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D58" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>415051</v>
+        <v>414052</v>
       </c>
       <c r="B59" s="3">
-        <v>4102</v>
+        <v>4114</v>
       </c>
       <c r="C59" s="4">
-        <v>60005</v>
+        <v>60002</v>
       </c>
       <c r="D59" s="5">
-        <v>2</v>
+        <v>61000</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>416000</v>
+        <v>415000</v>
       </c>
       <c r="B60" s="3">
         <v>4103</v>
       </c>
       <c r="C60" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D60" s="5">
         <v>0</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>416010</v>
+        <v>415010</v>
       </c>
       <c r="B61" s="3">
         <v>4103</v>
       </c>
       <c r="C61" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>416020</v>
+        <v>415020</v>
       </c>
       <c r="B62" s="3">
         <v>4103</v>
       </c>
       <c r="C62" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D62" s="5">
         <v>2</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>416030</v>
+        <v>415030</v>
       </c>
       <c r="B63" s="3">
         <v>4102</v>
       </c>
       <c r="C63" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D63" s="5">
         <v>1</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>416040</v>
+        <v>415040</v>
       </c>
       <c r="B64" s="3">
         <v>4107</v>
       </c>
       <c r="C64" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D64" s="5">
         <v>6</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>416041</v>
+        <v>415041</v>
       </c>
       <c r="B65" s="3">
         <v>4102</v>
       </c>
       <c r="C65" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>416050</v>
+        <v>415050</v>
       </c>
       <c r="B66" s="3">
         <v>4106</v>
       </c>
       <c r="C66" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>416051</v>
+        <v>415051</v>
       </c>
       <c r="B67" s="3">
         <v>4102</v>
       </c>
       <c r="C67" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D67" s="5">
         <v>2</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>417000</v>
+        <v>415052</v>
       </c>
       <c r="B68" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C68" s="4">
-        <v>60007</v>
+        <v>60002</v>
       </c>
       <c r="D68" s="5">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>417010</v>
+        <v>416000</v>
       </c>
       <c r="B69" s="3">
         <v>4103</v>
       </c>
       <c r="C69" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D69" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>417020</v>
+        <v>416010</v>
       </c>
       <c r="B70" s="3">
         <v>4103</v>
       </c>
       <c r="C70" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D70" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>417030</v>
+        <v>416020</v>
       </c>
       <c r="B71" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C71" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D71" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>417040</v>
+        <v>416030</v>
       </c>
       <c r="B72" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C72" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D72" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>417041</v>
+        <v>416040</v>
       </c>
       <c r="B73" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C73" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D73" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>417050</v>
+        <v>416041</v>
       </c>
       <c r="B74" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C74" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D74" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>417051</v>
+        <v>416050</v>
       </c>
       <c r="B75" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C75" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D75" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>418000</v>
+        <v>416051</v>
       </c>
       <c r="B76" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C76" s="4">
-        <v>60008</v>
+        <v>60006</v>
       </c>
       <c r="D76" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>418010</v>
+        <v>416052</v>
       </c>
       <c r="B77" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C77" s="4">
-        <v>60008</v>
+        <v>60002</v>
       </c>
       <c r="D77" s="5">
-        <v>1</v>
+        <v>61000</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>418020</v>
+        <v>417000</v>
       </c>
       <c r="B78" s="3">
         <v>4103</v>
       </c>
       <c r="C78" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D78" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>418030</v>
+        <v>417010</v>
       </c>
       <c r="B79" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C79" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D79" s="5">
         <v>1</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>418040</v>
+        <v>417020</v>
       </c>
       <c r="B80" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C80" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D80" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>418041</v>
+        <v>417030</v>
       </c>
       <c r="B81" s="3">
         <v>4102</v>
       </c>
       <c r="C81" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D81" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>418050</v>
+        <v>417040</v>
       </c>
       <c r="B82" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C82" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D82" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>418051</v>
+        <v>417041</v>
       </c>
       <c r="B83" s="3">
         <v>4102</v>
       </c>
       <c r="C83" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D83" s="5">
         <v>2</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>419000</v>
+        <v>417050</v>
       </c>
       <c r="B84" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C84" s="4">
-        <v>60009</v>
+        <v>60007</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>419010</v>
+        <v>417051</v>
       </c>
       <c r="B85" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C85" s="4">
-        <v>60009</v>
+        <v>60007</v>
       </c>
       <c r="D85" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>419020</v>
+        <v>417052</v>
       </c>
       <c r="B86" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C86" s="4">
-        <v>60009</v>
+        <v>60002</v>
       </c>
       <c r="D86" s="5">
-        <v>2</v>
+        <v>61000</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>419030</v>
+        <v>418000</v>
       </c>
       <c r="B87" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C87" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>419040</v>
+        <v>418010</v>
       </c>
       <c r="B88" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C88" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D88" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>419041</v>
+        <v>418020</v>
       </c>
       <c r="B89" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C89" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="3"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>419050</v>
+        <v>418030</v>
       </c>
       <c r="B90" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C90" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>419051</v>
+        <v>418040</v>
       </c>
       <c r="B91" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C91" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D91" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>420000</v>
+        <v>418041</v>
       </c>
       <c r="B92" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C92" s="4">
-        <v>60010</v>
+        <v>60008</v>
       </c>
       <c r="D92" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>420010</v>
+        <v>418050</v>
       </c>
       <c r="B93" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C93" s="4">
-        <v>60010</v>
+        <v>60008</v>
       </c>
       <c r="D93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>420020</v>
+        <v>418051</v>
       </c>
       <c r="B94" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C94" s="4">
-        <v>60010</v>
+        <v>60008</v>
       </c>
       <c r="D94" s="5">
         <v>2</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>420030</v>
+        <v>418052</v>
       </c>
       <c r="B95" s="3">
-        <v>4102</v>
+        <v>4114</v>
       </c>
       <c r="C95" s="4">
-        <v>60010</v>
+        <v>60002</v>
       </c>
       <c r="D95" s="5">
-        <v>1</v>
+        <v>61000</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>420040</v>
+        <v>419000</v>
       </c>
       <c r="B96" s="3">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="C96" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D96" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>420041</v>
+        <v>419010</v>
       </c>
       <c r="B97" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C97" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D97" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="3"/>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>420050</v>
+        <v>419020</v>
       </c>
       <c r="B98" s="3">
-        <v>4106</v>
+        <v>4103</v>
       </c>
       <c r="C98" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D98" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>420051</v>
+        <v>419030</v>
       </c>
       <c r="B99" s="3">
         <v>4102</v>
       </c>
       <c r="C99" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D99" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>421000</v>
+        <v>419040</v>
       </c>
       <c r="B100" s="3">
-        <v>4103</v>
+        <v>4107</v>
       </c>
       <c r="C100" s="4">
-        <v>60011</v>
+        <v>60009</v>
       </c>
       <c r="D100" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>421010</v>
+        <v>419041</v>
       </c>
       <c r="B101" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C101" s="4">
-        <v>60011</v>
+        <v>60009</v>
       </c>
       <c r="D101" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>421020</v>
+        <v>419050</v>
       </c>
       <c r="B102" s="3">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="C102" s="4">
-        <v>60011</v>
+        <v>60009</v>
       </c>
       <c r="D102" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2"/>
-      <c r="F102" s="3"/>
+      <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>421030</v>
+        <v>419051</v>
       </c>
       <c r="B103" s="3">
         <v>4102</v>
       </c>
       <c r="C103" s="4">
-        <v>60011</v>
+        <v>60009</v>
       </c>
       <c r="D103" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="3"/>
+      <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>421040</v>
+        <v>419052</v>
       </c>
       <c r="B104" s="3">
-        <v>4107</v>
+        <v>4114</v>
       </c>
       <c r="C104" s="4">
-        <v>60011</v>
+        <v>60002</v>
       </c>
       <c r="D104" s="5">
-        <v>6</v>
+        <v>61000</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="3"/>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>421041</v>
+        <v>420000</v>
       </c>
       <c r="B105" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C105" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D105" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E105" s="2"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>421050</v>
+        <v>420010</v>
       </c>
       <c r="B106" s="3">
-        <v>4106</v>
+        <v>4103</v>
       </c>
       <c r="C106" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D106" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>421051</v>
+        <v>420020</v>
       </c>
       <c r="B107" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C107" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D107" s="5">
         <v>2</v>
       </c>
       <c r="E107" s="2"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>420030</v>
+      </c>
+      <c r="B108" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C108" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
     <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>400100</v>
+        <v>420040</v>
       </c>
       <c r="B109" s="3">
-        <v>0</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="5"/>
+        <v>4107</v>
+      </c>
+      <c r="C109" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D109" s="5">
+        <v>6</v>
+      </c>
       <c r="E109" s="2"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>400110</v>
+        <v>420041</v>
       </c>
       <c r="B110" s="3">
-        <v>0</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C110" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D110" s="5">
+        <v>2</v>
+      </c>
       <c r="E110" s="2"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>400120</v>
+        <v>420050</v>
       </c>
       <c r="B111" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C111" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D111" s="5">
         <v>0</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="5"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>400130</v>
+        <v>420051</v>
       </c>
       <c r="B112" s="3">
-        <v>0</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C112" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D112" s="5">
+        <v>2</v>
+      </c>
       <c r="E112" s="2"/>
-      <c r="F112" s="3"/>
+      <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>400140</v>
+        <v>421000</v>
       </c>
       <c r="B113" s="3">
+        <v>4103</v>
+      </c>
+      <c r="C113" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D113" s="5">
         <v>0</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="5"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>400150</v>
+        <v>421010</v>
       </c>
       <c r="B114" s="3">
-        <v>0</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="5"/>
+        <v>4103</v>
+      </c>
+      <c r="C114" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1</v>
+      </c>
       <c r="E114" s="2"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>400160</v>
+        <v>421020</v>
       </c>
       <c r="B115" s="3">
-        <v>0</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="5"/>
+        <v>4103</v>
+      </c>
+      <c r="C115" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D115" s="5">
+        <v>2</v>
+      </c>
       <c r="E115" s="2"/>
-      <c r="F115" s="3"/>
+      <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>400170</v>
+        <v>421030</v>
       </c>
       <c r="B116" s="3">
-        <v>0</v>
-      </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C116" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
       <c r="E116" s="2"/>
-      <c r="F116" s="3"/>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>400180</v>
+        <v>421040</v>
       </c>
       <c r="B117" s="3">
-        <v>0</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="5"/>
+        <v>4107</v>
+      </c>
+      <c r="C117" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D117" s="5">
+        <v>6</v>
+      </c>
       <c r="E117" s="2"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>421041</v>
+      </c>
+      <c r="B118" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C118" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D118" s="5">
+        <v>2</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>400200</v>
+        <v>421050</v>
       </c>
       <c r="B119" s="3">
+        <v>4106</v>
+      </c>
+      <c r="C119" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D119" s="5">
         <v>0</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="5"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>400210</v>
+        <v>421051</v>
       </c>
       <c r="B120" s="3">
-        <v>0</v>
-      </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C120" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D120" s="5">
+        <v>2</v>
+      </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>400220</v>
+        <v>421052</v>
       </c>
       <c r="B121" s="3">
-        <v>0</v>
-      </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="5"/>
+        <v>4114</v>
+      </c>
+      <c r="C121" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D121" s="5">
+        <v>61000</v>
+      </c>
       <c r="E121" s="2"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>400230</v>
-      </c>
-      <c r="B122" s="3">
-        <v>0</v>
-      </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="3"/>
-    </row>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>400240</v>
+        <v>401000</v>
       </c>
       <c r="B123" s="3">
-        <v>0</v>
-      </c>
-      <c r="C123" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C123" s="4">
+        <v>130050</v>
+      </c>
       <c r="D123" s="5"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>400250</v>
+        <v>401010</v>
       </c>
       <c r="B124" s="3">
-        <v>0</v>
-      </c>
-      <c r="C124" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C124" s="4">
+        <v>130080</v>
+      </c>
       <c r="D124" s="5"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="3"/>
+      <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>400260</v>
+        <v>401020</v>
       </c>
       <c r="B125" s="3">
-        <v>0</v>
-      </c>
-      <c r="C125" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C125" s="4">
+        <v>130110</v>
+      </c>
       <c r="D125" s="5"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="3"/>
+      <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>400270</v>
+        <v>401030</v>
       </c>
       <c r="B126" s="3">
-        <v>0</v>
-      </c>
-      <c r="C126" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C126" s="4">
+        <v>101000</v>
+      </c>
       <c r="D126" s="5"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="3"/>
+      <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>400280</v>
+        <v>401031</v>
       </c>
       <c r="B127" s="3">
-        <v>0</v>
-      </c>
-      <c r="C127" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C127" s="4">
+        <v>101010</v>
+      </c>
       <c r="D127" s="5"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="3"/>
+      <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>400290</v>
+        <v>401032</v>
       </c>
       <c r="B128" s="3">
-        <v>0</v>
-      </c>
-      <c r="C128" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C128" s="4">
+        <v>101020</v>
+      </c>
       <c r="D128" s="5"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="3"/>
+      <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>400300</v>
+        <v>401040</v>
       </c>
       <c r="B129" s="3">
-        <v>0</v>
-      </c>
-      <c r="C129" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C129" s="4">
+        <v>101030</v>
+      </c>
       <c r="D129" s="5"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>400310</v>
+        <v>401041</v>
       </c>
       <c r="B130" s="3">
-        <v>0</v>
-      </c>
-      <c r="C130" s="4"/>
+        <v>4111</v>
+      </c>
+      <c r="C130" s="4">
+        <v>60011</v>
+      </c>
       <c r="D130" s="5"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="3"/>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>400320</v>
+        <v>401050</v>
       </c>
       <c r="B131" s="3">
-        <v>0</v>
-      </c>
-      <c r="C131" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C131" s="4">
+        <v>101040</v>
+      </c>
       <c r="D131" s="5"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>400330</v>
-      </c>
-      <c r="B132" s="3">
-        <v>0</v>
-      </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="3"/>
-    </row>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>400340</v>
+        <v>402000</v>
       </c>
       <c r="B133" s="3">
-        <v>0</v>
-      </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C133" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D133" s="5">
+        <v>3</v>
+      </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="3"/>
+      <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>400350</v>
+        <v>402001</v>
       </c>
       <c r="B134" s="3">
-        <v>0</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C134" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D134" s="5">
+        <v>3</v>
+      </c>
       <c r="E134" s="2"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>402002</v>
+      </c>
+      <c r="B135" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C135" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D135" s="5">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
     <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>401000</v>
+        <v>402003</v>
       </c>
       <c r="B136" s="3">
         <v>4400</v>
       </c>
       <c r="C136" s="4">
-        <v>130050</v>
+        <v>117141</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>401010</v>
+        <v>402004</v>
       </c>
       <c r="B137" s="3">
         <v>4400</v>
       </c>
       <c r="C137" s="4">
-        <v>130080</v>
+        <v>100031</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="3"/>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>401020</v>
+        <v>402010</v>
       </c>
       <c r="B138" s="3">
         <v>4400</v>
       </c>
       <c r="C138" s="4">
-        <v>130110</v>
+        <v>102000</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="3"/>
+      <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>401030</v>
+        <v>402020</v>
       </c>
       <c r="B139" s="3">
         <v>4400</v>
       </c>
       <c r="C139" s="4">
-        <v>101000</v>
+        <v>102010</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>401031</v>
+        <v>402030</v>
       </c>
       <c r="B140" s="3">
         <v>4400</v>
       </c>
       <c r="C140" s="4">
-        <v>101010</v>
+        <v>102020</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>401032</v>
-      </c>
-      <c r="B141" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C141" s="4">
-        <v>101020</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="3"/>
-    </row>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>401040</v>
+        <v>410100</v>
       </c>
       <c r="B142" s="3">
-        <v>4400</v>
+        <v>4003</v>
       </c>
       <c r="C142" s="4">
-        <v>101030</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="D142" s="5">
+        <v>11</v>
+      </c>
+      <c r="E142" s="2">
+        <v>12</v>
+      </c>
+      <c r="F142" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>401041</v>
+        <v>410101</v>
       </c>
       <c r="B143" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C143" s="4">
-        <v>60011</v>
+        <v>100032</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="3"/>
+      <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>401050</v>
+        <v>410102</v>
       </c>
       <c r="B144" s="3">
         <v>4400</v>
       </c>
       <c r="C144" s="4">
-        <v>101040</v>
+        <v>100031</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>410110</v>
+      </c>
+      <c r="B145" s="3">
+        <v>4003</v>
+      </c>
+      <c r="C145" s="4">
+        <v>7</v>
+      </c>
+      <c r="D145" s="5">
+        <v>12</v>
+      </c>
+      <c r="E145" s="2">
+        <v>12</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>402000</v>
+        <v>410120</v>
       </c>
       <c r="B146" s="3">
-        <v>4102</v>
+        <v>4003</v>
       </c>
       <c r="C146" s="4">
-        <v>60003</v>
+        <v>7</v>
       </c>
       <c r="D146" s="5">
-        <v>3</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>402001</v>
-      </c>
-      <c r="B147" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C147" s="4">
+        <v>13</v>
+      </c>
+      <c r="E146" s="2">
+        <v>12</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7">
+        <v>411060</v>
+      </c>
+      <c r="B148" s="10">
+        <v>4102</v>
+      </c>
+      <c r="C148" s="11">
         <v>60001</v>
       </c>
-      <c r="D147" s="5">
-        <v>3</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>402002</v>
-      </c>
-      <c r="B148" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C148" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D148" s="5">
-        <v>3</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>402003</v>
-      </c>
-      <c r="B149" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C149" s="4">
-        <v>117130</v>
-      </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="3"/>
-    </row>
+      <c r="D148" s="8">
+        <v>1</v>
+      </c>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>402004</v>
+        <v>412100</v>
       </c>
       <c r="B150" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C150" s="4">
-        <v>100031</v>
-      </c>
-      <c r="D150" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D150" s="5">
+        <v>1</v>
+      </c>
       <c r="E150" s="2"/>
-      <c r="F150" s="3"/>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>402010</v>
+        <v>412101</v>
       </c>
       <c r="B151" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C151" s="4">
-        <v>102000</v>
+        <v>61003</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
-      <c r="F151" s="3"/>
+      <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>402020</v>
+        <v>412110</v>
       </c>
       <c r="B152" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C152" s="4">
-        <v>102010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
-      <c r="F152" s="3"/>
+      <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>402030</v>
+        <v>412111</v>
       </c>
       <c r="B153" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C153" s="4">
-        <v>102020</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>50</v>
+      </c>
+      <c r="D153" s="8"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>412120</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+    </row>
     <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>403000</v>
+        <v>412121</v>
       </c>
       <c r="B155" s="3">
-        <v>0</v>
-      </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="3"/>
+        <v>4400</v>
+      </c>
+      <c r="C155" s="4">
+        <v>11214</v>
+      </c>
+      <c r="D155" s="8"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>403010</v>
+        <v>412130</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
@@ -2862,775 +2964,903 @@
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="3"/>
+      <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>403020</v>
+        <v>412131</v>
       </c>
       <c r="B157" s="3">
-        <v>0</v>
-      </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="3"/>
+        <v>4111</v>
+      </c>
+      <c r="C157" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D157" s="8"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>403030</v>
+        <v>412132</v>
       </c>
       <c r="B158" s="3">
-        <v>0</v>
-      </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="3"/>
+        <v>4400</v>
+      </c>
+      <c r="C158" s="4">
+        <v>100400</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>403040</v>
+        <v>412140</v>
       </c>
       <c r="B159" s="3">
-        <v>0</v>
-      </c>
-      <c r="C159" s="4"/>
+        <v>4111</v>
+      </c>
+      <c r="C159" s="4">
+        <v>60009</v>
+      </c>
       <c r="D159" s="5"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>403100</v>
-      </c>
-      <c r="B160" s="3">
-        <v>0</v>
-      </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="3"/>
-    </row>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>403110</v>
+        <v>413100</v>
       </c>
       <c r="B161" s="3">
-        <v>0</v>
-      </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C161" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D161" s="5">
+        <v>1</v>
+      </c>
       <c r="E161" s="2"/>
-      <c r="F161" s="3"/>
+      <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>403120</v>
+        <v>413110</v>
       </c>
       <c r="B162" s="3">
-        <v>0</v>
-      </c>
-      <c r="C162" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C162" s="4">
+        <v>113100</v>
+      </c>
       <c r="D162" s="5"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="3"/>
+      <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>403130</v>
+        <v>413120</v>
       </c>
       <c r="B163" s="3">
-        <v>0</v>
-      </c>
-      <c r="C163" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C163" s="4">
+        <v>121120</v>
+      </c>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>403140</v>
+        <v>413130</v>
       </c>
       <c r="B164" s="3">
-        <v>0</v>
-      </c>
-      <c r="C164" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C164" s="4">
+        <v>121121</v>
+      </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="3"/>
+      <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>403150</v>
+        <v>413140</v>
       </c>
       <c r="B165" s="3">
-        <v>0</v>
-      </c>
-      <c r="C165" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C165" s="4">
+        <v>121122</v>
+      </c>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="3"/>
+      <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>403160</v>
+        <v>413150</v>
       </c>
       <c r="B166" s="3">
-        <v>0</v>
-      </c>
-      <c r="C166" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C166" s="4">
+        <v>113140</v>
+      </c>
       <c r="D166" s="5"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="3"/>
+      <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>403170</v>
+        <v>413151</v>
       </c>
       <c r="B167" s="3">
-        <v>0</v>
-      </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C167" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D167" s="5">
+        <v>2</v>
+      </c>
       <c r="E167" s="2"/>
-      <c r="F167" s="3"/>
+      <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>403180</v>
+        <v>413160</v>
       </c>
       <c r="B168" s="3">
-        <v>0</v>
-      </c>
-      <c r="C168" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C168" s="4">
+        <v>113150</v>
+      </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="3"/>
+      <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>403190</v>
+        <v>413161</v>
       </c>
       <c r="B169" s="3">
-        <v>0</v>
-      </c>
-      <c r="C169" s="4"/>
-      <c r="D169" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C169" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D169" s="5">
+        <v>3</v>
+      </c>
       <c r="E169" s="2"/>
-      <c r="F169" s="3"/>
+      <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>403200</v>
+        <v>413200</v>
       </c>
       <c r="B170" s="3">
-        <v>0</v>
-      </c>
-      <c r="C170" s="4"/>
-      <c r="D170" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C170" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D170" s="5">
+        <v>1</v>
+      </c>
       <c r="E170" s="2"/>
-      <c r="F170" s="3"/>
+      <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>403210</v>
+        <v>413201</v>
       </c>
       <c r="B171" s="3">
-        <v>0</v>
-      </c>
-      <c r="C171" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C171" s="4">
+        <v>100040</v>
+      </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="3"/>
+      <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>403220</v>
+        <v>413210</v>
       </c>
       <c r="B172" s="3">
-        <v>0</v>
-      </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C172" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D172" s="5">
+        <v>2</v>
+      </c>
       <c r="E172" s="2"/>
-      <c r="F172" s="3"/>
-    </row>
-    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>413211</v>
+      </c>
+      <c r="B173" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C173" s="4">
+        <v>113200</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+    </row>
     <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>403300</v>
+        <v>413220</v>
       </c>
       <c r="B174" s="3">
-        <v>0</v>
-      </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C174" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D174" s="5">
+        <v>3</v>
+      </c>
       <c r="E174" s="2"/>
-      <c r="F174" s="3"/>
+      <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>403310</v>
+        <v>413221</v>
       </c>
       <c r="B175" s="3">
-        <v>0</v>
-      </c>
-      <c r="C175" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C175" s="4">
+        <v>113210</v>
+      </c>
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="3"/>
+      <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>403320</v>
+        <v>413230</v>
       </c>
       <c r="B176" s="3">
-        <v>0</v>
-      </c>
-      <c r="C176" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C176" s="4">
+        <v>113220</v>
+      </c>
       <c r="D176" s="5"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="3"/>
+      <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>403330</v>
+        <v>413231</v>
       </c>
       <c r="B177" s="3">
-        <v>0</v>
-      </c>
-      <c r="C177" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C177" s="4">
+        <v>118114</v>
+      </c>
       <c r="D177" s="5"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="3"/>
-    </row>
-    <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>403340</v>
-      </c>
-      <c r="B178" s="3">
-        <v>0</v>
-      </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="3"/>
-    </row>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>403350</v>
+        <v>415100</v>
       </c>
       <c r="B179" s="3">
-        <v>0</v>
-      </c>
-      <c r="C179" s="4"/>
-      <c r="D179" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C179" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D179" s="5">
+        <v>1</v>
+      </c>
       <c r="E179" s="2"/>
-      <c r="F179" s="3"/>
+      <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>403360</v>
+        <v>415110</v>
       </c>
       <c r="B180" s="3">
-        <v>0</v>
-      </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C180" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D180" s="5">
+        <v>2</v>
+      </c>
       <c r="E180" s="2"/>
-      <c r="F180" s="3"/>
+      <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>403370</v>
+        <v>415111</v>
       </c>
       <c r="B181" s="3">
-        <v>0</v>
-      </c>
-      <c r="C181" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C181" s="4">
+        <v>115100</v>
+      </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
-      <c r="F181" s="3"/>
+      <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>403380</v>
+        <v>415120</v>
       </c>
       <c r="B182" s="3">
-        <v>0</v>
-      </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C182" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D182" s="5">
+        <v>3</v>
+      </c>
       <c r="E182" s="2"/>
-      <c r="F182" s="3"/>
+      <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>403390</v>
+        <v>415121</v>
       </c>
       <c r="B183" s="3">
-        <v>0</v>
-      </c>
-      <c r="C183" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C183" s="4">
+        <v>115101</v>
+      </c>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="3"/>
+      <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>403400</v>
+        <v>415122</v>
       </c>
       <c r="B184" s="3">
-        <v>0</v>
-      </c>
-      <c r="C184" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C184" s="4">
+        <v>115111</v>
+      </c>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
-      <c r="F184" s="3"/>
+      <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>403410</v>
+        <v>415130</v>
       </c>
       <c r="B185" s="3">
-        <v>0</v>
-      </c>
-      <c r="C185" s="4"/>
-      <c r="D185" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C185" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D185" s="5">
+        <v>3</v>
+      </c>
       <c r="E185" s="2"/>
-      <c r="F185" s="3"/>
+      <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>403500</v>
+        <v>415131</v>
       </c>
       <c r="B186" s="3">
-        <v>0</v>
-      </c>
-      <c r="C186" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C186" s="4">
+        <v>115112</v>
+      </c>
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
-      <c r="F186" s="3"/>
+      <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>403510</v>
+        <v>415140</v>
       </c>
       <c r="B187" s="3">
-        <v>0</v>
-      </c>
-      <c r="C187" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C187" s="4">
+        <v>115102</v>
+      </c>
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
-      <c r="F187" s="3"/>
+      <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>403520</v>
+        <v>415141</v>
       </c>
       <c r="B188" s="3">
-        <v>0</v>
-      </c>
-      <c r="C188" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C188" s="4">
+        <v>115111</v>
+      </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
-      <c r="F188" s="3"/>
+      <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>403530</v>
+        <v>415150</v>
       </c>
       <c r="B189" s="3">
-        <v>0</v>
-      </c>
-      <c r="C189" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C189" s="4">
+        <v>115102</v>
+      </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
-      <c r="F189" s="3"/>
+      <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>403540</v>
+        <v>415151</v>
       </c>
       <c r="B190" s="3">
-        <v>0</v>
-      </c>
-      <c r="C190" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C190" s="4">
+        <v>115111</v>
+      </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
-      <c r="F190" s="3"/>
+      <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>403550</v>
+        <v>415160</v>
       </c>
       <c r="B191" s="3">
-        <v>0</v>
-      </c>
-      <c r="C191" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C191" s="4">
+        <v>115102</v>
+      </c>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
-      <c r="F191" s="3"/>
+      <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>403560</v>
+        <v>415161</v>
       </c>
       <c r="B192" s="3">
-        <v>0</v>
-      </c>
-      <c r="C192" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C192" s="4">
+        <v>115111</v>
+      </c>
       <c r="D192" s="5"/>
       <c r="E192" s="2"/>
-      <c r="F192" s="3"/>
+      <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>403570</v>
+        <v>415170</v>
       </c>
       <c r="B193" s="3">
-        <v>0</v>
-      </c>
-      <c r="C193" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C193" s="4">
+        <v>118114</v>
+      </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
-      <c r="F193" s="3"/>
+      <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>403580</v>
+        <v>415171</v>
       </c>
       <c r="B194" s="3">
-        <v>0</v>
-      </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C194" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D194" s="5">
+        <v>3</v>
+      </c>
       <c r="E194" s="2"/>
-      <c r="F194" s="3"/>
+      <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>403590</v>
+        <v>415172</v>
       </c>
       <c r="B195" s="3">
-        <v>0</v>
-      </c>
-      <c r="C195" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C195" s="4">
+        <v>115120</v>
+      </c>
       <c r="D195" s="5"/>
       <c r="E195" s="2"/>
-      <c r="F195" s="3"/>
+      <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>403600</v>
+        <v>415173</v>
       </c>
       <c r="B196" s="3">
-        <v>0</v>
-      </c>
-      <c r="C196" s="4"/>
+        <v>4005</v>
+      </c>
+      <c r="C196" s="4">
+        <v>4</v>
+      </c>
       <c r="D196" s="5"/>
       <c r="E196" s="2"/>
-      <c r="F196" s="3"/>
+      <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>403610</v>
+        <v>415180</v>
       </c>
       <c r="B197" s="3">
-        <v>0</v>
-      </c>
-      <c r="C197" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C197" s="4">
+        <v>115170</v>
+      </c>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
-      <c r="F197" s="3"/>
-    </row>
-    <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>403700</v>
-      </c>
-      <c r="B198" s="3">
-        <v>0</v>
-      </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="3"/>
-    </row>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>403710</v>
+        <v>416100</v>
       </c>
       <c r="B199" s="3">
-        <v>0</v>
-      </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C199" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D199" s="5">
+        <v>1</v>
+      </c>
       <c r="E199" s="2"/>
-      <c r="F199" s="3"/>
+      <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>403720</v>
+        <v>416101</v>
       </c>
       <c r="B200" s="3">
-        <v>0</v>
-      </c>
-      <c r="C200" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C200" s="4">
+        <v>116101</v>
+      </c>
       <c r="D200" s="5"/>
       <c r="E200" s="2"/>
-      <c r="F200" s="3"/>
+      <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>403730</v>
+        <v>416110</v>
       </c>
       <c r="B201" s="3">
-        <v>0</v>
-      </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C201" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D201" s="5">
+        <v>2</v>
+      </c>
       <c r="E201" s="2"/>
-      <c r="F201" s="3"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>403740</v>
+        <v>416111</v>
       </c>
       <c r="B202" s="3">
-        <v>0</v>
-      </c>
-      <c r="C202" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C202" s="4">
+        <v>116100</v>
+      </c>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
-      <c r="F202" s="3"/>
-    </row>
-    <row r="203" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>403750</v>
+        <v>416120</v>
       </c>
       <c r="B203" s="3">
-        <v>0</v>
-      </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C203" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D203" s="5">
+        <v>3</v>
+      </c>
       <c r="E203" s="2"/>
-      <c r="F203" s="3"/>
+      <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>403760</v>
+        <v>416121</v>
       </c>
       <c r="B204" s="3">
-        <v>0</v>
-      </c>
-      <c r="C204" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C204" s="4">
+        <v>116110</v>
+      </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
-      <c r="F204" s="3"/>
+      <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>403770</v>
+        <v>416130</v>
       </c>
       <c r="B205" s="3">
-        <v>0</v>
-      </c>
-      <c r="C205" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C205" s="4">
+        <v>116121</v>
+      </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
-      <c r="F205" s="3"/>
-    </row>
-    <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="2">
-        <v>403780</v>
-      </c>
-      <c r="B206" s="3">
-        <v>0</v>
-      </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="3"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>403790</v>
+        <v>417100</v>
       </c>
       <c r="B207" s="3">
-        <v>0</v>
-      </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C207" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D207" s="5">
+        <v>1</v>
+      </c>
       <c r="E207" s="2"/>
-      <c r="F207" s="3"/>
+      <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>403800</v>
+        <v>417101</v>
       </c>
       <c r="B208" s="3">
-        <v>0</v>
-      </c>
-      <c r="C208" s="4"/>
-      <c r="D208" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C208" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D208" s="5">
+        <v>1</v>
+      </c>
       <c r="E208" s="2"/>
-      <c r="F208" s="3"/>
+      <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>403810</v>
+        <v>417102</v>
       </c>
       <c r="B209" s="3">
-        <v>0</v>
-      </c>
-      <c r="C209" s="4"/>
-      <c r="D209" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C209" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D209" s="5">
+        <v>1</v>
+      </c>
       <c r="E209" s="2"/>
-      <c r="F209" s="3"/>
+      <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>403900</v>
+        <v>417110</v>
       </c>
       <c r="B210" s="3">
-        <v>0</v>
-      </c>
-      <c r="C210" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C210" s="4">
+        <v>117100</v>
+      </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
-      <c r="F210" s="3"/>
+      <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>403910</v>
+        <v>417120</v>
       </c>
       <c r="B211" s="3">
-        <v>0</v>
-      </c>
-      <c r="C211" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C211" s="4">
+        <v>117110</v>
+      </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
-      <c r="F211" s="3"/>
+      <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>403920</v>
+        <v>417130</v>
       </c>
       <c r="B212" s="3">
-        <v>0</v>
-      </c>
-      <c r="C212" s="4"/>
-      <c r="D212" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C212" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D212" s="5">
+        <v>2</v>
+      </c>
       <c r="E212" s="2"/>
-      <c r="F212" s="3"/>
+      <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
+      <c r="A213" s="2">
+        <v>417131</v>
+      </c>
+      <c r="B213" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C213" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D213" s="5">
+        <v>2</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>404000</v>
+        <v>417132</v>
       </c>
       <c r="B214" s="3">
-        <v>0</v>
-      </c>
-      <c r="C214" s="4"/>
-      <c r="D214" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C214" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D214" s="5">
+        <v>2</v>
+      </c>
       <c r="E214" s="2"/>
-      <c r="F214" s="3"/>
+      <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>404010</v>
+        <v>417133</v>
       </c>
       <c r="B215" s="3">
-        <v>0</v>
-      </c>
-      <c r="C215" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C215" s="4">
+        <v>117120</v>
+      </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
-      <c r="F215" s="3"/>
+      <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>404020</v>
+        <v>417134</v>
       </c>
       <c r="B216" s="3">
-        <v>0</v>
-      </c>
-      <c r="C216" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C216" s="4">
+        <v>116110</v>
+      </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
-      <c r="F216" s="3"/>
+      <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>404030</v>
+        <v>417140</v>
       </c>
       <c r="B217" s="3">
-        <v>0</v>
-      </c>
-      <c r="C217" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C217" s="4">
+        <v>117131</v>
+      </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
-      <c r="F217" s="3"/>
+      <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>404040</v>
+        <v>417141</v>
       </c>
       <c r="B218" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C218" s="4">
         <v>0</v>
       </c>
-      <c r="C218" s="4"/>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
-      <c r="F218" s="3"/>
+      <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>404050</v>
+        <v>417150</v>
       </c>
       <c r="B219" s="3">
-        <v>0</v>
-      </c>
-      <c r="C219" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C219" s="4">
+        <v>117141</v>
+      </c>
       <c r="D219" s="5"/>
       <c r="E219" s="2"/>
-      <c r="F219" s="3"/>
+      <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>404060</v>
+        <v>417151</v>
       </c>
       <c r="B220" s="3">
-        <v>0</v>
-      </c>
-      <c r="C220" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C220" s="4">
+        <v>116121</v>
+      </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
-      <c r="F220" s="3"/>
+      <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>404070</v>
-      </c>
-      <c r="B221" s="3">
-        <v>0</v>
-      </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="3"/>
+      <c r="A221" s="6"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>404080</v>
+        <v>418100</v>
       </c>
       <c r="B222" s="3">
         <v>0</v>
@@ -3638,1542 +3868,1567 @@
       <c r="C222" s="4"/>
       <c r="D222" s="5"/>
       <c r="E222" s="2"/>
-      <c r="F222" s="3"/>
+      <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>404090</v>
+        <v>418110</v>
       </c>
       <c r="B223" s="3">
-        <v>0</v>
-      </c>
-      <c r="C223" s="4"/>
-      <c r="D223" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C223" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D223" s="5">
+        <v>1</v>
+      </c>
       <c r="E223" s="2"/>
-      <c r="F223" s="3"/>
+      <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>404100</v>
+        <v>418111</v>
       </c>
       <c r="B224" s="3">
-        <v>0</v>
-      </c>
-      <c r="C224" s="4"/>
+        <v>4000</v>
+      </c>
+      <c r="C224" s="4">
+        <v>20</v>
+      </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
-      <c r="F224" s="3"/>
+      <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>404110</v>
+        <v>418112</v>
       </c>
       <c r="B225" s="3">
-        <v>0</v>
-      </c>
-      <c r="C225" s="4"/>
+        <v>4506</v>
+      </c>
+      <c r="C225" s="4">
+        <v>61004</v>
+      </c>
       <c r="D225" s="5"/>
       <c r="E225" s="2"/>
-      <c r="F225" s="3"/>
+      <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>404120</v>
+        <v>418113</v>
       </c>
       <c r="B226" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C226" s="4">
         <v>0</v>
       </c>
-      <c r="C226" s="4"/>
       <c r="D226" s="5"/>
       <c r="E226" s="2"/>
-      <c r="F226" s="3"/>
+      <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>404130</v>
+        <v>418114</v>
       </c>
       <c r="B227" s="3">
-        <v>0</v>
-      </c>
-      <c r="C227" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C227" s="4">
+        <v>118114</v>
+      </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
-      <c r="F227" s="3"/>
+      <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>404200</v>
+        <v>418115</v>
       </c>
       <c r="B228" s="3">
-        <v>0</v>
-      </c>
-      <c r="C228" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C228" s="4">
+        <v>118115</v>
+      </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
-      <c r="F228" s="3"/>
+      <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>404210</v>
+        <v>418116</v>
       </c>
       <c r="B229" s="3">
-        <v>0</v>
-      </c>
-      <c r="C229" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C229" s="4">
+        <v>118116</v>
+      </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="3"/>
+      <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
-        <v>404220</v>
-      </c>
-      <c r="B230" s="3">
-        <v>0</v>
-      </c>
-      <c r="C230" s="4"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="3"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>404230</v>
+        <v>419100</v>
       </c>
       <c r="B231" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C231" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D231" s="5">
+        <v>1</v>
+      </c>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>419101</v>
+      </c>
+      <c r="B232" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C232" s="4">
         <v>0</v>
       </c>
-      <c r="C231" s="4"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="3"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>409000</v>
+        <v>419110</v>
       </c>
       <c r="B233" s="3">
-        <v>0</v>
-      </c>
-      <c r="C233" s="4"/>
-      <c r="D233" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C233" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D233" s="5">
+        <v>2</v>
+      </c>
       <c r="E233" s="2"/>
-      <c r="F233" s="3"/>
+      <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>409010</v>
+        <v>419111</v>
       </c>
       <c r="B234" s="3">
-        <v>0</v>
-      </c>
-      <c r="C234" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C234" s="4">
+        <v>119100</v>
+      </c>
       <c r="D234" s="5"/>
       <c r="E234" s="2"/>
-      <c r="F234" s="3"/>
+      <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>409020</v>
+        <v>419112</v>
       </c>
       <c r="B235" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C235" s="4">
         <v>0</v>
       </c>
-      <c r="C235" s="4"/>
       <c r="D235" s="5"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="3"/>
+      <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>409030</v>
+        <v>419120</v>
       </c>
       <c r="B236" s="3">
-        <v>0</v>
-      </c>
-      <c r="C236" s="4"/>
-      <c r="D236" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C236" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D236" s="5">
+        <v>3</v>
+      </c>
       <c r="E236" s="2"/>
-      <c r="F236" s="3"/>
+      <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
+      <c r="A237" s="2">
+        <v>419121</v>
+      </c>
+      <c r="B237" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C237" s="4">
+        <v>119110</v>
+      </c>
+      <c r="D237" s="5"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>410100</v>
+        <v>419122</v>
       </c>
       <c r="B238" s="3">
-        <v>4003</v>
+        <v>4403</v>
       </c>
       <c r="C238" s="4">
-        <v>7</v>
-      </c>
-      <c r="D238" s="5">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2">
-        <v>12</v>
-      </c>
-      <c r="F238" s="3">
         <v>0</v>
       </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>410101</v>
+        <v>419130</v>
       </c>
       <c r="B239" s="3">
         <v>4400</v>
       </c>
       <c r="C239" s="4">
-        <v>100032</v>
+        <v>119121</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="2"/>
-      <c r="F239" s="3"/>
+      <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>410102</v>
+        <v>419140</v>
       </c>
       <c r="B240" s="3">
         <v>4400</v>
       </c>
       <c r="C240" s="4">
-        <v>100031</v>
+        <v>119121</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="2"/>
-      <c r="F240" s="3"/>
+      <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>410110</v>
+        <v>419150</v>
       </c>
       <c r="B241" s="3">
-        <v>4003</v>
+        <v>4400</v>
       </c>
       <c r="C241" s="4">
-        <v>7</v>
-      </c>
-      <c r="D241" s="5">
-        <v>12</v>
-      </c>
-      <c r="E241" s="2">
-        <v>12</v>
-      </c>
-      <c r="F241" s="3">
-        <v>0</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D241" s="5"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>410120</v>
-      </c>
-      <c r="B242" s="3">
-        <v>4003</v>
-      </c>
-      <c r="C242" s="4">
-        <v>7</v>
-      </c>
-      <c r="D242" s="5">
-        <v>13</v>
-      </c>
-      <c r="E242" s="2">
-        <v>12</v>
-      </c>
-      <c r="F242" s="3">
-        <v>0</v>
-      </c>
+      <c r="A242" s="6"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
+      <c r="A243" s="2">
+        <v>420100</v>
+      </c>
+      <c r="B243" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C243" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D243" s="5">
+        <v>1</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>411060</v>
+        <v>420110</v>
       </c>
       <c r="B244" s="3">
         <v>4102</v>
       </c>
       <c r="C244" s="4">
-        <v>60001</v>
+        <v>60010</v>
       </c>
       <c r="D244" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="F244" s="3"/>
+      <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="9"/>
-      <c r="B245" s="9"/>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9"/>
-      <c r="E245" s="9"/>
-      <c r="F245" s="10"/>
+      <c r="A245" s="2">
+        <v>420111</v>
+      </c>
+      <c r="B245" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C245" s="4">
+        <v>120100</v>
+      </c>
+      <c r="D245" s="5"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>412100</v>
+        <v>420120</v>
       </c>
       <c r="B246" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C246" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D246" s="5">
-        <v>1</v>
-      </c>
+        <v>120110</v>
+      </c>
+      <c r="D246" s="5"/>
       <c r="E246" s="2"/>
-      <c r="F246" s="3"/>
+      <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>412101</v>
+        <v>420121</v>
       </c>
       <c r="B247" s="3">
-        <v>4114</v>
+        <v>4403</v>
       </c>
       <c r="C247" s="4">
-        <v>61003</v>
+        <v>0</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
-      <c r="F247" s="3"/>
+      <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>412110</v>
+        <v>420130</v>
       </c>
       <c r="B248" s="3">
-        <v>0</v>
-      </c>
-      <c r="C248" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C248" s="4">
+        <v>120121</v>
+      </c>
       <c r="D248" s="5"/>
       <c r="E248" s="2"/>
-      <c r="F248" s="3"/>
+      <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>412111</v>
+        <v>420140</v>
       </c>
       <c r="B249" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C249" s="4">
-        <v>50</v>
-      </c>
-      <c r="D249" s="8"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="3"/>
+        <v>120160</v>
+      </c>
+      <c r="D249" s="5"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>412120</v>
+        <v>420141</v>
       </c>
       <c r="B250" s="3">
-        <v>0</v>
-      </c>
-      <c r="C250" s="4"/>
+        <v>4111</v>
+      </c>
+      <c r="C250" s="4">
+        <v>60011</v>
+      </c>
       <c r="D250" s="5"/>
       <c r="E250" s="2"/>
-      <c r="F250" s="3"/>
+      <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>412121</v>
+        <v>420142</v>
       </c>
       <c r="B251" s="3">
         <v>4400</v>
       </c>
       <c r="C251" s="4">
-        <v>11214</v>
-      </c>
-      <c r="D251" s="8"/>
-      <c r="E251" s="7"/>
-      <c r="F251" s="3"/>
+        <v>121110</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>412130</v>
+        <v>420150</v>
       </c>
       <c r="B252" s="3">
-        <v>0</v>
-      </c>
-      <c r="C252" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C252" s="4">
+        <v>120160</v>
+      </c>
       <c r="D252" s="5"/>
       <c r="E252" s="2"/>
-      <c r="F252" s="3"/>
+      <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>412131</v>
+        <v>420151</v>
       </c>
       <c r="B253" s="3">
         <v>4111</v>
       </c>
       <c r="C253" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D253" s="8"/>
-      <c r="E253" s="7"/>
-      <c r="F253" s="3"/>
+        <v>60011</v>
+      </c>
+      <c r="D253" s="5"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>412140</v>
+        <v>420152</v>
       </c>
       <c r="B254" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C254" s="4">
-        <v>60009</v>
+        <v>121100</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
-      <c r="F254" s="3"/>
+      <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
+      <c r="A255" s="2">
+        <v>420160</v>
+      </c>
+      <c r="B255" s="3">
+        <v>4111</v>
+      </c>
+      <c r="C255" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D255" s="5"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>413100</v>
+        <v>420161</v>
       </c>
       <c r="B256" s="3">
         <v>4102</v>
       </c>
       <c r="C256" s="4">
-        <v>60003</v>
+        <v>60011</v>
       </c>
       <c r="D256" s="5">
         <v>1</v>
       </c>
       <c r="E256" s="2"/>
-      <c r="F256" s="3"/>
+      <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>413110</v>
+        <v>420162</v>
       </c>
       <c r="B257" s="3">
         <v>4400</v>
       </c>
       <c r="C257" s="4">
-        <v>113100</v>
+        <v>121110</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="2"/>
-      <c r="F257" s="3"/>
+      <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>413120</v>
+        <v>420163</v>
       </c>
       <c r="B258" s="3">
         <v>4400</v>
       </c>
       <c r="C258" s="4">
-        <v>121120</v>
+        <v>121100</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
-      <c r="F258" s="3"/>
+      <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>413130</v>
+        <v>420164</v>
       </c>
       <c r="B259" s="3">
         <v>4400</v>
       </c>
       <c r="C259" s="4">
-        <v>121121</v>
+        <v>120130</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
-      <c r="F259" s="3"/>
+      <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>413140</v>
+        <v>420165</v>
       </c>
       <c r="B260" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C260" s="4">
-        <v>121122</v>
+        <v>30</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
-      <c r="F260" s="3"/>
+      <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="2">
-        <v>413150</v>
-      </c>
-      <c r="B261" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C261" s="4">
-        <v>113140</v>
-      </c>
-      <c r="D261" s="5"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="3"/>
+      <c r="A261" s="9"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>413151</v>
+        <v>421100</v>
       </c>
       <c r="B262" s="3">
         <v>4102</v>
       </c>
       <c r="C262" s="4">
-        <v>60003</v>
+        <v>60011</v>
       </c>
       <c r="D262" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E262" s="2"/>
-      <c r="F262" s="3"/>
+      <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>413160</v>
+        <v>421101</v>
       </c>
       <c r="B263" s="3">
         <v>4400</v>
       </c>
       <c r="C263" s="4">
-        <v>113150</v>
+        <v>100031</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
-      <c r="F263" s="3"/>
+      <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>413161</v>
+        <v>421110</v>
       </c>
       <c r="B264" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C264" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D264" s="5">
-        <v>3</v>
-      </c>
+        <v>121100</v>
+      </c>
+      <c r="D264" s="5"/>
       <c r="E264" s="2"/>
-      <c r="F264" s="3"/>
+      <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>413200</v>
+        <v>421111</v>
       </c>
       <c r="B265" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C265" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D265" s="5">
-        <v>1</v>
-      </c>
+        <v>113121</v>
+      </c>
+      <c r="D265" s="5"/>
       <c r="E265" s="2"/>
-      <c r="F265" s="3"/>
+      <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>413201</v>
+        <v>421112</v>
       </c>
       <c r="B266" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C266" s="4">
-        <v>100040</v>
-      </c>
-      <c r="D266" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D266" s="5">
+        <v>2</v>
+      </c>
       <c r="E266" s="2"/>
-      <c r="F266" s="3"/>
+      <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>413210</v>
+        <v>421113</v>
       </c>
       <c r="B267" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C267" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D267" s="5">
-        <v>2</v>
-      </c>
+        <v>113120</v>
+      </c>
+      <c r="D267" s="5"/>
       <c r="E267" s="2"/>
-      <c r="F267" s="3"/>
+      <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>413211</v>
+        <v>421120</v>
       </c>
       <c r="B268" s="3">
         <v>4400</v>
       </c>
       <c r="C268" s="4">
-        <v>113200</v>
+        <v>121110</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
-      <c r="F268" s="3"/>
+      <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>413220</v>
+        <v>421121</v>
       </c>
       <c r="B269" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C269" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D269" s="5">
-        <v>3</v>
-      </c>
+        <v>120121</v>
+      </c>
+      <c r="D269" s="5"/>
       <c r="E269" s="2"/>
-      <c r="F269" s="3"/>
+      <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>413221</v>
+        <v>421122</v>
       </c>
       <c r="B270" s="3">
         <v>4400</v>
       </c>
       <c r="C270" s="4">
-        <v>113210</v>
+        <v>120160</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
-      <c r="F270" s="3"/>
+      <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>413230</v>
+        <v>421123</v>
       </c>
       <c r="B271" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C271" s="4">
-        <v>113220</v>
+        <v>30</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
-      <c r="F271" s="3"/>
+      <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>413231</v>
+        <v>421124</v>
       </c>
       <c r="B272" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C272" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D272" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D272" s="5">
+        <v>3</v>
+      </c>
       <c r="E272" s="2"/>
-      <c r="F272" s="3"/>
+      <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="6"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
+      <c r="A273" s="2">
+        <v>421130</v>
+      </c>
+      <c r="B273" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C273" s="4">
+        <v>100032</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>415100</v>
+        <v>421140</v>
       </c>
       <c r="B274" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C274" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D274" s="5">
-        <v>1</v>
-      </c>
+        <v>121130</v>
+      </c>
+      <c r="D274" s="5"/>
       <c r="E274" s="2"/>
-      <c r="F274" s="3"/>
+      <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>415110</v>
+        <v>421141</v>
       </c>
       <c r="B275" s="3">
         <v>4102</v>
       </c>
       <c r="C275" s="4">
-        <v>60005</v>
+        <v>60011</v>
       </c>
       <c r="D275" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275" s="2"/>
-      <c r="F275" s="3"/>
+      <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>415111</v>
+        <v>421150</v>
       </c>
       <c r="B276" s="3">
         <v>4400</v>
       </c>
       <c r="C276" s="4">
-        <v>115100</v>
+        <v>121140</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
-      <c r="F276" s="3"/>
+      <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>415120</v>
+        <v>421151</v>
       </c>
       <c r="B277" s="3">
         <v>4102</v>
       </c>
       <c r="C277" s="4">
-        <v>60005</v>
+        <v>60011</v>
       </c>
       <c r="D277" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E277" s="2"/>
-      <c r="F277" s="3"/>
+      <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>415121</v>
+        <v>421160</v>
       </c>
       <c r="B278" s="3">
         <v>4400</v>
       </c>
       <c r="C278" s="4">
-        <v>115101</v>
+        <v>121150</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
-      <c r="F278" s="3"/>
+      <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>415122</v>
+        <v>421161</v>
       </c>
       <c r="B279" s="3">
         <v>4400</v>
       </c>
       <c r="C279" s="4">
-        <v>115111</v>
+        <v>120160</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="2"/>
-      <c r="F279" s="3"/>
+      <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>415130</v>
+        <v>421162</v>
       </c>
       <c r="B280" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C280" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D280" s="5">
-        <v>3</v>
-      </c>
+        <v>120130</v>
+      </c>
+      <c r="D280" s="5"/>
       <c r="E280" s="2"/>
-      <c r="F280" s="3"/>
+      <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>415131</v>
+        <v>421163</v>
       </c>
       <c r="B281" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C281" s="4">
-        <v>115112</v>
-      </c>
-      <c r="D281" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D281" s="5">
+        <v>3</v>
+      </c>
       <c r="E281" s="2"/>
-      <c r="F281" s="3"/>
+      <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>415140</v>
+        <v>421170</v>
       </c>
       <c r="B282" s="3">
         <v>4400</v>
       </c>
       <c r="C282" s="4">
-        <v>115102</v>
+        <v>121160</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
-      <c r="F282" s="3"/>
+      <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>415141</v>
+        <v>421171</v>
       </c>
       <c r="B283" s="3">
         <v>4400</v>
       </c>
       <c r="C283" s="4">
-        <v>115111</v>
+        <v>120160</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
-      <c r="F283" s="3"/>
+      <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>415150</v>
+        <v>421172</v>
       </c>
       <c r="B284" s="3">
         <v>4400</v>
       </c>
       <c r="C284" s="4">
-        <v>115102</v>
+        <v>120130</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
-      <c r="F284" s="3"/>
+      <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>415151</v>
+        <v>421180</v>
       </c>
       <c r="B285" s="3">
         <v>4400</v>
       </c>
       <c r="C285" s="4">
-        <v>115111</v>
+        <v>121130</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
-      <c r="F285" s="3"/>
+      <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>415160</v>
+        <v>421181</v>
       </c>
       <c r="B286" s="3">
         <v>4400</v>
       </c>
       <c r="C286" s="4">
-        <v>115102</v>
+        <v>120160</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
-      <c r="F286" s="3"/>
+      <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>415161</v>
+        <v>421182</v>
       </c>
       <c r="B287" s="3">
         <v>4400</v>
       </c>
       <c r="C287" s="4">
-        <v>115111</v>
+        <v>120130</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
-      <c r="F287" s="3"/>
+      <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="2">
-        <v>415170</v>
-      </c>
-      <c r="B288" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C288" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D288" s="5"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="3"/>
+      <c r="A288" s="6"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>415171</v>
+        <v>430000</v>
       </c>
       <c r="B289" s="3">
-        <v>4102</v>
+        <v>4505</v>
       </c>
       <c r="C289" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D289" s="5">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D289" s="5"/>
       <c r="E289" s="2"/>
-      <c r="F289" s="3"/>
+      <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>415172</v>
+        <v>430010</v>
       </c>
       <c r="B290" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C290" s="4">
-        <v>115120</v>
+        <v>40</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
-      <c r="F290" s="3"/>
+      <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>415180</v>
+        <v>430020</v>
       </c>
       <c r="B291" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C291" s="4">
-        <v>115170</v>
+        <v>60</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
-      <c r="F291" s="3"/>
+      <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="6"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
+      <c r="A292" s="2">
+        <v>430021</v>
+      </c>
+      <c r="B292" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C292" s="4">
+        <v>130010</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>416100</v>
+        <v>430030</v>
       </c>
       <c r="B293" s="3">
-        <v>4102</v>
+        <v>4001</v>
       </c>
       <c r="C293" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D293" s="5">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D293" s="5"/>
       <c r="E293" s="2"/>
-      <c r="F293" s="3"/>
+      <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>416101</v>
+        <v>430031</v>
       </c>
       <c r="B294" s="3">
         <v>4400</v>
       </c>
       <c r="C294" s="4">
-        <v>116101</v>
+        <v>130020</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
-      <c r="F294" s="3"/>
+      <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>416110</v>
+        <v>430040</v>
       </c>
       <c r="B295" s="3">
-        <v>4102</v>
+        <v>4001</v>
       </c>
       <c r="C295" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D295" s="5">
-        <v>2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D295" s="5"/>
       <c r="E295" s="2"/>
-      <c r="F295" s="3"/>
+      <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>416111</v>
+        <v>430041</v>
       </c>
       <c r="B296" s="3">
         <v>4400</v>
       </c>
       <c r="C296" s="4">
-        <v>116100</v>
+        <v>130030</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
-      <c r="F296" s="3"/>
+      <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>416120</v>
+        <v>430050</v>
       </c>
       <c r="B297" s="3">
-        <v>4102</v>
+        <v>4001</v>
       </c>
       <c r="C297" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D297" s="5">
-        <v>3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D297" s="5"/>
       <c r="E297" s="2"/>
-      <c r="F297" s="3"/>
+      <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>416121</v>
+        <v>430051</v>
       </c>
       <c r="B298" s="3">
         <v>4400</v>
       </c>
       <c r="C298" s="4">
-        <v>116110</v>
+        <v>130040</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
-      <c r="F298" s="3"/>
+      <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>416130</v>
+        <v>430052</v>
       </c>
       <c r="B299" s="3">
         <v>4400</v>
       </c>
       <c r="C299" s="4">
-        <v>116121</v>
+        <v>116101</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
-      <c r="F299" s="3"/>
+      <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="6"/>
-      <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
+      <c r="A300" s="2">
+        <v>430060</v>
+      </c>
+      <c r="B300" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C300" s="4">
+        <v>30</v>
+      </c>
+      <c r="D300" s="5"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>417100</v>
+        <v>430061</v>
       </c>
       <c r="B301" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C301" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D301" s="5">
-        <v>1</v>
-      </c>
+        <v>130020</v>
+      </c>
+      <c r="D301" s="5"/>
       <c r="E301" s="2"/>
-      <c r="F301" s="3"/>
+      <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>417101</v>
+        <v>430070</v>
       </c>
       <c r="B302" s="3">
-        <v>4102</v>
+        <v>4001</v>
       </c>
       <c r="C302" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D302" s="5">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D302" s="5"/>
       <c r="E302" s="2"/>
-      <c r="F302" s="3"/>
+      <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>417102</v>
+        <v>430071</v>
       </c>
       <c r="B303" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C303" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D303" s="5">
-        <v>1</v>
-      </c>
+        <v>130060</v>
+      </c>
+      <c r="D303" s="5"/>
       <c r="E303" s="2"/>
-      <c r="F303" s="3"/>
+      <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>417110</v>
+        <v>430080</v>
       </c>
       <c r="B304" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C304" s="4">
-        <v>117100</v>
+        <v>50</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
-      <c r="F304" s="3"/>
+      <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>417120</v>
+        <v>430081</v>
       </c>
       <c r="B305" s="3">
         <v>4400</v>
       </c>
       <c r="C305" s="4">
-        <v>117110</v>
+        <v>130070</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
-      <c r="F305" s="3"/>
+      <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>417130</v>
+        <v>430082</v>
       </c>
       <c r="B306" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C306" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D306" s="5">
-        <v>2</v>
-      </c>
+        <v>118110</v>
+      </c>
+      <c r="D306" s="5"/>
       <c r="E306" s="2"/>
-      <c r="F306" s="3"/>
+      <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>417131</v>
+        <v>430090</v>
       </c>
       <c r="B307" s="3">
-        <v>4102</v>
+        <v>4001</v>
       </c>
       <c r="C307" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D307" s="5">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D307" s="5"/>
       <c r="E307" s="2"/>
-      <c r="F307" s="3"/>
+      <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>417132</v>
+        <v>430091</v>
       </c>
       <c r="B308" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C308" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D308" s="5">
-        <v>2</v>
-      </c>
+        <v>130020</v>
+      </c>
+      <c r="D308" s="5"/>
       <c r="E308" s="2"/>
-      <c r="F308" s="3"/>
+      <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>417133</v>
+        <v>430100</v>
       </c>
       <c r="B309" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C309" s="4">
-        <v>117120</v>
+        <v>40</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
-      <c r="F309" s="3"/>
+      <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>417134</v>
+        <v>430101</v>
       </c>
       <c r="B310" s="3">
         <v>4400</v>
       </c>
       <c r="C310" s="4">
-        <v>116110</v>
+        <v>130090</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
-      <c r="F310" s="3"/>
+      <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>417140</v>
+        <v>430110</v>
       </c>
       <c r="B311" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C311" s="4">
-        <v>117130</v>
+        <v>50</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
-      <c r="F311" s="3"/>
+      <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>417150</v>
+        <v>430111</v>
       </c>
       <c r="B312" s="3">
         <v>4400</v>
       </c>
       <c r="C312" s="4">
-        <v>117140</v>
+        <v>130100</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
-      <c r="F312" s="3"/>
+      <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>417151</v>
+        <v>430112</v>
       </c>
       <c r="B313" s="3">
         <v>4400</v>
       </c>
       <c r="C313" s="4">
-        <v>116121</v>
+        <v>121110</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
-      <c r="F313" s="3"/>
+      <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
+      <c r="A314" s="2">
+        <v>430113</v>
+      </c>
+      <c r="B314" s="3">
+        <v>4114</v>
+      </c>
+      <c r="C314" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D314" s="5">
+        <v>4</v>
+      </c>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>418100</v>
+        <v>430120</v>
       </c>
       <c r="B315" s="3">
-        <v>0</v>
-      </c>
-      <c r="C315" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C315" s="4">
+        <v>130110</v>
+      </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
-      <c r="F315" s="3"/>
+      <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>418110</v>
+        <v>430130</v>
       </c>
       <c r="B316" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C316" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D316" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D316" s="5"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="3"/>
+      <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>418111</v>
+        <v>430140</v>
       </c>
       <c r="B317" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C317" s="4">
-        <v>10</v>
+        <v>130130</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
-      <c r="F317" s="3"/>
+      <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>418112</v>
+        <v>430150</v>
       </c>
       <c r="B318" s="3">
-        <v>4506</v>
+        <v>4400</v>
       </c>
       <c r="C318" s="4">
-        <v>61004</v>
+        <v>130040</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
-      <c r="F318" s="3"/>
+      <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>418113</v>
+        <v>430151</v>
       </c>
       <c r="B319" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C319" s="4">
-        <v>0</v>
+        <v>130140</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
-      <c r="F319" s="3"/>
+      <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>418114</v>
+        <v>430160</v>
       </c>
       <c r="B320" s="3">
         <v>4400</v>
       </c>
       <c r="C320" s="4">
-        <v>118114</v>
+        <v>130070</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
-      <c r="F320" s="3"/>
+      <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>418115</v>
+        <v>430161</v>
       </c>
       <c r="B321" s="3">
         <v>4400</v>
       </c>
       <c r="C321" s="4">
-        <v>118115</v>
+        <v>130150</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
-      <c r="F321" s="3"/>
+      <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>418116</v>
+        <v>430170</v>
       </c>
       <c r="B322" s="3">
         <v>4400</v>
       </c>
       <c r="C322" s="4">
-        <v>118116</v>
+        <v>130100</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
-      <c r="F322" s="3"/>
+      <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="6"/>
-      <c r="B323" s="6"/>
-      <c r="C323" s="6"/>
-      <c r="D323" s="6"/>
-      <c r="E323" s="6"/>
+      <c r="A323" s="2">
+        <v>430171</v>
+      </c>
+      <c r="B323" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C323" s="4">
+        <v>130160</v>
+      </c>
+      <c r="D323" s="5"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>419100</v>
+        <v>430180</v>
       </c>
       <c r="B324" s="3">
-        <v>4102</v>
+        <v>4505</v>
       </c>
       <c r="C324" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D324" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D324" s="5"/>
       <c r="E324" s="2"/>
-      <c r="F324" s="3"/>
+      <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="2">
-        <v>419101</v>
-      </c>
-      <c r="B325" s="3">
-        <v>4403</v>
-      </c>
-      <c r="C325" s="4">
-        <v>0</v>
-      </c>
-      <c r="D325" s="5"/>
-      <c r="E325" s="2"/>
-      <c r="F325" s="3"/>
+      <c r="A325" s="6"/>
+      <c r="B325" s="6"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>419110</v>
+        <v>450000</v>
       </c>
       <c r="B326" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C326" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D326" s="5">
-        <v>2</v>
-      </c>
+        <v>112100</v>
+      </c>
+      <c r="D326" s="5"/>
       <c r="E326" s="2"/>
-      <c r="F326" s="3"/>
+      <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>419111</v>
+        <v>450001</v>
       </c>
       <c r="B327" s="3">
         <v>4400</v>
       </c>
       <c r="C327" s="4">
-        <v>119100</v>
+        <v>112110</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
-      <c r="F327" s="3"/>
+      <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>419112</v>
+        <v>450002</v>
       </c>
       <c r="B328" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C328" s="4">
-        <v>0</v>
+        <v>112120</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
-      <c r="F328" s="3"/>
+      <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>419120</v>
+        <v>450003</v>
       </c>
       <c r="B329" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C329" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D329" s="5">
-        <v>3</v>
-      </c>
+        <v>112130</v>
+      </c>
+      <c r="D329" s="5"/>
       <c r="E329" s="2"/>
-      <c r="F329" s="3"/>
+      <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>419121</v>
+        <v>450010</v>
       </c>
       <c r="B330" s="3">
         <v>4400</v>
       </c>
       <c r="C330" s="4">
-        <v>119110</v>
+        <v>101000</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
-      <c r="F330" s="3"/>
+      <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>419122</v>
+        <v>450011</v>
       </c>
       <c r="B331" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C331" s="4">
-        <v>0</v>
+        <v>101010</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
-      <c r="F331" s="3"/>
+      <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>419130</v>
+        <v>450012</v>
       </c>
       <c r="B332" s="3">
         <v>4400</v>
       </c>
       <c r="C332" s="4">
-        <v>119121</v>
+        <v>101020</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
-      <c r="F332" s="3"/>
+      <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>419140</v>
+        <v>450013</v>
       </c>
       <c r="B333" s="3">
         <v>4400</v>
       </c>
       <c r="C333" s="4">
-        <v>119121</v>
+        <v>101040</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
-      <c r="F333" s="3"/>
+      <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="2">
-        <v>419150</v>
-      </c>
-      <c r="B334" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C334" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D334" s="5"/>
-      <c r="E334" s="2"/>
-      <c r="F334" s="3"/>
+      <c r="A334" s="6"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
@@ -5181,132 +5436,122 @@
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>420100</v>
+        <v>459000</v>
       </c>
       <c r="B336" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C336" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D336" s="5">
-        <v>1</v>
-      </c>
+        <v>559000</v>
+      </c>
+      <c r="D336" s="5"/>
       <c r="E336" s="2"/>
-      <c r="F336" s="3"/>
+      <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>420110</v>
+        <v>459001</v>
       </c>
       <c r="B337" s="3">
-        <v>4102</v>
+        <v>4005</v>
       </c>
       <c r="C337" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D337" s="5">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D337" s="5"/>
       <c r="E337" s="2"/>
-      <c r="F337" s="3"/>
+      <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>420111</v>
+        <v>459002</v>
       </c>
       <c r="B338" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C338" s="4">
-        <v>120100</v>
+        <v>3</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
-      <c r="F338" s="3"/>
+      <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>420120</v>
+        <v>459003</v>
       </c>
       <c r="B339" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C339" s="4">
-        <v>120110</v>
+        <v>4</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
-      <c r="F339" s="3"/>
+      <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>420121</v>
+        <v>459004</v>
       </c>
       <c r="B340" s="3">
-        <v>4403</v>
+        <v>4000</v>
       </c>
       <c r="C340" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
-      <c r="F340" s="3"/>
+      <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>420130</v>
+        <v>459005</v>
       </c>
       <c r="B341" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C341" s="4">
-        <v>120121</v>
+        <v>50</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
-      <c r="F341" s="3"/>
+      <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>420140</v>
+        <v>459010</v>
       </c>
       <c r="B342" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C342" s="4">
-        <v>120160</v>
+        <v>0</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
-      <c r="F342" s="3"/>
+      <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="2">
-        <v>420141</v>
-      </c>
-      <c r="B343" s="3">
-        <v>4111</v>
-      </c>
-      <c r="C343" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D343" s="5"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="3"/>
+      <c r="A343" s="6"/>
+      <c r="B343" s="6"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>420142</v>
+        <v>450000</v>
       </c>
       <c r="B344" s="3">
         <v>4400</v>
       </c>
       <c r="C344" s="4">
-        <v>121110</v>
+        <v>112100</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
@@ -5314,13 +5559,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>420150</v>
+        <v>450001</v>
       </c>
       <c r="B345" s="3">
         <v>4400</v>
       </c>
       <c r="C345" s="4">
-        <v>120160</v>
+        <v>112110</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
@@ -5328,13 +5573,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>420151</v>
+        <v>450002</v>
       </c>
       <c r="B346" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C346" s="4">
-        <v>60011</v>
+        <v>112120</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
@@ -5342,13 +5587,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>420152</v>
+        <v>450003</v>
       </c>
       <c r="B347" s="3">
         <v>4400</v>
       </c>
       <c r="C347" s="4">
-        <v>121100</v>
+        <v>112130</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="2"/>
@@ -5356,13 +5601,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>420160</v>
+        <v>450010</v>
       </c>
       <c r="B348" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C348" s="4">
-        <v>60010</v>
+        <v>101000</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="2"/>
@@ -5370,29 +5615,27 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>420161</v>
+        <v>450011</v>
       </c>
       <c r="B349" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C349" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D349" s="5">
-        <v>1</v>
-      </c>
+        <v>101010</v>
+      </c>
+      <c r="D349" s="5"/>
       <c r="E349" s="2"/>
       <c r="F349" s="3"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>420162</v>
+        <v>450012</v>
       </c>
       <c r="B350" s="3">
         <v>4400</v>
       </c>
       <c r="C350" s="4">
-        <v>121110</v>
+        <v>101020</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
@@ -5400,1105 +5643,66 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>420163</v>
+        <v>450013</v>
       </c>
       <c r="B351" s="3">
         <v>4400</v>
       </c>
       <c r="C351" s="4">
-        <v>121100</v>
+        <v>101040</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
       <c r="F351" s="3"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="2">
-        <v>420164</v>
-      </c>
-      <c r="B352" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C352" s="4">
-        <v>120130</v>
-      </c>
-      <c r="D352" s="5"/>
-      <c r="E352" s="2"/>
-      <c r="F352" s="3"/>
+      <c r="A352" s="6"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>420165</v>
+        <v>459000</v>
       </c>
       <c r="B353" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C353" s="4">
-        <v>20</v>
+        <v>559000</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="2"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" s="9"/>
-      <c r="B354" s="6"/>
-      <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
-      <c r="E354" s="6"/>
-    </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>421100</v>
+        <v>440030</v>
       </c>
       <c r="B355" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C355" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D355" s="5">
-        <v>1</v>
-      </c>
+        <v>140020</v>
+      </c>
+      <c r="D355" s="5"/>
       <c r="E355" s="2"/>
       <c r="F355" s="3"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>421101</v>
+        <v>440040</v>
       </c>
       <c r="B356" s="3">
         <v>4400</v>
       </c>
       <c r="C356" s="4">
-        <v>100031</v>
+        <v>140030</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="2"/>
       <c r="F356" s="3"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357" s="2">
-        <v>421110</v>
-      </c>
-      <c r="B357" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C357" s="4">
-        <v>121100</v>
-      </c>
-      <c r="D357" s="5"/>
-      <c r="E357" s="2"/>
-      <c r="F357" s="3"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358" s="2">
-        <v>421111</v>
-      </c>
-      <c r="B358" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C358" s="4">
-        <v>113121</v>
-      </c>
-      <c r="D358" s="5"/>
-      <c r="E358" s="2"/>
-      <c r="F358" s="3"/>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" s="2">
-        <v>421112</v>
-      </c>
-      <c r="B359" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C359" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D359" s="5">
-        <v>2</v>
-      </c>
-      <c r="E359" s="2"/>
-      <c r="F359" s="3"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" s="2">
-        <v>421113</v>
-      </c>
-      <c r="B360" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C360" s="4">
-        <v>113120</v>
-      </c>
-      <c r="D360" s="5"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="3"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" s="2">
-        <v>421120</v>
-      </c>
-      <c r="B361" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C361" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D361" s="5"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="3"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" s="2">
-        <v>421121</v>
-      </c>
-      <c r="B362" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C362" s="4">
-        <v>120121</v>
-      </c>
-      <c r="D362" s="5"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="3"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A363" s="2">
-        <v>421122</v>
-      </c>
-      <c r="B363" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C363" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D363" s="5"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="3"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A364" s="2">
-        <v>421123</v>
-      </c>
-      <c r="B364" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C364" s="4">
-        <v>20</v>
-      </c>
-      <c r="D364" s="5"/>
-      <c r="E364" s="2"/>
-      <c r="F364" s="3"/>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365" s="2">
-        <v>421124</v>
-      </c>
-      <c r="B365" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C365" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D365" s="5">
-        <v>3</v>
-      </c>
-      <c r="E365" s="2"/>
-      <c r="F365" s="3"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A366" s="2">
-        <v>421130</v>
-      </c>
-      <c r="B366" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C366" s="4">
-        <v>100032</v>
-      </c>
-      <c r="D366" s="5"/>
-      <c r="E366" s="2"/>
-      <c r="F366" s="3"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A367" s="2">
-        <v>421140</v>
-      </c>
-      <c r="B367" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C367" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D367" s="5"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="3"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A368" s="2">
-        <v>421141</v>
-      </c>
-      <c r="B368" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C368" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D368" s="5">
-        <v>1</v>
-      </c>
-      <c r="E368" s="2"/>
-      <c r="F368" s="3"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A369" s="2">
-        <v>421150</v>
-      </c>
-      <c r="B369" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C369" s="4">
-        <v>121140</v>
-      </c>
-      <c r="D369" s="5"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="3"/>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A370" s="2">
-        <v>421151</v>
-      </c>
-      <c r="B370" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C370" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D370" s="5">
-        <v>2</v>
-      </c>
-      <c r="E370" s="2"/>
-      <c r="F370" s="3"/>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A371" s="2">
-        <v>421160</v>
-      </c>
-      <c r="B371" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C371" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D371" s="5"/>
-      <c r="E371" s="2"/>
-      <c r="F371" s="3"/>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A372" s="2">
-        <v>421161</v>
-      </c>
-      <c r="B372" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C372" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D372" s="5"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="3"/>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A373" s="2">
-        <v>421162</v>
-      </c>
-      <c r="B373" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C373" s="4">
-        <v>120130</v>
-      </c>
-      <c r="D373" s="5"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="3"/>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A374" s="2">
-        <v>421163</v>
-      </c>
-      <c r="B374" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C374" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D374" s="5">
-        <v>3</v>
-      </c>
-      <c r="E374" s="2"/>
-      <c r="F374" s="3"/>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A375" s="2">
-        <v>421170</v>
-      </c>
-      <c r="B375" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C375" s="4">
-        <v>121160</v>
-      </c>
-      <c r="D375" s="5"/>
-      <c r="E375" s="2"/>
-      <c r="F375" s="3"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A376" s="2">
-        <v>421171</v>
-      </c>
-      <c r="B376" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C376" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D376" s="5"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="3"/>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A377" s="2">
-        <v>421172</v>
-      </c>
-      <c r="B377" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C377" s="4">
-        <v>120130</v>
-      </c>
-      <c r="D377" s="5"/>
-      <c r="E377" s="2"/>
-      <c r="F377" s="3"/>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A378" s="2">
-        <v>421180</v>
-      </c>
-      <c r="B378" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C378" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D378" s="5"/>
-      <c r="E378" s="2"/>
-      <c r="F378" s="3"/>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A379" s="2">
-        <v>421181</v>
-      </c>
-      <c r="B379" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C379" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D379" s="5"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="3"/>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="2">
-        <v>421182</v>
-      </c>
-      <c r="B380" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C380" s="4">
-        <v>120130</v>
-      </c>
-      <c r="D380" s="5"/>
-      <c r="E380" s="2"/>
-      <c r="F380" s="3"/>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A381" s="6"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
-      <c r="D381" s="6"/>
-      <c r="E381" s="6"/>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A382" s="2">
-        <v>430000</v>
-      </c>
-      <c r="B382" s="3">
-        <v>0</v>
-      </c>
-      <c r="C382" s="4"/>
-      <c r="D382" s="5"/>
-      <c r="E382" s="2"/>
-      <c r="F382" s="3"/>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A383" s="2">
-        <v>430010</v>
-      </c>
-      <c r="B383" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C383" s="4">
-        <v>40</v>
-      </c>
-      <c r="D383" s="5"/>
-      <c r="E383" s="2"/>
-      <c r="F383" s="3"/>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A384" s="2">
-        <v>430020</v>
-      </c>
-      <c r="B384" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C384" s="4">
-        <v>60</v>
-      </c>
-      <c r="D384" s="5"/>
-      <c r="E384" s="2"/>
-      <c r="F384" s="3"/>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385" s="2">
-        <v>430021</v>
-      </c>
-      <c r="B385" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C385" s="4">
-        <v>130010</v>
-      </c>
-      <c r="D385" s="5"/>
-      <c r="E385" s="2"/>
-      <c r="F385" s="3"/>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A386" s="2">
-        <v>430030</v>
-      </c>
-      <c r="B386" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C386" s="4">
-        <v>30</v>
-      </c>
-      <c r="D386" s="5"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="3"/>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="2">
-        <v>430031</v>
-      </c>
-      <c r="B387" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C387" s="4">
-        <v>130020</v>
-      </c>
-      <c r="D387" s="5"/>
-      <c r="E387" s="2"/>
-      <c r="F387" s="3"/>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A388" s="2">
-        <v>430040</v>
-      </c>
-      <c r="B388" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C388" s="4">
-        <v>40</v>
-      </c>
-      <c r="D388" s="5"/>
-      <c r="E388" s="2"/>
-      <c r="F388" s="3"/>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="2">
-        <v>430041</v>
-      </c>
-      <c r="B389" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C389" s="4">
-        <v>130030</v>
-      </c>
-      <c r="D389" s="5"/>
-      <c r="E389" s="2"/>
-      <c r="F389" s="3"/>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A390" s="2">
-        <v>430050</v>
-      </c>
-      <c r="B390" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C390" s="4">
-        <v>50</v>
-      </c>
-      <c r="D390" s="5"/>
-      <c r="E390" s="2"/>
-      <c r="F390" s="3"/>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A391" s="2">
-        <v>430051</v>
-      </c>
-      <c r="B391" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C391" s="4">
-        <v>130040</v>
-      </c>
-      <c r="D391" s="5"/>
-      <c r="E391" s="2"/>
-      <c r="F391" s="3"/>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A392" s="2">
-        <v>430052</v>
-      </c>
-      <c r="B392" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C392" s="4">
-        <v>116101</v>
-      </c>
-      <c r="D392" s="5"/>
-      <c r="E392" s="2"/>
-      <c r="F392" s="3"/>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A393" s="2">
-        <v>430060</v>
-      </c>
-      <c r="B393" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C393" s="4">
-        <v>30</v>
-      </c>
-      <c r="D393" s="5"/>
-      <c r="E393" s="2"/>
-      <c r="F393" s="3"/>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A394" s="2">
-        <v>430061</v>
-      </c>
-      <c r="B394" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C394" s="4">
-        <v>130020</v>
-      </c>
-      <c r="D394" s="5"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="3"/>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A395" s="2">
-        <v>430070</v>
-      </c>
-      <c r="B395" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C395" s="4">
-        <v>40</v>
-      </c>
-      <c r="D395" s="5"/>
-      <c r="E395" s="2"/>
-      <c r="F395" s="3"/>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A396" s="2">
-        <v>430071</v>
-      </c>
-      <c r="B396" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C396" s="4">
-        <v>130060</v>
-      </c>
-      <c r="D396" s="5"/>
-      <c r="E396" s="2"/>
-      <c r="F396" s="3"/>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A397" s="2">
-        <v>430080</v>
-      </c>
-      <c r="B397" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C397" s="4">
-        <v>50</v>
-      </c>
-      <c r="D397" s="5"/>
-      <c r="E397" s="2"/>
-      <c r="F397" s="3"/>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A398" s="2">
-        <v>430081</v>
-      </c>
-      <c r="B398" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C398" s="4">
-        <v>130070</v>
-      </c>
-      <c r="D398" s="5"/>
-      <c r="E398" s="2"/>
-      <c r="F398" s="3"/>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A399" s="2">
-        <v>430082</v>
-      </c>
-      <c r="B399" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C399" s="4">
-        <v>118110</v>
-      </c>
-      <c r="D399" s="5"/>
-      <c r="E399" s="2"/>
-      <c r="F399" s="3"/>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A400" s="2">
-        <v>430090</v>
-      </c>
-      <c r="B400" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C400" s="4">
-        <v>30</v>
-      </c>
-      <c r="D400" s="5"/>
-      <c r="E400" s="2"/>
-      <c r="F400" s="3"/>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A401" s="2">
-        <v>430091</v>
-      </c>
-      <c r="B401" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C401" s="4">
-        <v>130020</v>
-      </c>
-      <c r="D401" s="5"/>
-      <c r="E401" s="2"/>
-      <c r="F401" s="3"/>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A402" s="2">
-        <v>430100</v>
-      </c>
-      <c r="B402" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C402" s="4">
-        <v>40</v>
-      </c>
-      <c r="D402" s="5"/>
-      <c r="E402" s="2"/>
-      <c r="F402" s="3"/>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A403" s="2">
-        <v>430101</v>
-      </c>
-      <c r="B403" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C403" s="4">
-        <v>130090</v>
-      </c>
-      <c r="D403" s="5"/>
-      <c r="E403" s="2"/>
-      <c r="F403" s="3"/>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A404" s="2">
-        <v>430110</v>
-      </c>
-      <c r="B404" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C404" s="4">
-        <v>50</v>
-      </c>
-      <c r="D404" s="5"/>
-      <c r="E404" s="2"/>
-      <c r="F404" s="3"/>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A405" s="2">
-        <v>430111</v>
-      </c>
-      <c r="B405" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C405" s="4">
-        <v>130100</v>
-      </c>
-      <c r="D405" s="5"/>
-      <c r="E405" s="2"/>
-      <c r="F405" s="3"/>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A406" s="2">
-        <v>430112</v>
-      </c>
-      <c r="B406" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C406" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D406" s="5"/>
-      <c r="E406" s="2"/>
-      <c r="F406" s="3"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A407" s="2">
-        <v>430113</v>
-      </c>
-      <c r="B407" s="3">
-        <v>4114</v>
-      </c>
-      <c r="C407" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D407" s="5">
-        <v>4</v>
-      </c>
-      <c r="E407" s="2"/>
-      <c r="F407" s="3"/>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A408" s="2">
-        <v>430120</v>
-      </c>
-      <c r="B408" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C408" s="4">
-        <v>130110</v>
-      </c>
-      <c r="D408" s="5"/>
-      <c r="E408" s="2"/>
-      <c r="F408" s="3"/>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A409" s="2">
-        <v>430130</v>
-      </c>
-      <c r="B409" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C409" s="4">
-        <v>130120</v>
-      </c>
-      <c r="D409" s="5"/>
-      <c r="E409" s="2"/>
-      <c r="F409" s="3"/>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A410" s="2">
-        <v>430140</v>
-      </c>
-      <c r="B410" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C410" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D410" s="5"/>
-      <c r="E410" s="2"/>
-      <c r="F410" s="3"/>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A411" s="2">
-        <v>430150</v>
-      </c>
-      <c r="B411" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C411" s="4">
-        <v>130040</v>
-      </c>
-      <c r="D411" s="5"/>
-      <c r="E411" s="2"/>
-      <c r="F411" s="3"/>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A412" s="2">
-        <v>430151</v>
-      </c>
-      <c r="B412" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C412" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D412" s="5"/>
-      <c r="E412" s="2"/>
-      <c r="F412" s="3"/>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A413" s="2">
-        <v>430160</v>
-      </c>
-      <c r="B413" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C413" s="4">
-        <v>130070</v>
-      </c>
-      <c r="D413" s="5"/>
-      <c r="E413" s="2"/>
-      <c r="F413" s="3"/>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414" s="2">
-        <v>430161</v>
-      </c>
-      <c r="B414" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C414" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D414" s="5"/>
-      <c r="E414" s="2"/>
-      <c r="F414" s="3"/>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A415" s="2">
-        <v>430170</v>
-      </c>
-      <c r="B415" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C415" s="4">
-        <v>130100</v>
-      </c>
-      <c r="D415" s="5"/>
-      <c r="E415" s="2"/>
-      <c r="F415" s="3"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A416" s="2">
-        <v>430171</v>
-      </c>
-      <c r="B416" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C416" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D416" s="5"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="3"/>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A417" s="2">
-        <v>430180</v>
-      </c>
-      <c r="B417" s="3">
-        <v>0</v>
-      </c>
-      <c r="C417" s="4"/>
-      <c r="D417" s="5"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="3"/>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A418" s="6"/>
-      <c r="B418" s="6"/>
-      <c r="C418" s="6"/>
-      <c r="D418" s="6"/>
-      <c r="E418" s="6"/>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A419" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B419" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C419" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D419" s="5"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="3"/>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420" s="2">
-        <v>450001</v>
-      </c>
-      <c r="B420" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C420" s="4">
-        <v>112110</v>
-      </c>
-      <c r="D420" s="5"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="3"/>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421" s="2">
-        <v>450002</v>
-      </c>
-      <c r="B421" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C421" s="4">
-        <v>112120</v>
-      </c>
-      <c r="D421" s="5"/>
-      <c r="E421" s="2"/>
-      <c r="F421" s="3"/>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422" s="2">
-        <v>450003</v>
-      </c>
-      <c r="B422" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C422" s="4">
-        <v>112130</v>
-      </c>
-      <c r="D422" s="5"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="3"/>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423" s="2">
-        <v>450010</v>
-      </c>
-      <c r="B423" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C423" s="4">
-        <v>101000</v>
-      </c>
-      <c r="D423" s="5"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="3"/>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A424" s="2">
-        <v>450011</v>
-      </c>
-      <c r="B424" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C424" s="4">
-        <v>101010</v>
-      </c>
-      <c r="D424" s="5"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="3"/>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A425" s="2">
-        <v>450012</v>
-      </c>
-      <c r="B425" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C425" s="4">
-        <v>101020</v>
-      </c>
-      <c r="D425" s="5"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="3"/>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A426" s="2">
-        <v>450013</v>
-      </c>
-      <c r="B426" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C426" s="4">
-        <v>101040</v>
-      </c>
-      <c r="D426" s="5"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="3"/>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A427" s="6"/>
-      <c r="B427" s="6"/>
-      <c r="C427" s="6"/>
-      <c r="D427" s="6"/>
-      <c r="E427" s="6"/>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A428" s="2">
-        <v>459000</v>
-      </c>
-      <c r="B428" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C428" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D428" s="5"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="3"/>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A430" s="2">
-        <v>440030</v>
-      </c>
-      <c r="B430" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C430" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D430" s="5"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="3"/>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A431" s="2">
-        <v>440040</v>
-      </c>
-      <c r="B431" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C431" s="4">
-        <v>140030</v>
-      </c>
-      <c r="D431" s="5"/>
-      <c r="E431" s="2"/>
-      <c r="F431" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE8A007-4320-40C9-B7DF-7538A3CE5AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA3CAF0-F343-45B4-8999-BCEC31F7FE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="6300" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15450" yWindow="5520" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I222" sqref="I222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,7 +794,7 @@
         <v>60000</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2880,7 +2880,7 @@
         <v>4102</v>
       </c>
       <c r="C150" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D150" s="5">
         <v>1</v>
@@ -2896,7 +2896,7 @@
         <v>4114</v>
       </c>
       <c r="C151" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
@@ -3802,7 +3802,7 @@
         <v>4400</v>
       </c>
       <c r="C217" s="4">
-        <v>117131</v>
+        <v>117130</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
@@ -3844,7 +3844,7 @@
         <v>4400</v>
       </c>
       <c r="C220" s="4">
-        <v>116121</v>
+        <v>117140</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
@@ -4173,7 +4173,7 @@
         <v>60010</v>
       </c>
       <c r="D244" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
@@ -4902,7 +4902,7 @@
         <v>4400</v>
       </c>
       <c r="C296" s="4">
-        <v>130030</v>
+        <v>130120</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
@@ -4930,7 +4930,7 @@
         <v>4400</v>
       </c>
       <c r="C298" s="4">
-        <v>130040</v>
+        <v>130150</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
@@ -5000,7 +5000,7 @@
         <v>4400</v>
       </c>
       <c r="C303" s="4">
-        <v>130060</v>
+        <v>130130</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
@@ -5028,7 +5028,7 @@
         <v>4400</v>
       </c>
       <c r="C305" s="4">
-        <v>130070</v>
+        <v>130160</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
@@ -5098,7 +5098,7 @@
         <v>4400</v>
       </c>
       <c r="C310" s="4">
-        <v>130090</v>
+        <v>130140</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
@@ -5126,7 +5126,7 @@
         <v>4400</v>
       </c>
       <c r="C312" s="4">
-        <v>130100</v>
+        <v>130170</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
@@ -5170,7 +5170,7 @@
         <v>4400</v>
       </c>
       <c r="C315" s="4">
-        <v>130110</v>
+        <v>130030</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
@@ -5184,7 +5184,7 @@
         <v>4400</v>
       </c>
       <c r="C316" s="4">
-        <v>130120</v>
+        <v>130060</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
@@ -5198,7 +5198,7 @@
         <v>4400</v>
       </c>
       <c r="C317" s="4">
-        <v>130130</v>
+        <v>130090</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
@@ -5226,7 +5226,7 @@
         <v>4400</v>
       </c>
       <c r="C319" s="4">
-        <v>130140</v>
+        <v>130120</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
@@ -5254,7 +5254,7 @@
         <v>4400</v>
       </c>
       <c r="C321" s="4">
-        <v>130150</v>
+        <v>130130</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
@@ -5282,7 +5282,7 @@
         <v>4400</v>
       </c>
       <c r="C323" s="4">
-        <v>130160</v>
+        <v>130140</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA3CAF0-F343-45B4-8999-BCEC31F7FE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C203511B-6C2F-4FB4-BEA0-985D5E7D0EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15450" yWindow="5520" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="5790" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I222" sqref="I222"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3922,9 +3922,11 @@
         <v>4403</v>
       </c>
       <c r="C226" s="4">
-        <v>0</v>
-      </c>
-      <c r="D226" s="5"/>
+        <v>21811</v>
+      </c>
+      <c r="D226" s="5">
+        <v>1</v>
+      </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
@@ -4002,9 +4004,11 @@
         <v>4403</v>
       </c>
       <c r="C232" s="4">
-        <v>0</v>
-      </c>
-      <c r="D232" s="5"/>
+        <v>21910</v>
+      </c>
+      <c r="D232" s="5">
+        <v>1</v>
+      </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
@@ -4046,9 +4050,11 @@
         <v>4403</v>
       </c>
       <c r="C235" s="4">
+        <v>21911</v>
+      </c>
+      <c r="D235" s="5">
         <v>0</v>
       </c>
-      <c r="D235" s="5"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
@@ -4090,9 +4096,11 @@
         <v>4403</v>
       </c>
       <c r="C238" s="4">
+        <v>21912</v>
+      </c>
+      <c r="D238" s="5">
         <v>0</v>
       </c>
-      <c r="D238" s="5"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C203511B-6C2F-4FB4-BEA0-985D5E7D0EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340A68B5-0EBD-40D1-AF8F-BD793863503C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="5790" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14910" yWindow="5850" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:F356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H227" sqref="H227"/>
+      <selection activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340A68B5-0EBD-40D1-AF8F-BD793863503C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228321EE-C835-4876-A8A0-D246376DE1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14910" yWindow="5850" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="5970" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I226" sqref="I226"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I214" sqref="I214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
         <v>60000</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -691,27 +691,29 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>400040</v>
+        <v>400031</v>
       </c>
       <c r="B6" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C6" s="4">
-        <v>100030</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>20003</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>400050</v>
+        <v>400040</v>
       </c>
       <c r="B7" s="3">
         <v>4400</v>
       </c>
       <c r="C7" s="4">
-        <v>100031</v>
+        <v>100030</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -719,13 +721,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>400051</v>
+        <v>400050</v>
       </c>
       <c r="B8" s="3">
         <v>4400</v>
       </c>
       <c r="C8" s="4">
-        <v>100200</v>
+        <v>100031</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -733,13 +735,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>400060</v>
+        <v>400051</v>
       </c>
       <c r="B9" s="3">
         <v>4400</v>
       </c>
       <c r="C9" s="4">
-        <v>100040</v>
+        <v>100200</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -747,13 +749,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>400061</v>
+        <v>400060</v>
       </c>
       <c r="B10" s="3">
         <v>4400</v>
       </c>
       <c r="C10" s="4">
-        <v>100200</v>
+        <v>100040</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -761,47 +763,45 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>400070</v>
+        <v>400061</v>
       </c>
       <c r="B11" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C11" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
+        <v>100200</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="2">
+        <v>400070</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C12" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>410000</v>
-      </c>
-      <c r="B13" s="3">
-        <v>4103</v>
-      </c>
-      <c r="C13" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>410010</v>
+        <v>410000</v>
       </c>
       <c r="B14" s="3">
         <v>4103</v>
@@ -810,14 +810,14 @@
         <v>60000</v>
       </c>
       <c r="D14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>410020</v>
+        <v>410010</v>
       </c>
       <c r="B15" s="3">
         <v>4103</v>
@@ -826,122 +826,122 @@
         <v>60000</v>
       </c>
       <c r="D15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>410030</v>
+        <v>410020</v>
       </c>
       <c r="B16" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C16" s="4">
         <v>60000</v>
       </c>
       <c r="D16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>410040</v>
+        <v>410030</v>
       </c>
       <c r="B17" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C17" s="4">
         <v>60000</v>
       </c>
       <c r="D17" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>410041</v>
+        <v>410040</v>
       </c>
       <c r="B18" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C18" s="4">
         <v>60000</v>
       </c>
       <c r="D18" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>410050</v>
+        <v>410041</v>
       </c>
       <c r="B19" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C19" s="4">
         <v>60000</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>410051</v>
+        <v>410050</v>
       </c>
       <c r="B20" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C20" s="4">
         <v>60000</v>
       </c>
-      <c r="D20" s="5">
-        <v>2</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>410052</v>
+        <v>410051</v>
       </c>
       <c r="B21" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C21" s="4">
-        <v>102030</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>411000</v>
+        <v>410052</v>
       </c>
       <c r="B22" s="3">
-        <v>4103</v>
+        <v>4400</v>
       </c>
       <c r="C22" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
+        <v>102030</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>411010</v>
+        <v>411000</v>
       </c>
       <c r="B23" s="3">
         <v>4103</v>
@@ -950,14 +950,14 @@
         <v>60001</v>
       </c>
       <c r="D23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>411020</v>
+        <v>411010</v>
       </c>
       <c r="B24" s="3">
         <v>4103</v>
@@ -966,110 +966,110 @@
         <v>60001</v>
       </c>
       <c r="D24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>411030</v>
+        <v>411020</v>
       </c>
       <c r="B25" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C25" s="4">
         <v>60001</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>411040</v>
+        <v>411030</v>
       </c>
       <c r="B26" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C26" s="4">
         <v>60001</v>
       </c>
       <c r="D26" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>411041</v>
+        <v>411040</v>
       </c>
       <c r="B27" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C27" s="4">
         <v>60001</v>
       </c>
       <c r="D27" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>411050</v>
+        <v>411041</v>
       </c>
       <c r="B28" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C28" s="4">
         <v>60001</v>
       </c>
       <c r="D28" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>411051</v>
+        <v>411050</v>
       </c>
       <c r="B29" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C29" s="4">
         <v>60001</v>
       </c>
       <c r="D29" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>412000</v>
+        <v>411051</v>
       </c>
       <c r="B30" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C30" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D30" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>412010</v>
+        <v>412000</v>
       </c>
       <c r="B31" s="3">
         <v>4103</v>
@@ -1078,14 +1078,14 @@
         <v>60002</v>
       </c>
       <c r="D31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>412020</v>
+        <v>412010</v>
       </c>
       <c r="B32" s="3">
         <v>4103</v>
@@ -1094,140 +1094,140 @@
         <v>60002</v>
       </c>
       <c r="D32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>412030</v>
+        <v>412020</v>
       </c>
       <c r="B33" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C33" s="4">
         <v>60002</v>
       </c>
       <c r="D33" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>412040</v>
+        <v>412030</v>
       </c>
       <c r="B34" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C34" s="4">
         <v>60002</v>
       </c>
       <c r="D34" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>412041</v>
+        <v>412040</v>
       </c>
       <c r="B35" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C35" s="4">
         <v>60002</v>
       </c>
       <c r="D35" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>412042</v>
+        <v>412041</v>
       </c>
       <c r="B36" s="3">
-        <v>4506</v>
+        <v>4102</v>
       </c>
       <c r="C36" s="4">
-        <v>61003</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>412050</v>
+        <v>412042</v>
       </c>
       <c r="B37" s="3">
-        <v>4106</v>
+        <v>4506</v>
       </c>
       <c r="C37" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
+        <v>61003</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>412051</v>
+        <v>412050</v>
       </c>
       <c r="B38" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C38" s="4">
         <v>60002</v>
       </c>
       <c r="D38" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>412052</v>
+        <v>412051</v>
       </c>
       <c r="B39" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C39" s="4">
         <v>60002</v>
       </c>
       <c r="D39" s="5">
-        <v>61003</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>413000</v>
+        <v>412052</v>
       </c>
       <c r="B40" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C40" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D40" s="5">
-        <v>0</v>
+        <v>61003</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>413010</v>
+        <v>413000</v>
       </c>
       <c r="B41" s="3">
         <v>4103</v>
@@ -1236,14 +1236,14 @@
         <v>60003</v>
       </c>
       <c r="D41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>413020</v>
+        <v>413010</v>
       </c>
       <c r="B42" s="3">
         <v>4103</v>
@@ -1252,172 +1252,172 @@
         <v>60003</v>
       </c>
       <c r="D42" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>413030</v>
+        <v>413020</v>
       </c>
       <c r="B43" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C43" s="4">
         <v>60003</v>
       </c>
       <c r="D43" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>413040</v>
+        <v>413030</v>
       </c>
       <c r="B44" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C44" s="4">
         <v>60003</v>
       </c>
       <c r="D44" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>413041</v>
+        <v>413040</v>
       </c>
       <c r="B45" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C45" s="4">
         <v>60003</v>
       </c>
       <c r="D45" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>413042</v>
+        <v>413041</v>
       </c>
       <c r="B46" s="3">
-        <v>4506</v>
+        <v>4102</v>
       </c>
       <c r="C46" s="4">
-        <v>61004</v>
-      </c>
-      <c r="D46" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>413050</v>
+        <v>413042</v>
       </c>
       <c r="B47" s="3">
-        <v>4106</v>
+        <v>4506</v>
       </c>
       <c r="C47" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
+        <v>61004</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>413051</v>
+        <v>413050</v>
       </c>
       <c r="B48" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C48" s="4">
         <v>60003</v>
       </c>
       <c r="D48" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>413052</v>
+        <v>413051</v>
       </c>
       <c r="B49" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C49" s="4">
-        <v>60002</v>
+        <v>60003</v>
       </c>
       <c r="D49" s="5">
-        <v>61004</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>414000</v>
+        <v>413052</v>
       </c>
       <c r="B50" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C50" s="4">
-        <v>60004</v>
+        <v>60002</v>
       </c>
       <c r="D50" s="5">
-        <v>0</v>
+        <v>61004</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>414001</v>
+        <v>414000</v>
       </c>
       <c r="B51" s="3">
-        <v>4501</v>
+        <v>4103</v>
       </c>
       <c r="C51" s="4">
-        <v>110</v>
+        <v>60004</v>
       </c>
       <c r="D51" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>414010</v>
+        <v>414001</v>
       </c>
       <c r="B52" s="3">
-        <v>4103</v>
+        <v>4501</v>
       </c>
       <c r="C52" s="4">
-        <v>60004</v>
+        <v>110</v>
       </c>
       <c r="D52" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>414020</v>
+        <v>414010</v>
       </c>
       <c r="B53" s="3">
         <v>4103</v>
@@ -1426,126 +1426,126 @@
         <v>60004</v>
       </c>
       <c r="D53" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>414030</v>
+        <v>414020</v>
       </c>
       <c r="B54" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C54" s="4">
         <v>60004</v>
       </c>
       <c r="D54" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>414040</v>
+        <v>414030</v>
       </c>
       <c r="B55" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C55" s="4">
         <v>60004</v>
       </c>
       <c r="D55" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>414041</v>
+        <v>414040</v>
       </c>
       <c r="B56" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C56" s="4">
         <v>60004</v>
       </c>
       <c r="D56" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>414050</v>
+        <v>414041</v>
       </c>
       <c r="B57" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C57" s="4">
         <v>60004</v>
       </c>
       <c r="D57" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>414051</v>
+        <v>414050</v>
       </c>
       <c r="B58" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C58" s="4">
         <v>60004</v>
       </c>
       <c r="D58" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>414052</v>
+        <v>414051</v>
       </c>
       <c r="B59" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C59" s="4">
-        <v>60002</v>
+        <v>60004</v>
       </c>
       <c r="D59" s="5">
-        <v>61000</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>415000</v>
+        <v>414052</v>
       </c>
       <c r="B60" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C60" s="4">
-        <v>60005</v>
+        <v>60002</v>
       </c>
       <c r="D60" s="5">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>415010</v>
+        <v>415000</v>
       </c>
       <c r="B61" s="3">
         <v>4103</v>
@@ -1554,14 +1554,14 @@
         <v>60005</v>
       </c>
       <c r="D61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>415020</v>
+        <v>415010</v>
       </c>
       <c r="B62" s="3">
         <v>4103</v>
@@ -1570,126 +1570,126 @@
         <v>60005</v>
       </c>
       <c r="D62" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>415030</v>
+        <v>415020</v>
       </c>
       <c r="B63" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C63" s="4">
         <v>60005</v>
       </c>
       <c r="D63" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>415040</v>
+        <v>415030</v>
       </c>
       <c r="B64" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C64" s="4">
         <v>60005</v>
       </c>
       <c r="D64" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>415041</v>
+        <v>415040</v>
       </c>
       <c r="B65" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C65" s="4">
         <v>60005</v>
       </c>
       <c r="D65" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>415050</v>
+        <v>415041</v>
       </c>
       <c r="B66" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C66" s="4">
         <v>60005</v>
       </c>
       <c r="D66" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>415051</v>
+        <v>415050</v>
       </c>
       <c r="B67" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C67" s="4">
         <v>60005</v>
       </c>
       <c r="D67" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>415052</v>
+        <v>415051</v>
       </c>
       <c r="B68" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C68" s="4">
-        <v>60002</v>
+        <v>60005</v>
       </c>
       <c r="D68" s="5">
-        <v>61000</v>
+        <v>2</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>416000</v>
+        <v>415052</v>
       </c>
       <c r="B69" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C69" s="4">
-        <v>60006</v>
+        <v>60002</v>
       </c>
       <c r="D69" s="5">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>416010</v>
+        <v>416000</v>
       </c>
       <c r="B70" s="3">
         <v>4103</v>
@@ -1698,14 +1698,14 @@
         <v>60006</v>
       </c>
       <c r="D70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>416020</v>
+        <v>416010</v>
       </c>
       <c r="B71" s="3">
         <v>4103</v>
@@ -1714,126 +1714,126 @@
         <v>60006</v>
       </c>
       <c r="D71" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>416030</v>
+        <v>416020</v>
       </c>
       <c r="B72" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C72" s="4">
         <v>60006</v>
       </c>
       <c r="D72" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>416040</v>
+        <v>416030</v>
       </c>
       <c r="B73" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C73" s="4">
         <v>60006</v>
       </c>
       <c r="D73" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>416041</v>
+        <v>416040</v>
       </c>
       <c r="B74" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C74" s="4">
         <v>60006</v>
       </c>
       <c r="D74" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>416050</v>
+        <v>416041</v>
       </c>
       <c r="B75" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C75" s="4">
         <v>60006</v>
       </c>
       <c r="D75" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>416051</v>
+        <v>416050</v>
       </c>
       <c r="B76" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C76" s="4">
         <v>60006</v>
       </c>
       <c r="D76" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>416052</v>
+        <v>416051</v>
       </c>
       <c r="B77" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C77" s="4">
-        <v>60002</v>
+        <v>60006</v>
       </c>
       <c r="D77" s="5">
-        <v>61000</v>
+        <v>2</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>417000</v>
+        <v>416052</v>
       </c>
       <c r="B78" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C78" s="4">
-        <v>60007</v>
+        <v>60002</v>
       </c>
       <c r="D78" s="5">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>417010</v>
+        <v>417000</v>
       </c>
       <c r="B79" s="3">
         <v>4103</v>
@@ -1842,14 +1842,14 @@
         <v>60007</v>
       </c>
       <c r="D79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>417020</v>
+        <v>417010</v>
       </c>
       <c r="B80" s="3">
         <v>4103</v>
@@ -1858,126 +1858,126 @@
         <v>60007</v>
       </c>
       <c r="D80" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>417030</v>
+        <v>417020</v>
       </c>
       <c r="B81" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C81" s="4">
         <v>60007</v>
       </c>
       <c r="D81" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>417040</v>
+        <v>417030</v>
       </c>
       <c r="B82" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C82" s="4">
         <v>60007</v>
       </c>
       <c r="D82" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>417041</v>
+        <v>417040</v>
       </c>
       <c r="B83" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C83" s="4">
         <v>60007</v>
       </c>
       <c r="D83" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>417050</v>
+        <v>417041</v>
       </c>
       <c r="B84" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C84" s="4">
         <v>60007</v>
       </c>
       <c r="D84" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>417051</v>
+        <v>417050</v>
       </c>
       <c r="B85" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C85" s="4">
         <v>60007</v>
       </c>
       <c r="D85" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>417052</v>
+        <v>417051</v>
       </c>
       <c r="B86" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C86" s="4">
-        <v>60002</v>
+        <v>60007</v>
       </c>
       <c r="D86" s="5">
-        <v>61000</v>
+        <v>2</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>418000</v>
+        <v>417052</v>
       </c>
       <c r="B87" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C87" s="4">
-        <v>60008</v>
+        <v>60002</v>
       </c>
       <c r="D87" s="5">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>418010</v>
+        <v>418000</v>
       </c>
       <c r="B88" s="3">
         <v>4103</v>
@@ -1986,14 +1986,14 @@
         <v>60008</v>
       </c>
       <c r="D88" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>418020</v>
+        <v>418010</v>
       </c>
       <c r="B89" s="3">
         <v>4103</v>
@@ -2002,126 +2002,126 @@
         <v>60008</v>
       </c>
       <c r="D89" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>418030</v>
+        <v>418020</v>
       </c>
       <c r="B90" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C90" s="4">
         <v>60008</v>
       </c>
       <c r="D90" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>418040</v>
+        <v>418030</v>
       </c>
       <c r="B91" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C91" s="4">
         <v>60008</v>
       </c>
       <c r="D91" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>418041</v>
+        <v>418040</v>
       </c>
       <c r="B92" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C92" s="4">
         <v>60008</v>
       </c>
       <c r="D92" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>418050</v>
+        <v>418041</v>
       </c>
       <c r="B93" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C93" s="4">
         <v>60008</v>
       </c>
       <c r="D93" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>418051</v>
+        <v>418050</v>
       </c>
       <c r="B94" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C94" s="4">
         <v>60008</v>
       </c>
       <c r="D94" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>418052</v>
+        <v>418051</v>
       </c>
       <c r="B95" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C95" s="4">
-        <v>60002</v>
+        <v>60008</v>
       </c>
       <c r="D95" s="5">
-        <v>61000</v>
+        <v>2</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>419000</v>
+        <v>418052</v>
       </c>
       <c r="B96" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C96" s="4">
-        <v>60009</v>
+        <v>60002</v>
       </c>
       <c r="D96" s="5">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>419010</v>
+        <v>419000</v>
       </c>
       <c r="B97" s="3">
         <v>4103</v>
@@ -2130,14 +2130,14 @@
         <v>60009</v>
       </c>
       <c r="D97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>419020</v>
+        <v>419010</v>
       </c>
       <c r="B98" s="3">
         <v>4103</v>
@@ -2146,126 +2146,126 @@
         <v>60009</v>
       </c>
       <c r="D98" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>419030</v>
+        <v>419020</v>
       </c>
       <c r="B99" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C99" s="4">
         <v>60009</v>
       </c>
       <c r="D99" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>419040</v>
+        <v>419030</v>
       </c>
       <c r="B100" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C100" s="4">
         <v>60009</v>
       </c>
       <c r="D100" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>419041</v>
+        <v>419040</v>
       </c>
       <c r="B101" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C101" s="4">
         <v>60009</v>
       </c>
       <c r="D101" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>419050</v>
+        <v>419041</v>
       </c>
       <c r="B102" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C102" s="4">
         <v>60009</v>
       </c>
       <c r="D102" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>419051</v>
+        <v>419050</v>
       </c>
       <c r="B103" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C103" s="4">
         <v>60009</v>
       </c>
       <c r="D103" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>419052</v>
+        <v>419051</v>
       </c>
       <c r="B104" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C104" s="4">
-        <v>60002</v>
+        <v>60009</v>
       </c>
       <c r="D104" s="5">
-        <v>61000</v>
+        <v>2</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>420000</v>
+        <v>419052</v>
       </c>
       <c r="B105" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C105" s="4">
-        <v>60010</v>
+        <v>60002</v>
       </c>
       <c r="D105" s="5">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>420010</v>
+        <v>420000</v>
       </c>
       <c r="B106" s="3">
         <v>4103</v>
@@ -2274,14 +2274,14 @@
         <v>60010</v>
       </c>
       <c r="D106" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>420020</v>
+        <v>420010</v>
       </c>
       <c r="B107" s="3">
         <v>4103</v>
@@ -2290,110 +2290,110 @@
         <v>60010</v>
       </c>
       <c r="D107" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>420030</v>
+        <v>420020</v>
       </c>
       <c r="B108" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C108" s="4">
         <v>60010</v>
       </c>
       <c r="D108" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>420040</v>
+        <v>420030</v>
       </c>
       <c r="B109" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C109" s="4">
         <v>60010</v>
       </c>
       <c r="D109" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>420041</v>
+        <v>420040</v>
       </c>
       <c r="B110" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C110" s="4">
         <v>60010</v>
       </c>
       <c r="D110" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>420050</v>
+        <v>420041</v>
       </c>
       <c r="B111" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C111" s="4">
         <v>60010</v>
       </c>
       <c r="D111" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>420051</v>
+        <v>420050</v>
       </c>
       <c r="B112" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C112" s="4">
         <v>60010</v>
       </c>
       <c r="D112" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>421000</v>
+        <v>420051</v>
       </c>
       <c r="B113" s="3">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="C113" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D113" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>421010</v>
+        <v>421000</v>
       </c>
       <c r="B114" s="3">
         <v>4103</v>
@@ -2402,14 +2402,14 @@
         <v>60011</v>
       </c>
       <c r="D114" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>421020</v>
+        <v>421010</v>
       </c>
       <c r="B115" s="3">
         <v>4103</v>
@@ -2418,131 +2418,133 @@
         <v>60011</v>
       </c>
       <c r="D115" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>421030</v>
+        <v>421020</v>
       </c>
       <c r="B116" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C116" s="4">
         <v>60011</v>
       </c>
       <c r="D116" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>421040</v>
+        <v>421030</v>
       </c>
       <c r="B117" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C117" s="4">
         <v>60011</v>
       </c>
       <c r="D117" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>421041</v>
+        <v>421040</v>
       </c>
       <c r="B118" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C118" s="4">
         <v>60011</v>
       </c>
       <c r="D118" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>421050</v>
+        <v>421041</v>
       </c>
       <c r="B119" s="3">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="C119" s="4">
         <v>60011</v>
       </c>
       <c r="D119" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>421051</v>
+        <v>421050</v>
       </c>
       <c r="B120" s="3">
-        <v>4102</v>
+        <v>4106</v>
       </c>
       <c r="C120" s="4">
         <v>60011</v>
       </c>
       <c r="D120" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>421052</v>
+        <v>421051</v>
       </c>
       <c r="B121" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C121" s="4">
-        <v>60002</v>
+        <v>60011</v>
       </c>
       <c r="D121" s="5">
-        <v>61000</v>
+        <v>2</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>401000</v>
-      </c>
-      <c r="B123" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C123" s="4">
-        <v>130050</v>
-      </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-    </row>
+    <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>421052</v>
+      </c>
+      <c r="B122" s="3">
+        <v>4114</v>
+      </c>
+      <c r="C122" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D122" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>401010</v>
+        <v>401000</v>
       </c>
       <c r="B124" s="3">
         <v>4400</v>
       </c>
       <c r="C124" s="4">
-        <v>130080</v>
+        <v>130050</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="2"/>
@@ -2550,13 +2552,13 @@
     </row>
     <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>401020</v>
+        <v>401010</v>
       </c>
       <c r="B125" s="3">
         <v>4400</v>
       </c>
       <c r="C125" s="4">
-        <v>130110</v>
+        <v>130080</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="2"/>
@@ -2564,13 +2566,13 @@
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>401030</v>
+        <v>401020</v>
       </c>
       <c r="B126" s="3">
         <v>4400</v>
       </c>
       <c r="C126" s="4">
-        <v>101000</v>
+        <v>130110</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="2"/>
@@ -2578,13 +2580,13 @@
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>401031</v>
+        <v>401030</v>
       </c>
       <c r="B127" s="3">
         <v>4400</v>
       </c>
       <c r="C127" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="2"/>
@@ -2592,13 +2594,13 @@
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>401032</v>
+        <v>401031</v>
       </c>
       <c r="B128" s="3">
         <v>4400</v>
       </c>
       <c r="C128" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="2"/>
@@ -2606,13 +2608,13 @@
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>401040</v>
+        <v>401032</v>
       </c>
       <c r="B129" s="3">
         <v>4400</v>
       </c>
       <c r="C129" s="4">
-        <v>101030</v>
+        <v>101020</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="2"/>
@@ -2620,13 +2622,13 @@
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>401041</v>
+        <v>401040</v>
       </c>
       <c r="B130" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C130" s="4">
-        <v>60011</v>
+        <v>101030</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="2"/>
@@ -2634,44 +2636,42 @@
     </row>
     <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>401050</v>
+        <v>401041</v>
       </c>
       <c r="B131" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C131" s="4">
-        <v>101040</v>
+        <v>60011</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>402000</v>
-      </c>
-      <c r="B133" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C133" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D133" s="5">
-        <v>3</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
+    <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>401050</v>
+      </c>
+      <c r="B132" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C132" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>402001</v>
+        <v>402000</v>
       </c>
       <c r="B134" s="3">
         <v>4102</v>
       </c>
       <c r="C134" s="4">
-        <v>60001</v>
+        <v>60003</v>
       </c>
       <c r="D134" s="5">
         <v>3</v>
@@ -2681,13 +2681,13 @@
     </row>
     <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>402002</v>
+        <v>402001</v>
       </c>
       <c r="B135" s="3">
         <v>4102</v>
       </c>
       <c r="C135" s="4">
-        <v>60011</v>
+        <v>60001</v>
       </c>
       <c r="D135" s="5">
         <v>3</v>
@@ -2697,27 +2697,29 @@
     </row>
     <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>402003</v>
+        <v>402002</v>
       </c>
       <c r="B136" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C136" s="4">
-        <v>117141</v>
-      </c>
-      <c r="D136" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D136" s="5">
+        <v>3</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>402004</v>
+        <v>402003</v>
       </c>
       <c r="B137" s="3">
         <v>4400</v>
       </c>
       <c r="C137" s="4">
-        <v>100031</v>
+        <v>117141</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="2"/>
@@ -2725,13 +2727,13 @@
     </row>
     <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>402010</v>
+        <v>402004</v>
       </c>
       <c r="B138" s="3">
         <v>4400</v>
       </c>
       <c r="C138" s="4">
-        <v>102000</v>
+        <v>100031</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="2"/>
@@ -2739,13 +2741,13 @@
     </row>
     <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>402020</v>
+        <v>402010</v>
       </c>
       <c r="B139" s="3">
         <v>4400</v>
       </c>
       <c r="C139" s="4">
-        <v>102010</v>
+        <v>102000</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
@@ -2753,62 +2755,62 @@
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>402030</v>
+        <v>402020</v>
       </c>
       <c r="B140" s="3">
         <v>4400</v>
       </c>
       <c r="C140" s="4">
-        <v>102020</v>
+        <v>102010</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>410100</v>
-      </c>
-      <c r="B142" s="3">
-        <v>4003</v>
-      </c>
-      <c r="C142" s="4">
-        <v>7</v>
-      </c>
-      <c r="D142" s="5">
-        <v>11</v>
-      </c>
-      <c r="E142" s="2">
-        <v>12</v>
-      </c>
-      <c r="F142" s="2">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>402030</v>
+      </c>
+      <c r="B141" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C141" s="4">
+        <v>102020</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>410101</v>
+        <v>410100</v>
       </c>
       <c r="B143" s="3">
-        <v>4400</v>
+        <v>4003</v>
       </c>
       <c r="C143" s="4">
-        <v>100032</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D143" s="5">
+        <v>11</v>
+      </c>
+      <c r="E143" s="2">
+        <v>12</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>410102</v>
+        <v>410101</v>
       </c>
       <c r="B144" s="3">
         <v>4400</v>
       </c>
       <c r="C144" s="4">
-        <v>100031</v>
+        <v>100032</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="2"/>
@@ -2816,27 +2818,21 @@
     </row>
     <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>410110</v>
+        <v>410102</v>
       </c>
       <c r="B145" s="3">
-        <v>4003</v>
+        <v>4400</v>
       </c>
       <c r="C145" s="4">
-        <v>7</v>
-      </c>
-      <c r="D145" s="5">
-        <v>12</v>
-      </c>
-      <c r="E145" s="2">
-        <v>12</v>
-      </c>
-      <c r="F145" s="2">
-        <v>0</v>
-      </c>
+        <v>100031</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>410120</v>
+        <v>410110</v>
       </c>
       <c r="B146" s="3">
         <v>4003</v>
@@ -2845,7 +2841,7 @@
         <v>7</v>
       </c>
       <c r="D146" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E146" s="2">
         <v>12</v>
@@ -2854,141 +2850,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7">
+    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>410120</v>
+      </c>
+      <c r="B147" s="3">
+        <v>4003</v>
+      </c>
+      <c r="C147" s="4">
+        <v>7</v>
+      </c>
+      <c r="D147" s="5">
+        <v>13</v>
+      </c>
+      <c r="E147" s="2">
+        <v>12</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
         <v>411060</v>
       </c>
-      <c r="B148" s="10">
-        <v>4102</v>
-      </c>
-      <c r="C148" s="11">
+      <c r="B149" s="10">
+        <v>4102</v>
+      </c>
+      <c r="C149" s="11">
         <v>60001</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D149" s="8">
         <v>1</v>
       </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>412100</v>
-      </c>
-      <c r="B150" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C150" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D150" s="5">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-    </row>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+    </row>
+    <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>412101</v>
+        <v>412100</v>
       </c>
       <c r="B151" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C151" s="4">
-        <v>61002</v>
-      </c>
-      <c r="D151" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D151" s="5">
+        <v>1</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>412110</v>
+        <v>412101</v>
       </c>
       <c r="B152" s="3">
-        <v>0</v>
-      </c>
-      <c r="C152" s="4"/>
+        <v>4114</v>
+      </c>
+      <c r="C152" s="4">
+        <v>61002</v>
+      </c>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>412111</v>
+        <v>412110</v>
       </c>
       <c r="B153" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C153" s="4">
-        <v>50</v>
-      </c>
-      <c r="D153" s="8"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>412120</v>
+        <v>412111</v>
       </c>
       <c r="B154" s="3">
-        <v>0</v>
-      </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
+        <v>4001</v>
+      </c>
+      <c r="C154" s="4">
+        <v>50</v>
+      </c>
+      <c r="D154" s="8"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>412121</v>
+        <v>412120</v>
       </c>
       <c r="B155" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C155" s="4">
-        <v>11214</v>
-      </c>
-      <c r="D155" s="8"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>412130</v>
+        <v>412121</v>
       </c>
       <c r="B156" s="3">
-        <v>0</v>
-      </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
+        <v>4400</v>
+      </c>
+      <c r="C156" s="4">
+        <v>11214</v>
+      </c>
+      <c r="D156" s="8"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>412131</v>
+        <v>412130</v>
       </c>
       <c r="B157" s="3">
-        <v>4111</v>
-      </c>
-      <c r="C157" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D157" s="8"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>412132</v>
+        <v>412131</v>
       </c>
       <c r="B158" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C158" s="4">
-        <v>100400</v>
+        <v>60002</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="7"/>
@@ -2996,58 +2998,58 @@
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
+        <v>412132</v>
+      </c>
+      <c r="B159" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C159" s="4">
+        <v>100400</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+    </row>
+    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
         <v>412140</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B160" s="3">
         <v>4111</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C160" s="4">
         <v>60009</v>
       </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>413100</v>
-      </c>
-      <c r="B161" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C161" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D161" s="5">
-        <v>1</v>
-      </c>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-    </row>
+      <c r="D160" s="5"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>413110</v>
+        <v>413100</v>
       </c>
       <c r="B162" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C162" s="4">
-        <v>113100</v>
-      </c>
-      <c r="D162" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D162" s="5">
+        <v>1</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>413120</v>
+        <v>413110</v>
       </c>
       <c r="B163" s="3">
         <v>4400</v>
       </c>
       <c r="C163" s="4">
-        <v>121120</v>
+        <v>113100</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
@@ -3055,13 +3057,13 @@
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>413130</v>
+        <v>413120</v>
       </c>
       <c r="B164" s="3">
         <v>4400</v>
       </c>
       <c r="C164" s="4">
-        <v>121121</v>
+        <v>121120</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
@@ -3069,13 +3071,13 @@
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>413140</v>
+        <v>413130</v>
       </c>
       <c r="B165" s="3">
         <v>4400</v>
       </c>
       <c r="C165" s="4">
-        <v>121122</v>
+        <v>121121</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
@@ -3083,13 +3085,13 @@
     </row>
     <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>413150</v>
+        <v>413140</v>
       </c>
       <c r="B166" s="3">
         <v>4400</v>
       </c>
       <c r="C166" s="4">
-        <v>113140</v>
+        <v>121122</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="2"/>
@@ -3097,53 +3099,51 @@
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>413151</v>
+        <v>413150</v>
       </c>
       <c r="B167" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C167" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D167" s="5">
-        <v>2</v>
-      </c>
+        <v>113140</v>
+      </c>
+      <c r="D167" s="5"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>413160</v>
+        <v>413151</v>
       </c>
       <c r="B168" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C168" s="4">
-        <v>113150</v>
-      </c>
-      <c r="D168" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D168" s="5">
+        <v>2</v>
+      </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>413161</v>
+        <v>413160</v>
       </c>
       <c r="B169" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C169" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D169" s="5">
-        <v>3</v>
-      </c>
+        <v>113150</v>
+      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>413200</v>
+        <v>413161</v>
       </c>
       <c r="B170" s="3">
         <v>4102</v>
@@ -3152,94 +3152,96 @@
         <v>60003</v>
       </c>
       <c r="D170" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>413201</v>
+        <v>413200</v>
       </c>
       <c r="B171" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C171" s="4">
-        <v>100040</v>
-      </c>
-      <c r="D171" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D171" s="5">
+        <v>1</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>413210</v>
+        <v>413201</v>
       </c>
       <c r="B172" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C172" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D172" s="5">
-        <v>2</v>
-      </c>
+        <v>100040</v>
+      </c>
+      <c r="D172" s="5"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>413211</v>
+        <v>413210</v>
       </c>
       <c r="B173" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C173" s="4">
-        <v>113200</v>
-      </c>
-      <c r="D173" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D173" s="5">
+        <v>2</v>
+      </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>413220</v>
+        <v>413211</v>
       </c>
       <c r="B174" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C174" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D174" s="5">
-        <v>3</v>
-      </c>
+        <v>113200</v>
+      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>413221</v>
+        <v>413220</v>
       </c>
       <c r="B175" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C175" s="4">
-        <v>113210</v>
-      </c>
-      <c r="D175" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D175" s="5">
+        <v>3</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>413230</v>
+        <v>413221</v>
       </c>
       <c r="B176" s="3">
         <v>4400</v>
       </c>
       <c r="C176" s="4">
-        <v>113220</v>
+        <v>113210</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="2"/>
@@ -3247,38 +3249,36 @@
     </row>
     <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>413231</v>
+        <v>413230</v>
       </c>
       <c r="B177" s="3">
         <v>4400</v>
       </c>
       <c r="C177" s="4">
-        <v>118114</v>
+        <v>113220</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>415100</v>
-      </c>
-      <c r="B179" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C179" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D179" s="5">
-        <v>1</v>
-      </c>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-    </row>
+    <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>413231</v>
+      </c>
+      <c r="B178" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C178" s="4">
+        <v>118114</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="180" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>415110</v>
+        <v>415100</v>
       </c>
       <c r="B180" s="3">
         <v>4102</v>
@@ -3287,64 +3287,66 @@
         <v>60005</v>
       </c>
       <c r="D180" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>415111</v>
+        <v>415110</v>
       </c>
       <c r="B181" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C181" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D181" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D181" s="5">
+        <v>2</v>
+      </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>415120</v>
+        <v>415111</v>
       </c>
       <c r="B182" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C182" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D182" s="5">
-        <v>3</v>
-      </c>
+        <v>115100</v>
+      </c>
+      <c r="D182" s="5"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>415121</v>
+        <v>415120</v>
       </c>
       <c r="B183" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C183" s="4">
-        <v>115101</v>
-      </c>
-      <c r="D183" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D183" s="5">
+        <v>3</v>
+      </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>415122</v>
+        <v>415121</v>
       </c>
       <c r="B184" s="3">
         <v>4400</v>
       </c>
       <c r="C184" s="4">
-        <v>115111</v>
+        <v>115101</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
@@ -3352,43 +3354,43 @@
     </row>
     <row r="185" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>415130</v>
+        <v>415122</v>
       </c>
       <c r="B185" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C185" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D185" s="5">
-        <v>3</v>
-      </c>
+        <v>115111</v>
+      </c>
+      <c r="D185" s="5"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>415131</v>
+        <v>415130</v>
       </c>
       <c r="B186" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C186" s="4">
-        <v>115112</v>
-      </c>
-      <c r="D186" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D186" s="5">
+        <v>3</v>
+      </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>415140</v>
+        <v>415131</v>
       </c>
       <c r="B187" s="3">
         <v>4400</v>
       </c>
       <c r="C187" s="4">
-        <v>115102</v>
+        <v>115112</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
@@ -3396,13 +3398,13 @@
     </row>
     <row r="188" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>415141</v>
+        <v>415140</v>
       </c>
       <c r="B188" s="3">
         <v>4400</v>
       </c>
       <c r="C188" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
@@ -3410,13 +3412,13 @@
     </row>
     <row r="189" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>415150</v>
+        <v>415141</v>
       </c>
       <c r="B189" s="3">
         <v>4400</v>
       </c>
       <c r="C189" s="4">
-        <v>115102</v>
+        <v>115111</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
@@ -3424,13 +3426,13 @@
     </row>
     <row r="190" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>415151</v>
+        <v>415150</v>
       </c>
       <c r="B190" s="3">
         <v>4400</v>
       </c>
       <c r="C190" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
@@ -3438,13 +3440,13 @@
     </row>
     <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>415160</v>
+        <v>415151</v>
       </c>
       <c r="B191" s="3">
         <v>4400</v>
       </c>
       <c r="C191" s="4">
-        <v>115102</v>
+        <v>115111</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
@@ -3452,13 +3454,13 @@
     </row>
     <row r="192" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>415161</v>
+        <v>415160</v>
       </c>
       <c r="B192" s="3">
         <v>4400</v>
       </c>
       <c r="C192" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="2"/>
@@ -3466,13 +3468,13 @@
     </row>
     <row r="193" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>415170</v>
+        <v>415161</v>
       </c>
       <c r="B193" s="3">
         <v>4400</v>
       </c>
       <c r="C193" s="4">
-        <v>118114</v>
+        <v>115111</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
@@ -3480,43 +3482,43 @@
     </row>
     <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>415171</v>
+        <v>415170</v>
       </c>
       <c r="B194" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C194" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D194" s="5">
-        <v>3</v>
-      </c>
+        <v>118114</v>
+      </c>
+      <c r="D194" s="5"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>415172</v>
+        <v>415171</v>
       </c>
       <c r="B195" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C195" s="4">
-        <v>115120</v>
-      </c>
-      <c r="D195" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D195" s="5">
+        <v>3</v>
+      </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>415173</v>
+        <v>415172</v>
       </c>
       <c r="B196" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C196" s="4">
-        <v>4</v>
+        <v>115120</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="2"/>
@@ -3524,149 +3526,147 @@
     </row>
     <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>415180</v>
+        <v>415173</v>
       </c>
       <c r="B197" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C197" s="4">
-        <v>115170</v>
+        <v>4</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>416100</v>
-      </c>
-      <c r="B199" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C199" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D199" s="5">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-    </row>
+    <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>415180</v>
+      </c>
+      <c r="B198" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C198" s="4">
+        <v>115170</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>416101</v>
+        <v>416100</v>
       </c>
       <c r="B200" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C200" s="4">
-        <v>116101</v>
-      </c>
-      <c r="D200" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1</v>
+      </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>416110</v>
+        <v>416101</v>
       </c>
       <c r="B201" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C201" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D201" s="5">
-        <v>2</v>
-      </c>
+        <v>116101</v>
+      </c>
+      <c r="D201" s="5"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>416111</v>
+        <v>416110</v>
       </c>
       <c r="B202" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C202" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D202" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D202" s="5">
+        <v>2</v>
+      </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>416120</v>
+        <v>416111</v>
       </c>
       <c r="B203" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C203" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D203" s="5">
-        <v>3</v>
-      </c>
+        <v>116100</v>
+      </c>
+      <c r="D203" s="5"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>416121</v>
+        <v>416120</v>
       </c>
       <c r="B204" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C204" s="4">
-        <v>116110</v>
-      </c>
-      <c r="D204" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D204" s="5">
+        <v>3</v>
+      </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>416130</v>
+        <v>416121</v>
       </c>
       <c r="B205" s="3">
         <v>4400</v>
       </c>
       <c r="C205" s="4">
-        <v>116121</v>
+        <v>116110</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
+    <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>416130</v>
+      </c>
+      <c r="B206" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C206" s="4">
+        <v>116121</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
         <v>417100</v>
       </c>
-      <c r="B207" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C207" s="4">
+      <c r="B208" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C208" s="4">
         <v>60007</v>
-      </c>
-      <c r="D207" s="5">
-        <v>1</v>
-      </c>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="2">
-        <v>417101</v>
-      </c>
-      <c r="B208" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C208" s="4">
-        <v>60008</v>
       </c>
       <c r="D208" s="5">
         <v>1</v>
@@ -3676,13 +3676,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>417102</v>
+        <v>417101</v>
       </c>
       <c r="B209" s="3">
         <v>4102</v>
       </c>
       <c r="C209" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D209" s="5">
         <v>1</v>
@@ -3692,27 +3692,29 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>417110</v>
+        <v>417102</v>
       </c>
       <c r="B210" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C210" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D210" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D210" s="5">
+        <v>1</v>
+      </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>417120</v>
+        <v>417110</v>
       </c>
       <c r="B211" s="3">
         <v>4400</v>
       </c>
       <c r="C211" s="4">
-        <v>117110</v>
+        <v>117100</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
@@ -3720,29 +3722,27 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>417130</v>
+        <v>417120</v>
       </c>
       <c r="B212" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C212" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D212" s="5">
-        <v>2</v>
-      </c>
+        <v>117110</v>
+      </c>
+      <c r="D212" s="5"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>417131</v>
+        <v>417130</v>
       </c>
       <c r="B213" s="3">
         <v>4102</v>
       </c>
       <c r="C213" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D213" s="5">
         <v>2</v>
@@ -3752,13 +3752,13 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>417132</v>
+        <v>417131</v>
       </c>
       <c r="B214" s="3">
         <v>4102</v>
       </c>
       <c r="C214" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D214" s="5">
         <v>2</v>
@@ -3768,27 +3768,29 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>417133</v>
+        <v>417132</v>
       </c>
       <c r="B215" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C215" s="4">
-        <v>117120</v>
-      </c>
-      <c r="D215" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D215" s="5">
+        <v>2</v>
+      </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>417134</v>
+        <v>417133</v>
       </c>
       <c r="B216" s="3">
         <v>4400</v>
       </c>
       <c r="C216" s="4">
-        <v>116110</v>
+        <v>117120</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
@@ -3796,13 +3798,13 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>417140</v>
+        <v>417134</v>
       </c>
       <c r="B217" s="3">
         <v>4400</v>
       </c>
       <c r="C217" s="4">
-        <v>117130</v>
+        <v>116110</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
@@ -3810,13 +3812,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>417141</v>
+        <v>417140</v>
       </c>
       <c r="B218" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C218" s="4">
-        <v>0</v>
+        <v>117130</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
@@ -3824,91 +3826,93 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>417150</v>
+        <v>417141</v>
       </c>
       <c r="B219" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C219" s="4">
-        <v>117141</v>
-      </c>
-      <c r="D219" s="5"/>
+        <v>21714</v>
+      </c>
+      <c r="D219" s="5">
+        <v>1</v>
+      </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>417151</v>
+        <v>417150</v>
       </c>
       <c r="B220" s="3">
         <v>4400</v>
       </c>
       <c r="C220" s="4">
-        <v>117140</v>
+        <v>117141</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
-      <c r="F221" s="6"/>
+      <c r="A221" s="2">
+        <v>417151</v>
+      </c>
+      <c r="B221" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C221" s="4">
+        <v>117140</v>
+      </c>
+      <c r="D221" s="5"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>418100</v>
-      </c>
-      <c r="B222" s="3">
-        <v>0</v>
-      </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>418110</v>
+        <v>418100</v>
       </c>
       <c r="B223" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C223" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D223" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="D223" s="5"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>418111</v>
+        <v>418110</v>
       </c>
       <c r="B224" s="3">
-        <v>4000</v>
+        <v>4102</v>
       </c>
       <c r="C224" s="4">
-        <v>20</v>
-      </c>
-      <c r="D224" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D224" s="5">
+        <v>1</v>
+      </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>418112</v>
+        <v>418111</v>
       </c>
       <c r="B225" s="3">
-        <v>4506</v>
+        <v>4000</v>
       </c>
       <c r="C225" s="4">
-        <v>61004</v>
+        <v>20</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="2"/>
@@ -3916,43 +3920,43 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>418113</v>
+        <v>418112</v>
       </c>
       <c r="B226" s="3">
-        <v>4403</v>
+        <v>4506</v>
       </c>
       <c r="C226" s="4">
-        <v>21811</v>
-      </c>
-      <c r="D226" s="5">
-        <v>1</v>
-      </c>
+        <v>61004</v>
+      </c>
+      <c r="D226" s="5"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>418114</v>
+        <v>418113</v>
       </c>
       <c r="B227" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C227" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D227" s="5"/>
+        <v>21811</v>
+      </c>
+      <c r="D227" s="5">
+        <v>1</v>
+      </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>418115</v>
+        <v>418114</v>
       </c>
       <c r="B228" s="3">
         <v>4400</v>
       </c>
       <c r="C228" s="4">
-        <v>118115</v>
+        <v>118114</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
@@ -3960,51 +3964,49 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>418116</v>
+        <v>418115</v>
       </c>
       <c r="B229" s="3">
         <v>4400</v>
       </c>
       <c r="C229" s="4">
-        <v>118116</v>
+        <v>118115</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
-      <c r="F230" s="6"/>
+      <c r="A230" s="2">
+        <v>418116</v>
+      </c>
+      <c r="B230" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C230" s="4">
+        <v>118116</v>
+      </c>
+      <c r="D230" s="5"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="2">
-        <v>419100</v>
-      </c>
-      <c r="B231" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C231" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D231" s="5">
-        <v>1</v>
-      </c>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>419101</v>
+        <v>419100</v>
       </c>
       <c r="B232" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C232" s="4">
-        <v>21910</v>
+        <v>60009</v>
       </c>
       <c r="D232" s="5">
         <v>1</v>
@@ -4014,113 +4016,115 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>419110</v>
+        <v>419101</v>
       </c>
       <c r="B233" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C233" s="4">
-        <v>60009</v>
+        <v>21910</v>
       </c>
       <c r="D233" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>419111</v>
+        <v>419110</v>
       </c>
       <c r="B234" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C234" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D234" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D234" s="5">
+        <v>2</v>
+      </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>419112</v>
+        <v>419111</v>
       </c>
       <c r="B235" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C235" s="4">
-        <v>21911</v>
-      </c>
-      <c r="D235" s="5">
-        <v>0</v>
-      </c>
+        <v>119100</v>
+      </c>
+      <c r="D235" s="5"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>419120</v>
+        <v>419112</v>
       </c>
       <c r="B236" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C236" s="4">
-        <v>60009</v>
+        <v>21911</v>
       </c>
       <c r="D236" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>419121</v>
+        <v>419120</v>
       </c>
       <c r="B237" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C237" s="4">
-        <v>119110</v>
-      </c>
-      <c r="D237" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D237" s="5">
+        <v>3</v>
+      </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>419122</v>
+        <v>419121</v>
       </c>
       <c r="B238" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C238" s="4">
-        <v>21912</v>
-      </c>
-      <c r="D238" s="5">
-        <v>0</v>
-      </c>
+        <v>119110</v>
+      </c>
+      <c r="D238" s="5"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>419130</v>
+        <v>419122</v>
       </c>
       <c r="B239" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C239" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D239" s="5"/>
+        <v>21912</v>
+      </c>
+      <c r="D239" s="5">
+        <v>1</v>
+      </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>419140</v>
+        <v>419130</v>
       </c>
       <c r="B240" s="3">
         <v>4400</v>
@@ -4134,7 +4138,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>419150</v>
+        <v>419140</v>
       </c>
       <c r="B241" s="3">
         <v>4400</v>
@@ -4147,32 +4151,30 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="6"/>
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="6"/>
+      <c r="A242" s="2">
+        <v>419150</v>
+      </c>
+      <c r="B242" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C242" s="4">
+        <v>119121</v>
+      </c>
+      <c r="D242" s="5"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>420100</v>
-      </c>
-      <c r="B243" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C243" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D243" s="5">
-        <v>1</v>
-      </c>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
+      <c r="A243" s="6"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>420110</v>
+        <v>420100</v>
       </c>
       <c r="B244" s="3">
         <v>4102</v>
@@ -4181,34 +4183,36 @@
         <v>60010</v>
       </c>
       <c r="D244" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>420111</v>
+        <v>420110</v>
       </c>
       <c r="B245" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C245" s="4">
-        <v>120100</v>
-      </c>
-      <c r="D245" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D245" s="5">
+        <v>2</v>
+      </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>420120</v>
+        <v>420111</v>
       </c>
       <c r="B246" s="3">
         <v>4400</v>
       </c>
       <c r="C246" s="4">
-        <v>120110</v>
+        <v>120100</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="2"/>
@@ -4216,13 +4220,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>420121</v>
+        <v>420120</v>
       </c>
       <c r="B247" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C247" s="4">
-        <v>0</v>
+        <v>120110</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
@@ -4230,27 +4234,29 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>420130</v>
+        <v>420121</v>
       </c>
       <c r="B248" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C248" s="4">
-        <v>120121</v>
-      </c>
-      <c r="D248" s="5"/>
+        <v>22012</v>
+      </c>
+      <c r="D248" s="5">
+        <v>1</v>
+      </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>420140</v>
+        <v>420130</v>
       </c>
       <c r="B249" s="3">
         <v>4400</v>
       </c>
       <c r="C249" s="4">
-        <v>120160</v>
+        <v>120121</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="2"/>
@@ -4258,13 +4264,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>420141</v>
+        <v>420140</v>
       </c>
       <c r="B250" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C250" s="4">
-        <v>60011</v>
+        <v>120160</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="2"/>
@@ -4272,13 +4278,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>420142</v>
+        <v>420141</v>
       </c>
       <c r="B251" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C251" s="4">
-        <v>121110</v>
+        <v>60011</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="2"/>
@@ -4286,13 +4292,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>420150</v>
+        <v>420142</v>
       </c>
       <c r="B252" s="3">
         <v>4400</v>
       </c>
       <c r="C252" s="4">
-        <v>120160</v>
+        <v>121110</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="2"/>
@@ -4300,13 +4306,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>420151</v>
+        <v>420150</v>
       </c>
       <c r="B253" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C253" s="4">
-        <v>60011</v>
+        <v>120160</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="2"/>
@@ -4314,13 +4320,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>420152</v>
+        <v>420151</v>
       </c>
       <c r="B254" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C254" s="4">
-        <v>121100</v>
+        <v>60011</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
@@ -4328,13 +4334,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>420160</v>
+        <v>420152</v>
       </c>
       <c r="B255" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C255" s="4">
-        <v>60010</v>
+        <v>121100</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="2"/>
@@ -4342,43 +4348,43 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>420161</v>
+        <v>420160</v>
       </c>
       <c r="B256" s="3">
-        <v>4102</v>
+        <v>4111</v>
       </c>
       <c r="C256" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D256" s="5">
-        <v>1</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D256" s="5"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>420162</v>
+        <v>420161</v>
       </c>
       <c r="B257" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C257" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D257" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D257" s="5">
+        <v>1</v>
+      </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>420163</v>
+        <v>420162</v>
       </c>
       <c r="B258" s="3">
         <v>4400</v>
       </c>
       <c r="C258" s="4">
-        <v>121100</v>
+        <v>121110</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
@@ -4386,13 +4392,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>420164</v>
+        <v>420163</v>
       </c>
       <c r="B259" s="3">
         <v>4400</v>
       </c>
       <c r="C259" s="4">
-        <v>120130</v>
+        <v>121100</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
@@ -4400,65 +4406,65 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>420165</v>
+        <v>420164</v>
       </c>
       <c r="B260" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C260" s="4">
-        <v>30</v>
+        <v>120130</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="9"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="6"/>
+      <c r="A261" s="2">
+        <v>420165</v>
+      </c>
+      <c r="B261" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C261" s="4">
+        <v>30</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>421100</v>
-      </c>
-      <c r="B262" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C262" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D262" s="5">
-        <v>1</v>
-      </c>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
+      <c r="A262" s="9"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>421101</v>
+        <v>421100</v>
       </c>
       <c r="B263" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C263" s="4">
-        <v>100031</v>
-      </c>
-      <c r="D263" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D263" s="5">
+        <v>1</v>
+      </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>421110</v>
+        <v>421101</v>
       </c>
       <c r="B264" s="3">
         <v>4400</v>
       </c>
       <c r="C264" s="4">
-        <v>121100</v>
+        <v>100031</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
@@ -4466,13 +4472,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>421111</v>
+        <v>421110</v>
       </c>
       <c r="B265" s="3">
         <v>4400</v>
       </c>
       <c r="C265" s="4">
-        <v>113121</v>
+        <v>121100</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
@@ -4480,43 +4486,43 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>421112</v>
+        <v>421111</v>
       </c>
       <c r="B266" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C266" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D266" s="5">
-        <v>2</v>
-      </c>
+        <v>113121</v>
+      </c>
+      <c r="D266" s="5"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>421113</v>
+        <v>421112</v>
       </c>
       <c r="B267" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C267" s="4">
-        <v>113120</v>
-      </c>
-      <c r="D267" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D267" s="5">
+        <v>2</v>
+      </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>421120</v>
+        <v>421113</v>
       </c>
       <c r="B268" s="3">
         <v>4400</v>
       </c>
       <c r="C268" s="4">
-        <v>121110</v>
+        <v>113120</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
@@ -4524,13 +4530,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>421121</v>
+        <v>421120</v>
       </c>
       <c r="B269" s="3">
         <v>4400</v>
       </c>
       <c r="C269" s="4">
-        <v>120121</v>
+        <v>121110</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
@@ -4538,13 +4544,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>421122</v>
+        <v>421121</v>
       </c>
       <c r="B270" s="3">
         <v>4400</v>
       </c>
       <c r="C270" s="4">
-        <v>120160</v>
+        <v>120121</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
@@ -4552,13 +4558,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>421123</v>
+        <v>421122</v>
       </c>
       <c r="B271" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C271" s="4">
-        <v>30</v>
+        <v>120160</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
@@ -4566,43 +4572,43 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>421124</v>
+        <v>421123</v>
       </c>
       <c r="B272" s="3">
-        <v>4102</v>
+        <v>4000</v>
       </c>
       <c r="C272" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D272" s="5">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D272" s="5"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>421130</v>
+        <v>421124</v>
       </c>
       <c r="B273" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C273" s="4">
-        <v>100032</v>
-      </c>
-      <c r="D273" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D273" s="5">
+        <v>3</v>
+      </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>421140</v>
+        <v>421130</v>
       </c>
       <c r="B274" s="3">
         <v>4400</v>
       </c>
       <c r="C274" s="4">
-        <v>121130</v>
+        <v>100032</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="2"/>
@@ -4610,73 +4616,73 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>421141</v>
+        <v>421140</v>
       </c>
       <c r="B275" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C275" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D275" s="5">
-        <v>1</v>
-      </c>
+        <v>121130</v>
+      </c>
+      <c r="D275" s="5"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>421150</v>
+        <v>421141</v>
       </c>
       <c r="B276" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C276" s="4">
-        <v>121140</v>
-      </c>
-      <c r="D276" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D276" s="5">
+        <v>1</v>
+      </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>421151</v>
+        <v>421150</v>
       </c>
       <c r="B277" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C277" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D277" s="5">
-        <v>2</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D277" s="5"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>421160</v>
+        <v>421151</v>
       </c>
       <c r="B278" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C278" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D278" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D278" s="5">
+        <v>2</v>
+      </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>421161</v>
+        <v>421160</v>
       </c>
       <c r="B279" s="3">
         <v>4400</v>
       </c>
       <c r="C279" s="4">
-        <v>120160</v>
+        <v>121150</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="2"/>
@@ -4684,13 +4690,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>421162</v>
+        <v>421161</v>
       </c>
       <c r="B280" s="3">
         <v>4400</v>
       </c>
       <c r="C280" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
@@ -4698,43 +4704,43 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>421163</v>
+        <v>421162</v>
       </c>
       <c r="B281" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C281" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D281" s="5">
-        <v>3</v>
-      </c>
+        <v>120130</v>
+      </c>
+      <c r="D281" s="5"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>421170</v>
+        <v>421163</v>
       </c>
       <c r="B282" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C282" s="4">
-        <v>121160</v>
-      </c>
-      <c r="D282" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D282" s="5">
+        <v>3</v>
+      </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>421171</v>
+        <v>421170</v>
       </c>
       <c r="B283" s="3">
         <v>4400</v>
       </c>
       <c r="C283" s="4">
-        <v>120160</v>
+        <v>121160</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
@@ -4742,13 +4748,13 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>421172</v>
+        <v>421171</v>
       </c>
       <c r="B284" s="3">
         <v>4400</v>
       </c>
       <c r="C284" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
@@ -4756,13 +4762,13 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>421180</v>
+        <v>421172</v>
       </c>
       <c r="B285" s="3">
         <v>4400</v>
       </c>
       <c r="C285" s="4">
-        <v>121130</v>
+        <v>120130</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
@@ -4770,13 +4776,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>421181</v>
+        <v>421180</v>
       </c>
       <c r="B286" s="3">
         <v>4400</v>
       </c>
       <c r="C286" s="4">
-        <v>120160</v>
+        <v>121130</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
@@ -4784,49 +4790,49 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>421182</v>
+        <v>421181</v>
       </c>
       <c r="B287" s="3">
         <v>4400</v>
       </c>
       <c r="C287" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="6"/>
-      <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-      <c r="F288" s="6"/>
+      <c r="A288" s="2">
+        <v>421182</v>
+      </c>
+      <c r="B288" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C288" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D288" s="5"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="2">
-        <v>430000</v>
-      </c>
-      <c r="B289" s="3">
-        <v>4505</v>
-      </c>
-      <c r="C289" s="4">
-        <v>20</v>
-      </c>
-      <c r="D289" s="5"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
+      <c r="A289" s="6"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>430010</v>
+        <v>430000</v>
       </c>
       <c r="B290" s="3">
-        <v>4001</v>
+        <v>4505</v>
       </c>
       <c r="C290" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
@@ -4834,13 +4840,13 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>430020</v>
+        <v>430010</v>
       </c>
       <c r="B291" s="3">
         <v>4001</v>
       </c>
       <c r="C291" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
@@ -4848,13 +4854,13 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>430021</v>
+        <v>430020</v>
       </c>
       <c r="B292" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C292" s="4">
-        <v>130010</v>
+        <v>60</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
@@ -4862,13 +4868,13 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>430030</v>
+        <v>430021</v>
       </c>
       <c r="B293" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C293" s="4">
-        <v>30</v>
+        <v>130010</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="2"/>
@@ -4876,13 +4882,13 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>430031</v>
+        <v>430030</v>
       </c>
       <c r="B294" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C294" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
@@ -4890,13 +4896,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>430040</v>
+        <v>430031</v>
       </c>
       <c r="B295" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C295" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
@@ -4904,13 +4910,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>430041</v>
+        <v>430040</v>
       </c>
       <c r="B296" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C296" s="4">
-        <v>130120</v>
+        <v>40</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
@@ -4918,13 +4924,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>430050</v>
+        <v>430041</v>
       </c>
       <c r="B297" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C297" s="4">
-        <v>50</v>
+        <v>130120</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
@@ -4932,13 +4938,13 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>430051</v>
+        <v>430050</v>
       </c>
       <c r="B298" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C298" s="4">
-        <v>130150</v>
+        <v>50</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
@@ -4946,13 +4952,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>430052</v>
+        <v>430051</v>
       </c>
       <c r="B299" s="3">
         <v>4400</v>
       </c>
       <c r="C299" s="4">
-        <v>116101</v>
+        <v>130150</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
@@ -4960,13 +4966,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>430060</v>
+        <v>430052</v>
       </c>
       <c r="B300" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C300" s="4">
-        <v>30</v>
+        <v>116101</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
@@ -4974,13 +4980,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>430061</v>
+        <v>430060</v>
       </c>
       <c r="B301" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C301" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
@@ -4988,13 +4994,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>430070</v>
+        <v>430061</v>
       </c>
       <c r="B302" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C302" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
@@ -5002,13 +5008,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>430071</v>
+        <v>430070</v>
       </c>
       <c r="B303" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C303" s="4">
-        <v>130130</v>
+        <v>40</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
@@ -5016,13 +5022,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>430080</v>
+        <v>430071</v>
       </c>
       <c r="B304" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C304" s="4">
-        <v>50</v>
+        <v>130130</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
@@ -5030,13 +5036,13 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>430081</v>
+        <v>430080</v>
       </c>
       <c r="B305" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C305" s="4">
-        <v>130160</v>
+        <v>50</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
@@ -5044,13 +5050,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>430082</v>
+        <v>430081</v>
       </c>
       <c r="B306" s="3">
         <v>4400</v>
       </c>
       <c r="C306" s="4">
-        <v>118110</v>
+        <v>130160</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
@@ -5058,13 +5064,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>430090</v>
+        <v>430082</v>
       </c>
       <c r="B307" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C307" s="4">
-        <v>30</v>
+        <v>118110</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
@@ -5072,13 +5078,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>430091</v>
+        <v>430090</v>
       </c>
       <c r="B308" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C308" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
@@ -5086,13 +5092,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>430100</v>
+        <v>430091</v>
       </c>
       <c r="B309" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C309" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
@@ -5100,13 +5106,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>430101</v>
+        <v>430100</v>
       </c>
       <c r="B310" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C310" s="4">
-        <v>130140</v>
+        <v>40</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
@@ -5114,13 +5120,13 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>430110</v>
+        <v>430101</v>
       </c>
       <c r="B311" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C311" s="4">
-        <v>50</v>
+        <v>130140</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
@@ -5128,13 +5134,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>430111</v>
+        <v>430110</v>
       </c>
       <c r="B312" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C312" s="4">
-        <v>130170</v>
+        <v>50</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
@@ -5142,13 +5148,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>430112</v>
+        <v>430111</v>
       </c>
       <c r="B313" s="3">
         <v>4400</v>
       </c>
       <c r="C313" s="4">
-        <v>121110</v>
+        <v>130170</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
@@ -5156,43 +5162,43 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>430113</v>
+        <v>430112</v>
       </c>
       <c r="B314" s="3">
-        <v>4114</v>
+        <v>4400</v>
       </c>
       <c r="C314" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D314" s="5">
-        <v>4</v>
-      </c>
+        <v>121110</v>
+      </c>
+      <c r="D314" s="5"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>430120</v>
+        <v>430113</v>
       </c>
       <c r="B315" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C315" s="4">
-        <v>130030</v>
-      </c>
-      <c r="D315" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D315" s="5">
+        <v>4</v>
+      </c>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>430130</v>
+        <v>430120</v>
       </c>
       <c r="B316" s="3">
         <v>4400</v>
       </c>
       <c r="C316" s="4">
-        <v>130060</v>
+        <v>130030</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
@@ -5200,13 +5206,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>430140</v>
+        <v>430130</v>
       </c>
       <c r="B317" s="3">
         <v>4400</v>
       </c>
       <c r="C317" s="4">
-        <v>130090</v>
+        <v>130060</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
@@ -5214,13 +5220,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>430150</v>
+        <v>430140</v>
       </c>
       <c r="B318" s="3">
         <v>4400</v>
       </c>
       <c r="C318" s="4">
-        <v>130040</v>
+        <v>130090</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
@@ -5228,13 +5234,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>430151</v>
+        <v>430150</v>
       </c>
       <c r="B319" s="3">
         <v>4400</v>
       </c>
       <c r="C319" s="4">
-        <v>130120</v>
+        <v>130040</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
@@ -5242,13 +5248,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>430160</v>
+        <v>430151</v>
       </c>
       <c r="B320" s="3">
         <v>4400</v>
       </c>
       <c r="C320" s="4">
-        <v>130070</v>
+        <v>130120</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
@@ -5256,13 +5262,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>430161</v>
+        <v>430160</v>
       </c>
       <c r="B321" s="3">
         <v>4400</v>
       </c>
       <c r="C321" s="4">
-        <v>130130</v>
+        <v>130070</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
@@ -5270,13 +5276,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>430170</v>
+        <v>430161</v>
       </c>
       <c r="B322" s="3">
         <v>4400</v>
       </c>
       <c r="C322" s="4">
-        <v>130100</v>
+        <v>130130</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
@@ -5284,13 +5290,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>430171</v>
+        <v>430170</v>
       </c>
       <c r="B323" s="3">
         <v>4400</v>
       </c>
       <c r="C323" s="4">
-        <v>130140</v>
+        <v>130100</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
@@ -5298,49 +5304,49 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>430180</v>
+        <v>430171</v>
       </c>
       <c r="B324" s="3">
-        <v>4505</v>
+        <v>4400</v>
       </c>
       <c r="C324" s="4">
-        <v>0</v>
+        <v>130140</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="6"/>
-      <c r="B325" s="6"/>
-      <c r="C325" s="6"/>
-      <c r="D325" s="6"/>
-      <c r="E325" s="6"/>
-      <c r="F325" s="6"/>
+      <c r="A325" s="2">
+        <v>430180</v>
+      </c>
+      <c r="B325" s="3">
+        <v>4505</v>
+      </c>
+      <c r="C325" s="4">
+        <v>0</v>
+      </c>
+      <c r="D325" s="5"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B326" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C326" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D326" s="5"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
+      <c r="A326" s="6"/>
+      <c r="B326" s="6"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="6"/>
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>450001</v>
+        <v>450000</v>
       </c>
       <c r="B327" s="3">
         <v>4400</v>
       </c>
       <c r="C327" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
@@ -5348,13 +5354,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>450002</v>
+        <v>450001</v>
       </c>
       <c r="B328" s="3">
         <v>4400</v>
       </c>
       <c r="C328" s="4">
-        <v>112120</v>
+        <v>112110</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
@@ -5362,13 +5368,13 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>450003</v>
+        <v>450002</v>
       </c>
       <c r="B329" s="3">
         <v>4400</v>
       </c>
       <c r="C329" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
@@ -5376,13 +5382,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>450010</v>
+        <v>450003</v>
       </c>
       <c r="B330" s="3">
         <v>4400</v>
       </c>
       <c r="C330" s="4">
-        <v>101000</v>
+        <v>112130</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
@@ -5390,13 +5396,13 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>450011</v>
+        <v>450010</v>
       </c>
       <c r="B331" s="3">
         <v>4400</v>
       </c>
       <c r="C331" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
@@ -5404,13 +5410,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>450012</v>
+        <v>450011</v>
       </c>
       <c r="B332" s="3">
         <v>4400</v>
       </c>
       <c r="C332" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
@@ -5418,25 +5424,31 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>450013</v>
+        <v>450012</v>
       </c>
       <c r="B333" s="3">
         <v>4400</v>
       </c>
       <c r="C333" s="4">
-        <v>101040</v>
+        <v>101020</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="6"/>
-      <c r="B334" s="6"/>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
-      <c r="F334" s="6"/>
+      <c r="A334" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B334" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C334" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D334" s="5"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
@@ -5447,28 +5459,22 @@
       <c r="F335" s="6"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="2">
-        <v>459000</v>
-      </c>
-      <c r="B336" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C336" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D336" s="5"/>
-      <c r="E336" s="2"/>
-      <c r="F336" s="2"/>
+      <c r="A336" s="6"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>459001</v>
+        <v>459000</v>
       </c>
       <c r="B337" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C337" s="4">
-        <v>2</v>
+        <v>559000</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
@@ -5476,13 +5482,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>459002</v>
+        <v>459001</v>
       </c>
       <c r="B338" s="3">
         <v>4005</v>
       </c>
       <c r="C338" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
@@ -5490,13 +5496,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>459003</v>
+        <v>459002</v>
       </c>
       <c r="B339" s="3">
         <v>4005</v>
       </c>
       <c r="C339" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
@@ -5504,13 +5510,13 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>459004</v>
+        <v>459003</v>
       </c>
       <c r="B340" s="3">
-        <v>4000</v>
+        <v>4005</v>
       </c>
       <c r="C340" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
@@ -5518,13 +5524,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>459005</v>
+        <v>459004</v>
       </c>
       <c r="B341" s="3">
         <v>4000</v>
       </c>
       <c r="C341" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
@@ -5532,13 +5538,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>459010</v>
+        <v>459005</v>
       </c>
       <c r="B342" s="3">
-        <v>4403</v>
+        <v>4000</v>
       </c>
       <c r="C342" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
@@ -5718,6 +5724,7 @@
     <hyperlink ref="F1" r:id="rId1" xr:uid="{CEE98ABE-90F0-4523-BB10-4214F81ADED0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228321EE-C835-4876-A8A0-D246376DE1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FBF595-CCA4-4D68-BEC6-3F686626483B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="5970" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15570" yWindow="5550" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F356"/>
+  <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I214" sqref="I214"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I212" sqref="I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3645,44 +3645,42 @@
     </row>
     <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>416130</v>
+        <v>416122</v>
       </c>
       <c r="B206" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C206" s="4">
-        <v>116121</v>
-      </c>
-      <c r="D206" s="5"/>
+        <v>21612</v>
+      </c>
+      <c r="D206" s="5">
+        <v>1</v>
+      </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="2">
+    <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>416130</v>
+      </c>
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+      <c r="C207" s="4"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
         <v>417100</v>
       </c>
-      <c r="B208" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C208" s="4">
+      <c r="B209" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C209" s="4">
         <v>60007</v>
-      </c>
-      <c r="D208" s="5">
-        <v>1</v>
-      </c>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="2">
-        <v>417101</v>
-      </c>
-      <c r="B209" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C209" s="4">
-        <v>60008</v>
       </c>
       <c r="D209" s="5">
         <v>1</v>
@@ -3692,13 +3690,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>417102</v>
+        <v>417101</v>
       </c>
       <c r="B210" s="3">
         <v>4102</v>
       </c>
       <c r="C210" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D210" s="5">
         <v>1</v>
@@ -3708,27 +3706,29 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>417110</v>
+        <v>417102</v>
       </c>
       <c r="B211" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C211" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D211" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D211" s="5">
+        <v>1</v>
+      </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>417120</v>
+        <v>417110</v>
       </c>
       <c r="B212" s="3">
         <v>4400</v>
       </c>
       <c r="C212" s="4">
-        <v>117110</v>
+        <v>117100</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
@@ -3736,29 +3736,27 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>417130</v>
+        <v>417120</v>
       </c>
       <c r="B213" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C213" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D213" s="5">
-        <v>2</v>
-      </c>
+        <v>117110</v>
+      </c>
+      <c r="D213" s="5"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>417131</v>
+        <v>417130</v>
       </c>
       <c r="B214" s="3">
         <v>4102</v>
       </c>
       <c r="C214" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D214" s="5">
         <v>2</v>
@@ -3768,13 +3766,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>417132</v>
+        <v>417131</v>
       </c>
       <c r="B215" s="3">
         <v>4102</v>
       </c>
       <c r="C215" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D215" s="5">
         <v>2</v>
@@ -3784,27 +3782,29 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>417133</v>
+        <v>417132</v>
       </c>
       <c r="B216" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C216" s="4">
-        <v>117120</v>
-      </c>
-      <c r="D216" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D216" s="5">
+        <v>2</v>
+      </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>417134</v>
+        <v>417133</v>
       </c>
       <c r="B217" s="3">
         <v>4400</v>
       </c>
       <c r="C217" s="4">
-        <v>116110</v>
+        <v>117120</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
@@ -3812,13 +3812,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>417140</v>
+        <v>417134</v>
       </c>
       <c r="B218" s="3">
         <v>4400</v>
       </c>
       <c r="C218" s="4">
-        <v>117130</v>
+        <v>116110</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
@@ -3826,107 +3826,107 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>417141</v>
+        <v>417140</v>
       </c>
       <c r="B219" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C219" s="4">
-        <v>21714</v>
-      </c>
-      <c r="D219" s="5">
-        <v>1</v>
-      </c>
+        <v>117130</v>
+      </c>
+      <c r="D219" s="5"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>417150</v>
+        <v>417141</v>
       </c>
       <c r="B220" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C220" s="4">
-        <v>117141</v>
-      </c>
-      <c r="D220" s="5"/>
+        <v>21714</v>
+      </c>
+      <c r="D220" s="5">
+        <v>1</v>
+      </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>417151</v>
+        <v>417150</v>
       </c>
       <c r="B221" s="3">
         <v>4400</v>
       </c>
       <c r="C221" s="4">
-        <v>117140</v>
+        <v>117141</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
-      <c r="F222" s="6"/>
+      <c r="A222" s="2">
+        <v>417151</v>
+      </c>
+      <c r="B222" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C222" s="4">
+        <v>117140</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>418100</v>
-      </c>
-      <c r="B223" s="3">
-        <v>0</v>
-      </c>
-      <c r="C223" s="4"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>418110</v>
+        <v>418100</v>
       </c>
       <c r="B224" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C224" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D224" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="5"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>418111</v>
+        <v>418110</v>
       </c>
       <c r="B225" s="3">
-        <v>4000</v>
+        <v>4102</v>
       </c>
       <c r="C225" s="4">
-        <v>20</v>
-      </c>
-      <c r="D225" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D225" s="5">
+        <v>1</v>
+      </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>418112</v>
+        <v>418111</v>
       </c>
       <c r="B226" s="3">
-        <v>4506</v>
+        <v>4000</v>
       </c>
       <c r="C226" s="4">
-        <v>61004</v>
+        <v>20</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="2"/>
@@ -3934,43 +3934,43 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>418113</v>
+        <v>418112</v>
       </c>
       <c r="B227" s="3">
-        <v>4403</v>
+        <v>4506</v>
       </c>
       <c r="C227" s="4">
-        <v>21811</v>
-      </c>
-      <c r="D227" s="5">
-        <v>1</v>
-      </c>
+        <v>61004</v>
+      </c>
+      <c r="D227" s="5"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>418114</v>
+        <v>418113</v>
       </c>
       <c r="B228" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C228" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D228" s="5"/>
+        <v>21811</v>
+      </c>
+      <c r="D228" s="5">
+        <v>1</v>
+      </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>418115</v>
+        <v>418114</v>
       </c>
       <c r="B229" s="3">
         <v>4400</v>
       </c>
       <c r="C229" s="4">
-        <v>118115</v>
+        <v>118114</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
@@ -3978,51 +3978,49 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>418116</v>
+        <v>418115</v>
       </c>
       <c r="B230" s="3">
         <v>4400</v>
       </c>
       <c r="C230" s="4">
-        <v>118116</v>
+        <v>118115</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="6"/>
+      <c r="A231" s="2">
+        <v>418116</v>
+      </c>
+      <c r="B231" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C231" s="4">
+        <v>118116</v>
+      </c>
+      <c r="D231" s="5"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="2">
-        <v>419100</v>
-      </c>
-      <c r="B232" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C232" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D232" s="5">
-        <v>1</v>
-      </c>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
+      <c r="A232" s="6"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>419101</v>
+        <v>419100</v>
       </c>
       <c r="B233" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C233" s="4">
-        <v>21910</v>
+        <v>60009</v>
       </c>
       <c r="D233" s="5">
         <v>1</v>
@@ -4032,113 +4030,115 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>419110</v>
+        <v>419101</v>
       </c>
       <c r="B234" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C234" s="4">
-        <v>60009</v>
+        <v>21910</v>
       </c>
       <c r="D234" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>419111</v>
+        <v>419110</v>
       </c>
       <c r="B235" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C235" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D235" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D235" s="5">
+        <v>2</v>
+      </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>419112</v>
+        <v>419111</v>
       </c>
       <c r="B236" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C236" s="4">
-        <v>21911</v>
-      </c>
-      <c r="D236" s="5">
-        <v>1</v>
-      </c>
+        <v>119100</v>
+      </c>
+      <c r="D236" s="5"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>419120</v>
+        <v>419112</v>
       </c>
       <c r="B237" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C237" s="4">
-        <v>60009</v>
+        <v>21911</v>
       </c>
       <c r="D237" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>419121</v>
+        <v>419120</v>
       </c>
       <c r="B238" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C238" s="4">
-        <v>119110</v>
-      </c>
-      <c r="D238" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D238" s="5">
+        <v>3</v>
+      </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>419122</v>
+        <v>419121</v>
       </c>
       <c r="B239" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C239" s="4">
-        <v>21912</v>
-      </c>
-      <c r="D239" s="5">
-        <v>1</v>
-      </c>
+        <v>119110</v>
+      </c>
+      <c r="D239" s="5"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>419130</v>
+        <v>419122</v>
       </c>
       <c r="B240" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C240" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D240" s="5"/>
+        <v>21912</v>
+      </c>
+      <c r="D240" s="5">
+        <v>1</v>
+      </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>419140</v>
+        <v>419130</v>
       </c>
       <c r="B241" s="3">
         <v>4400</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>419150</v>
+        <v>419140</v>
       </c>
       <c r="B242" s="3">
         <v>4400</v>
@@ -4165,32 +4165,30 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6"/>
+      <c r="A243" s="2">
+        <v>419150</v>
+      </c>
+      <c r="B243" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C243" s="4">
+        <v>119121</v>
+      </c>
+      <c r="D243" s="5"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="2">
-        <v>420100</v>
-      </c>
-      <c r="B244" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C244" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D244" s="5">
-        <v>1</v>
-      </c>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
+      <c r="A244" s="6"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>420110</v>
+        <v>420100</v>
       </c>
       <c r="B245" s="3">
         <v>4102</v>
@@ -4199,34 +4197,36 @@
         <v>60010</v>
       </c>
       <c r="D245" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>420111</v>
+        <v>420110</v>
       </c>
       <c r="B246" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C246" s="4">
-        <v>120100</v>
-      </c>
-      <c r="D246" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D246" s="5">
+        <v>2</v>
+      </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>420120</v>
+        <v>420111</v>
       </c>
       <c r="B247" s="3">
         <v>4400</v>
       </c>
       <c r="C247" s="4">
-        <v>120110</v>
+        <v>120100</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
@@ -4234,43 +4234,43 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>420121</v>
+        <v>420120</v>
       </c>
       <c r="B248" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C248" s="4">
-        <v>22012</v>
-      </c>
-      <c r="D248" s="5">
-        <v>1</v>
-      </c>
+        <v>120110</v>
+      </c>
+      <c r="D248" s="5"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>420130</v>
+        <v>420121</v>
       </c>
       <c r="B249" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C249" s="4">
-        <v>120121</v>
-      </c>
-      <c r="D249" s="5"/>
+        <v>22012</v>
+      </c>
+      <c r="D249" s="5">
+        <v>1</v>
+      </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>420140</v>
+        <v>420130</v>
       </c>
       <c r="B250" s="3">
         <v>4400</v>
       </c>
       <c r="C250" s="4">
-        <v>120160</v>
+        <v>120121</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="2"/>
@@ -4278,13 +4278,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>420141</v>
+        <v>420140</v>
       </c>
       <c r="B251" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C251" s="4">
-        <v>60011</v>
+        <v>120160</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="2"/>
@@ -4292,13 +4292,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>420142</v>
+        <v>420141</v>
       </c>
       <c r="B252" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C252" s="4">
-        <v>121110</v>
+        <v>60011</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="2"/>
@@ -4306,13 +4306,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>420150</v>
+        <v>420142</v>
       </c>
       <c r="B253" s="3">
         <v>4400</v>
       </c>
       <c r="C253" s="4">
-        <v>120160</v>
+        <v>121110</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="2"/>
@@ -4320,13 +4320,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>420151</v>
+        <v>420150</v>
       </c>
       <c r="B254" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C254" s="4">
-        <v>60011</v>
+        <v>120160</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
@@ -4334,13 +4334,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>420152</v>
+        <v>420151</v>
       </c>
       <c r="B255" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C255" s="4">
-        <v>121100</v>
+        <v>60011</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="2"/>
@@ -4348,13 +4348,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>420160</v>
+        <v>420152</v>
       </c>
       <c r="B256" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C256" s="4">
-        <v>60010</v>
+        <v>121100</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="2"/>
@@ -4362,43 +4362,43 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>420161</v>
+        <v>420160</v>
       </c>
       <c r="B257" s="3">
-        <v>4102</v>
+        <v>4111</v>
       </c>
       <c r="C257" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D257" s="5">
-        <v>1</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D257" s="5"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>420162</v>
+        <v>420161</v>
       </c>
       <c r="B258" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C258" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D258" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D258" s="5">
+        <v>1</v>
+      </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>420163</v>
+        <v>420162</v>
       </c>
       <c r="B259" s="3">
         <v>4400</v>
       </c>
       <c r="C259" s="4">
-        <v>121100</v>
+        <v>121110</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
@@ -4406,13 +4406,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>420164</v>
+        <v>420163</v>
       </c>
       <c r="B260" s="3">
         <v>4400</v>
       </c>
       <c r="C260" s="4">
-        <v>120130</v>
+        <v>121100</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
@@ -4420,65 +4420,65 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>420165</v>
+        <v>420164</v>
       </c>
       <c r="B261" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C261" s="4">
-        <v>30</v>
+        <v>120130</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="9"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6"/>
+      <c r="A262" s="2">
+        <v>420165</v>
+      </c>
+      <c r="B262" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C262" s="4">
+        <v>30</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>421100</v>
-      </c>
-      <c r="B263" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C263" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D263" s="5">
-        <v>1</v>
-      </c>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
+      <c r="A263" s="9"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>421101</v>
+        <v>421100</v>
       </c>
       <c r="B264" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C264" s="4">
-        <v>100031</v>
-      </c>
-      <c r="D264" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D264" s="5">
+        <v>1</v>
+      </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>421110</v>
+        <v>421101</v>
       </c>
       <c r="B265" s="3">
         <v>4400</v>
       </c>
       <c r="C265" s="4">
-        <v>121100</v>
+        <v>100031</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>421111</v>
+        <v>421110</v>
       </c>
       <c r="B266" s="3">
         <v>4400</v>
       </c>
       <c r="C266" s="4">
-        <v>113121</v>
+        <v>121100</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
@@ -4500,43 +4500,43 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>421112</v>
+        <v>421111</v>
       </c>
       <c r="B267" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C267" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D267" s="5">
-        <v>2</v>
-      </c>
+        <v>113121</v>
+      </c>
+      <c r="D267" s="5"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>421113</v>
+        <v>421112</v>
       </c>
       <c r="B268" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C268" s="4">
-        <v>113120</v>
-      </c>
-      <c r="D268" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D268" s="5">
+        <v>2</v>
+      </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>421120</v>
+        <v>421113</v>
       </c>
       <c r="B269" s="3">
         <v>4400</v>
       </c>
       <c r="C269" s="4">
-        <v>121110</v>
+        <v>113120</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
@@ -4544,13 +4544,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>421121</v>
+        <v>421120</v>
       </c>
       <c r="B270" s="3">
         <v>4400</v>
       </c>
       <c r="C270" s="4">
-        <v>120121</v>
+        <v>121110</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
@@ -4558,13 +4558,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>421122</v>
+        <v>421121</v>
       </c>
       <c r="B271" s="3">
         <v>4400</v>
       </c>
       <c r="C271" s="4">
-        <v>120160</v>
+        <v>120121</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
@@ -4572,13 +4572,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>421123</v>
+        <v>421122</v>
       </c>
       <c r="B272" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C272" s="4">
-        <v>30</v>
+        <v>120160</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
@@ -4586,43 +4586,43 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>421124</v>
+        <v>421123</v>
       </c>
       <c r="B273" s="3">
-        <v>4102</v>
+        <v>4000</v>
       </c>
       <c r="C273" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D273" s="5">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D273" s="5"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>421130</v>
+        <v>421124</v>
       </c>
       <c r="B274" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C274" s="4">
-        <v>100032</v>
-      </c>
-      <c r="D274" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D274" s="5">
+        <v>3</v>
+      </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>421140</v>
+        <v>421130</v>
       </c>
       <c r="B275" s="3">
         <v>4400</v>
       </c>
       <c r="C275" s="4">
-        <v>121130</v>
+        <v>100032</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
@@ -4630,73 +4630,73 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>421141</v>
+        <v>421140</v>
       </c>
       <c r="B276" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C276" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D276" s="5">
-        <v>1</v>
-      </c>
+        <v>121130</v>
+      </c>
+      <c r="D276" s="5"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>421150</v>
+        <v>421141</v>
       </c>
       <c r="B277" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C277" s="4">
-        <v>121140</v>
-      </c>
-      <c r="D277" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D277" s="5">
+        <v>1</v>
+      </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>421151</v>
+        <v>421150</v>
       </c>
       <c r="B278" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C278" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D278" s="5">
-        <v>2</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D278" s="5"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>421160</v>
+        <v>421151</v>
       </c>
       <c r="B279" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C279" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D279" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D279" s="5">
+        <v>2</v>
+      </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>421161</v>
+        <v>421160</v>
       </c>
       <c r="B280" s="3">
         <v>4400</v>
       </c>
       <c r="C280" s="4">
-        <v>120160</v>
+        <v>121150</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
@@ -4704,13 +4704,13 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>421162</v>
+        <v>421161</v>
       </c>
       <c r="B281" s="3">
         <v>4400</v>
       </c>
       <c r="C281" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
@@ -4718,43 +4718,43 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>421163</v>
+        <v>421162</v>
       </c>
       <c r="B282" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C282" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D282" s="5">
-        <v>3</v>
-      </c>
+        <v>120130</v>
+      </c>
+      <c r="D282" s="5"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>421170</v>
+        <v>421163</v>
       </c>
       <c r="B283" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C283" s="4">
-        <v>121160</v>
-      </c>
-      <c r="D283" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D283" s="5">
+        <v>3</v>
+      </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>421171</v>
+        <v>421170</v>
       </c>
       <c r="B284" s="3">
         <v>4400</v>
       </c>
       <c r="C284" s="4">
-        <v>120160</v>
+        <v>121160</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
@@ -4762,13 +4762,13 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>421172</v>
+        <v>421171</v>
       </c>
       <c r="B285" s="3">
         <v>4400</v>
       </c>
       <c r="C285" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
@@ -4776,13 +4776,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>421180</v>
+        <v>421172</v>
       </c>
       <c r="B286" s="3">
         <v>4400</v>
       </c>
       <c r="C286" s="4">
-        <v>121130</v>
+        <v>120130</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
@@ -4790,13 +4790,13 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>421181</v>
+        <v>421180</v>
       </c>
       <c r="B287" s="3">
         <v>4400</v>
       </c>
       <c r="C287" s="4">
-        <v>120160</v>
+        <v>121130</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
@@ -4804,49 +4804,49 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>421182</v>
+        <v>421181</v>
       </c>
       <c r="B288" s="3">
         <v>4400</v>
       </c>
       <c r="C288" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="6"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="6"/>
-      <c r="D289" s="6"/>
-      <c r="E289" s="6"/>
-      <c r="F289" s="6"/>
+      <c r="A289" s="2">
+        <v>421182</v>
+      </c>
+      <c r="B289" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C289" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D289" s="5"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="2">
-        <v>430000</v>
-      </c>
-      <c r="B290" s="3">
-        <v>4505</v>
-      </c>
-      <c r="C290" s="4">
-        <v>20</v>
-      </c>
-      <c r="D290" s="5"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
+      <c r="A290" s="6"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>430010</v>
+        <v>430000</v>
       </c>
       <c r="B291" s="3">
-        <v>4001</v>
+        <v>4505</v>
       </c>
       <c r="C291" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
@@ -4854,13 +4854,13 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>430020</v>
+        <v>430010</v>
       </c>
       <c r="B292" s="3">
         <v>4001</v>
       </c>
       <c r="C292" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
@@ -4868,13 +4868,13 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>430021</v>
+        <v>430020</v>
       </c>
       <c r="B293" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C293" s="4">
-        <v>130010</v>
+        <v>60</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="2"/>
@@ -4882,13 +4882,13 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>430030</v>
+        <v>430021</v>
       </c>
       <c r="B294" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C294" s="4">
-        <v>30</v>
+        <v>130010</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
@@ -4896,13 +4896,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>430031</v>
+        <v>430030</v>
       </c>
       <c r="B295" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C295" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
@@ -4910,13 +4910,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>430040</v>
+        <v>430031</v>
       </c>
       <c r="B296" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C296" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
@@ -4924,13 +4924,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>430041</v>
+        <v>430040</v>
       </c>
       <c r="B297" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C297" s="4">
-        <v>130120</v>
+        <v>40</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
@@ -4938,13 +4938,13 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>430050</v>
+        <v>430041</v>
       </c>
       <c r="B298" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C298" s="4">
-        <v>50</v>
+        <v>130120</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
@@ -4952,13 +4952,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>430051</v>
+        <v>430050</v>
       </c>
       <c r="B299" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C299" s="4">
-        <v>130150</v>
+        <v>50</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
@@ -4966,13 +4966,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>430052</v>
+        <v>430051</v>
       </c>
       <c r="B300" s="3">
         <v>4400</v>
       </c>
       <c r="C300" s="4">
-        <v>116101</v>
+        <v>130150</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
@@ -4980,13 +4980,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>430060</v>
+        <v>430052</v>
       </c>
       <c r="B301" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C301" s="4">
-        <v>30</v>
+        <v>116101</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
@@ -4994,13 +4994,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>430061</v>
+        <v>430060</v>
       </c>
       <c r="B302" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C302" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
@@ -5008,13 +5008,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>430070</v>
+        <v>430061</v>
       </c>
       <c r="B303" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C303" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
@@ -5022,13 +5022,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>430071</v>
+        <v>430070</v>
       </c>
       <c r="B304" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C304" s="4">
-        <v>130130</v>
+        <v>40</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
@@ -5036,13 +5036,13 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>430080</v>
+        <v>430071</v>
       </c>
       <c r="B305" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C305" s="4">
-        <v>50</v>
+        <v>130130</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
@@ -5050,13 +5050,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>430081</v>
+        <v>430080</v>
       </c>
       <c r="B306" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C306" s="4">
-        <v>130160</v>
+        <v>50</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
@@ -5064,13 +5064,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>430082</v>
+        <v>430081</v>
       </c>
       <c r="B307" s="3">
         <v>4400</v>
       </c>
       <c r="C307" s="4">
-        <v>118110</v>
+        <v>130160</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
@@ -5078,13 +5078,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>430090</v>
+        <v>430082</v>
       </c>
       <c r="B308" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C308" s="4">
-        <v>30</v>
+        <v>118110</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
@@ -5092,13 +5092,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>430091</v>
+        <v>430090</v>
       </c>
       <c r="B309" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C309" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
@@ -5106,13 +5106,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>430100</v>
+        <v>430091</v>
       </c>
       <c r="B310" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C310" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
@@ -5120,13 +5120,13 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>430101</v>
+        <v>430100</v>
       </c>
       <c r="B311" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C311" s="4">
-        <v>130140</v>
+        <v>40</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
@@ -5134,13 +5134,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>430110</v>
+        <v>430101</v>
       </c>
       <c r="B312" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C312" s="4">
-        <v>50</v>
+        <v>130140</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
@@ -5148,13 +5148,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>430111</v>
+        <v>430110</v>
       </c>
       <c r="B313" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C313" s="4">
-        <v>130170</v>
+        <v>50</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
@@ -5162,13 +5162,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>430112</v>
+        <v>430111</v>
       </c>
       <c r="B314" s="3">
         <v>4400</v>
       </c>
       <c r="C314" s="4">
-        <v>121110</v>
+        <v>130170</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
@@ -5176,43 +5176,43 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>430113</v>
+        <v>430112</v>
       </c>
       <c r="B315" s="3">
-        <v>4114</v>
+        <v>4400</v>
       </c>
       <c r="C315" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D315" s="5">
-        <v>4</v>
-      </c>
+        <v>121110</v>
+      </c>
+      <c r="D315" s="5"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>430120</v>
+        <v>430113</v>
       </c>
       <c r="B316" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C316" s="4">
-        <v>130030</v>
-      </c>
-      <c r="D316" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D316" s="5">
+        <v>4</v>
+      </c>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>430130</v>
+        <v>430120</v>
       </c>
       <c r="B317" s="3">
         <v>4400</v>
       </c>
       <c r="C317" s="4">
-        <v>130060</v>
+        <v>130030</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
@@ -5220,13 +5220,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>430140</v>
+        <v>430130</v>
       </c>
       <c r="B318" s="3">
         <v>4400</v>
       </c>
       <c r="C318" s="4">
-        <v>130090</v>
+        <v>130060</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
@@ -5234,13 +5234,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>430150</v>
+        <v>430140</v>
       </c>
       <c r="B319" s="3">
         <v>4400</v>
       </c>
       <c r="C319" s="4">
-        <v>130040</v>
+        <v>130090</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
@@ -5248,13 +5248,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>430151</v>
+        <v>430150</v>
       </c>
       <c r="B320" s="3">
         <v>4400</v>
       </c>
       <c r="C320" s="4">
-        <v>130120</v>
+        <v>130040</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
@@ -5262,13 +5262,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>430160</v>
+        <v>430151</v>
       </c>
       <c r="B321" s="3">
         <v>4400</v>
       </c>
       <c r="C321" s="4">
-        <v>130070</v>
+        <v>130120</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
@@ -5276,13 +5276,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>430161</v>
+        <v>430160</v>
       </c>
       <c r="B322" s="3">
         <v>4400</v>
       </c>
       <c r="C322" s="4">
-        <v>130130</v>
+        <v>130070</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
@@ -5290,13 +5290,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>430170</v>
+        <v>430161</v>
       </c>
       <c r="B323" s="3">
         <v>4400</v>
       </c>
       <c r="C323" s="4">
-        <v>130100</v>
+        <v>130130</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
@@ -5304,13 +5304,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>430171</v>
+        <v>430170</v>
       </c>
       <c r="B324" s="3">
         <v>4400</v>
       </c>
       <c r="C324" s="4">
-        <v>130140</v>
+        <v>130100</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
@@ -5318,49 +5318,49 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>430180</v>
+        <v>430171</v>
       </c>
       <c r="B325" s="3">
-        <v>4505</v>
+        <v>4400</v>
       </c>
       <c r="C325" s="4">
-        <v>0</v>
+        <v>130140</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="6"/>
-      <c r="B326" s="6"/>
-      <c r="C326" s="6"/>
-      <c r="D326" s="6"/>
-      <c r="E326" s="6"/>
-      <c r="F326" s="6"/>
+      <c r="A326" s="2">
+        <v>430180</v>
+      </c>
+      <c r="B326" s="3">
+        <v>4505</v>
+      </c>
+      <c r="C326" s="4">
+        <v>0</v>
+      </c>
+      <c r="D326" s="5"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B327" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C327" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D327" s="5"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
+      <c r="A327" s="6"/>
+      <c r="B327" s="6"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6"/>
+      <c r="F327" s="6"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>450001</v>
+        <v>450000</v>
       </c>
       <c r="B328" s="3">
         <v>4400</v>
       </c>
       <c r="C328" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
@@ -5368,13 +5368,13 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>450002</v>
+        <v>450001</v>
       </c>
       <c r="B329" s="3">
         <v>4400</v>
       </c>
       <c r="C329" s="4">
-        <v>112120</v>
+        <v>112110</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
@@ -5382,13 +5382,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>450003</v>
+        <v>450002</v>
       </c>
       <c r="B330" s="3">
         <v>4400</v>
       </c>
       <c r="C330" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
@@ -5396,13 +5396,13 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>450010</v>
+        <v>450003</v>
       </c>
       <c r="B331" s="3">
         <v>4400</v>
       </c>
       <c r="C331" s="4">
-        <v>101000</v>
+        <v>112130</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
@@ -5410,13 +5410,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>450011</v>
+        <v>450010</v>
       </c>
       <c r="B332" s="3">
         <v>4400</v>
       </c>
       <c r="C332" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
@@ -5424,13 +5424,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>450012</v>
+        <v>450011</v>
       </c>
       <c r="B333" s="3">
         <v>4400</v>
       </c>
       <c r="C333" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
@@ -5438,25 +5438,31 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>450013</v>
+        <v>450012</v>
       </c>
       <c r="B334" s="3">
         <v>4400</v>
       </c>
       <c r="C334" s="4">
-        <v>101040</v>
+        <v>101020</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="6"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-      <c r="E335" s="6"/>
-      <c r="F335" s="6"/>
+      <c r="A335" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B335" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C335" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D335" s="5"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
@@ -5467,28 +5473,22 @@
       <c r="F336" s="6"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="2">
-        <v>459000</v>
-      </c>
-      <c r="B337" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C337" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D337" s="5"/>
-      <c r="E337" s="2"/>
-      <c r="F337" s="2"/>
+      <c r="A337" s="6"/>
+      <c r="B337" s="6"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>459001</v>
+        <v>459000</v>
       </c>
       <c r="B338" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C338" s="4">
-        <v>2</v>
+        <v>559000</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
@@ -5496,13 +5496,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>459002</v>
+        <v>459001</v>
       </c>
       <c r="B339" s="3">
         <v>4005</v>
       </c>
       <c r="C339" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
@@ -5510,13 +5510,13 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>459003</v>
+        <v>459002</v>
       </c>
       <c r="B340" s="3">
         <v>4005</v>
       </c>
       <c r="C340" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
@@ -5524,13 +5524,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>459004</v>
+        <v>459003</v>
       </c>
       <c r="B341" s="3">
-        <v>4000</v>
+        <v>4005</v>
       </c>
       <c r="C341" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
@@ -5538,48 +5538,48 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>459005</v>
+        <v>459004</v>
       </c>
       <c r="B342" s="3">
         <v>4000</v>
       </c>
       <c r="C342" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
+      <c r="A343" s="2">
+        <v>459005</v>
+      </c>
+      <c r="B343" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C343" s="4">
+        <v>50</v>
+      </c>
+      <c r="D343" s="5"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B344" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C344" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D344" s="5"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="3"/>
+      <c r="A344" s="6"/>
+      <c r="B344" s="6"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>450001</v>
+        <v>450000</v>
       </c>
       <c r="B345" s="3">
         <v>4400</v>
       </c>
       <c r="C345" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
@@ -5587,13 +5587,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>450002</v>
+        <v>450001</v>
       </c>
       <c r="B346" s="3">
         <v>4400</v>
       </c>
       <c r="C346" s="4">
-        <v>112120</v>
+        <v>112110</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
@@ -5601,13 +5601,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>450003</v>
+        <v>450002</v>
       </c>
       <c r="B347" s="3">
         <v>4400</v>
       </c>
       <c r="C347" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="2"/>
@@ -5615,13 +5615,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>450010</v>
+        <v>450003</v>
       </c>
       <c r="B348" s="3">
         <v>4400</v>
       </c>
       <c r="C348" s="4">
-        <v>101000</v>
+        <v>112130</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="2"/>
@@ -5629,13 +5629,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>450011</v>
+        <v>450010</v>
       </c>
       <c r="B349" s="3">
         <v>4400</v>
       </c>
       <c r="C349" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="2"/>
@@ -5643,13 +5643,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>450012</v>
+        <v>450011</v>
       </c>
       <c r="B350" s="3">
         <v>4400</v>
       </c>
       <c r="C350" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
@@ -5657,66 +5657,80 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>450013</v>
+        <v>450012</v>
       </c>
       <c r="B351" s="3">
         <v>4400</v>
       </c>
       <c r="C351" s="4">
-        <v>101040</v>
+        <v>101020</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
       <c r="F351" s="3"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="6"/>
-      <c r="B352" s="6"/>
-      <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
-      <c r="E352" s="6"/>
+      <c r="A352" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B352" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C352" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="3"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353" s="2">
+      <c r="A353" s="6"/>
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" s="2">
         <v>459000</v>
       </c>
-      <c r="B353" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C353" s="4">
+      <c r="B354" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C354" s="4">
         <v>559000</v>
       </c>
-      <c r="D353" s="5"/>
-      <c r="E353" s="2"/>
-      <c r="F353" s="3"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" s="2">
-        <v>440030</v>
-      </c>
-      <c r="B355" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C355" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D355" s="5"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="3"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="3"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>440040</v>
+        <v>440030</v>
       </c>
       <c r="B356" s="3">
         <v>4400</v>
       </c>
       <c r="C356" s="4">
-        <v>140030</v>
+        <v>140020</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="2"/>
       <c r="F356" s="3"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="2">
+        <v>440040</v>
+      </c>
+      <c r="B357" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C357" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D357" s="5"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\正式工作\猫咪共济会\配置表\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FBF595-CCA4-4D68-BEC6-3F686626483B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE8ECB9-61E5-4BD7-8CE8-F6F196942FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15570" yWindow="5550" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="5370" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I212" sqref="I212"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,7 +905,9 @@
       <c r="C20" s="4">
         <v>60000</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
@@ -1404,14 +1406,10 @@
         <v>414001</v>
       </c>
       <c r="B52" s="3">
-        <v>4501</v>
-      </c>
-      <c r="C52" s="4">
-        <v>110</v>
-      </c>
-      <c r="D52" s="5">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\正式工作\猫咪共济会\配置表\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE8ECB9-61E5-4BD7-8CE8-F6F196942FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85471D48-763B-47E1-B774-A78314E13C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="5370" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11595" yWindow="4335" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:F360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D122"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K166" sqref="K166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3061,7 +3061,7 @@
         <v>4400</v>
       </c>
       <c r="C164" s="4">
-        <v>121120</v>
+        <v>113110</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
@@ -3292,73 +3292,75 @@
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>415110</v>
+        <v>415101</v>
       </c>
       <c r="B181" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C181" s="4">
-        <v>60005</v>
+        <v>21510</v>
       </c>
       <c r="D181" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>415111</v>
+        <v>415110</v>
       </c>
       <c r="B182" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C182" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D182" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D182" s="5">
+        <v>2</v>
+      </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>415120</v>
+        <v>415111</v>
       </c>
       <c r="B183" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C183" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D183" s="5">
-        <v>3</v>
-      </c>
+        <v>115100</v>
+      </c>
+      <c r="D183" s="5"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>415121</v>
+        <v>415120</v>
       </c>
       <c r="B184" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C184" s="4">
-        <v>115101</v>
-      </c>
-      <c r="D184" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D184" s="5">
+        <v>3</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>415122</v>
+        <v>415121</v>
       </c>
       <c r="B185" s="3">
         <v>4400</v>
       </c>
       <c r="C185" s="4">
-        <v>115111</v>
+        <v>115101</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
@@ -3366,29 +3368,27 @@
     </row>
     <row r="186" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>415130</v>
+        <v>415122</v>
       </c>
       <c r="B186" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C186" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D186" s="5">
-        <v>3</v>
-      </c>
+        <v>115111</v>
+      </c>
+      <c r="D186" s="5"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>415131</v>
+        <v>415123</v>
       </c>
       <c r="B187" s="3">
         <v>4400</v>
       </c>
       <c r="C187" s="4">
-        <v>115112</v>
+        <v>115170</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
@@ -3396,27 +3396,29 @@
     </row>
     <row r="188" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>415140</v>
+        <v>415130</v>
       </c>
       <c r="B188" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C188" s="4">
-        <v>115102</v>
-      </c>
-      <c r="D188" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D188" s="5">
+        <v>3</v>
+      </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>415141</v>
+        <v>415131</v>
       </c>
       <c r="B189" s="3">
         <v>4400</v>
       </c>
       <c r="C189" s="4">
-        <v>115111</v>
+        <v>115112</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
@@ -3424,13 +3426,13 @@
     </row>
     <row r="190" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>415150</v>
+        <v>415132</v>
       </c>
       <c r="B190" s="3">
         <v>4400</v>
       </c>
       <c r="C190" s="4">
-        <v>115102</v>
+        <v>115170</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
@@ -3438,13 +3440,13 @@
     </row>
     <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>415151</v>
+        <v>415140</v>
       </c>
       <c r="B191" s="3">
         <v>4400</v>
       </c>
       <c r="C191" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
@@ -3452,13 +3454,13 @@
     </row>
     <row r="192" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>415160</v>
+        <v>415141</v>
       </c>
       <c r="B192" s="3">
         <v>4400</v>
       </c>
       <c r="C192" s="4">
-        <v>115102</v>
+        <v>115111</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="2"/>
@@ -3466,13 +3468,13 @@
     </row>
     <row r="193" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>415161</v>
+        <v>415150</v>
       </c>
       <c r="B193" s="3">
         <v>4400</v>
       </c>
       <c r="C193" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
@@ -3480,13 +3482,13 @@
     </row>
     <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>415170</v>
+        <v>415151</v>
       </c>
       <c r="B194" s="3">
         <v>4400</v>
       </c>
       <c r="C194" s="4">
-        <v>118114</v>
+        <v>115111</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="2"/>
@@ -3494,29 +3496,27 @@
     </row>
     <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>415171</v>
+        <v>415160</v>
       </c>
       <c r="B195" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C195" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D195" s="5">
-        <v>3</v>
-      </c>
+        <v>115102</v>
+      </c>
+      <c r="D195" s="5"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>415172</v>
+        <v>415161</v>
       </c>
       <c r="B196" s="3">
         <v>4400</v>
       </c>
       <c r="C196" s="4">
-        <v>115120</v>
+        <v>115111</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="2"/>
@@ -3524,13 +3524,13 @@
     </row>
     <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>415173</v>
+        <v>415170</v>
       </c>
       <c r="B197" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C197" s="4">
-        <v>4</v>
+        <v>118114</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
@@ -3538,147 +3538,162 @@
     </row>
     <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>415180</v>
+        <v>415171</v>
       </c>
       <c r="B198" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C198" s="4">
-        <v>115170</v>
-      </c>
-      <c r="D198" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D198" s="5">
+        <v>3</v>
+      </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>415172</v>
+      </c>
+      <c r="B199" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C199" s="4">
+        <v>115120</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+    </row>
     <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>416100</v>
+        <v>415173</v>
       </c>
       <c r="B200" s="3">
-        <v>4102</v>
+        <v>4005</v>
       </c>
       <c r="C200" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D200" s="5">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D200" s="5"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>416101</v>
+        <v>415180</v>
       </c>
       <c r="B201" s="3">
         <v>4400</v>
       </c>
       <c r="C201" s="4">
-        <v>116101</v>
+        <v>115170</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>416110</v>
-      </c>
-      <c r="B202" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C202" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D202" s="5">
-        <v>2</v>
-      </c>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-    </row>
+    <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="203" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>416111</v>
+        <v>416100</v>
       </c>
       <c r="B203" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C203" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D203" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D203" s="5">
+        <v>1</v>
+      </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>416120</v>
+        <v>416101</v>
       </c>
       <c r="B204" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C204" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D204" s="5">
-        <v>3</v>
-      </c>
+        <v>116101</v>
+      </c>
+      <c r="D204" s="5"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>416121</v>
+        <v>416110</v>
       </c>
       <c r="B205" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C205" s="4">
-        <v>116110</v>
-      </c>
-      <c r="D205" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D205" s="5">
+        <v>2</v>
+      </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>416122</v>
+        <v>416111</v>
       </c>
       <c r="B206" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C206" s="4">
-        <v>21612</v>
-      </c>
-      <c r="D206" s="5">
-        <v>1</v>
-      </c>
+        <v>116100</v>
+      </c>
+      <c r="D206" s="5"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>416130</v>
+        <v>416120</v>
       </c>
       <c r="B207" s="3">
-        <v>0</v>
-      </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C207" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D207" s="5">
+        <v>3</v>
+      </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>416121</v>
+      </c>
+      <c r="B208" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C208" s="4">
+        <v>116110</v>
+      </c>
+      <c r="D208" s="5"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+    </row>
     <row r="209" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>417100</v>
+        <v>416122</v>
       </c>
       <c r="B209" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C209" s="4">
-        <v>60007</v>
+        <v>21612</v>
       </c>
       <c r="D209" s="5">
         <v>1</v>
@@ -3686,181 +3701,166 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>417101</v>
+        <v>416130</v>
       </c>
       <c r="B210" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C210" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D210" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C210" s="4"/>
+      <c r="D210" s="5"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>417102</v>
-      </c>
-      <c r="B211" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C211" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D211" s="5">
+    <row r="211" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>417100</v>
+      </c>
+      <c r="B212" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C212" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D212" s="5">
         <v>1</v>
       </c>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>417110</v>
-      </c>
-      <c r="B212" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C212" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D212" s="5"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>417120</v>
+        <v>417101</v>
       </c>
       <c r="B213" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C213" s="4">
-        <v>117110</v>
-      </c>
-      <c r="D213" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D213" s="5">
+        <v>1</v>
+      </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>417130</v>
+        <v>417102</v>
       </c>
       <c r="B214" s="3">
         <v>4102</v>
       </c>
       <c r="C214" s="4">
-        <v>60007</v>
+        <v>60009</v>
       </c>
       <c r="D214" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>417131</v>
+        <v>417110</v>
       </c>
       <c r="B215" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C215" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D215" s="5">
-        <v>2</v>
-      </c>
+        <v>117100</v>
+      </c>
+      <c r="D215" s="5"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>417132</v>
+        <v>417120</v>
       </c>
       <c r="B216" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C216" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D216" s="5">
-        <v>2</v>
-      </c>
+        <v>117110</v>
+      </c>
+      <c r="D216" s="5"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>417133</v>
+        <v>417130</v>
       </c>
       <c r="B217" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C217" s="4">
-        <v>117120</v>
-      </c>
-      <c r="D217" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D217" s="5">
+        <v>2</v>
+      </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>417134</v>
+        <v>417131</v>
       </c>
       <c r="B218" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C218" s="4">
-        <v>116110</v>
-      </c>
-      <c r="D218" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D218" s="5">
+        <v>2</v>
+      </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>417140</v>
+        <v>417132</v>
       </c>
       <c r="B219" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C219" s="4">
-        <v>117130</v>
-      </c>
-      <c r="D219" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D219" s="5">
+        <v>2</v>
+      </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>417141</v>
+        <v>417133</v>
       </c>
       <c r="B220" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C220" s="4">
-        <v>21714</v>
-      </c>
-      <c r="D220" s="5">
-        <v>1</v>
-      </c>
+        <v>117120</v>
+      </c>
+      <c r="D220" s="5"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>417150</v>
+        <v>417134</v>
       </c>
       <c r="B221" s="3">
         <v>4400</v>
       </c>
       <c r="C221" s="4">
-        <v>117141</v>
+        <v>116110</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="2"/>
@@ -3868,91 +3868,91 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>417151</v>
+        <v>417140</v>
       </c>
       <c r="B222" s="3">
         <v>4400</v>
       </c>
       <c r="C222" s="4">
-        <v>117140</v>
+        <v>117130</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
-      <c r="F223" s="6"/>
+      <c r="A223" s="2">
+        <v>417141</v>
+      </c>
+      <c r="B223" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C223" s="4">
+        <v>21714</v>
+      </c>
+      <c r="D223" s="5">
+        <v>1</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>418100</v>
+        <v>417150</v>
       </c>
       <c r="B224" s="3">
-        <v>0</v>
-      </c>
-      <c r="C224" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C224" s="4">
+        <v>117141</v>
+      </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>418110</v>
+        <v>417151</v>
       </c>
       <c r="B225" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C225" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D225" s="5">
-        <v>1</v>
-      </c>
+        <v>117140</v>
+      </c>
+      <c r="D225" s="5"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>418111</v>
-      </c>
-      <c r="B226" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C226" s="4">
-        <v>20</v>
-      </c>
-      <c r="D226" s="5"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>418112</v>
+        <v>418100</v>
       </c>
       <c r="B227" s="3">
-        <v>4506</v>
-      </c>
-      <c r="C227" s="4">
-        <v>61004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C227" s="4"/>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>418113</v>
+        <v>418110</v>
       </c>
       <c r="B228" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C228" s="4">
-        <v>21811</v>
+        <v>60008</v>
       </c>
       <c r="D228" s="5">
         <v>1</v>
@@ -3962,13 +3962,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>418114</v>
+        <v>418111</v>
       </c>
       <c r="B229" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C229" s="4">
-        <v>118114</v>
+        <v>20</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
@@ -3976,13 +3976,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>418115</v>
+        <v>418112</v>
       </c>
       <c r="B230" s="3">
-        <v>4400</v>
+        <v>4506</v>
       </c>
       <c r="C230" s="4">
-        <v>118115</v>
+        <v>61004</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
@@ -3990,97 +3990,95 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>418116</v>
+        <v>418113</v>
       </c>
       <c r="B231" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C231" s="4">
-        <v>118116</v>
-      </c>
-      <c r="D231" s="5"/>
+        <v>21811</v>
+      </c>
+      <c r="D231" s="5">
+        <v>1</v>
+      </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="6"/>
+      <c r="A232" s="2">
+        <v>418114</v>
+      </c>
+      <c r="B232" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C232" s="4">
+        <v>118114</v>
+      </c>
+      <c r="D232" s="5"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>419100</v>
+        <v>418115</v>
       </c>
       <c r="B233" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C233" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D233" s="5">
-        <v>1</v>
-      </c>
+        <v>118115</v>
+      </c>
+      <c r="D233" s="5"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>419101</v>
+        <v>418116</v>
       </c>
       <c r="B234" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C234" s="4">
-        <v>21910</v>
-      </c>
-      <c r="D234" s="5">
-        <v>1</v>
-      </c>
+        <v>118116</v>
+      </c>
+      <c r="D234" s="5"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="2">
-        <v>419110</v>
-      </c>
-      <c r="B235" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C235" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D235" s="5">
-        <v>2</v>
-      </c>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>419111</v>
+        <v>419100</v>
       </c>
       <c r="B236" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C236" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D236" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D236" s="5">
+        <v>1</v>
+      </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>419112</v>
+        <v>419101</v>
       </c>
       <c r="B237" s="3">
         <v>4403</v>
       </c>
       <c r="C237" s="4">
-        <v>21911</v>
+        <v>21910</v>
       </c>
       <c r="D237" s="5">
         <v>1</v>
@@ -4090,7 +4088,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>419120</v>
+        <v>419110</v>
       </c>
       <c r="B238" s="3">
         <v>4102</v>
@@ -4099,20 +4097,20 @@
         <v>60009</v>
       </c>
       <c r="D238" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>419121</v>
+        <v>419111</v>
       </c>
       <c r="B239" s="3">
         <v>4400</v>
       </c>
       <c r="C239" s="4">
-        <v>119110</v>
+        <v>119100</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="2"/>
@@ -4120,13 +4118,13 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>419122</v>
+        <v>419112</v>
       </c>
       <c r="B240" s="3">
         <v>4403</v>
       </c>
       <c r="C240" s="4">
-        <v>21912</v>
+        <v>21911</v>
       </c>
       <c r="D240" s="5">
         <v>1</v>
@@ -4136,27 +4134,29 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>419130</v>
+        <v>419120</v>
       </c>
       <c r="B241" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C241" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D241" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D241" s="5">
+        <v>3</v>
+      </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>419140</v>
+        <v>419121</v>
       </c>
       <c r="B242" s="3">
         <v>4400</v>
       </c>
       <c r="C242" s="4">
-        <v>119121</v>
+        <v>119110</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="2"/>
@@ -4164,111 +4164,111 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>419150</v>
+        <v>419122</v>
       </c>
       <c r="B243" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C243" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D243" s="5"/>
+        <v>21912</v>
+      </c>
+      <c r="D243" s="5">
+        <v>1</v>
+      </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="6"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6"/>
+      <c r="A244" s="2">
+        <v>419130</v>
+      </c>
+      <c r="B244" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C244" s="4">
+        <v>119121</v>
+      </c>
+      <c r="D244" s="5"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>420100</v>
+        <v>419140</v>
       </c>
       <c r="B245" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C245" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D245" s="5">
-        <v>1</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D245" s="5"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>420110</v>
+        <v>419150</v>
       </c>
       <c r="B246" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C246" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D246" s="5">
-        <v>2</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D246" s="5"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>420111</v>
-      </c>
-      <c r="B247" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C247" s="4">
-        <v>120100</v>
-      </c>
-      <c r="D247" s="5"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
+      <c r="A247" s="6"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>420120</v>
+        <v>420100</v>
       </c>
       <c r="B248" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C248" s="4">
-        <v>120110</v>
-      </c>
-      <c r="D248" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D248" s="5">
+        <v>1</v>
+      </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>420121</v>
+        <v>420110</v>
       </c>
       <c r="B249" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C249" s="4">
-        <v>22012</v>
+        <v>60010</v>
       </c>
       <c r="D249" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>420130</v>
+        <v>420111</v>
       </c>
       <c r="B250" s="3">
         <v>4400</v>
       </c>
       <c r="C250" s="4">
-        <v>120121</v>
+        <v>120100</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="2"/>
@@ -4276,13 +4276,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>420140</v>
+        <v>420120</v>
       </c>
       <c r="B251" s="3">
         <v>4400</v>
       </c>
       <c r="C251" s="4">
-        <v>120160</v>
+        <v>120110</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="2"/>
@@ -4290,27 +4290,29 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>420141</v>
+        <v>420121</v>
       </c>
       <c r="B252" s="3">
-        <v>4111</v>
+        <v>4403</v>
       </c>
       <c r="C252" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D252" s="5"/>
+        <v>22012</v>
+      </c>
+      <c r="D252" s="5">
+        <v>1</v>
+      </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>420142</v>
+        <v>420130</v>
       </c>
       <c r="B253" s="3">
         <v>4400</v>
       </c>
       <c r="C253" s="4">
-        <v>121110</v>
+        <v>120121</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="2"/>
@@ -4318,7 +4320,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>420150</v>
+        <v>420140</v>
       </c>
       <c r="B254" s="3">
         <v>4400</v>
@@ -4332,7 +4334,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>420151</v>
+        <v>420141</v>
       </c>
       <c r="B255" s="3">
         <v>4111</v>
@@ -4346,13 +4348,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>420152</v>
+        <v>420142</v>
       </c>
       <c r="B256" s="3">
         <v>4400</v>
       </c>
       <c r="C256" s="4">
-        <v>121100</v>
+        <v>121110</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="2"/>
@@ -4360,13 +4362,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>420160</v>
+        <v>420150</v>
       </c>
       <c r="B257" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C257" s="4">
-        <v>60010</v>
+        <v>120160</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="2"/>
@@ -4374,29 +4376,27 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>420161</v>
+        <v>420151</v>
       </c>
       <c r="B258" s="3">
-        <v>4102</v>
+        <v>4111</v>
       </c>
       <c r="C258" s="4">
         <v>60011</v>
       </c>
-      <c r="D258" s="5">
-        <v>1</v>
-      </c>
+      <c r="D258" s="5"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>420162</v>
+        <v>420152</v>
       </c>
       <c r="B259" s="3">
         <v>4400</v>
       </c>
       <c r="C259" s="4">
-        <v>121110</v>
+        <v>121100</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
@@ -4404,13 +4404,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>420163</v>
+        <v>420160</v>
       </c>
       <c r="B260" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C260" s="4">
-        <v>121100</v>
+        <v>60010</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
@@ -4418,123 +4418,123 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>420164</v>
+        <v>420161</v>
       </c>
       <c r="B261" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C261" s="4">
-        <v>120130</v>
-      </c>
-      <c r="D261" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D261" s="5">
+        <v>1</v>
+      </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>420165</v>
+        <v>420162</v>
       </c>
       <c r="B262" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C262" s="4">
-        <v>30</v>
+        <v>121110</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="9"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
+      <c r="A263" s="2">
+        <v>420163</v>
+      </c>
+      <c r="B263" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C263" s="4">
+        <v>121100</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>421100</v>
+        <v>420164</v>
       </c>
       <c r="B264" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C264" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D264" s="5">
-        <v>1</v>
-      </c>
+        <v>120130</v>
+      </c>
+      <c r="D264" s="5"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>421101</v>
+        <v>420165</v>
       </c>
       <c r="B265" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C265" s="4">
-        <v>100031</v>
+        <v>30</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
-        <v>421110</v>
-      </c>
-      <c r="B266" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C266" s="4">
-        <v>121100</v>
-      </c>
-      <c r="D266" s="5"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
+      <c r="A266" s="9"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>421111</v>
+        <v>421100</v>
       </c>
       <c r="B267" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C267" s="4">
-        <v>113121</v>
-      </c>
-      <c r="D267" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D267" s="5">
+        <v>1</v>
+      </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>421112</v>
+        <v>421101</v>
       </c>
       <c r="B268" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C268" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D268" s="5">
-        <v>2</v>
-      </c>
+        <v>100031</v>
+      </c>
+      <c r="D268" s="5"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>421113</v>
+        <v>421110</v>
       </c>
       <c r="B269" s="3">
         <v>4400</v>
       </c>
       <c r="C269" s="4">
-        <v>113120</v>
+        <v>121100</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
@@ -4542,13 +4542,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>421120</v>
+        <v>421111</v>
       </c>
       <c r="B270" s="3">
         <v>4400</v>
       </c>
       <c r="C270" s="4">
-        <v>121110</v>
+        <v>113121</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
@@ -4556,27 +4556,29 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>421121</v>
+        <v>421112</v>
       </c>
       <c r="B271" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C271" s="4">
-        <v>120121</v>
-      </c>
-      <c r="D271" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D271" s="5">
+        <v>2</v>
+      </c>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>421122</v>
+        <v>421113</v>
       </c>
       <c r="B272" s="3">
         <v>4400</v>
       </c>
       <c r="C272" s="4">
-        <v>120160</v>
+        <v>113120</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
@@ -4584,13 +4586,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>421123</v>
+        <v>421120</v>
       </c>
       <c r="B273" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C273" s="4">
-        <v>30</v>
+        <v>121110</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2"/>
@@ -4598,29 +4600,27 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>421124</v>
+        <v>421121</v>
       </c>
       <c r="B274" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C274" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D274" s="5">
-        <v>3</v>
-      </c>
+        <v>120121</v>
+      </c>
+      <c r="D274" s="5"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>421130</v>
+        <v>421122</v>
       </c>
       <c r="B275" s="3">
         <v>4400</v>
       </c>
       <c r="C275" s="4">
-        <v>100032</v>
+        <v>120160</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
@@ -4628,13 +4628,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>421140</v>
+        <v>421123</v>
       </c>
       <c r="B276" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C276" s="4">
-        <v>121130</v>
+        <v>30</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>421141</v>
+        <v>421124</v>
       </c>
       <c r="B277" s="3">
         <v>4102</v>
@@ -4651,20 +4651,20 @@
         <v>60011</v>
       </c>
       <c r="D277" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>421150</v>
+        <v>421130</v>
       </c>
       <c r="B278" s="3">
         <v>4400</v>
       </c>
       <c r="C278" s="4">
-        <v>121140</v>
+        <v>100032</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
@@ -4672,43 +4672,43 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>421151</v>
+        <v>421140</v>
       </c>
       <c r="B279" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C279" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D279" s="5">
-        <v>2</v>
-      </c>
+        <v>121130</v>
+      </c>
+      <c r="D279" s="5"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>421160</v>
+        <v>421141</v>
       </c>
       <c r="B280" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C280" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D280" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D280" s="5">
+        <v>1</v>
+      </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>421161</v>
+        <v>421150</v>
       </c>
       <c r="B281" s="3">
         <v>4400</v>
       </c>
       <c r="C281" s="4">
-        <v>120160</v>
+        <v>121140</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
@@ -4716,43 +4716,43 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>421162</v>
+        <v>421151</v>
       </c>
       <c r="B282" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C282" s="4">
-        <v>120130</v>
-      </c>
-      <c r="D282" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D282" s="5">
+        <v>2</v>
+      </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>421163</v>
+        <v>421160</v>
       </c>
       <c r="B283" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C283" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D283" s="5">
-        <v>3</v>
-      </c>
+        <v>121150</v>
+      </c>
+      <c r="D283" s="5"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>421170</v>
+        <v>421161</v>
       </c>
       <c r="B284" s="3">
         <v>4400</v>
       </c>
       <c r="C284" s="4">
-        <v>121160</v>
+        <v>120160</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
@@ -4760,13 +4760,13 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>421171</v>
+        <v>421162</v>
       </c>
       <c r="B285" s="3">
         <v>4400</v>
       </c>
       <c r="C285" s="4">
-        <v>120160</v>
+        <v>120130</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
@@ -4774,27 +4774,29 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>421172</v>
+        <v>421163</v>
       </c>
       <c r="B286" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C286" s="4">
-        <v>120130</v>
-      </c>
-      <c r="D286" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D286" s="5">
+        <v>3</v>
+      </c>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>421180</v>
+        <v>421170</v>
       </c>
       <c r="B287" s="3">
         <v>4400</v>
       </c>
       <c r="C287" s="4">
-        <v>121130</v>
+        <v>121160</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
@@ -4802,7 +4804,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>421181</v>
+        <v>421171</v>
       </c>
       <c r="B288" s="3">
         <v>4400</v>
@@ -4816,7 +4818,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>421182</v>
+        <v>421172</v>
       </c>
       <c r="B289" s="3">
         <v>4400</v>
@@ -4829,22 +4831,28 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="6"/>
-      <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
-      <c r="D290" s="6"/>
-      <c r="E290" s="6"/>
-      <c r="F290" s="6"/>
+      <c r="A290" s="2">
+        <v>421180</v>
+      </c>
+      <c r="B290" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C290" s="4">
+        <v>121130</v>
+      </c>
+      <c r="D290" s="5"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>430000</v>
+        <v>421181</v>
       </c>
       <c r="B291" s="3">
-        <v>4505</v>
+        <v>4400</v>
       </c>
       <c r="C291" s="4">
-        <v>20</v>
+        <v>120160</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
@@ -4852,41 +4860,35 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>430010</v>
+        <v>421182</v>
       </c>
       <c r="B292" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C292" s="4">
-        <v>40</v>
+        <v>120130</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>430020</v>
-      </c>
-      <c r="B293" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C293" s="4">
-        <v>60</v>
-      </c>
-      <c r="D293" s="5"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
+      <c r="A293" s="6"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>430021</v>
+        <v>430000</v>
       </c>
       <c r="B294" s="3">
-        <v>4400</v>
+        <v>4505</v>
       </c>
       <c r="C294" s="4">
-        <v>130010</v>
+        <v>20</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
@@ -4894,13 +4896,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>430030</v>
+        <v>430010</v>
       </c>
       <c r="B295" s="3">
         <v>4001</v>
       </c>
       <c r="C295" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
@@ -4908,13 +4910,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>430031</v>
+        <v>430020</v>
       </c>
       <c r="B296" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C296" s="4">
-        <v>130020</v>
+        <v>60</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
@@ -4922,13 +4924,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>430040</v>
+        <v>430021</v>
       </c>
       <c r="B297" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C297" s="4">
-        <v>40</v>
+        <v>130010</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
@@ -4936,13 +4938,13 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>430041</v>
+        <v>430030</v>
       </c>
       <c r="B298" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C298" s="4">
-        <v>130120</v>
+        <v>30</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
@@ -4950,13 +4952,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>430050</v>
+        <v>430031</v>
       </c>
       <c r="B299" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C299" s="4">
-        <v>50</v>
+        <v>130020</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
@@ -4964,13 +4966,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>430051</v>
+        <v>430040</v>
       </c>
       <c r="B300" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C300" s="4">
-        <v>130150</v>
+        <v>40</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
@@ -4978,13 +4980,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>430052</v>
+        <v>430041</v>
       </c>
       <c r="B301" s="3">
         <v>4400</v>
       </c>
       <c r="C301" s="4">
-        <v>116101</v>
+        <v>130120</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
@@ -4992,13 +4994,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>430060</v>
+        <v>430050</v>
       </c>
       <c r="B302" s="3">
         <v>4001</v>
       </c>
       <c r="C302" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
@@ -5006,13 +5008,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>430061</v>
+        <v>430051</v>
       </c>
       <c r="B303" s="3">
         <v>4400</v>
       </c>
       <c r="C303" s="4">
-        <v>130020</v>
+        <v>130150</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
@@ -5020,13 +5022,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>430070</v>
+        <v>430052</v>
       </c>
       <c r="B304" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C304" s="4">
-        <v>40</v>
+        <v>116101</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
@@ -5034,13 +5036,13 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>430071</v>
+        <v>430060</v>
       </c>
       <c r="B305" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C305" s="4">
-        <v>130130</v>
+        <v>30</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
@@ -5048,13 +5050,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>430080</v>
+        <v>430061</v>
       </c>
       <c r="B306" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C306" s="4">
-        <v>50</v>
+        <v>130020</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
@@ -5062,13 +5064,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>430081</v>
+        <v>430070</v>
       </c>
       <c r="B307" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C307" s="4">
-        <v>130160</v>
+        <v>40</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
@@ -5076,13 +5078,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>430082</v>
+        <v>430071</v>
       </c>
       <c r="B308" s="3">
         <v>4400</v>
       </c>
       <c r="C308" s="4">
-        <v>118110</v>
+        <v>130130</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
@@ -5090,13 +5092,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>430090</v>
+        <v>430080</v>
       </c>
       <c r="B309" s="3">
         <v>4001</v>
       </c>
       <c r="C309" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
@@ -5104,13 +5106,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>430091</v>
+        <v>430081</v>
       </c>
       <c r="B310" s="3">
         <v>4400</v>
       </c>
       <c r="C310" s="4">
-        <v>130020</v>
+        <v>130160</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
@@ -5118,13 +5120,13 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>430100</v>
+        <v>430082</v>
       </c>
       <c r="B311" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C311" s="4">
-        <v>40</v>
+        <v>118110</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
@@ -5132,13 +5134,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>430101</v>
+        <v>430090</v>
       </c>
       <c r="B312" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C312" s="4">
-        <v>130140</v>
+        <v>30</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
@@ -5146,13 +5148,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>430110</v>
+        <v>430091</v>
       </c>
       <c r="B313" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C313" s="4">
-        <v>50</v>
+        <v>130020</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
@@ -5160,13 +5162,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>430111</v>
+        <v>430100</v>
       </c>
       <c r="B314" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C314" s="4">
-        <v>130170</v>
+        <v>40</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
@@ -5174,13 +5176,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>430112</v>
+        <v>430101</v>
       </c>
       <c r="B315" s="3">
         <v>4400</v>
       </c>
       <c r="C315" s="4">
-        <v>121110</v>
+        <v>130140</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
@@ -5188,29 +5190,27 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>430113</v>
+        <v>430110</v>
       </c>
       <c r="B316" s="3">
-        <v>4114</v>
+        <v>4001</v>
       </c>
       <c r="C316" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D316" s="5">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D316" s="5"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>430120</v>
+        <v>430111</v>
       </c>
       <c r="B317" s="3">
         <v>4400</v>
       </c>
       <c r="C317" s="4">
-        <v>130030</v>
+        <v>130170</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
@@ -5218,13 +5218,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>430130</v>
+        <v>430112</v>
       </c>
       <c r="B318" s="3">
         <v>4400</v>
       </c>
       <c r="C318" s="4">
-        <v>130060</v>
+        <v>121110</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
@@ -5232,27 +5232,29 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>430140</v>
+        <v>430113</v>
       </c>
       <c r="B319" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C319" s="4">
-        <v>130090</v>
-      </c>
-      <c r="D319" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D319" s="5">
+        <v>4</v>
+      </c>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>430150</v>
+        <v>430120</v>
       </c>
       <c r="B320" s="3">
         <v>4400</v>
       </c>
       <c r="C320" s="4">
-        <v>130040</v>
+        <v>130030</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
@@ -5260,13 +5262,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>430151</v>
+        <v>430130</v>
       </c>
       <c r="B321" s="3">
         <v>4400</v>
       </c>
       <c r="C321" s="4">
-        <v>130120</v>
+        <v>130060</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
@@ -5274,13 +5276,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>430160</v>
+        <v>430140</v>
       </c>
       <c r="B322" s="3">
         <v>4400</v>
       </c>
       <c r="C322" s="4">
-        <v>130070</v>
+        <v>130090</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
@@ -5288,13 +5290,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>430161</v>
+        <v>430150</v>
       </c>
       <c r="B323" s="3">
         <v>4400</v>
       </c>
       <c r="C323" s="4">
-        <v>130130</v>
+        <v>130040</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
@@ -5302,13 +5304,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>430170</v>
+        <v>430151</v>
       </c>
       <c r="B324" s="3">
         <v>4400</v>
       </c>
       <c r="C324" s="4">
-        <v>130100</v>
+        <v>130120</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
@@ -5316,13 +5318,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>430171</v>
+        <v>430160</v>
       </c>
       <c r="B325" s="3">
         <v>4400</v>
       </c>
       <c r="C325" s="4">
-        <v>130140</v>
+        <v>130070</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
@@ -5330,35 +5332,41 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>430180</v>
+        <v>430161</v>
       </c>
       <c r="B326" s="3">
-        <v>4505</v>
+        <v>4400</v>
       </c>
       <c r="C326" s="4">
-        <v>0</v>
+        <v>130130</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="6"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
-      <c r="D327" s="6"/>
-      <c r="E327" s="6"/>
-      <c r="F327" s="6"/>
+      <c r="A327" s="2">
+        <v>430170</v>
+      </c>
+      <c r="B327" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C327" s="4">
+        <v>130100</v>
+      </c>
+      <c r="D327" s="5"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>450000</v>
+        <v>430171</v>
       </c>
       <c r="B328" s="3">
         <v>4400</v>
       </c>
       <c r="C328" s="4">
-        <v>112100</v>
+        <v>130140</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
@@ -5366,41 +5374,35 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>450001</v>
+        <v>430180</v>
       </c>
       <c r="B329" s="3">
-        <v>4400</v>
+        <v>4505</v>
       </c>
       <c r="C329" s="4">
-        <v>112110</v>
+        <v>0</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="2">
-        <v>450002</v>
-      </c>
-      <c r="B330" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C330" s="4">
-        <v>112120</v>
-      </c>
-      <c r="D330" s="5"/>
-      <c r="E330" s="2"/>
-      <c r="F330" s="2"/>
+      <c r="A330" s="6"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>450003</v>
+        <v>450000</v>
       </c>
       <c r="B331" s="3">
         <v>4400</v>
       </c>
       <c r="C331" s="4">
-        <v>112130</v>
+        <v>112100</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
@@ -5408,13 +5410,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>450010</v>
+        <v>450001</v>
       </c>
       <c r="B332" s="3">
         <v>4400</v>
       </c>
       <c r="C332" s="4">
-        <v>101000</v>
+        <v>112110</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
@@ -5422,13 +5424,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>450011</v>
+        <v>450002</v>
       </c>
       <c r="B333" s="3">
         <v>4400</v>
       </c>
       <c r="C333" s="4">
-        <v>101010</v>
+        <v>112120</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
@@ -5436,13 +5438,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>450012</v>
+        <v>450003</v>
       </c>
       <c r="B334" s="3">
         <v>4400</v>
       </c>
       <c r="C334" s="4">
-        <v>101020</v>
+        <v>112130</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
@@ -5450,85 +5452,85 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>450013</v>
+        <v>450010</v>
       </c>
       <c r="B335" s="3">
         <v>4400</v>
       </c>
       <c r="C335" s="4">
-        <v>101040</v>
+        <v>101000</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="6"/>
-      <c r="B336" s="6"/>
-      <c r="C336" s="6"/>
-      <c r="D336" s="6"/>
-      <c r="E336" s="6"/>
-      <c r="F336" s="6"/>
+      <c r="A336" s="2">
+        <v>450011</v>
+      </c>
+      <c r="B336" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C336" s="4">
+        <v>101010</v>
+      </c>
+      <c r="D336" s="5"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="6"/>
-      <c r="B337" s="6"/>
-      <c r="C337" s="6"/>
-      <c r="D337" s="6"/>
-      <c r="E337" s="6"/>
-      <c r="F337" s="6"/>
+      <c r="A337" s="2">
+        <v>450012</v>
+      </c>
+      <c r="B337" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C337" s="4">
+        <v>101020</v>
+      </c>
+      <c r="D337" s="5"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>459000</v>
+        <v>450013</v>
       </c>
       <c r="B338" s="3">
         <v>4400</v>
       </c>
       <c r="C338" s="4">
-        <v>559000</v>
+        <v>101040</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="2">
-        <v>459001</v>
-      </c>
-      <c r="B339" s="3">
-        <v>4005</v>
-      </c>
-      <c r="C339" s="4">
-        <v>2</v>
-      </c>
-      <c r="D339" s="5"/>
-      <c r="E339" s="2"/>
-      <c r="F339" s="2"/>
+      <c r="A339" s="6"/>
+      <c r="B339" s="6"/>
+      <c r="C339" s="6"/>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="2">
-        <v>459002</v>
-      </c>
-      <c r="B340" s="3">
-        <v>4005</v>
-      </c>
-      <c r="C340" s="4">
-        <v>3</v>
-      </c>
-      <c r="D340" s="5"/>
-      <c r="E340" s="2"/>
-      <c r="F340" s="2"/>
+      <c r="A340" s="6"/>
+      <c r="B340" s="6"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>459003</v>
+        <v>459000</v>
       </c>
       <c r="B341" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C341" s="4">
-        <v>4</v>
+        <v>559000</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
@@ -5536,13 +5538,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>459004</v>
+        <v>459001</v>
       </c>
       <c r="B342" s="3">
-        <v>4000</v>
+        <v>4005</v>
       </c>
       <c r="C342" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
@@ -5550,76 +5552,76 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>459005</v>
+        <v>459002</v>
       </c>
       <c r="B343" s="3">
-        <v>4000</v>
+        <v>4005</v>
       </c>
       <c r="C343" s="4">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="6"/>
-      <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
-      <c r="E344" s="6"/>
+      <c r="A344" s="2">
+        <v>459003</v>
+      </c>
+      <c r="B344" s="3">
+        <v>4005</v>
+      </c>
+      <c r="C344" s="4">
+        <v>4</v>
+      </c>
+      <c r="D344" s="5"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>450000</v>
+        <v>459004</v>
       </c>
       <c r="B345" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C345" s="4">
-        <v>112100</v>
+        <v>20</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
-      <c r="F345" s="3"/>
+      <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>450001</v>
+        <v>459005</v>
       </c>
       <c r="B346" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C346" s="4">
-        <v>112110</v>
+        <v>50</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
-      <c r="F346" s="3"/>
+      <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="2">
-        <v>450002</v>
-      </c>
-      <c r="B347" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C347" s="4">
-        <v>112120</v>
-      </c>
-      <c r="D347" s="5"/>
-      <c r="E347" s="2"/>
-      <c r="F347" s="3"/>
+      <c r="A347" s="6"/>
+      <c r="B347" s="6"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>450003</v>
+        <v>450000</v>
       </c>
       <c r="B348" s="3">
         <v>4400</v>
       </c>
       <c r="C348" s="4">
-        <v>112130</v>
+        <v>112100</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="2"/>
@@ -5627,13 +5629,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>450010</v>
+        <v>450001</v>
       </c>
       <c r="B349" s="3">
         <v>4400</v>
       </c>
       <c r="C349" s="4">
-        <v>101000</v>
+        <v>112110</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="2"/>
@@ -5641,13 +5643,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>450011</v>
+        <v>450002</v>
       </c>
       <c r="B350" s="3">
         <v>4400</v>
       </c>
       <c r="C350" s="4">
-        <v>101010</v>
+        <v>112120</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
@@ -5655,13 +5657,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>450012</v>
+        <v>450003</v>
       </c>
       <c r="B351" s="3">
         <v>4400</v>
       </c>
       <c r="C351" s="4">
-        <v>101020</v>
+        <v>112130</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
@@ -5669,66 +5671,108 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>450013</v>
+        <v>450010</v>
       </c>
       <c r="B352" s="3">
         <v>4400</v>
       </c>
       <c r="C352" s="4">
-        <v>101040</v>
+        <v>101000</v>
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="2"/>
       <c r="F352" s="3"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353" s="6"/>
-      <c r="B353" s="6"/>
-      <c r="C353" s="6"/>
-      <c r="D353" s="6"/>
-      <c r="E353" s="6"/>
+      <c r="A353" s="2">
+        <v>450011</v>
+      </c>
+      <c r="B353" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C353" s="4">
+        <v>101010</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="3"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>459000</v>
+        <v>450012</v>
       </c>
       <c r="B354" s="3">
         <v>4400</v>
       </c>
       <c r="C354" s="4">
-        <v>559000</v>
+        <v>101020</v>
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="2"/>
       <c r="F354" s="3"/>
     </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B355" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C355" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D355" s="5"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="3"/>
+    </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" s="2">
-        <v>440030</v>
-      </c>
-      <c r="B356" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C356" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D356" s="5"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="3"/>
+      <c r="A356" s="6"/>
+      <c r="B356" s="6"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>440040</v>
+        <v>459000</v>
       </c>
       <c r="B357" s="3">
         <v>4400</v>
       </c>
       <c r="C357" s="4">
-        <v>140030</v>
+        <v>559000</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
       <c r="F357" s="3"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>440030</v>
+      </c>
+      <c r="B359" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C359" s="4">
+        <v>140020</v>
+      </c>
+      <c r="D359" s="5"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="3"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>440040</v>
+      </c>
+      <c r="B360" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C360" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D360" s="5"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85471D48-763B-47E1-B774-A78314E13C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955D8D9-89D5-4B58-9E09-73C64E2E0723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="4335" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="4290" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F360"/>
+  <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K166" sqref="K166"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2669,7 +2669,7 @@
         <v>4102</v>
       </c>
       <c r="C134" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D134" s="5">
         <v>3</v>
@@ -2717,7 +2717,7 @@
         <v>4400</v>
       </c>
       <c r="C137" s="4">
-        <v>117141</v>
+        <v>117140</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="2"/>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>413110</v>
+        <v>413101</v>
       </c>
       <c r="B163" s="3">
         <v>4400</v>
       </c>
       <c r="C163" s="4">
-        <v>113100</v>
+        <v>100031</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
@@ -3055,13 +3055,13 @@
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>413120</v>
+        <v>413110</v>
       </c>
       <c r="B164" s="3">
         <v>4400</v>
       </c>
       <c r="C164" s="4">
-        <v>113110</v>
+        <v>113100</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
@@ -3069,13 +3069,13 @@
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>413130</v>
+        <v>413120</v>
       </c>
       <c r="B165" s="3">
         <v>4400</v>
       </c>
       <c r="C165" s="4">
-        <v>121121</v>
+        <v>113110</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
@@ -3083,27 +3083,29 @@
     </row>
     <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>413140</v>
+        <v>413121</v>
       </c>
       <c r="B166" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C166" s="4">
-        <v>121122</v>
-      </c>
-      <c r="D166" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D166" s="5">
+        <v>2</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>413150</v>
+        <v>413122</v>
       </c>
       <c r="B167" s="3">
         <v>4400</v>
       </c>
       <c r="C167" s="4">
-        <v>113140</v>
+        <v>121100</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
@@ -3111,29 +3113,27 @@
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>413151</v>
+        <v>413130</v>
       </c>
       <c r="B168" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C168" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D168" s="5">
-        <v>2</v>
-      </c>
+        <v>121110</v>
+      </c>
+      <c r="D168" s="5"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>413160</v>
+        <v>413131</v>
       </c>
       <c r="B169" s="3">
         <v>4400</v>
       </c>
       <c r="C169" s="4">
-        <v>113150</v>
+        <v>121111</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
@@ -3141,45 +3141,41 @@
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>413161</v>
+        <v>413132</v>
       </c>
       <c r="B170" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C170" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D170" s="5">
-        <v>3</v>
-      </c>
+        <v>113120</v>
+      </c>
+      <c r="D170" s="5"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>413200</v>
+        <v>413140</v>
       </c>
       <c r="B171" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C171" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D171" s="5">
-        <v>1</v>
-      </c>
+        <v>121110</v>
+      </c>
+      <c r="D171" s="5"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>413201</v>
+        <v>413141</v>
       </c>
       <c r="B172" s="3">
         <v>4400</v>
       </c>
       <c r="C172" s="4">
-        <v>100040</v>
+        <v>121112</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="2"/>
@@ -3187,29 +3183,27 @@
     </row>
     <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>413210</v>
+        <v>413142</v>
       </c>
       <c r="B173" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C173" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D173" s="5">
-        <v>2</v>
-      </c>
+        <v>113120</v>
+      </c>
+      <c r="D173" s="5"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>413211</v>
+        <v>413150</v>
       </c>
       <c r="B174" s="3">
         <v>4400</v>
       </c>
       <c r="C174" s="4">
-        <v>113200</v>
+        <v>113140</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="2"/>
@@ -3217,7 +3211,7 @@
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>413220</v>
+        <v>413151</v>
       </c>
       <c r="B175" s="3">
         <v>4102</v>
@@ -3226,20 +3220,20 @@
         <v>60003</v>
       </c>
       <c r="D175" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>413221</v>
+        <v>413160</v>
       </c>
       <c r="B176" s="3">
         <v>4400</v>
       </c>
       <c r="C176" s="4">
-        <v>113210</v>
+        <v>113150</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="2"/>
@@ -3247,90 +3241,105 @@
     </row>
     <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>413230</v>
+        <v>413161</v>
       </c>
       <c r="B177" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C177" s="4">
-        <v>113220</v>
-      </c>
-      <c r="D177" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D177" s="5">
+        <v>3</v>
+      </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>413231</v>
+        <v>413200</v>
       </c>
       <c r="B178" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C178" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D178" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D178" s="5">
+        <v>1</v>
+      </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>413201</v>
+      </c>
+      <c r="B179" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C179" s="4">
+        <v>100040</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+    </row>
     <row r="180" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>415100</v>
+        <v>413210</v>
       </c>
       <c r="B180" s="3">
         <v>4102</v>
       </c>
       <c r="C180" s="4">
-        <v>60005</v>
+        <v>60003</v>
       </c>
       <c r="D180" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>415101</v>
+        <v>413211</v>
       </c>
       <c r="B181" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C181" s="4">
-        <v>21510</v>
-      </c>
-      <c r="D181" s="5">
-        <v>1</v>
-      </c>
+        <v>113200</v>
+      </c>
+      <c r="D181" s="5"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>415110</v>
+        <v>413220</v>
       </c>
       <c r="B182" s="3">
         <v>4102</v>
       </c>
       <c r="C182" s="4">
-        <v>60005</v>
+        <v>60003</v>
       </c>
       <c r="D182" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>415111</v>
+        <v>413221</v>
       </c>
       <c r="B183" s="3">
         <v>4400</v>
       </c>
       <c r="C183" s="4">
-        <v>115100</v>
+        <v>113210</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
@@ -3338,29 +3347,27 @@
     </row>
     <row r="184" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>415120</v>
+        <v>413230</v>
       </c>
       <c r="B184" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C184" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D184" s="5">
-        <v>3</v>
-      </c>
+        <v>113220</v>
+      </c>
+      <c r="D184" s="5"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>415121</v>
+        <v>413231</v>
       </c>
       <c r="B185" s="3">
         <v>4400</v>
       </c>
       <c r="C185" s="4">
-        <v>115101</v>
+        <v>118114</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
@@ -3368,35 +3375,22 @@
     </row>
     <row r="186" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>415122</v>
+        <v>413232</v>
       </c>
       <c r="B186" s="3">
-        <v>4400</v>
+        <v>4506</v>
       </c>
       <c r="C186" s="4">
-        <v>115111</v>
+        <v>61004</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>415123</v>
-      </c>
-      <c r="B187" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C187" s="4">
-        <v>115170</v>
-      </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-    </row>
+    <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="188" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>415130</v>
+        <v>415100</v>
       </c>
       <c r="B188" s="3">
         <v>4102</v>
@@ -3405,48 +3399,52 @@
         <v>60005</v>
       </c>
       <c r="D188" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>415131</v>
+        <v>415101</v>
       </c>
       <c r="B189" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C189" s="4">
-        <v>115112</v>
-      </c>
-      <c r="D189" s="5"/>
+        <v>21510</v>
+      </c>
+      <c r="D189" s="5">
+        <v>1</v>
+      </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>415132</v>
+        <v>415110</v>
       </c>
       <c r="B190" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C190" s="4">
-        <v>115170</v>
-      </c>
-      <c r="D190" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D190" s="5">
+        <v>2</v>
+      </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>415140</v>
+        <v>415111</v>
       </c>
       <c r="B191" s="3">
         <v>4400</v>
       </c>
       <c r="C191" s="4">
-        <v>115102</v>
+        <v>115100</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
@@ -3454,27 +3452,29 @@
     </row>
     <row r="192" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>415141</v>
+        <v>415120</v>
       </c>
       <c r="B192" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C192" s="4">
-        <v>115111</v>
-      </c>
-      <c r="D192" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D192" s="5">
+        <v>3</v>
+      </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>415150</v>
+        <v>415121</v>
       </c>
       <c r="B193" s="3">
         <v>4400</v>
       </c>
       <c r="C193" s="4">
-        <v>115102</v>
+        <v>115101</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>415151</v>
+        <v>415122</v>
       </c>
       <c r="B194" s="3">
         <v>4400</v>
@@ -3496,13 +3496,13 @@
     </row>
     <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>415160</v>
+        <v>415123</v>
       </c>
       <c r="B195" s="3">
         <v>4400</v>
       </c>
       <c r="C195" s="4">
-        <v>115102</v>
+        <v>115170</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="2"/>
@@ -3510,27 +3510,29 @@
     </row>
     <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>415161</v>
+        <v>415130</v>
       </c>
       <c r="B196" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C196" s="4">
-        <v>115111</v>
-      </c>
-      <c r="D196" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D196" s="5">
+        <v>3</v>
+      </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>415170</v>
+        <v>415131</v>
       </c>
       <c r="B197" s="3">
         <v>4400</v>
       </c>
       <c r="C197" s="4">
-        <v>118114</v>
+        <v>115112</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
@@ -3538,29 +3540,27 @@
     </row>
     <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>415171</v>
+        <v>415132</v>
       </c>
       <c r="B198" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C198" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D198" s="5">
-        <v>3</v>
-      </c>
+        <v>115170</v>
+      </c>
+      <c r="D198" s="5"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>415172</v>
+        <v>415140</v>
       </c>
       <c r="B199" s="3">
         <v>4400</v>
       </c>
       <c r="C199" s="4">
-        <v>115120</v>
+        <v>115102</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
@@ -3568,13 +3568,13 @@
     </row>
     <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>415173</v>
+        <v>415141</v>
       </c>
       <c r="B200" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C200" s="4">
-        <v>4</v>
+        <v>115111</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="2"/>
@@ -3582,44 +3582,55 @@
     </row>
     <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>415180</v>
+        <v>415150</v>
       </c>
       <c r="B201" s="3">
         <v>4400</v>
       </c>
       <c r="C201" s="4">
-        <v>115170</v>
+        <v>115102</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>415151</v>
+      </c>
+      <c r="B202" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C202" s="4">
+        <v>115111</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+    </row>
     <row r="203" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>416100</v>
+        <v>415160</v>
       </c>
       <c r="B203" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C203" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D203" s="5">
-        <v>1</v>
-      </c>
+        <v>115102</v>
+      </c>
+      <c r="D203" s="5"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>416101</v>
+        <v>415161</v>
       </c>
       <c r="B204" s="3">
         <v>4400</v>
       </c>
       <c r="C204" s="4">
-        <v>116101</v>
+        <v>115111</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
@@ -3627,59 +3638,57 @@
     </row>
     <row r="205" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>416110</v>
+        <v>415170</v>
       </c>
       <c r="B205" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C205" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D205" s="5">
-        <v>2</v>
-      </c>
+        <v>118114</v>
+      </c>
+      <c r="D205" s="5"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>416111</v>
+        <v>415171</v>
       </c>
       <c r="B206" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C206" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D206" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D206" s="5">
+        <v>3</v>
+      </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>416120</v>
+        <v>415172</v>
       </c>
       <c r="B207" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C207" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D207" s="5">
-        <v>3</v>
-      </c>
+        <v>115120</v>
+      </c>
+      <c r="D207" s="5"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>416121</v>
+        <v>415173</v>
       </c>
       <c r="B208" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C208" s="4">
-        <v>116110</v>
+        <v>4</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
@@ -3687,224 +3696,209 @@
     </row>
     <row r="209" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>416122</v>
+        <v>415180</v>
       </c>
       <c r="B209" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C209" s="4">
-        <v>21612</v>
-      </c>
-      <c r="D209" s="5">
-        <v>1</v>
-      </c>
+        <v>115170</v>
+      </c>
+      <c r="D209" s="5"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="2">
-        <v>416130</v>
-      </c>
-      <c r="B210" s="3">
-        <v>0</v>
-      </c>
-      <c r="C210" s="4"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-    </row>
-    <row r="211" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>416100</v>
+      </c>
+      <c r="B211" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C211" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D211" s="5">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+    </row>
     <row r="212" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>417100</v>
+        <v>416101</v>
       </c>
       <c r="B212" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C212" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D212" s="5">
-        <v>1</v>
-      </c>
+        <v>116101</v>
+      </c>
+      <c r="D212" s="5"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>417101</v>
+        <v>416110</v>
       </c>
       <c r="B213" s="3">
         <v>4102</v>
       </c>
       <c r="C213" s="4">
-        <v>60008</v>
+        <v>60006</v>
       </c>
       <c r="D213" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>417102</v>
+        <v>416111</v>
       </c>
       <c r="B214" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C214" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D214" s="5">
-        <v>1</v>
-      </c>
+        <v>116100</v>
+      </c>
+      <c r="D214" s="5"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>417110</v>
+        <v>416120</v>
       </c>
       <c r="B215" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C215" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D215" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D215" s="5">
+        <v>3</v>
+      </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>417120</v>
+        <v>416121</v>
       </c>
       <c r="B216" s="3">
         <v>4400</v>
       </c>
       <c r="C216" s="4">
-        <v>117110</v>
+        <v>116110</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>417130</v>
+        <v>416122</v>
       </c>
       <c r="B217" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C217" s="4">
-        <v>60007</v>
+        <v>21612</v>
       </c>
       <c r="D217" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>417131</v>
+        <v>416130</v>
       </c>
       <c r="B218" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C218" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D218" s="5">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C218" s="4"/>
+      <c r="D218" s="5"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="2">
-        <v>417132</v>
-      </c>
-      <c r="B219" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C219" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D219" s="5">
-        <v>2</v>
-      </c>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>417133</v>
+        <v>417100</v>
       </c>
       <c r="B220" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C220" s="4">
-        <v>117120</v>
-      </c>
-      <c r="D220" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D220" s="5">
+        <v>1</v>
+      </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>417134</v>
+        <v>417101</v>
       </c>
       <c r="B221" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C221" s="4">
-        <v>116110</v>
-      </c>
-      <c r="D221" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D221" s="5">
+        <v>1</v>
+      </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>417140</v>
+        <v>417102</v>
       </c>
       <c r="B222" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C222" s="4">
-        <v>117130</v>
-      </c>
-      <c r="D222" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D222" s="5">
+        <v>1</v>
+      </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>417141</v>
+        <v>417110</v>
       </c>
       <c r="B223" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C223" s="4">
-        <v>21714</v>
-      </c>
-      <c r="D223" s="5">
-        <v>1</v>
-      </c>
+        <v>117100</v>
+      </c>
+      <c r="D223" s="5"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>417150</v>
+        <v>417120</v>
       </c>
       <c r="B224" s="3">
         <v>4400</v>
       </c>
       <c r="C224" s="4">
-        <v>117141</v>
+        <v>117110</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
@@ -3912,63 +3906,75 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>417151</v>
+        <v>417130</v>
       </c>
       <c r="B225" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C225" s="4">
-        <v>117140</v>
-      </c>
-      <c r="D225" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D225" s="5">
+        <v>2</v>
+      </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
-      <c r="F226" s="6"/>
+      <c r="A226" s="2">
+        <v>417131</v>
+      </c>
+      <c r="B226" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C226" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D226" s="5">
+        <v>2</v>
+      </c>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>418100</v>
+        <v>417132</v>
       </c>
       <c r="B227" s="3">
-        <v>0</v>
-      </c>
-      <c r="C227" s="4"/>
-      <c r="D227" s="5"/>
+        <v>4102</v>
+      </c>
+      <c r="C227" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D227" s="5">
+        <v>2</v>
+      </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>418110</v>
+        <v>417133</v>
       </c>
       <c r="B228" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C228" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D228" s="5">
-        <v>1</v>
-      </c>
+        <v>117120</v>
+      </c>
+      <c r="D228" s="5"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>418111</v>
+        <v>417134</v>
       </c>
       <c r="B229" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C229" s="4">
-        <v>20</v>
+        <v>116110</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
@@ -3976,13 +3982,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>418112</v>
+        <v>417140</v>
       </c>
       <c r="B230" s="3">
-        <v>4506</v>
+        <v>4400</v>
       </c>
       <c r="C230" s="4">
-        <v>61004</v>
+        <v>117130</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
@@ -3990,13 +3996,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>418113</v>
+        <v>417141</v>
       </c>
       <c r="B231" s="3">
         <v>4403</v>
       </c>
       <c r="C231" s="4">
-        <v>21811</v>
+        <v>21714</v>
       </c>
       <c r="D231" s="5">
         <v>1</v>
@@ -4006,13 +4012,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>418114</v>
+        <v>417150</v>
       </c>
       <c r="B232" s="3">
         <v>4400</v>
       </c>
       <c r="C232" s="4">
-        <v>118114</v>
+        <v>117141</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="2"/>
@@ -4020,49 +4026,47 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>418115</v>
+        <v>417151</v>
       </c>
       <c r="B233" s="3">
         <v>4400</v>
       </c>
       <c r="C233" s="4">
-        <v>118115</v>
+        <v>117140</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="2">
-        <v>418116</v>
-      </c>
-      <c r="B234" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C234" s="4">
-        <v>118116</v>
-      </c>
-      <c r="D234" s="5"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="6"/>
+      <c r="A235" s="2">
+        <v>418100</v>
+      </c>
+      <c r="B235" s="3">
+        <v>0</v>
+      </c>
+      <c r="C235" s="4"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>419100</v>
+        <v>418110</v>
       </c>
       <c r="B236" s="3">
         <v>4102</v>
       </c>
       <c r="C236" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D236" s="5">
         <v>1</v>
@@ -4072,171 +4076,169 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>419101</v>
+        <v>418111</v>
       </c>
       <c r="B237" s="3">
-        <v>4403</v>
+        <v>4000</v>
       </c>
       <c r="C237" s="4">
-        <v>21910</v>
-      </c>
-      <c r="D237" s="5">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D237" s="5"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>419110</v>
+        <v>418112</v>
       </c>
       <c r="B238" s="3">
-        <v>4102</v>
+        <v>4506</v>
       </c>
       <c r="C238" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D238" s="5">
-        <v>2</v>
-      </c>
+        <v>61004</v>
+      </c>
+      <c r="D238" s="5"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>419111</v>
+        <v>418113</v>
       </c>
       <c r="B239" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C239" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D239" s="5"/>
+        <v>21811</v>
+      </c>
+      <c r="D239" s="5">
+        <v>1</v>
+      </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>419112</v>
+        <v>418114</v>
       </c>
       <c r="B240" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C240" s="4">
-        <v>21911</v>
-      </c>
-      <c r="D240" s="5">
-        <v>1</v>
-      </c>
+        <v>118114</v>
+      </c>
+      <c r="D240" s="5"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>419120</v>
+        <v>418115</v>
       </c>
       <c r="B241" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C241" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D241" s="5">
-        <v>3</v>
-      </c>
+        <v>118115</v>
+      </c>
+      <c r="D241" s="5"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>419121</v>
+        <v>418116</v>
       </c>
       <c r="B242" s="3">
         <v>4400</v>
       </c>
       <c r="C242" s="4">
-        <v>119110</v>
+        <v>118116</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>419122</v>
-      </c>
-      <c r="B243" s="3">
-        <v>4403</v>
-      </c>
-      <c r="C243" s="4">
-        <v>21912</v>
-      </c>
-      <c r="D243" s="5">
-        <v>1</v>
-      </c>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
+      <c r="A243" s="6"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>419130</v>
+        <v>419100</v>
       </c>
       <c r="B244" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C244" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D244" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D244" s="5">
+        <v>1</v>
+      </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>419140</v>
+        <v>419101</v>
       </c>
       <c r="B245" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C245" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D245" s="5"/>
+        <v>21910</v>
+      </c>
+      <c r="D245" s="5">
+        <v>1</v>
+      </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>419150</v>
+        <v>419110</v>
       </c>
       <c r="B246" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C246" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D246" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D246" s="5">
+        <v>2</v>
+      </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="6"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6"/>
+      <c r="A247" s="2">
+        <v>419111</v>
+      </c>
+      <c r="B247" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C247" s="4">
+        <v>119100</v>
+      </c>
+      <c r="D247" s="5"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>420100</v>
+        <v>419112</v>
       </c>
       <c r="B248" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C248" s="4">
-        <v>60010</v>
+        <v>21911</v>
       </c>
       <c r="D248" s="5">
         <v>1</v>
@@ -4246,29 +4248,29 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>420110</v>
+        <v>419120</v>
       </c>
       <c r="B249" s="3">
         <v>4102</v>
       </c>
       <c r="C249" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D249" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>420111</v>
+        <v>419121</v>
       </c>
       <c r="B250" s="3">
         <v>4400</v>
       </c>
       <c r="C250" s="4">
-        <v>120100</v>
+        <v>119110</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="2"/>
@@ -4276,43 +4278,43 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>420120</v>
+        <v>419122</v>
       </c>
       <c r="B251" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C251" s="4">
-        <v>120110</v>
-      </c>
-      <c r="D251" s="5"/>
+        <v>21912</v>
+      </c>
+      <c r="D251" s="5">
+        <v>1</v>
+      </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>420121</v>
+        <v>419130</v>
       </c>
       <c r="B252" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C252" s="4">
-        <v>22012</v>
-      </c>
-      <c r="D252" s="5">
-        <v>1</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D252" s="5"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>420130</v>
+        <v>419140</v>
       </c>
       <c r="B253" s="3">
         <v>4400</v>
       </c>
       <c r="C253" s="4">
-        <v>120121</v>
+        <v>119121</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="2"/>
@@ -4320,69 +4322,67 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>420140</v>
+        <v>419150</v>
       </c>
       <c r="B254" s="3">
         <v>4400</v>
       </c>
       <c r="C254" s="4">
-        <v>120160</v>
+        <v>119121</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>420141</v>
-      </c>
-      <c r="B255" s="3">
-        <v>4111</v>
-      </c>
-      <c r="C255" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D255" s="5"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
+      <c r="A255" s="6"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>420142</v>
+        <v>420100</v>
       </c>
       <c r="B256" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C256" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D256" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D256" s="5">
+        <v>1</v>
+      </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>420150</v>
+        <v>420110</v>
       </c>
       <c r="B257" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C257" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D257" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D257" s="5">
+        <v>2</v>
+      </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>420151</v>
+        <v>420111</v>
       </c>
       <c r="B258" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C258" s="4">
-        <v>60011</v>
+        <v>120100</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
@@ -4390,13 +4390,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>420152</v>
+        <v>420120</v>
       </c>
       <c r="B259" s="3">
         <v>4400</v>
       </c>
       <c r="C259" s="4">
-        <v>121100</v>
+        <v>120110</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
@@ -4404,43 +4404,43 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>420160</v>
+        <v>420121</v>
       </c>
       <c r="B260" s="3">
-        <v>4111</v>
+        <v>4403</v>
       </c>
       <c r="C260" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D260" s="5"/>
+        <v>22012</v>
+      </c>
+      <c r="D260" s="5">
+        <v>1</v>
+      </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>420161</v>
+        <v>420130</v>
       </c>
       <c r="B261" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C261" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D261" s="5">
-        <v>1</v>
-      </c>
+        <v>120121</v>
+      </c>
+      <c r="D261" s="5"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>420162</v>
+        <v>420140</v>
       </c>
       <c r="B262" s="3">
         <v>4400</v>
       </c>
       <c r="C262" s="4">
-        <v>121110</v>
+        <v>120160</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="2"/>
@@ -4448,13 +4448,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>420163</v>
+        <v>420141</v>
       </c>
       <c r="B263" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C263" s="4">
-        <v>121100</v>
+        <v>60011</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
@@ -4462,13 +4462,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>420164</v>
+        <v>420142</v>
       </c>
       <c r="B264" s="3">
         <v>4400</v>
       </c>
       <c r="C264" s="4">
-        <v>120130</v>
+        <v>121110</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
@@ -4476,51 +4476,55 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>420165</v>
+        <v>420150</v>
       </c>
       <c r="B265" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C265" s="4">
-        <v>30</v>
+        <v>120160</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="9"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6"/>
+      <c r="A266" s="2">
+        <v>420151</v>
+      </c>
+      <c r="B266" s="3">
+        <v>4111</v>
+      </c>
+      <c r="C266" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>421100</v>
+        <v>420152</v>
       </c>
       <c r="B267" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C267" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D267" s="5">
-        <v>1</v>
-      </c>
+        <v>121100</v>
+      </c>
+      <c r="D267" s="5"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>421101</v>
+        <v>420160</v>
       </c>
       <c r="B268" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C268" s="4">
-        <v>100031</v>
+        <v>60010</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
@@ -4528,27 +4532,29 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>421110</v>
+        <v>420161</v>
       </c>
       <c r="B269" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C269" s="4">
-        <v>121100</v>
-      </c>
-      <c r="D269" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D269" s="5">
+        <v>1</v>
+      </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>421111</v>
+        <v>420162</v>
       </c>
       <c r="B270" s="3">
         <v>4400</v>
       </c>
       <c r="C270" s="4">
-        <v>113121</v>
+        <v>121110</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
@@ -4556,29 +4562,27 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>421112</v>
+        <v>420163</v>
       </c>
       <c r="B271" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C271" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D271" s="5">
-        <v>2</v>
-      </c>
+        <v>121100</v>
+      </c>
+      <c r="D271" s="5"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>421113</v>
+        <v>420164</v>
       </c>
       <c r="B272" s="3">
         <v>4400</v>
       </c>
       <c r="C272" s="4">
-        <v>113120</v>
+        <v>120130</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
@@ -4586,55 +4590,51 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>421120</v>
+        <v>420165</v>
       </c>
       <c r="B273" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C273" s="4">
-        <v>121110</v>
+        <v>30</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="2">
-        <v>421121</v>
-      </c>
-      <c r="B274" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C274" s="4">
-        <v>120121</v>
-      </c>
-      <c r="D274" s="5"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
+      <c r="A274" s="9"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>421122</v>
+        <v>421100</v>
       </c>
       <c r="B275" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C275" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D275" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D275" s="5">
+        <v>1</v>
+      </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>421123</v>
+        <v>421101</v>
       </c>
       <c r="B276" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C276" s="4">
-        <v>30</v>
+        <v>100031</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
@@ -4642,29 +4642,27 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>421124</v>
+        <v>421110</v>
       </c>
       <c r="B277" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C277" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D277" s="5">
-        <v>3</v>
-      </c>
+        <v>121100</v>
+      </c>
+      <c r="D277" s="5"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>421130</v>
+        <v>421111</v>
       </c>
       <c r="B278" s="3">
         <v>4400</v>
       </c>
       <c r="C278" s="4">
-        <v>100032</v>
+        <v>113121</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
@@ -4672,43 +4670,43 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>421140</v>
+        <v>421112</v>
       </c>
       <c r="B279" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C279" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D279" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D279" s="5">
+        <v>2</v>
+      </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>421141</v>
+        <v>421113</v>
       </c>
       <c r="B280" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C280" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D280" s="5">
-        <v>1</v>
-      </c>
+        <v>113120</v>
+      </c>
+      <c r="D280" s="5"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>421150</v>
+        <v>421120</v>
       </c>
       <c r="B281" s="3">
         <v>4400</v>
       </c>
       <c r="C281" s="4">
-        <v>121140</v>
+        <v>121110</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
@@ -4716,29 +4714,27 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>421151</v>
+        <v>421121</v>
       </c>
       <c r="B282" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C282" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D282" s="5">
-        <v>2</v>
-      </c>
+        <v>120121</v>
+      </c>
+      <c r="D282" s="5"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>421160</v>
+        <v>421122</v>
       </c>
       <c r="B283" s="3">
         <v>4400</v>
       </c>
       <c r="C283" s="4">
-        <v>121150</v>
+        <v>120160</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
@@ -4746,13 +4742,13 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>421161</v>
+        <v>421123</v>
       </c>
       <c r="B284" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C284" s="4">
-        <v>120160</v>
+        <v>30</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
@@ -4760,43 +4756,43 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>421162</v>
+        <v>421124</v>
       </c>
       <c r="B285" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C285" s="4">
-        <v>120130</v>
-      </c>
-      <c r="D285" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D285" s="5">
+        <v>3</v>
+      </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>421163</v>
+        <v>421130</v>
       </c>
       <c r="B286" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C286" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D286" s="5">
-        <v>3</v>
-      </c>
+        <v>100032</v>
+      </c>
+      <c r="D286" s="5"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>421170</v>
+        <v>421140</v>
       </c>
       <c r="B287" s="3">
         <v>4400</v>
       </c>
       <c r="C287" s="4">
-        <v>121160</v>
+        <v>121130</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
@@ -4804,27 +4800,29 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>421171</v>
+        <v>421141</v>
       </c>
       <c r="B288" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C288" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D288" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D288" s="5">
+        <v>1</v>
+      </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>421172</v>
+        <v>421150</v>
       </c>
       <c r="B289" s="3">
         <v>4400</v>
       </c>
       <c r="C289" s="4">
-        <v>120130</v>
+        <v>121140</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
@@ -4832,27 +4830,29 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>421180</v>
+        <v>421151</v>
       </c>
       <c r="B290" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C290" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D290" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D290" s="5">
+        <v>2</v>
+      </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>421181</v>
+        <v>421160</v>
       </c>
       <c r="B291" s="3">
         <v>4400</v>
       </c>
       <c r="C291" s="4">
-        <v>120160</v>
+        <v>121150</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
@@ -4860,49 +4860,57 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>421182</v>
+        <v>421161</v>
       </c>
       <c r="B292" s="3">
         <v>4400</v>
       </c>
       <c r="C292" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
-      <c r="F293" s="6"/>
+      <c r="A293" s="2">
+        <v>421162</v>
+      </c>
+      <c r="B293" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C293" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>430000</v>
+        <v>421163</v>
       </c>
       <c r="B294" s="3">
-        <v>4505</v>
+        <v>4102</v>
       </c>
       <c r="C294" s="4">
-        <v>20</v>
-      </c>
-      <c r="D294" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D294" s="5">
+        <v>3</v>
+      </c>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>430010</v>
+        <v>421170</v>
       </c>
       <c r="B295" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C295" s="4">
-        <v>40</v>
+        <v>121160</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
@@ -4910,13 +4918,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>430020</v>
+        <v>421171</v>
       </c>
       <c r="B296" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C296" s="4">
-        <v>60</v>
+        <v>120160</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
@@ -4924,13 +4932,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>430021</v>
+        <v>421172</v>
       </c>
       <c r="B297" s="3">
         <v>4400</v>
       </c>
       <c r="C297" s="4">
-        <v>130010</v>
+        <v>120130</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
@@ -4938,13 +4946,13 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>430030</v>
+        <v>421180</v>
       </c>
       <c r="B298" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C298" s="4">
-        <v>30</v>
+        <v>121130</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
@@ -4952,13 +4960,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>430031</v>
+        <v>421181</v>
       </c>
       <c r="B299" s="3">
         <v>4400</v>
       </c>
       <c r="C299" s="4">
-        <v>130020</v>
+        <v>120160</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
@@ -4966,41 +4974,35 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>430040</v>
+        <v>421182</v>
       </c>
       <c r="B300" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C300" s="4">
-        <v>40</v>
+        <v>120130</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="2">
-        <v>430041</v>
-      </c>
-      <c r="B301" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C301" s="4">
-        <v>130120</v>
-      </c>
-      <c r="D301" s="5"/>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
+      <c r="A301" s="6"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>430050</v>
+        <v>430000</v>
       </c>
       <c r="B302" s="3">
-        <v>4001</v>
+        <v>4505</v>
       </c>
       <c r="C302" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
@@ -5008,13 +5010,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>430051</v>
+        <v>430010</v>
       </c>
       <c r="B303" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C303" s="4">
-        <v>130150</v>
+        <v>40</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
@@ -5022,13 +5024,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>430052</v>
+        <v>430020</v>
       </c>
       <c r="B304" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C304" s="4">
-        <v>116101</v>
+        <v>60</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
@@ -5036,13 +5038,13 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>430060</v>
+        <v>430021</v>
       </c>
       <c r="B305" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C305" s="4">
-        <v>30</v>
+        <v>130010</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
@@ -5050,13 +5052,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>430061</v>
+        <v>430030</v>
       </c>
       <c r="B306" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C306" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
@@ -5064,13 +5066,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>430070</v>
+        <v>430031</v>
       </c>
       <c r="B307" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C307" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
@@ -5078,13 +5080,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>430071</v>
+        <v>430040</v>
       </c>
       <c r="B308" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C308" s="4">
-        <v>130130</v>
+        <v>40</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
@@ -5092,13 +5094,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>430080</v>
+        <v>430041</v>
       </c>
       <c r="B309" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C309" s="4">
-        <v>50</v>
+        <v>130120</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
@@ -5106,13 +5108,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>430081</v>
+        <v>430050</v>
       </c>
       <c r="B310" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C310" s="4">
-        <v>130160</v>
+        <v>50</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
@@ -5120,13 +5122,13 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>430082</v>
+        <v>430051</v>
       </c>
       <c r="B311" s="3">
         <v>4400</v>
       </c>
       <c r="C311" s="4">
-        <v>118110</v>
+        <v>130150</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
@@ -5134,13 +5136,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>430090</v>
+        <v>430052</v>
       </c>
       <c r="B312" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C312" s="4">
-        <v>30</v>
+        <v>116101</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
@@ -5148,13 +5150,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>430091</v>
+        <v>430060</v>
       </c>
       <c r="B313" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C313" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
@@ -5162,13 +5164,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>430100</v>
+        <v>430061</v>
       </c>
       <c r="B314" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C314" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
@@ -5176,13 +5178,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>430101</v>
+        <v>430070</v>
       </c>
       <c r="B315" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C315" s="4">
-        <v>130140</v>
+        <v>40</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
@@ -5190,13 +5192,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>430110</v>
+        <v>430071</v>
       </c>
       <c r="B316" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C316" s="4">
-        <v>50</v>
+        <v>130130</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
@@ -5204,13 +5206,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>430111</v>
+        <v>430080</v>
       </c>
       <c r="B317" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C317" s="4">
-        <v>130170</v>
+        <v>50</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
@@ -5218,13 +5220,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>430112</v>
+        <v>430081</v>
       </c>
       <c r="B318" s="3">
         <v>4400</v>
       </c>
       <c r="C318" s="4">
-        <v>121110</v>
+        <v>130160</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
@@ -5232,29 +5234,27 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>430113</v>
+        <v>430082</v>
       </c>
       <c r="B319" s="3">
-        <v>4114</v>
+        <v>4400</v>
       </c>
       <c r="C319" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D319" s="5">
-        <v>4</v>
-      </c>
+        <v>118114</v>
+      </c>
+      <c r="D319" s="5"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>430120</v>
+        <v>430090</v>
       </c>
       <c r="B320" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C320" s="4">
-        <v>130030</v>
+        <v>30</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
@@ -5262,13 +5262,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>430130</v>
+        <v>430091</v>
       </c>
       <c r="B321" s="3">
         <v>4400</v>
       </c>
       <c r="C321" s="4">
-        <v>130060</v>
+        <v>130020</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
@@ -5276,13 +5276,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>430140</v>
+        <v>430100</v>
       </c>
       <c r="B322" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C322" s="4">
-        <v>130090</v>
+        <v>40</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
@@ -5290,13 +5290,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>430150</v>
+        <v>430101</v>
       </c>
       <c r="B323" s="3">
         <v>4400</v>
       </c>
       <c r="C323" s="4">
-        <v>130040</v>
+        <v>130140</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
@@ -5304,13 +5304,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>430151</v>
+        <v>430110</v>
       </c>
       <c r="B324" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C324" s="4">
-        <v>130120</v>
+        <v>50</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
@@ -5318,13 +5318,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>430160</v>
+        <v>430111</v>
       </c>
       <c r="B325" s="3">
         <v>4400</v>
       </c>
       <c r="C325" s="4">
-        <v>130070</v>
+        <v>130170</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
@@ -5332,13 +5332,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>430161</v>
+        <v>430112</v>
       </c>
       <c r="B326" s="3">
         <v>4400</v>
       </c>
       <c r="C326" s="4">
-        <v>130130</v>
+        <v>121110</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
@@ -5346,27 +5346,29 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>430170</v>
+        <v>430113</v>
       </c>
       <c r="B327" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C327" s="4">
-        <v>130100</v>
-      </c>
-      <c r="D327" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D327" s="5">
+        <v>4</v>
+      </c>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>430171</v>
+        <v>430120</v>
       </c>
       <c r="B328" s="3">
         <v>4400</v>
       </c>
       <c r="C328" s="4">
-        <v>130140</v>
+        <v>130030</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
@@ -5374,35 +5376,41 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>430180</v>
+        <v>430130</v>
       </c>
       <c r="B329" s="3">
-        <v>4505</v>
+        <v>4400</v>
       </c>
       <c r="C329" s="4">
-        <v>0</v>
+        <v>130060</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="6"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-      <c r="F330" s="6"/>
+      <c r="A330" s="2">
+        <v>430140</v>
+      </c>
+      <c r="B330" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C330" s="4">
+        <v>130090</v>
+      </c>
+      <c r="D330" s="5"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>450000</v>
+        <v>430150</v>
       </c>
       <c r="B331" s="3">
         <v>4400</v>
       </c>
       <c r="C331" s="4">
-        <v>112100</v>
+        <v>130040</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
@@ -5410,13 +5418,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>450001</v>
+        <v>430151</v>
       </c>
       <c r="B332" s="3">
         <v>4400</v>
       </c>
       <c r="C332" s="4">
-        <v>112110</v>
+        <v>130120</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
@@ -5424,13 +5432,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>450002</v>
+        <v>430160</v>
       </c>
       <c r="B333" s="3">
         <v>4400</v>
       </c>
       <c r="C333" s="4">
-        <v>112120</v>
+        <v>130070</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
@@ -5438,13 +5446,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>450003</v>
+        <v>430161</v>
       </c>
       <c r="B334" s="3">
         <v>4400</v>
       </c>
       <c r="C334" s="4">
-        <v>112130</v>
+        <v>130130</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
@@ -5452,13 +5460,13 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>450010</v>
+        <v>430170</v>
       </c>
       <c r="B335" s="3">
         <v>4400</v>
       </c>
       <c r="C335" s="4">
-        <v>101000</v>
+        <v>130100</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
@@ -5466,13 +5474,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>450011</v>
+        <v>430171</v>
       </c>
       <c r="B336" s="3">
         <v>4400</v>
       </c>
       <c r="C336" s="4">
-        <v>101010</v>
+        <v>130140</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
@@ -5480,57 +5488,63 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>450012</v>
+        <v>430180</v>
       </c>
       <c r="B337" s="3">
-        <v>4400</v>
+        <v>4505</v>
       </c>
       <c r="C337" s="4">
-        <v>101020</v>
+        <v>0</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="2">
-        <v>450013</v>
-      </c>
-      <c r="B338" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C338" s="4">
-        <v>101040</v>
-      </c>
-      <c r="D338" s="5"/>
-      <c r="E338" s="2"/>
-      <c r="F338" s="2"/>
+      <c r="A338" s="6"/>
+      <c r="B338" s="6"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="6"/>
-      <c r="B339" s="6"/>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="6"/>
-      <c r="F339" s="6"/>
+      <c r="A339" s="2">
+        <v>450000</v>
+      </c>
+      <c r="B339" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C339" s="4">
+        <v>112100</v>
+      </c>
+      <c r="D339" s="5"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="6"/>
-      <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
-      <c r="F340" s="6"/>
+      <c r="A340" s="2">
+        <v>450001</v>
+      </c>
+      <c r="B340" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C340" s="4">
+        <v>112110</v>
+      </c>
+      <c r="D340" s="5"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>459000</v>
+        <v>450002</v>
       </c>
       <c r="B341" s="3">
         <v>4400</v>
       </c>
       <c r="C341" s="4">
-        <v>559000</v>
+        <v>112120</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
@@ -5538,13 +5552,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>459001</v>
+        <v>450003</v>
       </c>
       <c r="B342" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C342" s="4">
-        <v>2</v>
+        <v>112130</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
@@ -5552,13 +5566,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>459002</v>
+        <v>450010</v>
       </c>
       <c r="B343" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C343" s="4">
-        <v>3</v>
+        <v>101000</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
@@ -5566,13 +5580,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>459003</v>
+        <v>450011</v>
       </c>
       <c r="B344" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C344" s="4">
-        <v>4</v>
+        <v>101010</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
@@ -5580,13 +5594,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>459004</v>
+        <v>450012</v>
       </c>
       <c r="B345" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C345" s="4">
-        <v>20</v>
+        <v>101020</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
@@ -5594,13 +5608,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>459005</v>
+        <v>450013</v>
       </c>
       <c r="B346" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C346" s="4">
-        <v>50</v>
+        <v>101040</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
@@ -5612,149 +5626,158 @@
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B348" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C348" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D348" s="5"/>
-      <c r="E348" s="2"/>
-      <c r="F348" s="3"/>
+      <c r="A348" s="6"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>450001</v>
+        <v>459000</v>
       </c>
       <c r="B349" s="3">
         <v>4400</v>
       </c>
       <c r="C349" s="4">
-        <v>112110</v>
+        <v>559000</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="2"/>
-      <c r="F349" s="3"/>
+      <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>450002</v>
+        <v>459001</v>
       </c>
       <c r="B350" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C350" s="4">
-        <v>112120</v>
+        <v>2</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
-      <c r="F350" s="3"/>
+      <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>450003</v>
+        <v>459002</v>
       </c>
       <c r="B351" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C351" s="4">
-        <v>112130</v>
+        <v>3</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
-      <c r="F351" s="3"/>
+      <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>450010</v>
+        <v>459003</v>
       </c>
       <c r="B352" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C352" s="4">
-        <v>101000</v>
+        <v>4</v>
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="2"/>
-      <c r="F352" s="3"/>
+      <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>450011</v>
+        <v>459004</v>
       </c>
       <c r="B353" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C353" s="4">
-        <v>101010</v>
+        <v>20</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="2"/>
-      <c r="F353" s="3"/>
+      <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>450012</v>
+        <v>459005</v>
       </c>
       <c r="B354" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C354" s="4">
-        <v>101020</v>
+        <v>50</v>
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="2"/>
-      <c r="F354" s="3"/>
+      <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" s="2">
-        <v>450013</v>
-      </c>
-      <c r="B355" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C355" s="4">
-        <v>101040</v>
-      </c>
-      <c r="D355" s="5"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="3"/>
+      <c r="A355" s="6"/>
+      <c r="B355" s="6"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" s="6"/>
-      <c r="B356" s="6"/>
-      <c r="C356" s="6"/>
-      <c r="D356" s="6"/>
-      <c r="E356" s="6"/>
+      <c r="A356" s="2">
+        <v>450000</v>
+      </c>
+      <c r="B356" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C356" s="4">
+        <v>112100</v>
+      </c>
+      <c r="D356" s="5"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="3"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>459000</v>
+        <v>450001</v>
       </c>
       <c r="B357" s="3">
         <v>4400</v>
       </c>
       <c r="C357" s="4">
-        <v>559000</v>
+        <v>112110</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
       <c r="F357" s="3"/>
     </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>450002</v>
+      </c>
+      <c r="B358" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C358" s="4">
+        <v>112120</v>
+      </c>
+      <c r="D358" s="5"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="3"/>
+    </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>440030</v>
+        <v>450003</v>
       </c>
       <c r="B359" s="3">
         <v>4400</v>
       </c>
       <c r="C359" s="4">
-        <v>140020</v>
+        <v>112130</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="2"/>
@@ -5762,17 +5785,108 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>440040</v>
+        <v>450010</v>
       </c>
       <c r="B360" s="3">
         <v>4400</v>
       </c>
       <c r="C360" s="4">
-        <v>140030</v>
+        <v>101000</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="2"/>
       <c r="F360" s="3"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>450011</v>
+      </c>
+      <c r="B361" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C361" s="4">
+        <v>101010</v>
+      </c>
+      <c r="D361" s="5"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>450012</v>
+      </c>
+      <c r="B362" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C362" s="4">
+        <v>101020</v>
+      </c>
+      <c r="D362" s="5"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B363" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C363" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D363" s="5"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="6"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>459000</v>
+      </c>
+      <c r="B365" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C365" s="4">
+        <v>559000</v>
+      </c>
+      <c r="D365" s="5"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="3"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>440030</v>
+      </c>
+      <c r="B367" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C367" s="4">
+        <v>140020</v>
+      </c>
+      <c r="D367" s="5"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="3"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>440040</v>
+      </c>
+      <c r="B368" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C368" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D368" s="5"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955D8D9-89D5-4B58-9E09-73C64E2E0723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16140940-FB50-46EE-860A-6C0D9F378593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="4290" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13215" yWindow="2955" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F368"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:D136"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H363" sqref="H363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,14 +780,12 @@
         <v>400070</v>
       </c>
       <c r="B12" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C12" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
+        <v>100060</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -1406,9 +1404,11 @@
         <v>414001</v>
       </c>
       <c r="B52" s="3">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C52" s="4">
+        <v>100010</v>
+      </c>
       <c r="D52" s="5"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -5721,35 +5721,35 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" s="6"/>
-      <c r="B355" s="6"/>
-      <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
-      <c r="E355" s="6"/>
+      <c r="A355" s="2">
+        <v>459010</v>
+      </c>
+      <c r="B355" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C355" s="4">
+        <v>100070</v>
+      </c>
+      <c r="D355" s="5"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B356" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C356" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D356" s="5"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="3"/>
+      <c r="A356" s="6"/>
+      <c r="B356" s="6"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>450001</v>
+        <v>450000</v>
       </c>
       <c r="B357" s="3">
         <v>4400</v>
       </c>
       <c r="C357" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
@@ -5757,13 +5757,13 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>450002</v>
+        <v>450001</v>
       </c>
       <c r="B358" s="3">
         <v>4400</v>
       </c>
       <c r="C358" s="4">
-        <v>112120</v>
+        <v>112110</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="2"/>
@@ -5771,13 +5771,13 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>450003</v>
+        <v>450002</v>
       </c>
       <c r="B359" s="3">
         <v>4400</v>
       </c>
       <c r="C359" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="2"/>
@@ -5785,13 +5785,13 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>450010</v>
+        <v>450003</v>
       </c>
       <c r="B360" s="3">
         <v>4400</v>
       </c>
       <c r="C360" s="4">
-        <v>101000</v>
+        <v>112130</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="2"/>
@@ -5799,13 +5799,13 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>450011</v>
+        <v>450010</v>
       </c>
       <c r="B361" s="3">
         <v>4400</v>
       </c>
       <c r="C361" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="2"/>
@@ -5813,13 +5813,13 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>450012</v>
+        <v>450011</v>
       </c>
       <c r="B362" s="3">
         <v>4400</v>
       </c>
       <c r="C362" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="2"/>
@@ -5827,66 +5827,80 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>450013</v>
+        <v>450012</v>
       </c>
       <c r="B363" s="3">
         <v>4400</v>
       </c>
       <c r="C363" s="4">
-        <v>101040</v>
+        <v>101020</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="2"/>
       <c r="F363" s="3"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A364" s="6"/>
-      <c r="B364" s="6"/>
-      <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
-      <c r="E364" s="6"/>
+      <c r="A364" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B364" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C364" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D364" s="5"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="3"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365" s="2">
+      <c r="A365" s="6"/>
+      <c r="B365" s="6"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
         <v>459000</v>
       </c>
-      <c r="B365" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C365" s="4">
+      <c r="B366" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C366" s="4">
         <v>559000</v>
       </c>
-      <c r="D365" s="5"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="3"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A367" s="2">
-        <v>440030</v>
-      </c>
-      <c r="B367" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C367" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D367" s="5"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="3"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="3"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>440040</v>
+        <v>440030</v>
       </c>
       <c r="B368" s="3">
         <v>4400</v>
       </c>
       <c r="C368" s="4">
-        <v>140030</v>
+        <v>140020</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="2"/>
       <c r="F368" s="3"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>440040</v>
+      </c>
+      <c r="B369" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C369" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D369" s="5"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16140940-FB50-46EE-860A-6C0D9F378593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5BA25B-784D-4D89-9FFA-0ECF4BED650C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13215" yWindow="2955" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11595" yWindow="4650" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +280,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -596,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H363" sqref="H363"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F371" sqref="F371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,7 +703,7 @@
         <v>20003</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1404,7 +1407,7 @@
         <v>414001</v>
       </c>
       <c r="B52" s="3">
-        <v>4400</v>
+        <v>4103</v>
       </c>
       <c r="C52" s="4">
         <v>100010</v>
@@ -3022,32 +3025,43 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>412160</v>
+      </c>
+      <c r="B161" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C161" s="4">
+        <v>112100</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+    </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>413100</v>
+        <v>412161</v>
       </c>
       <c r="B162" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C162" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D162" s="5">
-        <v>1</v>
-      </c>
+        <v>112110</v>
+      </c>
+      <c r="D162" s="5"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>413101</v>
+        <v>412162</v>
       </c>
       <c r="B163" s="3">
         <v>4400</v>
       </c>
       <c r="C163" s="4">
-        <v>100031</v>
+        <v>112120</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
@@ -3055,57 +3069,44 @@
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>413110</v>
+        <v>412163</v>
       </c>
       <c r="B164" s="3">
         <v>4400</v>
       </c>
       <c r="C164" s="4">
-        <v>113100</v>
+        <v>112130</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
-        <v>413120</v>
-      </c>
-      <c r="B165" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C165" s="4">
-        <v>113110</v>
-      </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-    </row>
+    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>413121</v>
+        <v>413100</v>
       </c>
       <c r="B166" s="3">
         <v>4102</v>
       </c>
       <c r="C166" s="4">
-        <v>60011</v>
+        <v>60003</v>
       </c>
       <c r="D166" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>413122</v>
+        <v>413101</v>
       </c>
       <c r="B167" s="3">
         <v>4400</v>
       </c>
       <c r="C167" s="4">
-        <v>121100</v>
+        <v>100031</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
@@ -3113,13 +3114,13 @@
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>413130</v>
+        <v>413110</v>
       </c>
       <c r="B168" s="3">
         <v>4400</v>
       </c>
       <c r="C168" s="4">
-        <v>121110</v>
+        <v>113100</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
@@ -3127,13 +3128,13 @@
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>413131</v>
+        <v>413120</v>
       </c>
       <c r="B169" s="3">
         <v>4400</v>
       </c>
       <c r="C169" s="4">
-        <v>121111</v>
+        <v>113110</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
@@ -3141,27 +3142,29 @@
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>413132</v>
+        <v>413121</v>
       </c>
       <c r="B170" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C170" s="4">
-        <v>113120</v>
-      </c>
-      <c r="D170" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D170" s="5">
+        <v>2</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>413140</v>
+        <v>413122</v>
       </c>
       <c r="B171" s="3">
         <v>4400</v>
       </c>
       <c r="C171" s="4">
-        <v>121110</v>
+        <v>121100</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
@@ -3169,13 +3172,13 @@
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>413141</v>
+        <v>413130</v>
       </c>
       <c r="B172" s="3">
         <v>4400</v>
       </c>
       <c r="C172" s="4">
-        <v>121112</v>
+        <v>121110</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="2"/>
@@ -3183,13 +3186,13 @@
     </row>
     <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>413142</v>
+        <v>413131</v>
       </c>
       <c r="B173" s="3">
         <v>4400</v>
       </c>
       <c r="C173" s="4">
-        <v>113120</v>
+        <v>121111</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="2"/>
@@ -3197,13 +3200,13 @@
     </row>
     <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>413150</v>
+        <v>413132</v>
       </c>
       <c r="B174" s="3">
         <v>4400</v>
       </c>
       <c r="C174" s="4">
-        <v>113140</v>
+        <v>113120</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="2"/>
@@ -3211,29 +3214,27 @@
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>413151</v>
+        <v>413140</v>
       </c>
       <c r="B175" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C175" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D175" s="5">
-        <v>2</v>
-      </c>
+        <v>121110</v>
+      </c>
+      <c r="D175" s="5"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>413160</v>
+        <v>413141</v>
       </c>
       <c r="B176" s="3">
         <v>4400</v>
       </c>
       <c r="C176" s="4">
-        <v>113150</v>
+        <v>121112</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="2"/>
@@ -3241,83 +3242,81 @@
     </row>
     <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>413161</v>
+        <v>413142</v>
       </c>
       <c r="B177" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C177" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D177" s="5">
-        <v>3</v>
-      </c>
+        <v>113120</v>
+      </c>
+      <c r="D177" s="5"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>413200</v>
+        <v>413150</v>
       </c>
       <c r="B178" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C178" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D178" s="5">
-        <v>1</v>
-      </c>
+        <v>113140</v>
+      </c>
+      <c r="D178" s="5"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>413201</v>
+        <v>413151</v>
       </c>
       <c r="B179" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C179" s="4">
-        <v>100040</v>
-      </c>
-      <c r="D179" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D179" s="5">
+        <v>2</v>
+      </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>413210</v>
+        <v>413160</v>
       </c>
       <c r="B180" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C180" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D180" s="5">
-        <v>2</v>
-      </c>
+        <v>113150</v>
+      </c>
+      <c r="D180" s="5"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>413211</v>
+        <v>413161</v>
       </c>
       <c r="B181" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C181" s="4">
-        <v>113200</v>
-      </c>
-      <c r="D181" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D181" s="5">
+        <v>3</v>
+      </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>413220</v>
+        <v>413200</v>
       </c>
       <c r="B182" s="3">
         <v>4102</v>
@@ -3326,20 +3325,20 @@
         <v>60003</v>
       </c>
       <c r="D182" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>413221</v>
+        <v>413201</v>
       </c>
       <c r="B183" s="3">
         <v>4400</v>
       </c>
       <c r="C183" s="4">
-        <v>113210</v>
+        <v>100040</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
@@ -3347,27 +3346,29 @@
     </row>
     <row r="184" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>413230</v>
+        <v>413210</v>
       </c>
       <c r="B184" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C184" s="4">
-        <v>113220</v>
-      </c>
-      <c r="D184" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D184" s="5">
+        <v>2</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>413231</v>
+        <v>413211</v>
       </c>
       <c r="B185" s="3">
         <v>4400</v>
       </c>
       <c r="C185" s="4">
-        <v>118114</v>
+        <v>113200</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
@@ -3375,84 +3376,80 @@
     </row>
     <row r="186" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>413232</v>
+        <v>413220</v>
       </c>
       <c r="B186" s="3">
-        <v>4506</v>
+        <v>4102</v>
       </c>
       <c r="C186" s="4">
-        <v>61004</v>
-      </c>
-      <c r="D186" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D186" s="5">
+        <v>3</v>
+      </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>413221</v>
+      </c>
+      <c r="B187" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C187" s="4">
+        <v>113210</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+    </row>
     <row r="188" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>415100</v>
+        <v>413230</v>
       </c>
       <c r="B188" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C188" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D188" s="5">
-        <v>1</v>
-      </c>
+        <v>113220</v>
+      </c>
+      <c r="D188" s="5"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>415101</v>
+        <v>413231</v>
       </c>
       <c r="B189" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C189" s="4">
-        <v>21510</v>
-      </c>
-      <c r="D189" s="5">
-        <v>1</v>
-      </c>
+        <v>118114</v>
+      </c>
+      <c r="D189" s="5"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>415110</v>
+        <v>413232</v>
       </c>
       <c r="B190" s="3">
-        <v>4102</v>
+        <v>4506</v>
       </c>
       <c r="C190" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D190" s="5">
-        <v>2</v>
-      </c>
+        <v>61004</v>
+      </c>
+      <c r="D190" s="5"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="2">
-        <v>415111</v>
-      </c>
-      <c r="B191" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C191" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-    </row>
+    <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="192" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>415120</v>
+        <v>415100</v>
       </c>
       <c r="B192" s="3">
         <v>4102</v>
@@ -3461,48 +3458,52 @@
         <v>60005</v>
       </c>
       <c r="D192" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>415121</v>
+        <v>415101</v>
       </c>
       <c r="B193" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C193" s="4">
-        <v>115101</v>
-      </c>
-      <c r="D193" s="5"/>
+        <v>21510</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1</v>
+      </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>415122</v>
+        <v>415110</v>
       </c>
       <c r="B194" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C194" s="4">
-        <v>115111</v>
-      </c>
-      <c r="D194" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D194" s="5">
+        <v>2</v>
+      </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>415123</v>
+        <v>415111</v>
       </c>
       <c r="B195" s="3">
         <v>4400</v>
       </c>
       <c r="C195" s="4">
-        <v>115170</v>
+        <v>115100</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="2"/>
@@ -3510,7 +3511,7 @@
     </row>
     <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>415130</v>
+        <v>415120</v>
       </c>
       <c r="B196" s="3">
         <v>4102</v>
@@ -3526,13 +3527,13 @@
     </row>
     <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>415131</v>
+        <v>415121</v>
       </c>
       <c r="B197" s="3">
         <v>4400</v>
       </c>
       <c r="C197" s="4">
-        <v>115112</v>
+        <v>115101</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
@@ -3540,13 +3541,13 @@
     </row>
     <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>415132</v>
+        <v>415122</v>
       </c>
       <c r="B198" s="3">
         <v>4400</v>
       </c>
       <c r="C198" s="4">
-        <v>115170</v>
+        <v>115111</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="2"/>
@@ -3554,13 +3555,13 @@
     </row>
     <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>415140</v>
+        <v>415123</v>
       </c>
       <c r="B199" s="3">
         <v>4400</v>
       </c>
       <c r="C199" s="4">
-        <v>115102</v>
+        <v>115170</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
@@ -3568,27 +3569,29 @@
     </row>
     <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>415141</v>
+        <v>415130</v>
       </c>
       <c r="B200" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C200" s="4">
-        <v>115111</v>
-      </c>
-      <c r="D200" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D200" s="5">
+        <v>3</v>
+      </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>415150</v>
+        <v>415131</v>
       </c>
       <c r="B201" s="3">
         <v>4400</v>
       </c>
       <c r="C201" s="4">
-        <v>115102</v>
+        <v>115112</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="2"/>
@@ -3596,13 +3599,13 @@
     </row>
     <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>415151</v>
+        <v>415132</v>
       </c>
       <c r="B202" s="3">
         <v>4400</v>
       </c>
       <c r="C202" s="4">
-        <v>115111</v>
+        <v>115170</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
@@ -3610,7 +3613,7 @@
     </row>
     <row r="203" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>415160</v>
+        <v>415140</v>
       </c>
       <c r="B203" s="3">
         <v>4400</v>
@@ -3624,7 +3627,7 @@
     </row>
     <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>415161</v>
+        <v>415141</v>
       </c>
       <c r="B204" s="3">
         <v>4400</v>
@@ -3638,13 +3641,13 @@
     </row>
     <row r="205" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>415170</v>
+        <v>415150</v>
       </c>
       <c r="B205" s="3">
         <v>4400</v>
       </c>
       <c r="C205" s="4">
-        <v>118114</v>
+        <v>115102</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
@@ -3652,29 +3655,27 @@
     </row>
     <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>415171</v>
+        <v>415151</v>
       </c>
       <c r="B206" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C206" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D206" s="5">
-        <v>3</v>
-      </c>
+        <v>115111</v>
+      </c>
+      <c r="D206" s="5"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>415172</v>
+        <v>415160</v>
       </c>
       <c r="B207" s="3">
         <v>4400</v>
       </c>
       <c r="C207" s="4">
-        <v>115120</v>
+        <v>115102</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
@@ -3682,13 +3683,13 @@
     </row>
     <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>415173</v>
+        <v>415161</v>
       </c>
       <c r="B208" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C208" s="4">
-        <v>4</v>
+        <v>115111</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
@@ -3696,44 +3697,57 @@
     </row>
     <row r="209" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>415180</v>
+        <v>415170</v>
       </c>
       <c r="B209" s="3">
         <v>4400</v>
       </c>
       <c r="C209" s="4">
-        <v>115170</v>
+        <v>118114</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>415171</v>
+      </c>
+      <c r="B210" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C210" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D210" s="5">
+        <v>3</v>
+      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+    </row>
     <row r="211" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>416100</v>
+        <v>415172</v>
       </c>
       <c r="B211" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C211" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D211" s="5">
-        <v>1</v>
-      </c>
+        <v>115120</v>
+      </c>
+      <c r="D211" s="5"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>416101</v>
+        <v>415173</v>
       </c>
       <c r="B212" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C212" s="4">
-        <v>116101</v>
+        <v>4</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
@@ -3741,37 +3755,22 @@
     </row>
     <row r="213" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>416110</v>
+        <v>415180</v>
       </c>
       <c r="B213" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C213" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D213" s="5">
-        <v>2</v>
-      </c>
+        <v>115170</v>
+      </c>
+      <c r="D213" s="5"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="2">
-        <v>416111</v>
-      </c>
-      <c r="B214" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C214" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D214" s="5"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>416120</v>
+        <v>416100</v>
       </c>
       <c r="B215" s="3">
         <v>4102</v>
@@ -3780,20 +3779,20 @@
         <v>60006</v>
       </c>
       <c r="D215" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>416121</v>
+        <v>416101</v>
       </c>
       <c r="B216" s="3">
         <v>4400</v>
       </c>
       <c r="C216" s="4">
-        <v>116110</v>
+        <v>116101</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
@@ -3801,58 +3800,73 @@
     </row>
     <row r="217" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>416122</v>
+        <v>416110</v>
       </c>
       <c r="B217" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C217" s="4">
-        <v>21612</v>
+        <v>60006</v>
       </c>
       <c r="D217" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>416130</v>
+        <v>416111</v>
       </c>
       <c r="B218" s="3">
-        <v>0</v>
-      </c>
-      <c r="C218" s="4"/>
+        <v>4400</v>
+      </c>
+      <c r="C218" s="4">
+        <v>116100</v>
+      </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>416120</v>
+      </c>
+      <c r="B219" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C219" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D219" s="5">
+        <v>3</v>
+      </c>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+    </row>
     <row r="220" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>417100</v>
+        <v>416121</v>
       </c>
       <c r="B220" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C220" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D220" s="5">
-        <v>1</v>
-      </c>
+        <v>116110</v>
+      </c>
+      <c r="D220" s="5"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>417101</v>
+        <v>416122</v>
       </c>
       <c r="B221" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C221" s="4">
-        <v>60008</v>
+        <v>21612</v>
       </c>
       <c r="D221" s="5">
         <v>1</v>
@@ -3860,107 +3874,88 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>417102</v>
-      </c>
-      <c r="B222" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C222" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D222" s="5">
+        <v>416130</v>
+      </c>
+      <c r="B222" s="3"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+    </row>
+    <row r="223" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>417100</v>
+      </c>
+      <c r="B224" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C224" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D224" s="5">
         <v>1</v>
       </c>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>417110</v>
-      </c>
-      <c r="B223" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C223" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D223" s="5"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>417120</v>
-      </c>
-      <c r="B224" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C224" s="4">
-        <v>117110</v>
-      </c>
-      <c r="D224" s="5"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>417130</v>
+        <v>417101</v>
       </c>
       <c r="B225" s="3">
         <v>4102</v>
       </c>
       <c r="C225" s="4">
-        <v>60007</v>
+        <v>60008</v>
       </c>
       <c r="D225" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>417131</v>
+        <v>417102</v>
       </c>
       <c r="B226" s="3">
         <v>4102</v>
       </c>
       <c r="C226" s="4">
-        <v>60008</v>
+        <v>60009</v>
       </c>
       <c r="D226" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>417132</v>
+        <v>417110</v>
       </c>
       <c r="B227" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C227" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D227" s="5">
-        <v>2</v>
-      </c>
+        <v>117100</v>
+      </c>
+      <c r="D227" s="5"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>417133</v>
+        <v>417120</v>
       </c>
       <c r="B228" s="3">
         <v>4400</v>
       </c>
       <c r="C228" s="4">
-        <v>117120</v>
+        <v>117110</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
@@ -3968,57 +3963,61 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>417134</v>
+        <v>417130</v>
       </c>
       <c r="B229" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C229" s="4">
-        <v>116110</v>
-      </c>
-      <c r="D229" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D229" s="5">
+        <v>2</v>
+      </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>417140</v>
+        <v>417131</v>
       </c>
       <c r="B230" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C230" s="4">
-        <v>117130</v>
-      </c>
-      <c r="D230" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D230" s="5">
+        <v>2</v>
+      </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>417141</v>
+        <v>417132</v>
       </c>
       <c r="B231" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C231" s="4">
-        <v>21714</v>
+        <v>60009</v>
       </c>
       <c r="D231" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>417150</v>
+        <v>417133</v>
       </c>
       <c r="B232" s="3">
         <v>4400</v>
       </c>
       <c r="C232" s="4">
-        <v>117141</v>
+        <v>117120</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="2"/>
@@ -4026,121 +4025,121 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>417151</v>
+        <v>417134</v>
       </c>
       <c r="B233" s="3">
         <v>4400</v>
       </c>
       <c r="C233" s="4">
-        <v>117140</v>
+        <v>116110</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
-      <c r="F234" s="6"/>
+      <c r="A234" s="2">
+        <v>417140</v>
+      </c>
+      <c r="B234" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C234" s="4">
+        <v>117130</v>
+      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>418100</v>
+        <v>417141</v>
       </c>
       <c r="B235" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C235" s="4">
+        <v>21714</v>
+      </c>
+      <c r="D235" s="5">
         <v>0</v>
       </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="5"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>418110</v>
+        <v>417150</v>
       </c>
       <c r="B236" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C236" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D236" s="5">
-        <v>1</v>
-      </c>
+        <v>117141</v>
+      </c>
+      <c r="D236" s="5"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>418111</v>
+        <v>417151</v>
       </c>
       <c r="B237" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C237" s="4">
-        <v>20</v>
+        <v>117140</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
-        <v>418112</v>
-      </c>
-      <c r="B238" s="3">
-        <v>4506</v>
-      </c>
-      <c r="C238" s="4">
-        <v>61004</v>
-      </c>
-      <c r="D238" s="5"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>418113</v>
+        <v>418100</v>
       </c>
       <c r="B239" s="3">
-        <v>4403</v>
-      </c>
-      <c r="C239" s="4">
-        <v>21811</v>
-      </c>
-      <c r="D239" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C239" s="4"/>
+      <c r="D239" s="5"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>418114</v>
+        <v>418110</v>
       </c>
       <c r="B240" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C240" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D240" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D240" s="5">
+        <v>1</v>
+      </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>418115</v>
+        <v>418111</v>
       </c>
       <c r="B241" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C241" s="4">
-        <v>118115</v>
+        <v>20</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
@@ -4148,97 +4147,93 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>418116</v>
+        <v>418112</v>
       </c>
       <c r="B242" s="3">
-        <v>4400</v>
+        <v>4506</v>
       </c>
       <c r="C242" s="4">
-        <v>118116</v>
+        <v>61004</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6"/>
+      <c r="A243" s="2">
+        <v>418113</v>
+      </c>
+      <c r="B243" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C243" s="4">
+        <v>21811</v>
+      </c>
+      <c r="D243" s="5">
+        <v>1</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>419100</v>
+        <v>418114</v>
       </c>
       <c r="B244" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C244" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D244" s="5">
-        <v>1</v>
-      </c>
+        <v>118114</v>
+      </c>
+      <c r="D244" s="5"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>419101</v>
+        <v>418115</v>
       </c>
       <c r="B245" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C245" s="4">
-        <v>21910</v>
-      </c>
-      <c r="D245" s="5">
-        <v>1</v>
-      </c>
+        <v>118115</v>
+      </c>
+      <c r="D245" s="5"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>419110</v>
+        <v>418116</v>
       </c>
       <c r="B246" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C246" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D246" s="5">
-        <v>2</v>
-      </c>
+        <v>118116</v>
+      </c>
+      <c r="D246" s="5"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>419111</v>
-      </c>
-      <c r="B247" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C247" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D247" s="5"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
+      <c r="A247" s="6"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>419112</v>
+        <v>419100</v>
       </c>
       <c r="B248" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C248" s="4">
-        <v>21911</v>
+        <v>60009</v>
       </c>
       <c r="D248" s="5">
         <v>1</v>
@@ -4248,169 +4243,171 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>419120</v>
+        <v>419101</v>
       </c>
       <c r="B249" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C249" s="4">
-        <v>60009</v>
+        <v>21910</v>
       </c>
       <c r="D249" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>419121</v>
+        <v>419110</v>
       </c>
       <c r="B250" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C250" s="4">
-        <v>119110</v>
-      </c>
-      <c r="D250" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D250" s="5">
+        <v>2</v>
+      </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>419122</v>
+        <v>419111</v>
       </c>
       <c r="B251" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C251" s="4">
-        <v>21912</v>
-      </c>
-      <c r="D251" s="5">
-        <v>1</v>
-      </c>
+        <v>119100</v>
+      </c>
+      <c r="D251" s="5"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>419130</v>
+        <v>419112</v>
       </c>
       <c r="B252" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C252" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D252" s="5"/>
+        <v>21911</v>
+      </c>
+      <c r="D252" s="5">
+        <v>1</v>
+      </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>419140</v>
+        <v>419120</v>
       </c>
       <c r="B253" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C253" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D253" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D253" s="5">
+        <v>3</v>
+      </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>419150</v>
+        <v>419121</v>
       </c>
       <c r="B254" s="3">
         <v>4400</v>
       </c>
       <c r="C254" s="4">
-        <v>119121</v>
+        <v>119110</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="6"/>
+      <c r="A255" s="2">
+        <v>419122</v>
+      </c>
+      <c r="B255" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C255" s="4">
+        <v>21912</v>
+      </c>
+      <c r="D255" s="5">
+        <v>1</v>
+      </c>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>420100</v>
+        <v>419130</v>
       </c>
       <c r="B256" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C256" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D256" s="5">
-        <v>1</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D256" s="5"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>420110</v>
+        <v>419140</v>
       </c>
       <c r="B257" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C257" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D257" s="5">
-        <v>2</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D257" s="5"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>420111</v>
+        <v>419150</v>
       </c>
       <c r="B258" s="3">
         <v>4400</v>
       </c>
       <c r="C258" s="4">
-        <v>120100</v>
+        <v>119121</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="2">
-        <v>420120</v>
-      </c>
-      <c r="B259" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C259" s="4">
-        <v>120110</v>
-      </c>
-      <c r="D259" s="5"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
+      <c r="A259" s="6"/>
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>420121</v>
+        <v>420100</v>
       </c>
       <c r="B260" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C260" s="4">
-        <v>22012</v>
+        <v>60010</v>
       </c>
       <c r="D260" s="5">
         <v>1</v>
@@ -4420,27 +4417,29 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>420130</v>
+        <v>420110</v>
       </c>
       <c r="B261" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C261" s="4">
-        <v>120121</v>
-      </c>
-      <c r="D261" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D261" s="5">
+        <v>2</v>
+      </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>420140</v>
+        <v>420111</v>
       </c>
       <c r="B262" s="3">
         <v>4400</v>
       </c>
       <c r="C262" s="4">
-        <v>120160</v>
+        <v>120100</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="2"/>
@@ -4448,13 +4447,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>420141</v>
+        <v>420120</v>
       </c>
       <c r="B263" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C263" s="4">
-        <v>60011</v>
+        <v>120110</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
@@ -4462,27 +4461,29 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>420142</v>
+        <v>420121</v>
       </c>
       <c r="B264" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C264" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D264" s="5"/>
+        <v>22012</v>
+      </c>
+      <c r="D264" s="5">
+        <v>0</v>
+      </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>420150</v>
+        <v>420130</v>
       </c>
       <c r="B265" s="3">
         <v>4400</v>
       </c>
       <c r="C265" s="4">
-        <v>120160</v>
+        <v>120121</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
@@ -4490,13 +4491,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>420151</v>
+        <v>420140</v>
       </c>
       <c r="B266" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C266" s="4">
-        <v>60011</v>
+        <v>120160</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
@@ -4504,13 +4505,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>420152</v>
+        <v>420141</v>
       </c>
       <c r="B267" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C267" s="4">
-        <v>121100</v>
+        <v>60011</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
@@ -4518,13 +4519,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>420160</v>
+        <v>420142</v>
       </c>
       <c r="B268" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C268" s="4">
-        <v>60010</v>
+        <v>121110</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
@@ -4532,29 +4533,27 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>420161</v>
+        <v>420150</v>
       </c>
       <c r="B269" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C269" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D269" s="5">
-        <v>1</v>
-      </c>
+        <v>120160</v>
+      </c>
+      <c r="D269" s="5"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>420162</v>
+        <v>420151</v>
       </c>
       <c r="B270" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C270" s="4">
-        <v>121110</v>
+        <v>60011</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
@@ -4562,7 +4561,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>420163</v>
+        <v>420152</v>
       </c>
       <c r="B271" s="3">
         <v>4400</v>
@@ -4576,13 +4575,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>420164</v>
+        <v>420160</v>
       </c>
       <c r="B272" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C272" s="4">
-        <v>120130</v>
+        <v>60010</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
@@ -4590,51 +4589,57 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>420165</v>
+        <v>420161</v>
       </c>
       <c r="B273" s="3">
-        <v>4000</v>
+        <v>4102</v>
       </c>
       <c r="C273" s="4">
-        <v>30</v>
-      </c>
-      <c r="D273" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D273" s="5">
+        <v>1</v>
+      </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="9"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
+      <c r="A274" s="2">
+        <v>420162</v>
+      </c>
+      <c r="B274" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C274" s="4">
+        <v>121110</v>
+      </c>
+      <c r="D274" s="5"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>421100</v>
+        <v>420163</v>
       </c>
       <c r="B275" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C275" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D275" s="5">
-        <v>1</v>
-      </c>
+        <v>121100</v>
+      </c>
+      <c r="D275" s="5"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>421101</v>
+        <v>420164</v>
       </c>
       <c r="B276" s="3">
         <v>4400</v>
       </c>
       <c r="C276" s="4">
-        <v>100031</v>
+        <v>120130</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
@@ -4642,35 +4647,29 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>421110</v>
+        <v>420165</v>
       </c>
       <c r="B277" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C277" s="4">
-        <v>121100</v>
+        <v>30</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="2">
-        <v>421111</v>
-      </c>
-      <c r="B278" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C278" s="4">
-        <v>113121</v>
-      </c>
-      <c r="D278" s="5"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
+      <c r="A278" s="9"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>421112</v>
+        <v>421100</v>
       </c>
       <c r="B279" s="3">
         <v>4102</v>
@@ -4679,20 +4678,20 @@
         <v>60011</v>
       </c>
       <c r="D279" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>421113</v>
+        <v>421101</v>
       </c>
       <c r="B280" s="3">
         <v>4400</v>
       </c>
       <c r="C280" s="4">
-        <v>113120</v>
+        <v>100031</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
@@ -4700,13 +4699,13 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>421120</v>
+        <v>421110</v>
       </c>
       <c r="B281" s="3">
         <v>4400</v>
       </c>
       <c r="C281" s="4">
-        <v>121110</v>
+        <v>121100</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
@@ -4714,13 +4713,13 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>421121</v>
+        <v>421111</v>
       </c>
       <c r="B282" s="3">
         <v>4400</v>
       </c>
       <c r="C282" s="4">
-        <v>120121</v>
+        <v>113121</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
@@ -4728,27 +4727,29 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>421122</v>
+        <v>421112</v>
       </c>
       <c r="B283" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C283" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D283" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D283" s="5">
+        <v>2</v>
+      </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>421123</v>
+        <v>421113</v>
       </c>
       <c r="B284" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C284" s="4">
-        <v>30</v>
+        <v>113120</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
@@ -4756,29 +4757,27 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>421124</v>
+        <v>421120</v>
       </c>
       <c r="B285" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C285" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D285" s="5">
-        <v>3</v>
-      </c>
+        <v>121110</v>
+      </c>
+      <c r="D285" s="5"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>421130</v>
+        <v>421121</v>
       </c>
       <c r="B286" s="3">
         <v>4400</v>
       </c>
       <c r="C286" s="4">
-        <v>100032</v>
+        <v>120121</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
@@ -4786,13 +4785,13 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>421140</v>
+        <v>421122</v>
       </c>
       <c r="B287" s="3">
         <v>4400</v>
       </c>
       <c r="C287" s="4">
-        <v>121130</v>
+        <v>120160</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
@@ -4800,59 +4799,57 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>421141</v>
+        <v>421123</v>
       </c>
       <c r="B288" s="3">
-        <v>4102</v>
+        <v>4000</v>
       </c>
       <c r="C288" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D288" s="5">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D288" s="5"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>421150</v>
+        <v>421124</v>
       </c>
       <c r="B289" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C289" s="4">
-        <v>121140</v>
-      </c>
-      <c r="D289" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D289" s="5">
+        <v>3</v>
+      </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>421151</v>
+        <v>421130</v>
       </c>
       <c r="B290" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C290" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D290" s="5">
-        <v>2</v>
-      </c>
+        <v>100032</v>
+      </c>
+      <c r="D290" s="5"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>421160</v>
+        <v>421140</v>
       </c>
       <c r="B291" s="3">
         <v>4400</v>
       </c>
       <c r="C291" s="4">
-        <v>121150</v>
+        <v>121130</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
@@ -4860,27 +4857,29 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>421161</v>
+        <v>421141</v>
       </c>
       <c r="B292" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C292" s="4">
-        <v>120160</v>
-      </c>
-      <c r="D292" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D292" s="5">
+        <v>1</v>
+      </c>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>421162</v>
+        <v>421150</v>
       </c>
       <c r="B293" s="3">
         <v>4400</v>
       </c>
       <c r="C293" s="4">
-        <v>120130</v>
+        <v>121140</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="2"/>
@@ -4888,7 +4887,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>421163</v>
+        <v>421151</v>
       </c>
       <c r="B294" s="3">
         <v>4102</v>
@@ -4897,20 +4896,20 @@
         <v>60011</v>
       </c>
       <c r="D294" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>421170</v>
+        <v>421160</v>
       </c>
       <c r="B295" s="3">
         <v>4400</v>
       </c>
       <c r="C295" s="4">
-        <v>121160</v>
+        <v>121150</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
@@ -4918,7 +4917,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>421171</v>
+        <v>421161</v>
       </c>
       <c r="B296" s="3">
         <v>4400</v>
@@ -4932,7 +4931,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>421172</v>
+        <v>421162</v>
       </c>
       <c r="B297" s="3">
         <v>4400</v>
@@ -4946,27 +4945,29 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>421180</v>
+        <v>421163</v>
       </c>
       <c r="B298" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C298" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D298" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D298" s="5">
+        <v>3</v>
+      </c>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>421181</v>
+        <v>421170</v>
       </c>
       <c r="B299" s="3">
         <v>4400</v>
       </c>
       <c r="C299" s="4">
-        <v>120160</v>
+        <v>121160</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
@@ -4974,35 +4975,41 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>421182</v>
+        <v>421171</v>
       </c>
       <c r="B300" s="3">
         <v>4400</v>
       </c>
       <c r="C300" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="6"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
-      <c r="F301" s="6"/>
+      <c r="A301" s="2">
+        <v>421172</v>
+      </c>
+      <c r="B301" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C301" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D301" s="5"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>430000</v>
+        <v>421180</v>
       </c>
       <c r="B302" s="3">
-        <v>4505</v>
+        <v>4400</v>
       </c>
       <c r="C302" s="4">
-        <v>20</v>
+        <v>121130</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
@@ -5010,13 +5017,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>430010</v>
+        <v>421181</v>
       </c>
       <c r="B303" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C303" s="4">
-        <v>40</v>
+        <v>120160</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
@@ -5024,41 +5031,35 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>430020</v>
+        <v>421182</v>
       </c>
       <c r="B304" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C304" s="4">
-        <v>60</v>
+        <v>120130</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="2">
-        <v>430021</v>
-      </c>
-      <c r="B305" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C305" s="4">
-        <v>130010</v>
-      </c>
-      <c r="D305" s="5"/>
-      <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
+      <c r="A305" s="6"/>
+      <c r="B305" s="6"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+      <c r="F305" s="6"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>430030</v>
+        <v>430000</v>
       </c>
       <c r="B306" s="3">
-        <v>4001</v>
+        <v>4505</v>
       </c>
       <c r="C306" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
@@ -5066,13 +5067,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>430031</v>
+        <v>430010</v>
       </c>
       <c r="B307" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C307" s="4">
-        <v>130020</v>
+        <v>40</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
@@ -5080,13 +5081,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>430040</v>
+        <v>430011</v>
       </c>
       <c r="B308" s="3">
-        <v>4001</v>
+        <v>4005</v>
       </c>
       <c r="C308" s="4">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
@@ -5094,13 +5095,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>430041</v>
+        <v>430020</v>
       </c>
       <c r="B309" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C309" s="4">
-        <v>130120</v>
+        <v>60</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
@@ -5108,13 +5109,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>430050</v>
+        <v>430021</v>
       </c>
       <c r="B310" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C310" s="4">
-        <v>50</v>
+        <v>130010</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
@@ -5122,13 +5123,13 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>430051</v>
+        <v>430030</v>
       </c>
       <c r="B311" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C311" s="4">
-        <v>130150</v>
+        <v>30</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
@@ -5136,13 +5137,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>430052</v>
+        <v>430031</v>
       </c>
       <c r="B312" s="3">
         <v>4400</v>
       </c>
       <c r="C312" s="4">
-        <v>116101</v>
+        <v>130020</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
@@ -5150,13 +5151,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>430060</v>
+        <v>430040</v>
       </c>
       <c r="B313" s="3">
         <v>4001</v>
       </c>
       <c r="C313" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
@@ -5164,13 +5165,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>430061</v>
+        <v>430041</v>
       </c>
       <c r="B314" s="3">
         <v>4400</v>
       </c>
       <c r="C314" s="4">
-        <v>130020</v>
+        <v>130120</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
@@ -5178,13 +5179,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>430070</v>
+        <v>430050</v>
       </c>
       <c r="B315" s="3">
         <v>4001</v>
       </c>
       <c r="C315" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
@@ -5192,13 +5193,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>430071</v>
+        <v>430051</v>
       </c>
       <c r="B316" s="3">
         <v>4400</v>
       </c>
       <c r="C316" s="4">
-        <v>130130</v>
+        <v>130150</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
@@ -5206,13 +5207,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>430080</v>
+        <v>430052</v>
       </c>
       <c r="B317" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C317" s="4">
-        <v>50</v>
+        <v>116101</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
@@ -5220,13 +5221,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>430081</v>
+        <v>430060</v>
       </c>
       <c r="B318" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C318" s="4">
-        <v>130160</v>
+        <v>30</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
@@ -5234,13 +5235,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>430082</v>
+        <v>430061</v>
       </c>
       <c r="B319" s="3">
         <v>4400</v>
       </c>
       <c r="C319" s="4">
-        <v>118114</v>
+        <v>130020</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
@@ -5248,13 +5249,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>430090</v>
+        <v>430070</v>
       </c>
       <c r="B320" s="3">
         <v>4001</v>
       </c>
       <c r="C320" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
@@ -5262,13 +5263,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>430091</v>
+        <v>430071</v>
       </c>
       <c r="B321" s="3">
         <v>4400</v>
       </c>
       <c r="C321" s="4">
-        <v>130020</v>
+        <v>130130</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
@@ -5276,13 +5277,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>430100</v>
+        <v>430080</v>
       </c>
       <c r="B322" s="3">
         <v>4001</v>
       </c>
       <c r="C322" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
@@ -5290,13 +5291,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>430101</v>
+        <v>430081</v>
       </c>
       <c r="B323" s="3">
         <v>4400</v>
       </c>
       <c r="C323" s="4">
-        <v>130140</v>
+        <v>130160</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
@@ -5304,13 +5305,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>430110</v>
+        <v>430082</v>
       </c>
       <c r="B324" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C324" s="4">
-        <v>50</v>
+        <v>118114</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
@@ -5318,13 +5319,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>430111</v>
+        <v>430090</v>
       </c>
       <c r="B325" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C325" s="4">
-        <v>130170</v>
+        <v>30</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
@@ -5332,13 +5333,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>430112</v>
+        <v>430091</v>
       </c>
       <c r="B326" s="3">
         <v>4400</v>
       </c>
       <c r="C326" s="4">
-        <v>121110</v>
+        <v>130020</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
@@ -5346,29 +5347,27 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>430113</v>
+        <v>430100</v>
       </c>
       <c r="B327" s="3">
-        <v>4114</v>
+        <v>4001</v>
       </c>
       <c r="C327" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D327" s="5">
-        <v>4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D327" s="5"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>430120</v>
+        <v>430101</v>
       </c>
       <c r="B328" s="3">
         <v>4400</v>
       </c>
       <c r="C328" s="4">
-        <v>130030</v>
+        <v>130140</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
@@ -5376,13 +5375,13 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>430130</v>
+        <v>430110</v>
       </c>
       <c r="B329" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C329" s="4">
-        <v>130060</v>
+        <v>50</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
@@ -5390,13 +5389,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>430140</v>
+        <v>430111</v>
       </c>
       <c r="B330" s="3">
         <v>4400</v>
       </c>
       <c r="C330" s="4">
-        <v>130090</v>
+        <v>130170</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
@@ -5404,13 +5403,13 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>430150</v>
+        <v>430112</v>
       </c>
       <c r="B331" s="3">
         <v>4400</v>
       </c>
       <c r="C331" s="4">
-        <v>130040</v>
+        <v>121110</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
@@ -5418,27 +5417,29 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>430151</v>
+        <v>430113</v>
       </c>
       <c r="B332" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C332" s="4">
-        <v>130120</v>
-      </c>
-      <c r="D332" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D332" s="5">
+        <v>4</v>
+      </c>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>430160</v>
+        <v>430120</v>
       </c>
       <c r="B333" s="3">
         <v>4400</v>
       </c>
       <c r="C333" s="4">
-        <v>130070</v>
+        <v>130030</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
@@ -5446,13 +5447,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>430161</v>
+        <v>430130</v>
       </c>
       <c r="B334" s="3">
         <v>4400</v>
       </c>
       <c r="C334" s="4">
-        <v>130130</v>
+        <v>130060</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
@@ -5460,13 +5461,13 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>430170</v>
+        <v>430140</v>
       </c>
       <c r="B335" s="3">
         <v>4400</v>
       </c>
       <c r="C335" s="4">
-        <v>130100</v>
+        <v>130090</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
@@ -5474,13 +5475,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>430171</v>
+        <v>430150</v>
       </c>
       <c r="B336" s="3">
         <v>4400</v>
       </c>
       <c r="C336" s="4">
-        <v>130140</v>
+        <v>130040</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
@@ -5488,35 +5489,41 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>430180</v>
+        <v>430151</v>
       </c>
       <c r="B337" s="3">
-        <v>4505</v>
+        <v>4400</v>
       </c>
       <c r="C337" s="4">
-        <v>0</v>
+        <v>130120</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="6"/>
-      <c r="B338" s="6"/>
-      <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
-      <c r="E338" s="6"/>
-      <c r="F338" s="6"/>
+      <c r="A338" s="2">
+        <v>430160</v>
+      </c>
+      <c r="B338" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C338" s="4">
+        <v>130070</v>
+      </c>
+      <c r="D338" s="5"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>450000</v>
+        <v>430161</v>
       </c>
       <c r="B339" s="3">
         <v>4400</v>
       </c>
       <c r="C339" s="4">
-        <v>112100</v>
+        <v>130130</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
@@ -5524,13 +5531,13 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>450001</v>
+        <v>430170</v>
       </c>
       <c r="B340" s="3">
         <v>4400</v>
       </c>
       <c r="C340" s="4">
-        <v>112110</v>
+        <v>130100</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
@@ -5538,13 +5545,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>450002</v>
+        <v>430171</v>
       </c>
       <c r="B341" s="3">
         <v>4400</v>
       </c>
       <c r="C341" s="4">
-        <v>112120</v>
+        <v>130140</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
@@ -5552,41 +5559,35 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>450003</v>
+        <v>430180</v>
       </c>
       <c r="B342" s="3">
-        <v>4400</v>
+        <v>4505</v>
       </c>
       <c r="C342" s="4">
-        <v>112130</v>
+        <v>0</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="2">
-        <v>450010</v>
-      </c>
-      <c r="B343" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C343" s="4">
-        <v>101000</v>
-      </c>
-      <c r="D343" s="5"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
+      <c r="A343" s="6"/>
+      <c r="B343" s="6"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>450011</v>
+        <v>450000</v>
       </c>
       <c r="B344" s="3">
         <v>4400</v>
       </c>
       <c r="C344" s="4">
-        <v>101010</v>
+        <v>112100</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
@@ -5594,13 +5595,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>450012</v>
+        <v>450001</v>
       </c>
       <c r="B345" s="3">
         <v>4400</v>
       </c>
       <c r="C345" s="4">
-        <v>101020</v>
+        <v>112110</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
@@ -5608,43 +5609,55 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>450013</v>
+        <v>450002</v>
       </c>
       <c r="B346" s="3">
         <v>4400</v>
       </c>
       <c r="C346" s="4">
-        <v>101040</v>
+        <v>112120</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="6"/>
-      <c r="B347" s="6"/>
-      <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
-      <c r="E347" s="6"/>
-      <c r="F347" s="6"/>
+      <c r="A347" s="2">
+        <v>450003</v>
+      </c>
+      <c r="B347" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C347" s="4">
+        <v>112130</v>
+      </c>
+      <c r="D347" s="5"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="6"/>
-      <c r="B348" s="6"/>
-      <c r="C348" s="6"/>
-      <c r="D348" s="6"/>
-      <c r="E348" s="6"/>
-      <c r="F348" s="6"/>
+      <c r="A348" s="2">
+        <v>450010</v>
+      </c>
+      <c r="B348" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C348" s="4">
+        <v>101000</v>
+      </c>
+      <c r="D348" s="5"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>459000</v>
+        <v>450011</v>
       </c>
       <c r="B349" s="3">
         <v>4400</v>
       </c>
       <c r="C349" s="4">
-        <v>559000</v>
+        <v>101010</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="2"/>
@@ -5652,13 +5665,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>459001</v>
+        <v>450012</v>
       </c>
       <c r="B350" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C350" s="4">
-        <v>2</v>
+        <v>101020</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
@@ -5666,90 +5679,90 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>459002</v>
+        <v>450013</v>
       </c>
       <c r="B351" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C351" s="4">
-        <v>3</v>
+        <v>101040</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="2">
-        <v>459003</v>
-      </c>
-      <c r="B352" s="3">
-        <v>4005</v>
-      </c>
-      <c r="C352" s="4">
-        <v>4</v>
-      </c>
-      <c r="D352" s="5"/>
-      <c r="E352" s="2"/>
-      <c r="F352" s="2"/>
+      <c r="A352" s="6"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>459004</v>
+        <v>450000</v>
       </c>
       <c r="B353" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C353" s="4">
-        <v>20</v>
+        <v>112100</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="2"/>
-      <c r="F353" s="2"/>
+      <c r="F353" s="3"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>459005</v>
+        <v>450001</v>
       </c>
       <c r="B354" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C354" s="4">
-        <v>50</v>
+        <v>112110</v>
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
+      <c r="F354" s="3"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>459010</v>
+        <v>450002</v>
       </c>
       <c r="B355" s="3">
         <v>4400</v>
       </c>
       <c r="C355" s="4">
-        <v>100070</v>
+        <v>112120</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
+      <c r="F355" s="3"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" s="6"/>
-      <c r="B356" s="6"/>
-      <c r="C356" s="6"/>
-      <c r="D356" s="6"/>
-      <c r="E356" s="6"/>
+      <c r="A356" s="2">
+        <v>450003</v>
+      </c>
+      <c r="B356" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C356" s="4">
+        <v>112130</v>
+      </c>
+      <c r="D356" s="5"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="3"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>450000</v>
+        <v>450010</v>
       </c>
       <c r="B357" s="3">
         <v>4400</v>
       </c>
       <c r="C357" s="4">
-        <v>112100</v>
+        <v>101000</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
@@ -5757,13 +5770,13 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>450001</v>
+        <v>450011</v>
       </c>
       <c r="B358" s="3">
         <v>4400</v>
       </c>
       <c r="C358" s="4">
-        <v>112110</v>
+        <v>101010</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="2"/>
@@ -5771,13 +5784,13 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>450002</v>
+        <v>450012</v>
       </c>
       <c r="B359" s="3">
         <v>4400</v>
       </c>
       <c r="C359" s="4">
-        <v>112120</v>
+        <v>101020</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="2"/>
@@ -5785,122 +5798,150 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>450003</v>
+        <v>450013</v>
       </c>
       <c r="B360" s="3">
         <v>4400</v>
       </c>
       <c r="C360" s="4">
-        <v>112130</v>
+        <v>101040</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="2"/>
       <c r="F360" s="3"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" s="2">
-        <v>450010</v>
-      </c>
-      <c r="B361" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C361" s="4">
-        <v>101000</v>
-      </c>
-      <c r="D361" s="5"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="3"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" s="2">
-        <v>450011</v>
-      </c>
-      <c r="B362" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C362" s="4">
-        <v>101010</v>
-      </c>
-      <c r="D362" s="5"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="3"/>
+      <c r="A361" s="6"/>
+      <c r="B361" s="6"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>450012</v>
+        <v>459000</v>
       </c>
       <c r="B363" s="3">
         <v>4400</v>
       </c>
       <c r="C363" s="4">
-        <v>101020</v>
+        <v>559000</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="2"/>
-      <c r="F363" s="3"/>
+      <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>450013</v>
+        <v>459001</v>
       </c>
       <c r="B364" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C364" s="4">
-        <v>101040</v>
+        <v>2</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="2"/>
-      <c r="F364" s="3"/>
+      <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365" s="6"/>
-      <c r="B365" s="6"/>
-      <c r="C365" s="6"/>
-      <c r="D365" s="6"/>
-      <c r="E365" s="6"/>
+      <c r="A365" s="2">
+        <v>459002</v>
+      </c>
+      <c r="B365" s="3">
+        <v>4005</v>
+      </c>
+      <c r="C365" s="4">
+        <v>3</v>
+      </c>
+      <c r="D365" s="5"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>459000</v>
+        <v>459003</v>
       </c>
       <c r="B366" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C366" s="4">
-        <v>559000</v>
+        <v>4</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="2"/>
-      <c r="F366" s="3"/>
+      <c r="F366" s="2"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>459004</v>
+      </c>
+      <c r="B367" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C367" s="4">
+        <v>20</v>
+      </c>
+      <c r="D367" s="5"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>440030</v>
+        <v>459005</v>
       </c>
       <c r="B368" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C368" s="4">
-        <v>140020</v>
+        <v>50</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="2"/>
-      <c r="F368" s="3"/>
+      <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>440040</v>
+        <v>459010</v>
       </c>
       <c r="B369" s="3">
         <v>4400</v>
       </c>
       <c r="C369" s="4">
-        <v>140030</v>
+        <v>100070</v>
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="2"/>
-      <c r="F369" s="3"/>
+      <c r="F369" s="2"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>440030</v>
+      </c>
+      <c r="B372" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C372" s="4">
+        <v>140020</v>
+      </c>
+      <c r="D372" s="5"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="3"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>440040</v>
+      </c>
+      <c r="B373" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C373" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5BA25B-784D-4D89-9FFA-0ECF4BED650C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F6030-4499-4AC6-ADE8-E813888DFE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="4650" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13275" yWindow="5010" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F371" sqref="F371"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2913,9 +2913,11 @@
         <v>4114</v>
       </c>
       <c r="C152" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D152" s="5">
         <v>61002</v>
       </c>
-      <c r="D152" s="5"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273F6030-4499-4AC6-ADE8-E813888DFE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324756A-1C1E-4E16-9473-EA489E2379C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13275" yWindow="5010" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16425" yWindow="5010" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1129,7 +1129,7 @@
         <v>60002</v>
       </c>
       <c r="D34" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1161,7 +1161,7 @@
         <v>60002</v>
       </c>
       <c r="D36" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324756A-1C1E-4E16-9473-EA489E2379C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC314A-647A-41F4-8E76-BAF426982529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16425" yWindow="5010" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12690" yWindow="4875" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K185" sqref="K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
         <v>20003</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1407,7 +1407,7 @@
         <v>414001</v>
       </c>
       <c r="B52" s="3">
-        <v>4103</v>
+        <v>4400</v>
       </c>
       <c r="C52" s="4">
         <v>100010</v>
@@ -4064,7 +4064,7 @@
         <v>21714</v>
       </c>
       <c r="D235" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -4472,7 +4472,7 @@
         <v>22012</v>
       </c>
       <c r="D264" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC314A-647A-41F4-8E76-BAF426982529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B036B308-E2D7-46B2-97B1-36F42C616B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="4875" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="17580" yWindow="5085" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K185" sqref="K185"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C368" sqref="C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2916,7 +2916,7 @@
         <v>60002</v>
       </c>
       <c r="D152" s="5">
-        <v>61002</v>
+        <v>61003</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B036B308-E2D7-46B2-97B1-36F42C616B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FFB94-4631-45B6-8903-85FD96A6643C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17580" yWindow="5085" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="4965" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C368" sqref="C368"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G337" sqref="G337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -901,7 +901,7 @@
         <v>410050</v>
       </c>
       <c r="B20" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C20" s="4">
         <v>60000</v>
@@ -1043,7 +1043,7 @@
         <v>411050</v>
       </c>
       <c r="B29" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C29" s="4">
         <v>60001</v>
@@ -1185,7 +1185,7 @@
         <v>412050</v>
       </c>
       <c r="B38" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C38" s="4">
         <v>60002</v>
@@ -1343,7 +1343,7 @@
         <v>413050</v>
       </c>
       <c r="B48" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C48" s="4">
         <v>60003</v>
@@ -1501,7 +1501,7 @@
         <v>414050</v>
       </c>
       <c r="B58" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C58" s="4">
         <v>60004</v>
@@ -1645,7 +1645,7 @@
         <v>415050</v>
       </c>
       <c r="B67" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C67" s="4">
         <v>60005</v>
@@ -1789,7 +1789,7 @@
         <v>416050</v>
       </c>
       <c r="B76" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C76" s="4">
         <v>60006</v>
@@ -1933,7 +1933,7 @@
         <v>417050</v>
       </c>
       <c r="B85" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C85" s="4">
         <v>60007</v>
@@ -2077,7 +2077,7 @@
         <v>418050</v>
       </c>
       <c r="B94" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C94" s="4">
         <v>60008</v>
@@ -2221,7 +2221,7 @@
         <v>419050</v>
       </c>
       <c r="B103" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C103" s="4">
         <v>60009</v>
@@ -2365,7 +2365,7 @@
         <v>420050</v>
       </c>
       <c r="B112" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C112" s="4">
         <v>60010</v>
@@ -2493,7 +2493,7 @@
         <v>421050</v>
       </c>
       <c r="B120" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="C120" s="4">
         <v>60011</v>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FFB94-4631-45B6-8903-85FD96A6643C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579CE03C-32B5-4BEC-86CA-22C9858DBA73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="4965" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="3360" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G337" sqref="G337"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J357" sqref="J357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579CE03C-32B5-4BEC-86CA-22C9858DBA73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FFB94-4631-45B6-8903-85FD96A6643C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="3360" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="4965" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J357" sqref="J357"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G337" sqref="G337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FFB94-4631-45B6-8903-85FD96A6643C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1652EE5F-5BBD-4E63-9462-4DE9234E1A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="4965" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="5250" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -599,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G337" sqref="G337"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -907,7 +907,7 @@
         <v>60000</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -923,7 +923,7 @@
         <v>60000</v>
       </c>
       <c r="D21" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1049,7 +1049,7 @@
         <v>60001</v>
       </c>
       <c r="D29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1065,7 +1065,7 @@
         <v>60001</v>
       </c>
       <c r="D30" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1191,7 +1191,7 @@
         <v>60002</v>
       </c>
       <c r="D38" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1207,7 +1207,7 @@
         <v>60002</v>
       </c>
       <c r="D39" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1349,7 +1349,7 @@
         <v>60003</v>
       </c>
       <c r="D48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1365,7 +1365,7 @@
         <v>60003</v>
       </c>
       <c r="D49" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1378,7 +1378,7 @@
         <v>4114</v>
       </c>
       <c r="C50" s="4">
-        <v>60002</v>
+        <v>60003</v>
       </c>
       <c r="D50" s="5">
         <v>61004</v>
@@ -1507,7 +1507,7 @@
         <v>60004</v>
       </c>
       <c r="D58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1523,7 +1523,7 @@
         <v>60004</v>
       </c>
       <c r="D59" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1536,7 +1536,7 @@
         <v>4114</v>
       </c>
       <c r="C60" s="4">
-        <v>60002</v>
+        <v>60004</v>
       </c>
       <c r="D60" s="5">
         <v>61000</v>
@@ -1651,7 +1651,7 @@
         <v>60005</v>
       </c>
       <c r="D67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -1667,7 +1667,7 @@
         <v>60005</v>
       </c>
       <c r="D68" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -1680,7 +1680,7 @@
         <v>4114</v>
       </c>
       <c r="C69" s="4">
-        <v>60002</v>
+        <v>60005</v>
       </c>
       <c r="D69" s="5">
         <v>61000</v>
@@ -1795,7 +1795,7 @@
         <v>60006</v>
       </c>
       <c r="D76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -1811,7 +1811,7 @@
         <v>60006</v>
       </c>
       <c r="D77" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -1824,7 +1824,7 @@
         <v>4114</v>
       </c>
       <c r="C78" s="4">
-        <v>60002</v>
+        <v>60006</v>
       </c>
       <c r="D78" s="5">
         <v>61000</v>
@@ -1939,7 +1939,7 @@
         <v>60007</v>
       </c>
       <c r="D85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -1955,7 +1955,7 @@
         <v>60007</v>
       </c>
       <c r="D86" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -1968,7 +1968,7 @@
         <v>4114</v>
       </c>
       <c r="C87" s="4">
-        <v>60002</v>
+        <v>60007</v>
       </c>
       <c r="D87" s="5">
         <v>61000</v>
@@ -2083,7 +2083,7 @@
         <v>60008</v>
       </c>
       <c r="D94" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -2099,7 +2099,7 @@
         <v>60008</v>
       </c>
       <c r="D95" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -2112,7 +2112,7 @@
         <v>4114</v>
       </c>
       <c r="C96" s="4">
-        <v>60002</v>
+        <v>60008</v>
       </c>
       <c r="D96" s="5">
         <v>61000</v>
@@ -2227,7 +2227,7 @@
         <v>60009</v>
       </c>
       <c r="D103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -2243,7 +2243,7 @@
         <v>60009</v>
       </c>
       <c r="D104" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -2256,7 +2256,7 @@
         <v>4114</v>
       </c>
       <c r="C105" s="4">
-        <v>60002</v>
+        <v>60009</v>
       </c>
       <c r="D105" s="5">
         <v>61000</v>
@@ -2371,7 +2371,7 @@
         <v>60010</v>
       </c>
       <c r="D112" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -2387,30 +2387,30 @@
         <v>60010</v>
       </c>
       <c r="D113" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>421000</v>
+        <v>420052</v>
       </c>
       <c r="B114" s="3">
-        <v>4103</v>
+        <v>4114</v>
       </c>
       <c r="C114" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D114" s="5">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>421010</v>
+        <v>421000</v>
       </c>
       <c r="B115" s="3">
         <v>4103</v>
@@ -2419,14 +2419,14 @@
         <v>60011</v>
       </c>
       <c r="D115" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>421020</v>
+        <v>421010</v>
       </c>
       <c r="B116" s="3">
         <v>4103</v>
@@ -2435,131 +2435,133 @@
         <v>60011</v>
       </c>
       <c r="D116" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>421030</v>
+        <v>421020</v>
       </c>
       <c r="B117" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C117" s="4">
         <v>60011</v>
       </c>
       <c r="D117" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>421040</v>
+        <v>421030</v>
       </c>
       <c r="B118" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C118" s="4">
         <v>60011</v>
       </c>
       <c r="D118" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>421041</v>
+        <v>421040</v>
       </c>
       <c r="B119" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C119" s="4">
         <v>60011</v>
       </c>
       <c r="D119" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>421050</v>
+        <v>421041</v>
       </c>
       <c r="B120" s="3">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="C120" s="4">
         <v>60011</v>
       </c>
       <c r="D120" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>421051</v>
+        <v>421050</v>
       </c>
       <c r="B121" s="3">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="C121" s="4">
         <v>60011</v>
       </c>
       <c r="D121" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>421052</v>
+        <v>421051</v>
       </c>
       <c r="B122" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C122" s="4">
-        <v>60002</v>
+        <v>60011</v>
       </c>
       <c r="D122" s="5">
-        <v>61000</v>
+        <v>2</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>401000</v>
-      </c>
-      <c r="B124" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C124" s="4">
-        <v>130050</v>
-      </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-    </row>
+    <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>421052</v>
+      </c>
+      <c r="B123" s="3">
+        <v>4114</v>
+      </c>
+      <c r="C123" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D123" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>401010</v>
+        <v>401000</v>
       </c>
       <c r="B125" s="3">
         <v>4400</v>
       </c>
       <c r="C125" s="4">
-        <v>130080</v>
+        <v>130050</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="2"/>
@@ -2567,13 +2569,13 @@
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>401020</v>
+        <v>401010</v>
       </c>
       <c r="B126" s="3">
         <v>4400</v>
       </c>
       <c r="C126" s="4">
-        <v>130110</v>
+        <v>130080</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="2"/>
@@ -2581,13 +2583,13 @@
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>401030</v>
+        <v>401020</v>
       </c>
       <c r="B127" s="3">
         <v>4400</v>
       </c>
       <c r="C127" s="4">
-        <v>101000</v>
+        <v>130110</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="2"/>
@@ -2595,13 +2597,13 @@
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>401031</v>
+        <v>401030</v>
       </c>
       <c r="B128" s="3">
         <v>4400</v>
       </c>
       <c r="C128" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="2"/>
@@ -2609,13 +2611,13 @@
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>401032</v>
+        <v>401031</v>
       </c>
       <c r="B129" s="3">
         <v>4400</v>
       </c>
       <c r="C129" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="2"/>
@@ -2623,13 +2625,13 @@
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>401040</v>
+        <v>401032</v>
       </c>
       <c r="B130" s="3">
         <v>4400</v>
       </c>
       <c r="C130" s="4">
-        <v>101030</v>
+        <v>101020</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="2"/>
@@ -2637,13 +2639,13 @@
     </row>
     <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>401041</v>
+        <v>401040</v>
       </c>
       <c r="B131" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C131" s="4">
-        <v>60011</v>
+        <v>101030</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="2"/>
@@ -2651,44 +2653,42 @@
     </row>
     <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>401050</v>
+        <v>401041</v>
       </c>
       <c r="B132" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C132" s="4">
-        <v>101040</v>
+        <v>60011</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>402000</v>
-      </c>
-      <c r="B134" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C134" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D134" s="5">
-        <v>3</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-    </row>
+    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>401050</v>
+      </c>
+      <c r="B133" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C133" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>402001</v>
+        <v>402000</v>
       </c>
       <c r="B135" s="3">
         <v>4102</v>
       </c>
       <c r="C135" s="4">
-        <v>60001</v>
+        <v>60002</v>
       </c>
       <c r="D135" s="5">
         <v>3</v>
@@ -2698,13 +2698,13 @@
     </row>
     <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>402002</v>
+        <v>402001</v>
       </c>
       <c r="B136" s="3">
         <v>4102</v>
       </c>
       <c r="C136" s="4">
-        <v>60011</v>
+        <v>60001</v>
       </c>
       <c r="D136" s="5">
         <v>3</v>
@@ -2714,27 +2714,29 @@
     </row>
     <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>402003</v>
+        <v>402002</v>
       </c>
       <c r="B137" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C137" s="4">
-        <v>117140</v>
-      </c>
-      <c r="D137" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D137" s="5">
+        <v>3</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>402004</v>
+        <v>402003</v>
       </c>
       <c r="B138" s="3">
         <v>4400</v>
       </c>
       <c r="C138" s="4">
-        <v>100031</v>
+        <v>117140</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="2"/>
@@ -2742,13 +2744,13 @@
     </row>
     <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>402010</v>
+        <v>402004</v>
       </c>
       <c r="B139" s="3">
         <v>4400</v>
       </c>
       <c r="C139" s="4">
-        <v>102000</v>
+        <v>100031</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
@@ -2756,13 +2758,13 @@
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>402020</v>
+        <v>402010</v>
       </c>
       <c r="B140" s="3">
         <v>4400</v>
       </c>
       <c r="C140" s="4">
-        <v>102010</v>
+        <v>102000</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="2"/>
@@ -2770,62 +2772,62 @@
     </row>
     <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>402030</v>
+        <v>402020</v>
       </c>
       <c r="B141" s="3">
         <v>4400</v>
       </c>
       <c r="C141" s="4">
-        <v>102020</v>
+        <v>102010</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>410100</v>
-      </c>
-      <c r="B143" s="3">
-        <v>4003</v>
-      </c>
-      <c r="C143" s="4">
-        <v>7</v>
-      </c>
-      <c r="D143" s="5">
-        <v>11</v>
-      </c>
-      <c r="E143" s="2">
-        <v>12</v>
-      </c>
-      <c r="F143" s="2">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>402030</v>
+      </c>
+      <c r="B142" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C142" s="4">
+        <v>102020</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>410101</v>
+        <v>410100</v>
       </c>
       <c r="B144" s="3">
-        <v>4400</v>
+        <v>4003</v>
       </c>
       <c r="C144" s="4">
-        <v>100032</v>
-      </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D144" s="5">
+        <v>11</v>
+      </c>
+      <c r="E144" s="2">
+        <v>12</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>410102</v>
+        <v>410101</v>
       </c>
       <c r="B145" s="3">
         <v>4400</v>
       </c>
       <c r="C145" s="4">
-        <v>100031</v>
+        <v>100032</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="2"/>
@@ -2833,27 +2835,21 @@
     </row>
     <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>410110</v>
+        <v>410102</v>
       </c>
       <c r="B146" s="3">
-        <v>4003</v>
+        <v>4400</v>
       </c>
       <c r="C146" s="4">
-        <v>7</v>
-      </c>
-      <c r="D146" s="5">
-        <v>12</v>
-      </c>
-      <c r="E146" s="2">
-        <v>12</v>
-      </c>
-      <c r="F146" s="2">
-        <v>0</v>
-      </c>
+        <v>100031</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>410120</v>
+        <v>410110</v>
       </c>
       <c r="B147" s="3">
         <v>4003</v>
@@ -2862,7 +2858,7 @@
         <v>7</v>
       </c>
       <c r="D147" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E147" s="2">
         <v>12</v>
@@ -2871,143 +2867,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
+    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>410120</v>
+      </c>
+      <c r="B148" s="3">
+        <v>4003</v>
+      </c>
+      <c r="C148" s="4">
+        <v>7</v>
+      </c>
+      <c r="D148" s="5">
+        <v>13</v>
+      </c>
+      <c r="E148" s="2">
+        <v>12</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7">
         <v>411060</v>
       </c>
-      <c r="B149" s="10">
-        <v>4102</v>
-      </c>
-      <c r="C149" s="11">
+      <c r="B150" s="10">
+        <v>4102</v>
+      </c>
+      <c r="C150" s="11">
         <v>60001</v>
       </c>
-      <c r="D149" s="8">
-        <v>1</v>
-      </c>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-    </row>
-    <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>412100</v>
-      </c>
-      <c r="B151" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C151" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D151" s="5">
-        <v>1</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-    </row>
+      <c r="D150" s="8">
+        <v>1</v>
+      </c>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+    </row>
+    <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>412101</v>
+        <v>412100</v>
       </c>
       <c r="B152" s="3">
-        <v>4114</v>
+        <v>4102</v>
       </c>
       <c r="C152" s="4">
         <v>60002</v>
       </c>
       <c r="D152" s="5">
-        <v>61003</v>
+        <v>1</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>412110</v>
+        <v>412101</v>
       </c>
       <c r="B153" s="3">
-        <v>0</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="5"/>
+        <v>4114</v>
+      </c>
+      <c r="C153" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D153" s="5">
+        <v>61003</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>412111</v>
+        <v>412110</v>
       </c>
       <c r="B154" s="3">
-        <v>4001</v>
-      </c>
-      <c r="C154" s="4">
-        <v>50</v>
-      </c>
-      <c r="D154" s="8"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>412120</v>
+        <v>412111</v>
       </c>
       <c r="B155" s="3">
-        <v>0</v>
-      </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
+        <v>4001</v>
+      </c>
+      <c r="C155" s="4">
+        <v>50</v>
+      </c>
+      <c r="D155" s="8"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>412121</v>
+        <v>412120</v>
       </c>
       <c r="B156" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C156" s="4">
-        <v>11214</v>
-      </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>412130</v>
+        <v>412121</v>
       </c>
       <c r="B157" s="3">
-        <v>0</v>
-      </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
+        <v>4400</v>
+      </c>
+      <c r="C157" s="4">
+        <v>11214</v>
+      </c>
+      <c r="D157" s="8"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>412131</v>
+        <v>412130</v>
       </c>
       <c r="B158" s="3">
-        <v>4111</v>
-      </c>
-      <c r="C158" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D158" s="8"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>412132</v>
+        <v>412131</v>
       </c>
       <c r="B159" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C159" s="4">
-        <v>100400</v>
+        <v>60002</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="7"/>
@@ -3015,27 +3017,27 @@
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>412140</v>
+        <v>412132</v>
       </c>
       <c r="B160" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C160" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
+        <v>100400</v>
+      </c>
+      <c r="D160" s="8"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>412160</v>
+        <v>412140</v>
       </c>
       <c r="B161" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C161" s="4">
-        <v>112100</v>
+        <v>60009</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="2"/>
@@ -3043,13 +3045,13 @@
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>412161</v>
+        <v>412160</v>
       </c>
       <c r="B162" s="3">
         <v>4400</v>
       </c>
       <c r="C162" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="2"/>
@@ -3057,13 +3059,13 @@
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>412162</v>
+        <v>412161</v>
       </c>
       <c r="B163" s="3">
         <v>4400</v>
       </c>
       <c r="C163" s="4">
-        <v>112120</v>
+        <v>112110</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
@@ -3071,58 +3073,58 @@
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>412163</v>
+        <v>412162</v>
       </c>
       <c r="B164" s="3">
         <v>4400</v>
       </c>
       <c r="C164" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>413100</v>
-      </c>
-      <c r="B166" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C166" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D166" s="5">
-        <v>1</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-    </row>
+    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>412163</v>
+      </c>
+      <c r="B165" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C165" s="4">
+        <v>112130</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>413101</v>
+        <v>413100</v>
       </c>
       <c r="B167" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C167" s="4">
-        <v>100031</v>
-      </c>
-      <c r="D167" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D167" s="5">
+        <v>1</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>413110</v>
+        <v>413101</v>
       </c>
       <c r="B168" s="3">
         <v>4400</v>
       </c>
       <c r="C168" s="4">
-        <v>113100</v>
+        <v>100031</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
@@ -3130,13 +3132,13 @@
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>413120</v>
+        <v>413110</v>
       </c>
       <c r="B169" s="3">
         <v>4400</v>
       </c>
       <c r="C169" s="4">
-        <v>113110</v>
+        <v>113100</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
@@ -3144,43 +3146,43 @@
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>413121</v>
+        <v>413120</v>
       </c>
       <c r="B170" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C170" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D170" s="5">
-        <v>2</v>
-      </c>
+        <v>113110</v>
+      </c>
+      <c r="D170" s="5"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>413122</v>
+        <v>413121</v>
       </c>
       <c r="B171" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C171" s="4">
-        <v>121100</v>
-      </c>
-      <c r="D171" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D171" s="5">
+        <v>2</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>413130</v>
+        <v>413122</v>
       </c>
       <c r="B172" s="3">
         <v>4400</v>
       </c>
       <c r="C172" s="4">
-        <v>121110</v>
+        <v>121100</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="2"/>
@@ -3188,13 +3190,13 @@
     </row>
     <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>413131</v>
+        <v>413130</v>
       </c>
       <c r="B173" s="3">
         <v>4400</v>
       </c>
       <c r="C173" s="4">
-        <v>121111</v>
+        <v>121110</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="2"/>
@@ -3202,13 +3204,13 @@
     </row>
     <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>413132</v>
+        <v>413131</v>
       </c>
       <c r="B174" s="3">
         <v>4400</v>
       </c>
       <c r="C174" s="4">
-        <v>113120</v>
+        <v>121111</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="2"/>
@@ -3216,13 +3218,13 @@
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>413140</v>
+        <v>413132</v>
       </c>
       <c r="B175" s="3">
         <v>4400</v>
       </c>
       <c r="C175" s="4">
-        <v>121110</v>
+        <v>113120</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
@@ -3230,13 +3232,13 @@
     </row>
     <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>413141</v>
+        <v>413140</v>
       </c>
       <c r="B176" s="3">
         <v>4400</v>
       </c>
       <c r="C176" s="4">
-        <v>121112</v>
+        <v>121110</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="2"/>
@@ -3244,13 +3246,13 @@
     </row>
     <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>413142</v>
+        <v>413141</v>
       </c>
       <c r="B177" s="3">
         <v>4400</v>
       </c>
       <c r="C177" s="4">
-        <v>113120</v>
+        <v>121112</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="2"/>
@@ -3258,13 +3260,13 @@
     </row>
     <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>413150</v>
+        <v>413142</v>
       </c>
       <c r="B178" s="3">
         <v>4400</v>
       </c>
       <c r="C178" s="4">
-        <v>113140</v>
+        <v>113120</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="2"/>
@@ -3272,53 +3274,51 @@
     </row>
     <row r="179" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>413151</v>
+        <v>413150</v>
       </c>
       <c r="B179" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C179" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D179" s="5">
-        <v>2</v>
-      </c>
+        <v>113140</v>
+      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>413160</v>
+        <v>413151</v>
       </c>
       <c r="B180" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C180" s="4">
-        <v>113150</v>
-      </c>
-      <c r="D180" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D180" s="5">
+        <v>2</v>
+      </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>413161</v>
+        <v>413160</v>
       </c>
       <c r="B181" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C181" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D181" s="5">
-        <v>3</v>
-      </c>
+        <v>113150</v>
+      </c>
+      <c r="D181" s="5"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>413200</v>
+        <v>413161</v>
       </c>
       <c r="B182" s="3">
         <v>4102</v>
@@ -3327,94 +3327,96 @@
         <v>60003</v>
       </c>
       <c r="D182" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>413201</v>
+        <v>413200</v>
       </c>
       <c r="B183" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C183" s="4">
-        <v>100040</v>
-      </c>
-      <c r="D183" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1</v>
+      </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>413210</v>
+        <v>413201</v>
       </c>
       <c r="B184" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C184" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D184" s="5">
-        <v>2</v>
-      </c>
+        <v>100040</v>
+      </c>
+      <c r="D184" s="5"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>413211</v>
+        <v>413210</v>
       </c>
       <c r="B185" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C185" s="4">
-        <v>113200</v>
-      </c>
-      <c r="D185" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D185" s="5">
+        <v>2</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>413220</v>
+        <v>413211</v>
       </c>
       <c r="B186" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C186" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D186" s="5">
-        <v>3</v>
-      </c>
+        <v>113200</v>
+      </c>
+      <c r="D186" s="5"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>413221</v>
+        <v>413220</v>
       </c>
       <c r="B187" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C187" s="4">
-        <v>113210</v>
-      </c>
-      <c r="D187" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D187" s="5">
+        <v>3</v>
+      </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>413230</v>
+        <v>413221</v>
       </c>
       <c r="B188" s="3">
         <v>4400</v>
       </c>
       <c r="C188" s="4">
-        <v>113220</v>
+        <v>113210</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
@@ -3422,13 +3424,13 @@
     </row>
     <row r="189" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>413231</v>
+        <v>413230</v>
       </c>
       <c r="B189" s="3">
         <v>4400</v>
       </c>
       <c r="C189" s="4">
-        <v>118114</v>
+        <v>113220</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
@@ -3436,44 +3438,42 @@
     </row>
     <row r="190" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>413232</v>
+        <v>413231</v>
       </c>
       <c r="B190" s="3">
-        <v>4506</v>
+        <v>4400</v>
       </c>
       <c r="C190" s="4">
-        <v>61004</v>
+        <v>118114</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="2">
-        <v>415100</v>
-      </c>
-      <c r="B192" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C192" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D192" s="5">
-        <v>1</v>
-      </c>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-    </row>
+    <row r="191" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>413232</v>
+      </c>
+      <c r="B191" s="3">
+        <v>4506</v>
+      </c>
+      <c r="C191" s="4">
+        <v>61004</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="193" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>415101</v>
+        <v>415100</v>
       </c>
       <c r="B193" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C193" s="4">
-        <v>21510</v>
+        <v>60005</v>
       </c>
       <c r="D193" s="5">
         <v>1</v>
@@ -3483,73 +3483,75 @@
     </row>
     <row r="194" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>415110</v>
+        <v>415101</v>
       </c>
       <c r="B194" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C194" s="4">
-        <v>60005</v>
+        <v>21510</v>
       </c>
       <c r="D194" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>415111</v>
+        <v>415110</v>
       </c>
       <c r="B195" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C195" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D195" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D195" s="5">
+        <v>2</v>
+      </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>415120</v>
+        <v>415111</v>
       </c>
       <c r="B196" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C196" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D196" s="5">
-        <v>3</v>
-      </c>
+        <v>115100</v>
+      </c>
+      <c r="D196" s="5"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>415121</v>
+        <v>415120</v>
       </c>
       <c r="B197" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C197" s="4">
-        <v>115101</v>
-      </c>
-      <c r="D197" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D197" s="5">
+        <v>3</v>
+      </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>415122</v>
+        <v>415121</v>
       </c>
       <c r="B198" s="3">
         <v>4400</v>
       </c>
       <c r="C198" s="4">
-        <v>115111</v>
+        <v>115101</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="2"/>
@@ -3557,13 +3559,13 @@
     </row>
     <row r="199" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>415123</v>
+        <v>415122</v>
       </c>
       <c r="B199" s="3">
         <v>4400</v>
       </c>
       <c r="C199" s="4">
-        <v>115170</v>
+        <v>115111</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
@@ -3571,43 +3573,43 @@
     </row>
     <row r="200" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>415130</v>
+        <v>415123</v>
       </c>
       <c r="B200" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C200" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D200" s="5">
-        <v>3</v>
-      </c>
+        <v>115170</v>
+      </c>
+      <c r="D200" s="5"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>415131</v>
+        <v>415130</v>
       </c>
       <c r="B201" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C201" s="4">
-        <v>115112</v>
-      </c>
-      <c r="D201" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D201" s="5">
+        <v>3</v>
+      </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>415132</v>
+        <v>415131</v>
       </c>
       <c r="B202" s="3">
         <v>4400</v>
       </c>
       <c r="C202" s="4">
-        <v>115170</v>
+        <v>115112</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
@@ -3615,13 +3617,13 @@
     </row>
     <row r="203" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>415140</v>
+        <v>415132</v>
       </c>
       <c r="B203" s="3">
         <v>4400</v>
       </c>
       <c r="C203" s="4">
-        <v>115102</v>
+        <v>115170</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
@@ -3629,13 +3631,13 @@
     </row>
     <row r="204" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>415141</v>
+        <v>415140</v>
       </c>
       <c r="B204" s="3">
         <v>4400</v>
       </c>
       <c r="C204" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
@@ -3643,13 +3645,13 @@
     </row>
     <row r="205" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>415150</v>
+        <v>415141</v>
       </c>
       <c r="B205" s="3">
         <v>4400</v>
       </c>
       <c r="C205" s="4">
-        <v>115102</v>
+        <v>115111</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
@@ -3657,13 +3659,13 @@
     </row>
     <row r="206" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>415151</v>
+        <v>415150</v>
       </c>
       <c r="B206" s="3">
         <v>4400</v>
       </c>
       <c r="C206" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
@@ -3671,13 +3673,13 @@
     </row>
     <row r="207" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>415160</v>
+        <v>415151</v>
       </c>
       <c r="B207" s="3">
         <v>4400</v>
       </c>
       <c r="C207" s="4">
-        <v>115102</v>
+        <v>115111</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
@@ -3685,13 +3687,13 @@
     </row>
     <row r="208" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>415161</v>
+        <v>415160</v>
       </c>
       <c r="B208" s="3">
         <v>4400</v>
       </c>
       <c r="C208" s="4">
-        <v>115111</v>
+        <v>115102</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
@@ -3699,13 +3701,13 @@
     </row>
     <row r="209" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>415170</v>
+        <v>415161</v>
       </c>
       <c r="B209" s="3">
         <v>4400</v>
       </c>
       <c r="C209" s="4">
-        <v>118114</v>
+        <v>115111</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
@@ -3713,43 +3715,43 @@
     </row>
     <row r="210" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>415171</v>
+        <v>415170</v>
       </c>
       <c r="B210" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C210" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D210" s="5">
-        <v>3</v>
-      </c>
+        <v>118114</v>
+      </c>
+      <c r="D210" s="5"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>415172</v>
+        <v>415171</v>
       </c>
       <c r="B211" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C211" s="4">
-        <v>115120</v>
-      </c>
-      <c r="D211" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D211" s="5">
+        <v>3</v>
+      </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>415173</v>
+        <v>415172</v>
       </c>
       <c r="B212" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C212" s="4">
-        <v>4</v>
+        <v>115120</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
@@ -3757,161 +3759,159 @@
     </row>
     <row r="213" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>415180</v>
+        <v>415173</v>
       </c>
       <c r="B213" s="3">
-        <v>4400</v>
+        <v>4005</v>
       </c>
       <c r="C213" s="4">
-        <v>115170</v>
+        <v>4</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="2">
-        <v>416100</v>
-      </c>
-      <c r="B215" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C215" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D215" s="5">
-        <v>1</v>
-      </c>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-    </row>
+    <row r="214" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>415180</v>
+      </c>
+      <c r="B214" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C214" s="4">
+        <v>115170</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="216" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>416101</v>
+        <v>416100</v>
       </c>
       <c r="B216" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C216" s="4">
-        <v>116101</v>
-      </c>
-      <c r="D216" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D216" s="5">
+        <v>1</v>
+      </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>416110</v>
+        <v>416101</v>
       </c>
       <c r="B217" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C217" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D217" s="5">
-        <v>2</v>
-      </c>
+        <v>116101</v>
+      </c>
+      <c r="D217" s="5"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>416111</v>
+        <v>416110</v>
       </c>
       <c r="B218" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C218" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D218" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D218" s="5">
+        <v>2</v>
+      </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>416120</v>
+        <v>416111</v>
       </c>
       <c r="B219" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C219" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D219" s="5">
-        <v>3</v>
-      </c>
+        <v>116100</v>
+      </c>
+      <c r="D219" s="5"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>416121</v>
+        <v>416120</v>
       </c>
       <c r="B220" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C220" s="4">
-        <v>116110</v>
-      </c>
-      <c r="D220" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D220" s="5">
+        <v>3</v>
+      </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>416122</v>
+        <v>416121</v>
       </c>
       <c r="B221" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C221" s="4">
-        <v>21612</v>
-      </c>
-      <c r="D221" s="5">
-        <v>1</v>
-      </c>
+        <v>116110</v>
+      </c>
+      <c r="D221" s="5"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
+        <v>416122</v>
+      </c>
+      <c r="B222" s="3">
+        <v>4403</v>
+      </c>
+      <c r="C222" s="4">
+        <v>21612</v>
+      </c>
+      <c r="D222" s="5">
+        <v>1</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
         <v>416130</v>
       </c>
-      <c r="B222" s="3"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-    </row>
-    <row r="223" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
+      <c r="B223" s="3"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+    </row>
+    <row r="224" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
         <v>417100</v>
       </c>
-      <c r="B224" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C224" s="4">
+      <c r="B225" s="3">
+        <v>4102</v>
+      </c>
+      <c r="C225" s="4">
         <v>60007</v>
-      </c>
-      <c r="D224" s="5">
-        <v>1</v>
-      </c>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>417101</v>
-      </c>
-      <c r="B225" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C225" s="4">
-        <v>60008</v>
       </c>
       <c r="D225" s="5">
         <v>1</v>
@@ -3921,13 +3921,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>417102</v>
+        <v>417101</v>
       </c>
       <c r="B226" s="3">
         <v>4102</v>
       </c>
       <c r="C226" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D226" s="5">
         <v>1</v>
@@ -3937,27 +3937,29 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>417110</v>
+        <v>417102</v>
       </c>
       <c r="B227" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C227" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D227" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D227" s="5">
+        <v>1</v>
+      </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>417120</v>
+        <v>417110</v>
       </c>
       <c r="B228" s="3">
         <v>4400</v>
       </c>
       <c r="C228" s="4">
-        <v>117110</v>
+        <v>117100</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
@@ -3965,29 +3967,27 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>417130</v>
+        <v>417120</v>
       </c>
       <c r="B229" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C229" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D229" s="5">
-        <v>2</v>
-      </c>
+        <v>117110</v>
+      </c>
+      <c r="D229" s="5"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>417131</v>
+        <v>417130</v>
       </c>
       <c r="B230" s="3">
         <v>4102</v>
       </c>
       <c r="C230" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D230" s="5">
         <v>2</v>
@@ -3997,13 +3997,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>417132</v>
+        <v>417131</v>
       </c>
       <c r="B231" s="3">
         <v>4102</v>
       </c>
       <c r="C231" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D231" s="5">
         <v>2</v>
@@ -4013,27 +4013,29 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>417133</v>
+        <v>417132</v>
       </c>
       <c r="B232" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C232" s="4">
-        <v>117120</v>
-      </c>
-      <c r="D232" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D232" s="5">
+        <v>2</v>
+      </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>417134</v>
+        <v>417133</v>
       </c>
       <c r="B233" s="3">
         <v>4400</v>
       </c>
       <c r="C233" s="4">
-        <v>116110</v>
+        <v>117120</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
@@ -4041,13 +4043,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>417140</v>
+        <v>417134</v>
       </c>
       <c r="B234" s="3">
         <v>4400</v>
       </c>
       <c r="C234" s="4">
-        <v>117130</v>
+        <v>116110</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="2"/>
@@ -4055,107 +4057,107 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>417141</v>
+        <v>417140</v>
       </c>
       <c r="B235" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C235" s="4">
-        <v>21714</v>
-      </c>
-      <c r="D235" s="5">
-        <v>1</v>
-      </c>
+        <v>117130</v>
+      </c>
+      <c r="D235" s="5"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>417150</v>
+        <v>417141</v>
       </c>
       <c r="B236" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C236" s="4">
-        <v>117141</v>
-      </c>
-      <c r="D236" s="5"/>
+        <v>21714</v>
+      </c>
+      <c r="D236" s="5">
+        <v>1</v>
+      </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>417151</v>
+        <v>417150</v>
       </c>
       <c r="B237" s="3">
         <v>4400</v>
       </c>
       <c r="C237" s="4">
-        <v>117140</v>
+        <v>117141</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="6"/>
+      <c r="A238" s="2">
+        <v>417151</v>
+      </c>
+      <c r="B238" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C238" s="4">
+        <v>117140</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
-        <v>418100</v>
-      </c>
-      <c r="B239" s="3">
-        <v>0</v>
-      </c>
-      <c r="C239" s="4"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>418110</v>
+        <v>418100</v>
       </c>
       <c r="B240" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C240" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D240" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C240" s="4"/>
+      <c r="D240" s="5"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>418111</v>
+        <v>418110</v>
       </c>
       <c r="B241" s="3">
-        <v>4000</v>
+        <v>4102</v>
       </c>
       <c r="C241" s="4">
-        <v>20</v>
-      </c>
-      <c r="D241" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D241" s="5">
+        <v>1</v>
+      </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>418112</v>
+        <v>418111</v>
       </c>
       <c r="B242" s="3">
-        <v>4506</v>
+        <v>4000</v>
       </c>
       <c r="C242" s="4">
-        <v>61004</v>
+        <v>20</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="2"/>
@@ -4163,43 +4165,43 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>418113</v>
+        <v>418112</v>
       </c>
       <c r="B243" s="3">
-        <v>4403</v>
+        <v>4506</v>
       </c>
       <c r="C243" s="4">
-        <v>21811</v>
-      </c>
-      <c r="D243" s="5">
-        <v>1</v>
-      </c>
+        <v>61004</v>
+      </c>
+      <c r="D243" s="5"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>418114</v>
+        <v>418113</v>
       </c>
       <c r="B244" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C244" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D244" s="5"/>
+        <v>21811</v>
+      </c>
+      <c r="D244" s="5">
+        <v>1</v>
+      </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>418115</v>
+        <v>418114</v>
       </c>
       <c r="B245" s="3">
         <v>4400</v>
       </c>
       <c r="C245" s="4">
-        <v>118115</v>
+        <v>118114</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="2"/>
@@ -4207,51 +4209,49 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>418116</v>
+        <v>418115</v>
       </c>
       <c r="B246" s="3">
         <v>4400</v>
       </c>
       <c r="C246" s="4">
-        <v>118116</v>
+        <v>118115</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="6"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6"/>
+      <c r="A247" s="2">
+        <v>418116</v>
+      </c>
+      <c r="B247" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C247" s="4">
+        <v>118116</v>
+      </c>
+      <c r="D247" s="5"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="2">
-        <v>419100</v>
-      </c>
-      <c r="B248" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C248" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D248" s="5">
-        <v>1</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
+      <c r="A248" s="6"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>419101</v>
+        <v>419100</v>
       </c>
       <c r="B249" s="3">
-        <v>4403</v>
+        <v>4102</v>
       </c>
       <c r="C249" s="4">
-        <v>21910</v>
+        <v>60009</v>
       </c>
       <c r="D249" s="5">
         <v>1</v>
@@ -4261,113 +4261,115 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>419110</v>
+        <v>419101</v>
       </c>
       <c r="B250" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C250" s="4">
-        <v>60009</v>
+        <v>21910</v>
       </c>
       <c r="D250" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>419111</v>
+        <v>419110</v>
       </c>
       <c r="B251" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C251" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D251" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D251" s="5">
+        <v>2</v>
+      </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>419112</v>
+        <v>419111</v>
       </c>
       <c r="B252" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C252" s="4">
-        <v>21911</v>
-      </c>
-      <c r="D252" s="5">
-        <v>1</v>
-      </c>
+        <v>119100</v>
+      </c>
+      <c r="D252" s="5"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>419120</v>
+        <v>419112</v>
       </c>
       <c r="B253" s="3">
-        <v>4102</v>
+        <v>4403</v>
       </c>
       <c r="C253" s="4">
-        <v>60009</v>
+        <v>21911</v>
       </c>
       <c r="D253" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>419121</v>
+        <v>419120</v>
       </c>
       <c r="B254" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C254" s="4">
-        <v>119110</v>
-      </c>
-      <c r="D254" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D254" s="5">
+        <v>3</v>
+      </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>419122</v>
+        <v>419121</v>
       </c>
       <c r="B255" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C255" s="4">
-        <v>21912</v>
-      </c>
-      <c r="D255" s="5">
-        <v>1</v>
-      </c>
+        <v>119110</v>
+      </c>
+      <c r="D255" s="5"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>419130</v>
+        <v>419122</v>
       </c>
       <c r="B256" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C256" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D256" s="5"/>
+        <v>21912</v>
+      </c>
+      <c r="D256" s="5">
+        <v>1</v>
+      </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>419140</v>
+        <v>419130</v>
       </c>
       <c r="B257" s="3">
         <v>4400</v>
@@ -4381,7 +4383,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>419150</v>
+        <v>419140</v>
       </c>
       <c r="B258" s="3">
         <v>4400</v>
@@ -4394,32 +4396,30 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="6"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="6"/>
+      <c r="A259" s="2">
+        <v>419150</v>
+      </c>
+      <c r="B259" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C259" s="4">
+        <v>119121</v>
+      </c>
+      <c r="D259" s="5"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="2">
-        <v>420100</v>
-      </c>
-      <c r="B260" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C260" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D260" s="5">
-        <v>1</v>
-      </c>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
+      <c r="A260" s="6"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>420110</v>
+        <v>420100</v>
       </c>
       <c r="B261" s="3">
         <v>4102</v>
@@ -4428,34 +4428,36 @@
         <v>60010</v>
       </c>
       <c r="D261" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>420111</v>
+        <v>420110</v>
       </c>
       <c r="B262" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C262" s="4">
-        <v>120100</v>
-      </c>
-      <c r="D262" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D262" s="5">
+        <v>2</v>
+      </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>420120</v>
+        <v>420111</v>
       </c>
       <c r="B263" s="3">
         <v>4400</v>
       </c>
       <c r="C263" s="4">
-        <v>120110</v>
+        <v>120100</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
@@ -4463,43 +4465,43 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>420121</v>
+        <v>420120</v>
       </c>
       <c r="B264" s="3">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="C264" s="4">
-        <v>22012</v>
-      </c>
-      <c r="D264" s="5">
-        <v>1</v>
-      </c>
+        <v>120110</v>
+      </c>
+      <c r="D264" s="5"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>420130</v>
+        <v>420121</v>
       </c>
       <c r="B265" s="3">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="C265" s="4">
-        <v>120121</v>
-      </c>
-      <c r="D265" s="5"/>
+        <v>22012</v>
+      </c>
+      <c r="D265" s="5">
+        <v>1</v>
+      </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>420140</v>
+        <v>420130</v>
       </c>
       <c r="B266" s="3">
         <v>4400</v>
       </c>
       <c r="C266" s="4">
-        <v>120160</v>
+        <v>120121</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
@@ -4507,13 +4509,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>420141</v>
+        <v>420140</v>
       </c>
       <c r="B267" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C267" s="4">
-        <v>60011</v>
+        <v>120160</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
@@ -4521,13 +4523,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>420142</v>
+        <v>420141</v>
       </c>
       <c r="B268" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C268" s="4">
-        <v>121110</v>
+        <v>60011</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
@@ -4535,13 +4537,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>420150</v>
+        <v>420142</v>
       </c>
       <c r="B269" s="3">
         <v>4400</v>
       </c>
       <c r="C269" s="4">
-        <v>120160</v>
+        <v>121110</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
@@ -4549,13 +4551,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>420151</v>
+        <v>420150</v>
       </c>
       <c r="B270" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C270" s="4">
-        <v>60011</v>
+        <v>120160</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
@@ -4563,13 +4565,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>420152</v>
+        <v>420151</v>
       </c>
       <c r="B271" s="3">
-        <v>4400</v>
+        <v>4111</v>
       </c>
       <c r="C271" s="4">
-        <v>121100</v>
+        <v>60011</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
@@ -4577,13 +4579,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>420160</v>
+        <v>420152</v>
       </c>
       <c r="B272" s="3">
-        <v>4111</v>
+        <v>4400</v>
       </c>
       <c r="C272" s="4">
-        <v>60010</v>
+        <v>121100</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
@@ -4591,43 +4593,43 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>420161</v>
+        <v>420160</v>
       </c>
       <c r="B273" s="3">
-        <v>4102</v>
+        <v>4111</v>
       </c>
       <c r="C273" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D273" s="5">
-        <v>1</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D273" s="5"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>420162</v>
+        <v>420161</v>
       </c>
       <c r="B274" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C274" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D274" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D274" s="5">
+        <v>1</v>
+      </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>420163</v>
+        <v>420162</v>
       </c>
       <c r="B275" s="3">
         <v>4400</v>
       </c>
       <c r="C275" s="4">
-        <v>121100</v>
+        <v>121110</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
@@ -4635,13 +4637,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>420164</v>
+        <v>420163</v>
       </c>
       <c r="B276" s="3">
         <v>4400</v>
       </c>
       <c r="C276" s="4">
-        <v>120130</v>
+        <v>121100</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
@@ -4649,65 +4651,65 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>420165</v>
+        <v>420164</v>
       </c>
       <c r="B277" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C277" s="4">
-        <v>30</v>
+        <v>120130</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="9"/>
-      <c r="B278" s="6"/>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
+      <c r="A278" s="2">
+        <v>420165</v>
+      </c>
+      <c r="B278" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C278" s="4">
+        <v>30</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>421100</v>
-      </c>
-      <c r="B279" s="3">
-        <v>4102</v>
-      </c>
-      <c r="C279" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D279" s="5">
-        <v>1</v>
-      </c>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
+      <c r="A279" s="9"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>421101</v>
+        <v>421100</v>
       </c>
       <c r="B280" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C280" s="4">
-        <v>100031</v>
-      </c>
-      <c r="D280" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D280" s="5">
+        <v>1</v>
+      </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>421110</v>
+        <v>421101</v>
       </c>
       <c r="B281" s="3">
         <v>4400</v>
       </c>
       <c r="C281" s="4">
-        <v>121100</v>
+        <v>100031</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
@@ -4715,13 +4717,13 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>421111</v>
+        <v>421110</v>
       </c>
       <c r="B282" s="3">
         <v>4400</v>
       </c>
       <c r="C282" s="4">
-        <v>113121</v>
+        <v>121100</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
@@ -4729,43 +4731,43 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>421112</v>
+        <v>421111</v>
       </c>
       <c r="B283" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C283" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D283" s="5">
-        <v>2</v>
-      </c>
+        <v>113121</v>
+      </c>
+      <c r="D283" s="5"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>421113</v>
+        <v>421112</v>
       </c>
       <c r="B284" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C284" s="4">
-        <v>113120</v>
-      </c>
-      <c r="D284" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D284" s="5">
+        <v>2</v>
+      </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>421120</v>
+        <v>421113</v>
       </c>
       <c r="B285" s="3">
         <v>4400</v>
       </c>
       <c r="C285" s="4">
-        <v>121110</v>
+        <v>113120</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
@@ -4773,13 +4775,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>421121</v>
+        <v>421120</v>
       </c>
       <c r="B286" s="3">
         <v>4400</v>
       </c>
       <c r="C286" s="4">
-        <v>120121</v>
+        <v>121110</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
@@ -4787,13 +4789,13 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>421122</v>
+        <v>421121</v>
       </c>
       <c r="B287" s="3">
         <v>4400</v>
       </c>
       <c r="C287" s="4">
-        <v>120160</v>
+        <v>120121</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
@@ -4801,13 +4803,13 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>421123</v>
+        <v>421122</v>
       </c>
       <c r="B288" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="C288" s="4">
-        <v>30</v>
+        <v>120160</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
@@ -4815,43 +4817,43 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>421124</v>
+        <v>421123</v>
       </c>
       <c r="B289" s="3">
-        <v>4102</v>
+        <v>4000</v>
       </c>
       <c r="C289" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D289" s="5">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D289" s="5"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>421130</v>
+        <v>421124</v>
       </c>
       <c r="B290" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C290" s="4">
-        <v>100032</v>
-      </c>
-      <c r="D290" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D290" s="5">
+        <v>3</v>
+      </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>421140</v>
+        <v>421130</v>
       </c>
       <c r="B291" s="3">
         <v>4400</v>
       </c>
       <c r="C291" s="4">
-        <v>121130</v>
+        <v>100032</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
@@ -4859,73 +4861,73 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>421141</v>
+        <v>421140</v>
       </c>
       <c r="B292" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C292" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D292" s="5">
-        <v>1</v>
-      </c>
+        <v>121130</v>
+      </c>
+      <c r="D292" s="5"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>421150</v>
+        <v>421141</v>
       </c>
       <c r="B293" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C293" s="4">
-        <v>121140</v>
-      </c>
-      <c r="D293" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D293" s="5">
+        <v>1</v>
+      </c>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>421151</v>
+        <v>421150</v>
       </c>
       <c r="B294" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C294" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D294" s="5">
-        <v>2</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D294" s="5"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>421160</v>
+        <v>421151</v>
       </c>
       <c r="B295" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C295" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D295" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D295" s="5">
+        <v>2</v>
+      </c>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>421161</v>
+        <v>421160</v>
       </c>
       <c r="B296" s="3">
         <v>4400</v>
       </c>
       <c r="C296" s="4">
-        <v>120160</v>
+        <v>121150</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
@@ -4933,13 +4935,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>421162</v>
+        <v>421161</v>
       </c>
       <c r="B297" s="3">
         <v>4400</v>
       </c>
       <c r="C297" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
@@ -4947,43 +4949,43 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>421163</v>
+        <v>421162</v>
       </c>
       <c r="B298" s="3">
-        <v>4102</v>
+        <v>4400</v>
       </c>
       <c r="C298" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D298" s="5">
-        <v>3</v>
-      </c>
+        <v>120130</v>
+      </c>
+      <c r="D298" s="5"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>421170</v>
+        <v>421163</v>
       </c>
       <c r="B299" s="3">
-        <v>4400</v>
+        <v>4102</v>
       </c>
       <c r="C299" s="4">
-        <v>121160</v>
-      </c>
-      <c r="D299" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D299" s="5">
+        <v>3</v>
+      </c>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>421171</v>
+        <v>421170</v>
       </c>
       <c r="B300" s="3">
         <v>4400</v>
       </c>
       <c r="C300" s="4">
-        <v>120160</v>
+        <v>121160</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
@@ -4991,13 +4993,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>421172</v>
+        <v>421171</v>
       </c>
       <c r="B301" s="3">
         <v>4400</v>
       </c>
       <c r="C301" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
@@ -5005,13 +5007,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>421180</v>
+        <v>421172</v>
       </c>
       <c r="B302" s="3">
         <v>4400</v>
       </c>
       <c r="C302" s="4">
-        <v>121130</v>
+        <v>120130</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
@@ -5019,13 +5021,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>421181</v>
+        <v>421180</v>
       </c>
       <c r="B303" s="3">
         <v>4400</v>
       </c>
       <c r="C303" s="4">
-        <v>120160</v>
+        <v>121130</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
@@ -5033,49 +5035,49 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>421182</v>
+        <v>421181</v>
       </c>
       <c r="B304" s="3">
         <v>4400</v>
       </c>
       <c r="C304" s="4">
-        <v>120130</v>
+        <v>120160</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="6"/>
-      <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
-      <c r="D305" s="6"/>
-      <c r="E305" s="6"/>
-      <c r="F305" s="6"/>
+      <c r="A305" s="2">
+        <v>421182</v>
+      </c>
+      <c r="B305" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C305" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D305" s="5"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="2">
-        <v>430000</v>
-      </c>
-      <c r="B306" s="3">
-        <v>4505</v>
-      </c>
-      <c r="C306" s="4">
-        <v>20</v>
-      </c>
-      <c r="D306" s="5"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
+      <c r="A306" s="6"/>
+      <c r="B306" s="6"/>
+      <c r="C306" s="6"/>
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>430010</v>
+        <v>430000</v>
       </c>
       <c r="B307" s="3">
-        <v>4001</v>
+        <v>4505</v>
       </c>
       <c r="C307" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
@@ -5083,13 +5085,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>430011</v>
+        <v>430010</v>
       </c>
       <c r="B308" s="3">
-        <v>4005</v>
+        <v>4001</v>
       </c>
       <c r="C308" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
@@ -5097,13 +5099,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>430020</v>
+        <v>430011</v>
       </c>
       <c r="B309" s="3">
-        <v>4001</v>
+        <v>4005</v>
       </c>
       <c r="C309" s="4">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
@@ -5111,13 +5113,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>430021</v>
+        <v>430020</v>
       </c>
       <c r="B310" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C310" s="4">
-        <v>130010</v>
+        <v>60</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
@@ -5125,13 +5127,13 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>430030</v>
+        <v>430021</v>
       </c>
       <c r="B311" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C311" s="4">
-        <v>30</v>
+        <v>130010</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
@@ -5139,13 +5141,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>430031</v>
+        <v>430030</v>
       </c>
       <c r="B312" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C312" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
@@ -5153,13 +5155,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>430040</v>
+        <v>430031</v>
       </c>
       <c r="B313" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C313" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
@@ -5167,13 +5169,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>430041</v>
+        <v>430040</v>
       </c>
       <c r="B314" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C314" s="4">
-        <v>130120</v>
+        <v>40</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
@@ -5181,13 +5183,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>430050</v>
+        <v>430041</v>
       </c>
       <c r="B315" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C315" s="4">
-        <v>50</v>
+        <v>130120</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
@@ -5195,13 +5197,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>430051</v>
+        <v>430050</v>
       </c>
       <c r="B316" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C316" s="4">
-        <v>130150</v>
+        <v>50</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
@@ -5209,13 +5211,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>430052</v>
+        <v>430051</v>
       </c>
       <c r="B317" s="3">
         <v>4400</v>
       </c>
       <c r="C317" s="4">
-        <v>116101</v>
+        <v>130150</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
@@ -5223,13 +5225,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>430060</v>
+        <v>430052</v>
       </c>
       <c r="B318" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C318" s="4">
-        <v>30</v>
+        <v>116101</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
@@ -5237,13 +5239,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>430061</v>
+        <v>430060</v>
       </c>
       <c r="B319" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C319" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
@@ -5251,13 +5253,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>430070</v>
+        <v>430061</v>
       </c>
       <c r="B320" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C320" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
@@ -5265,13 +5267,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>430071</v>
+        <v>430070</v>
       </c>
       <c r="B321" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C321" s="4">
-        <v>130130</v>
+        <v>40</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
@@ -5279,13 +5281,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>430080</v>
+        <v>430071</v>
       </c>
       <c r="B322" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C322" s="4">
-        <v>50</v>
+        <v>130130</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
@@ -5293,13 +5295,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>430081</v>
+        <v>430080</v>
       </c>
       <c r="B323" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C323" s="4">
-        <v>130160</v>
+        <v>50</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
@@ -5307,13 +5309,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>430082</v>
+        <v>430081</v>
       </c>
       <c r="B324" s="3">
         <v>4400</v>
       </c>
       <c r="C324" s="4">
-        <v>118114</v>
+        <v>130160</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
@@ -5321,13 +5323,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>430090</v>
+        <v>430082</v>
       </c>
       <c r="B325" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C325" s="4">
-        <v>30</v>
+        <v>118114</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
@@ -5335,13 +5337,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>430091</v>
+        <v>430090</v>
       </c>
       <c r="B326" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C326" s="4">
-        <v>130020</v>
+        <v>30</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
@@ -5349,13 +5351,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>430100</v>
+        <v>430091</v>
       </c>
       <c r="B327" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C327" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
@@ -5363,13 +5365,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>430101</v>
+        <v>430100</v>
       </c>
       <c r="B328" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C328" s="4">
-        <v>130140</v>
+        <v>40</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
@@ -5377,13 +5379,13 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>430110</v>
+        <v>430101</v>
       </c>
       <c r="B329" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C329" s="4">
-        <v>50</v>
+        <v>130140</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
@@ -5391,13 +5393,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>430111</v>
+        <v>430110</v>
       </c>
       <c r="B330" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C330" s="4">
-        <v>130170</v>
+        <v>50</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
@@ -5405,13 +5407,13 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>430112</v>
+        <v>430111</v>
       </c>
       <c r="B331" s="3">
         <v>4400</v>
       </c>
       <c r="C331" s="4">
-        <v>121110</v>
+        <v>130170</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
@@ -5419,43 +5421,43 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>430113</v>
+        <v>430112</v>
       </c>
       <c r="B332" s="3">
-        <v>4114</v>
+        <v>4400</v>
       </c>
       <c r="C332" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D332" s="5">
-        <v>4</v>
-      </c>
+        <v>121110</v>
+      </c>
+      <c r="D332" s="5"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>430120</v>
+        <v>430113</v>
       </c>
       <c r="B333" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C333" s="4">
-        <v>130030</v>
-      </c>
-      <c r="D333" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D333" s="5">
+        <v>4</v>
+      </c>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>430130</v>
+        <v>430120</v>
       </c>
       <c r="B334" s="3">
         <v>4400</v>
       </c>
       <c r="C334" s="4">
-        <v>130060</v>
+        <v>130030</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
@@ -5463,13 +5465,13 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>430140</v>
+        <v>430130</v>
       </c>
       <c r="B335" s="3">
         <v>4400</v>
       </c>
       <c r="C335" s="4">
-        <v>130090</v>
+        <v>130060</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
@@ -5477,13 +5479,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>430150</v>
+        <v>430140</v>
       </c>
       <c r="B336" s="3">
         <v>4400</v>
       </c>
       <c r="C336" s="4">
-        <v>130040</v>
+        <v>130090</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
@@ -5491,13 +5493,13 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>430151</v>
+        <v>430150</v>
       </c>
       <c r="B337" s="3">
         <v>4400</v>
       </c>
       <c r="C337" s="4">
-        <v>130120</v>
+        <v>130040</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
@@ -5505,13 +5507,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>430160</v>
+        <v>430151</v>
       </c>
       <c r="B338" s="3">
         <v>4400</v>
       </c>
       <c r="C338" s="4">
-        <v>130070</v>
+        <v>130120</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
@@ -5519,13 +5521,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>430161</v>
+        <v>430160</v>
       </c>
       <c r="B339" s="3">
         <v>4400</v>
       </c>
       <c r="C339" s="4">
-        <v>130130</v>
+        <v>130070</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
@@ -5533,13 +5535,13 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>430170</v>
+        <v>430161</v>
       </c>
       <c r="B340" s="3">
         <v>4400</v>
       </c>
       <c r="C340" s="4">
-        <v>130100</v>
+        <v>130130</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
@@ -5547,13 +5549,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>430171</v>
+        <v>430170</v>
       </c>
       <c r="B341" s="3">
         <v>4400</v>
       </c>
       <c r="C341" s="4">
-        <v>130140</v>
+        <v>130100</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
@@ -5561,49 +5563,49 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>430180</v>
+        <v>430171</v>
       </c>
       <c r="B342" s="3">
-        <v>4505</v>
+        <v>4400</v>
       </c>
       <c r="C342" s="4">
-        <v>0</v>
+        <v>130140</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
-      <c r="F343" s="6"/>
+      <c r="A343" s="2">
+        <v>430180</v>
+      </c>
+      <c r="B343" s="3">
+        <v>4505</v>
+      </c>
+      <c r="C343" s="4">
+        <v>0</v>
+      </c>
+      <c r="D343" s="5"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B344" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C344" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D344" s="5"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
+      <c r="A344" s="6"/>
+      <c r="B344" s="6"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>450001</v>
+        <v>450000</v>
       </c>
       <c r="B345" s="3">
         <v>4400</v>
       </c>
       <c r="C345" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
@@ -5611,13 +5613,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>450002</v>
+        <v>450001</v>
       </c>
       <c r="B346" s="3">
         <v>4400</v>
       </c>
       <c r="C346" s="4">
-        <v>112120</v>
+        <v>112110</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
@@ -5625,13 +5627,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>450003</v>
+        <v>450002</v>
       </c>
       <c r="B347" s="3">
         <v>4400</v>
       </c>
       <c r="C347" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="2"/>
@@ -5639,13 +5641,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>450010</v>
+        <v>450003</v>
       </c>
       <c r="B348" s="3">
         <v>4400</v>
       </c>
       <c r="C348" s="4">
-        <v>101000</v>
+        <v>112130</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="2"/>
@@ -5653,13 +5655,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>450011</v>
+        <v>450010</v>
       </c>
       <c r="B349" s="3">
         <v>4400</v>
       </c>
       <c r="C349" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="2"/>
@@ -5667,13 +5669,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>450012</v>
+        <v>450011</v>
       </c>
       <c r="B350" s="3">
         <v>4400</v>
       </c>
       <c r="C350" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
@@ -5681,48 +5683,48 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>450013</v>
+        <v>450012</v>
       </c>
       <c r="B351" s="3">
         <v>4400</v>
       </c>
       <c r="C351" s="4">
-        <v>101040</v>
+        <v>101020</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="6"/>
-      <c r="B352" s="6"/>
-      <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
-      <c r="E352" s="6"/>
+      <c r="A352" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B352" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C352" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B353" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C353" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D353" s="5"/>
-      <c r="E353" s="2"/>
-      <c r="F353" s="3"/>
+      <c r="A353" s="6"/>
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>450001</v>
+        <v>450000</v>
       </c>
       <c r="B354" s="3">
         <v>4400</v>
       </c>
       <c r="C354" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="2"/>
@@ -5730,13 +5732,13 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>450002</v>
+        <v>450001</v>
       </c>
       <c r="B355" s="3">
         <v>4400</v>
       </c>
       <c r="C355" s="4">
-        <v>112120</v>
+        <v>112110</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="2"/>
@@ -5744,13 +5746,13 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>450003</v>
+        <v>450002</v>
       </c>
       <c r="B356" s="3">
         <v>4400</v>
       </c>
       <c r="C356" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="2"/>
@@ -5758,13 +5760,13 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>450010</v>
+        <v>450003</v>
       </c>
       <c r="B357" s="3">
         <v>4400</v>
       </c>
       <c r="C357" s="4">
-        <v>101000</v>
+        <v>112130</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
@@ -5772,13 +5774,13 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>450011</v>
+        <v>450010</v>
       </c>
       <c r="B358" s="3">
         <v>4400</v>
       </c>
       <c r="C358" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="2"/>
@@ -5786,13 +5788,13 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>450012</v>
+        <v>450011</v>
       </c>
       <c r="B359" s="3">
         <v>4400</v>
       </c>
       <c r="C359" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="2"/>
@@ -5800,48 +5802,48 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>450013</v>
+        <v>450012</v>
       </c>
       <c r="B360" s="3">
         <v>4400</v>
       </c>
       <c r="C360" s="4">
-        <v>101040</v>
+        <v>101020</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="2"/>
       <c r="F360" s="3"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" s="6"/>
-      <c r="B361" s="6"/>
-      <c r="C361" s="6"/>
-      <c r="D361" s="6"/>
-      <c r="E361" s="6"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A363" s="2">
-        <v>459000</v>
-      </c>
-      <c r="B363" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C363" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D363" s="5"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="2"/>
+      <c r="A361" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B361" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C361" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D361" s="5"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="6"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>459001</v>
+        <v>459000</v>
       </c>
       <c r="B364" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C364" s="4">
-        <v>2</v>
+        <v>559000</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="2"/>
@@ -5849,13 +5851,13 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>459002</v>
+        <v>459001</v>
       </c>
       <c r="B365" s="3">
         <v>4005</v>
       </c>
       <c r="C365" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="2"/>
@@ -5863,13 +5865,13 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>459003</v>
+        <v>459002</v>
       </c>
       <c r="B366" s="3">
         <v>4005</v>
       </c>
       <c r="C366" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="2"/>
@@ -5877,13 +5879,13 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>459004</v>
+        <v>459003</v>
       </c>
       <c r="B367" s="3">
-        <v>4000</v>
+        <v>4005</v>
       </c>
       <c r="C367" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="2"/>
@@ -5891,13 +5893,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>459005</v>
+        <v>459004</v>
       </c>
       <c r="B368" s="3">
         <v>4000</v>
       </c>
       <c r="C368" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="2"/>
@@ -5905,45 +5907,59 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>459010</v>
+        <v>459005</v>
       </c>
       <c r="B369" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C369" s="4">
-        <v>100070</v>
+        <v>50</v>
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A372" s="2">
-        <v>440030</v>
-      </c>
-      <c r="B372" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C372" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D372" s="5"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="3"/>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>459010</v>
+      </c>
+      <c r="B370" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C370" s="4">
+        <v>100070</v>
+      </c>
+      <c r="D370" s="5"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>440040</v>
+        <v>440030</v>
       </c>
       <c r="B373" s="3">
         <v>4400</v>
       </c>
       <c r="C373" s="4">
-        <v>140030</v>
+        <v>140020</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="2"/>
       <c r="F373" s="3"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>440040</v>
+      </c>
+      <c r="B374" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C374" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D374" s="5"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1652EE5F-5BBD-4E63-9462-4DE9234E1A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0DE47F-FA1F-4BA1-B040-0F1D599EFF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="5250" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="4155" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F123"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3210,7 +3210,7 @@
         <v>4400</v>
       </c>
       <c r="C174" s="4">
-        <v>121111</v>
+        <v>121112</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="2"/>
@@ -3252,7 +3252,7 @@
         <v>4400</v>
       </c>
       <c r="C177" s="4">
-        <v>121112</v>
+        <v>121111</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="2"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0DE47F-FA1F-4BA1-B040-0F1D599EFF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D9F572-2560-4DCE-AE48-6A17B608F565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="4155" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="4500" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K161" sqref="K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2983,7 +2983,7 @@
         <v>4400</v>
       </c>
       <c r="C157" s="4">
-        <v>11214</v>
+        <v>112140</v>
       </c>
       <c r="D157" s="8"/>
       <c r="E157" s="7"/>
@@ -3009,7 +3009,7 @@
         <v>4111</v>
       </c>
       <c r="C159" s="4">
-        <v>60002</v>
+        <v>60003</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="7"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D9F572-2560-4DCE-AE48-6A17B608F565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35498777-947D-4566-B689-E1A56CE89A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="4500" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10290" yWindow="3570" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -599,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F374"/>
+  <dimension ref="A1:F375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K161" sqref="K161"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R316" sqref="R316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5077,11 +5077,11 @@
         <v>4505</v>
       </c>
       <c r="C307" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D307" s="5"/>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
@@ -5094,8 +5094,8 @@
         <v>40</v>
       </c>
       <c r="D308" s="5"/>
-      <c r="E308" s="2"/>
-      <c r="F308" s="2"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
@@ -5108,8 +5108,8 @@
         <v>2</v>
       </c>
       <c r="D309" s="5"/>
-      <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
@@ -5119,11 +5119,11 @@
         <v>4001</v>
       </c>
       <c r="C310" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D310" s="5"/>
-      <c r="E310" s="2"/>
-      <c r="F310" s="2"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
@@ -5147,7 +5147,7 @@
         <v>4001</v>
       </c>
       <c r="C312" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
@@ -5175,7 +5175,7 @@
         <v>4001</v>
       </c>
       <c r="C314" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
@@ -5203,7 +5203,7 @@
         <v>4001</v>
       </c>
       <c r="C316" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
@@ -5245,7 +5245,7 @@
         <v>4001</v>
       </c>
       <c r="C319" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
@@ -5273,7 +5273,7 @@
         <v>4001</v>
       </c>
       <c r="C321" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
@@ -5301,7 +5301,7 @@
         <v>4001</v>
       </c>
       <c r="C323" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
@@ -5337,27 +5337,27 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>430090</v>
+        <v>430083</v>
       </c>
       <c r="B326" s="3">
-        <v>4001</v>
+        <v>4506</v>
       </c>
       <c r="C326" s="4">
-        <v>30</v>
-      </c>
-      <c r="D326" s="5"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
+        <v>61004</v>
+      </c>
+      <c r="D326" s="8"/>
+      <c r="E326" s="7"/>
+      <c r="F326" s="7"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>430091</v>
+        <v>430090</v>
       </c>
       <c r="B327" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C327" s="4">
-        <v>130020</v>
+        <v>20</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
@@ -5365,13 +5365,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>430100</v>
+        <v>430091</v>
       </c>
       <c r="B328" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C328" s="4">
-        <v>40</v>
+        <v>130020</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
@@ -5379,13 +5379,13 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>430101</v>
+        <v>430100</v>
       </c>
       <c r="B329" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C329" s="4">
-        <v>130140</v>
+        <v>20</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
@@ -5393,13 +5393,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>430110</v>
+        <v>430101</v>
       </c>
       <c r="B330" s="3">
-        <v>4001</v>
+        <v>4400</v>
       </c>
       <c r="C330" s="4">
-        <v>50</v>
+        <v>130140</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
@@ -5407,13 +5407,13 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>430111</v>
+        <v>430110</v>
       </c>
       <c r="B331" s="3">
-        <v>4400</v>
+        <v>4001</v>
       </c>
       <c r="C331" s="4">
-        <v>130170</v>
+        <v>20</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
@@ -5421,13 +5421,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>430112</v>
+        <v>430111</v>
       </c>
       <c r="B332" s="3">
         <v>4400</v>
       </c>
       <c r="C332" s="4">
-        <v>121110</v>
+        <v>130170</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
@@ -5435,43 +5435,43 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>430113</v>
+        <v>430112</v>
       </c>
       <c r="B333" s="3">
-        <v>4114</v>
+        <v>4400</v>
       </c>
       <c r="C333" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D333" s="5">
-        <v>4</v>
-      </c>
+        <v>121110</v>
+      </c>
+      <c r="D333" s="5"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>430120</v>
+        <v>430113</v>
       </c>
       <c r="B334" s="3">
-        <v>4400</v>
+        <v>4114</v>
       </c>
       <c r="C334" s="4">
-        <v>130030</v>
-      </c>
-      <c r="D334" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D334" s="5">
+        <v>61004</v>
+      </c>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>430130</v>
+        <v>430120</v>
       </c>
       <c r="B335" s="3">
         <v>4400</v>
       </c>
       <c r="C335" s="4">
-        <v>130060</v>
+        <v>130030</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
@@ -5479,13 +5479,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>430140</v>
+        <v>430130</v>
       </c>
       <c r="B336" s="3">
         <v>4400</v>
       </c>
       <c r="C336" s="4">
-        <v>130090</v>
+        <v>130060</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
@@ -5493,13 +5493,13 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>430150</v>
+        <v>430140</v>
       </c>
       <c r="B337" s="3">
         <v>4400</v>
       </c>
       <c r="C337" s="4">
-        <v>130040</v>
+        <v>130090</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
@@ -5507,13 +5507,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>430151</v>
+        <v>430150</v>
       </c>
       <c r="B338" s="3">
         <v>4400</v>
       </c>
       <c r="C338" s="4">
-        <v>130120</v>
+        <v>130040</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
@@ -5521,13 +5521,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>430160</v>
+        <v>430151</v>
       </c>
       <c r="B339" s="3">
         <v>4400</v>
       </c>
       <c r="C339" s="4">
-        <v>130070</v>
+        <v>130120</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
@@ -5535,13 +5535,13 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>430161</v>
+        <v>430160</v>
       </c>
       <c r="B340" s="3">
         <v>4400</v>
       </c>
       <c r="C340" s="4">
-        <v>130130</v>
+        <v>130070</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
@@ -5549,13 +5549,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>430170</v>
+        <v>430161</v>
       </c>
       <c r="B341" s="3">
         <v>4400</v>
       </c>
       <c r="C341" s="4">
-        <v>130100</v>
+        <v>130130</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
@@ -5563,13 +5563,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>430171</v>
+        <v>430170</v>
       </c>
       <c r="B342" s="3">
         <v>4400</v>
       </c>
       <c r="C342" s="4">
-        <v>130140</v>
+        <v>130100</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
@@ -5577,49 +5577,49 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>430180</v>
+        <v>430171</v>
       </c>
       <c r="B343" s="3">
-        <v>4505</v>
+        <v>4400</v>
       </c>
       <c r="C343" s="4">
-        <v>0</v>
+        <v>130140</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="6"/>
-      <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
-      <c r="E344" s="6"/>
-      <c r="F344" s="6"/>
+      <c r="A344" s="2">
+        <v>430180</v>
+      </c>
+      <c r="B344" s="3">
+        <v>4505</v>
+      </c>
+      <c r="C344" s="4">
+        <v>0</v>
+      </c>
+      <c r="D344" s="5"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B345" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C345" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D345" s="5"/>
-      <c r="E345" s="2"/>
-      <c r="F345" s="2"/>
+      <c r="A345" s="6"/>
+      <c r="B345" s="6"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>450001</v>
+        <v>450000</v>
       </c>
       <c r="B346" s="3">
         <v>4400</v>
       </c>
       <c r="C346" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
@@ -5627,13 +5627,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>450002</v>
+        <v>450001</v>
       </c>
       <c r="B347" s="3">
         <v>4400</v>
       </c>
       <c r="C347" s="4">
-        <v>112120</v>
+        <v>112110</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="2"/>
@@ -5641,13 +5641,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>450003</v>
+        <v>450002</v>
       </c>
       <c r="B348" s="3">
         <v>4400</v>
       </c>
       <c r="C348" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="2"/>
@@ -5655,13 +5655,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>450010</v>
+        <v>450003</v>
       </c>
       <c r="B349" s="3">
         <v>4400</v>
       </c>
       <c r="C349" s="4">
-        <v>101000</v>
+        <v>112130</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="2"/>
@@ -5669,13 +5669,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>450011</v>
+        <v>450010</v>
       </c>
       <c r="B350" s="3">
         <v>4400</v>
       </c>
       <c r="C350" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
@@ -5683,13 +5683,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>450012</v>
+        <v>450011</v>
       </c>
       <c r="B351" s="3">
         <v>4400</v>
       </c>
       <c r="C351" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
@@ -5697,48 +5697,48 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>450013</v>
+        <v>450012</v>
       </c>
       <c r="B352" s="3">
         <v>4400</v>
       </c>
       <c r="C352" s="4">
-        <v>101040</v>
+        <v>101020</v>
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353" s="6"/>
-      <c r="B353" s="6"/>
-      <c r="C353" s="6"/>
-      <c r="D353" s="6"/>
-      <c r="E353" s="6"/>
+      <c r="A353" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B353" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C353" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" s="2">
-        <v>450000</v>
-      </c>
-      <c r="B354" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C354" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D354" s="5"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="3"/>
+      <c r="A354" s="6"/>
+      <c r="B354" s="6"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>450001</v>
+        <v>450000</v>
       </c>
       <c r="B355" s="3">
         <v>4400</v>
       </c>
       <c r="C355" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="2"/>
@@ -5746,13 +5746,13 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>450002</v>
+        <v>450001</v>
       </c>
       <c r="B356" s="3">
         <v>4400</v>
       </c>
       <c r="C356" s="4">
-        <v>112120</v>
+        <v>112110</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="2"/>
@@ -5760,13 +5760,13 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>450003</v>
+        <v>450002</v>
       </c>
       <c r="B357" s="3">
         <v>4400</v>
       </c>
       <c r="C357" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
@@ -5774,13 +5774,13 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>450010</v>
+        <v>450003</v>
       </c>
       <c r="B358" s="3">
         <v>4400</v>
       </c>
       <c r="C358" s="4">
-        <v>101000</v>
+        <v>112130</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="2"/>
@@ -5788,13 +5788,13 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>450011</v>
+        <v>450010</v>
       </c>
       <c r="B359" s="3">
         <v>4400</v>
       </c>
       <c r="C359" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="2"/>
@@ -5802,13 +5802,13 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>450012</v>
+        <v>450011</v>
       </c>
       <c r="B360" s="3">
         <v>4400</v>
       </c>
       <c r="C360" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="2"/>
@@ -5816,48 +5816,48 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>450013</v>
+        <v>450012</v>
       </c>
       <c r="B361" s="3">
         <v>4400</v>
       </c>
       <c r="C361" s="4">
-        <v>101040</v>
+        <v>101020</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="2"/>
       <c r="F361" s="3"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" s="6"/>
-      <c r="B362" s="6"/>
-      <c r="C362" s="6"/>
-      <c r="D362" s="6"/>
-      <c r="E362" s="6"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A364" s="2">
-        <v>459000</v>
-      </c>
-      <c r="B364" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C364" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D364" s="5"/>
-      <c r="E364" s="2"/>
-      <c r="F364" s="2"/>
+      <c r="A362" s="2">
+        <v>450013</v>
+      </c>
+      <c r="B362" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C362" s="4">
+        <v>101040</v>
+      </c>
+      <c r="D362" s="5"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="6"/>
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>459001</v>
+        <v>459000</v>
       </c>
       <c r="B365" s="3">
-        <v>4005</v>
+        <v>4400</v>
       </c>
       <c r="C365" s="4">
-        <v>2</v>
+        <v>559000</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="2"/>
@@ -5865,13 +5865,13 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>459002</v>
+        <v>459001</v>
       </c>
       <c r="B366" s="3">
         <v>4005</v>
       </c>
       <c r="C366" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="2"/>
@@ -5879,13 +5879,13 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>459003</v>
+        <v>459002</v>
       </c>
       <c r="B367" s="3">
         <v>4005</v>
       </c>
       <c r="C367" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="2"/>
@@ -5893,13 +5893,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>459004</v>
+        <v>459003</v>
       </c>
       <c r="B368" s="3">
-        <v>4000</v>
+        <v>4005</v>
       </c>
       <c r="C368" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="2"/>
@@ -5907,13 +5907,13 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>459005</v>
+        <v>459004</v>
       </c>
       <c r="B369" s="3">
         <v>4000</v>
       </c>
       <c r="C369" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="2"/>
@@ -5921,45 +5921,59 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>459010</v>
+        <v>459005</v>
       </c>
       <c r="B370" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="C370" s="4">
-        <v>100070</v>
+        <v>50</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A373" s="2">
-        <v>440030</v>
-      </c>
-      <c r="B373" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C373" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D373" s="5"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="3"/>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>459010</v>
+      </c>
+      <c r="B371" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C371" s="4">
+        <v>100070</v>
+      </c>
+      <c r="D371" s="5"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>440040</v>
+        <v>440030</v>
       </c>
       <c r="B374" s="3">
         <v>4400</v>
       </c>
       <c r="C374" s="4">
-        <v>140030</v>
+        <v>140020</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="2"/>
       <c r="F374" s="3"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>440040</v>
+      </c>
+      <c r="B375" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C375" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D375" s="5"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35498777-947D-4566-B689-E1A56CE89A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531DE6B-AD16-4073-837F-0C7D4C1447EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="3570" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9810" yWindow="3945" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R316" sqref="R316"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -805,16 +805,20 @@
         <v>410000</v>
       </c>
       <c r="B14" s="3">
-        <v>4103</v>
+        <v>4003</v>
       </c>
       <c r="C14" s="4">
-        <v>60000</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">

--- a/ExcelConfig/pbjson/excel/应用条件表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用条件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531DE6B-AD16-4073-837F-0C7D4C1447EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BCE701-CC74-4558-BB7E-00FB1CEF64D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="3945" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14850" yWindow="4095" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用条件表" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F375"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2814,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="D144" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E144" s="2">
         <v>12</v>
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="D147" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E147" s="2">
         <v>12</v>
@@ -2882,7 +2882,7 @@
         <v>7</v>
       </c>
       <c r="D148" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E148" s="2">
         <v>12</v>
